--- a/MSFT.xlsx
+++ b/MSFT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4f922bae05200f16/Documents/Stocks/martinshkreli/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C09E0527-82C7-4143-98EC-0CAA14AC6C95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="103" documentId="13_ncr:1_{C09E0527-82C7-4143-98EC-0CAA14AC6C95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2A312B5-C8DF-41A6-9319-1CCFE6644E1C}"/>
   <bookViews>
-    <workbookView xWindow="-24705" yWindow="525" windowWidth="24075" windowHeight="18750" activeTab="1" xr2:uid="{AF5D6250-CC2E-478D-A72E-6EAEA79B8F65}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{AF5D6250-CC2E-478D-A72E-6EAEA79B8F65}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -73,11 +73,13 @@
     <author>tc={8F896F81-6E53-40A7-B585-0CF468064875}</author>
     <author>tc={1708469E-E4B0-42B4-A74A-7F2EA54BA260}</author>
     <author>tc={6C2A9AED-575A-4447-8CAD-2E4A869395ED}</author>
+    <author>tc={A0D75F32-0D9E-487B-95D3-DB14B4DD59BC}</author>
     <author>tc={1194B53B-11DF-4936-8FD7-77F49319A1C9}</author>
     <author>tc={B7D8227E-9C6A-4B9D-BCEB-E38F55E93FBB}</author>
     <author>tc={C7BC1CA5-759B-43A0-833B-88C4CD54B000}</author>
     <author>tc={21797C47-1950-4375-853A-A1712EF01174}</author>
     <author>tc={AA439B2E-FC6E-4E0D-A042-CA20F999D88F}</author>
+    <author>tc={6D4E8DBF-1690-432F-ABD1-8646E7B7B7B8}</author>
     <author>tc={EC9B7190-CE1A-4E78-A2EF-A3F3AADAB339}</author>
     <author>tc={F728FAC2-51F0-4023-AB40-41F83CEF5C89}</author>
     <author>tc={A9249A39-B9EC-4BC7-B87E-1B27108C92D8}</author>
@@ -87,6 +89,7 @@
     <author>tc={1C31850E-87A1-42A5-A544-D7C66ECB0D78}</author>
     <author>tc={6CD6DA57-15E4-4617-9E8A-DE627D4291F4}</author>
     <author>tc={530E3A34-4790-4FEE-B8A2-EEE361836B57}</author>
+    <author>tc={8E78C9E9-AF9E-443F-B0F3-D11AFB2F3B6C}</author>
     <author>tc={6550F107-B2DD-468B-9840-A88B103B8C6E}</author>
     <author>tc={B0B4B47A-77DB-4469-A3F3-BA8FF53995B8}</author>
     <author>tc={672EF133-CF99-4F62-BC53-D74F59EFAF45}</author>
@@ -205,7 +208,16 @@
 LinkedIn $15B</t>
       </text>
     </comment>
-    <comment ref="K26" authorId="13" shapeId="0" xr:uid="{1194B53B-11DF-4936-8FD7-77F49319A1C9}">
+    <comment ref="BG25" authorId="13" shapeId="0" xr:uid="{A0D75F32-0D9E-487B-95D3-DB14B4DD59BC}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Dynamics $5B
+LinkedIn $15B</t>
+      </text>
+    </comment>
+    <comment ref="K26" authorId="14" shapeId="0" xr:uid="{1194B53B-11DF-4936-8FD7-77F49319A1C9}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -213,7 +225,7 @@
     16964 old</t>
       </text>
     </comment>
-    <comment ref="P26" authorId="14" shapeId="0" xr:uid="{B7D8227E-9C6A-4B9D-BCEB-E38F55E93FBB}">
+    <comment ref="P26" authorId="15" shapeId="0" xr:uid="{B7D8227E-9C6A-4B9D-BCEB-E38F55E93FBB}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -222,7 +234,7 @@
 Grew from Nuance</t>
       </text>
     </comment>
-    <comment ref="Q26" authorId="15" shapeId="0" xr:uid="{C7BC1CA5-759B-43A0-833B-88C4CD54B000}">
+    <comment ref="Q26" authorId="16" shapeId="0" xr:uid="{C7BC1CA5-759B-43A0-833B-88C4CD54B000}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -230,7 +242,7 @@
     Q223 guidance: 21.7-22.0B</t>
       </text>
     </comment>
-    <comment ref="R26" authorId="16" shapeId="0" xr:uid="{21797C47-1950-4375-853A-A1712EF01174}">
+    <comment ref="R26" authorId="17" shapeId="0" xr:uid="{21797C47-1950-4375-853A-A1712EF01174}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -238,7 +250,7 @@
     Guidance: 23.6-23.9B</t>
       </text>
     </comment>
-    <comment ref="S26" authorId="17" shapeId="0" xr:uid="{AA439B2E-FC6E-4E0D-A042-CA20F999D88F}">
+    <comment ref="S26" authorId="18" shapeId="0" xr:uid="{AA439B2E-FC6E-4E0D-A042-CA20F999D88F}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -246,7 +258,16 @@
     23.3-23.6B Q423</t>
       </text>
     </comment>
-    <comment ref="B27" authorId="18" shapeId="0" xr:uid="{EC9B7190-CE1A-4E78-A2EF-A3F3AADAB339}">
+    <comment ref="BG26" authorId="19" shapeId="0" xr:uid="{6D4E8DBF-1690-432F-ABD1-8646E7B7B7B8}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Dynamics $5B
+LinkedIn $15B</t>
+      </text>
+    </comment>
+    <comment ref="B27" authorId="20" shapeId="0" xr:uid="{EC9B7190-CE1A-4E78-A2EF-A3F3AADAB339}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -254,7 +275,7 @@
     Windows, Gaming, Devices, Search and News Advertising</t>
       </text>
     </comment>
-    <comment ref="K27" authorId="19" shapeId="0" xr:uid="{F728FAC2-51F0-4023-AB40-41F83CEF5C89}">
+    <comment ref="K27" authorId="21" shapeId="0" xr:uid="{F728FAC2-51F0-4023-AB40-41F83CEF5C89}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -262,7 +283,7 @@
     13314 prior</t>
       </text>
     </comment>
-    <comment ref="P27" authorId="20" shapeId="0" xr:uid="{A9249A39-B9EC-4BC7-B87E-1B27108C92D8}">
+    <comment ref="P27" authorId="22" shapeId="0" xr:uid="{A9249A39-B9EC-4BC7-B87E-1B27108C92D8}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -272,7 +293,7 @@
 Surface "execution challenges" on new product launches</t>
       </text>
     </comment>
-    <comment ref="Q27" authorId="21" shapeId="0" xr:uid="{246E0C01-DF1D-4F91-A337-4DE00EFEDDC8}">
+    <comment ref="Q27" authorId="23" shapeId="0" xr:uid="{246E0C01-DF1D-4F91-A337-4DE00EFEDDC8}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -280,7 +301,7 @@
     FQ223 guidance: 11.9-12.3B</t>
       </text>
     </comment>
-    <comment ref="R27" authorId="22" shapeId="0" xr:uid="{730404D6-8355-478B-BCFF-9D938DC1FD29}">
+    <comment ref="R27" authorId="24" shapeId="0" xr:uid="{730404D6-8355-478B-BCFF-9D938DC1FD29}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -289,7 +310,7 @@
 Xandr acquisition benefit</t>
       </text>
     </comment>
-    <comment ref="S27" authorId="23" shapeId="0" xr:uid="{DCFC0E54-F0B5-4901-BBC6-12237E7E3B9E}">
+    <comment ref="S27" authorId="25" shapeId="0" xr:uid="{DCFC0E54-F0B5-4901-BBC6-12237E7E3B9E}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -297,7 +318,7 @@
     12.5-12.9B Q423</t>
       </text>
     </comment>
-    <comment ref="AA27" authorId="24" shapeId="0" xr:uid="{1C31850E-87A1-42A5-A544-D7C66ECB0D78}">
+    <comment ref="AA27" authorId="26" shapeId="0" xr:uid="{1C31850E-87A1-42A5-A544-D7C66ECB0D78}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -305,7 +326,7 @@
     Hardware 254m</t>
       </text>
     </comment>
-    <comment ref="AB27" authorId="25" shapeId="0" xr:uid="{6CD6DA57-15E4-4617-9E8A-DE627D4291F4}">
+    <comment ref="AB27" authorId="27" shapeId="0" xr:uid="{6CD6DA57-15E4-4617-9E8A-DE627D4291F4}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -313,7 +334,7 @@
     Hardware 233m</t>
       </text>
     </comment>
-    <comment ref="AC27" authorId="26" shapeId="0" xr:uid="{530E3A34-4790-4FEE-B8A2-EEE361836B57}">
+    <comment ref="AC27" authorId="28" shapeId="0" xr:uid="{530E3A34-4790-4FEE-B8A2-EEE361836B57}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -321,7 +342,16 @@
     Hardware 203m</t>
       </text>
     </comment>
-    <comment ref="P31" authorId="27" shapeId="0" xr:uid="{6550F107-B2DD-468B-9840-A88B103B8C6E}">
+    <comment ref="BG27" authorId="29" shapeId="0" xr:uid="{8E78C9E9-AF9E-443F-B0F3-D11AFB2F3B6C}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Dynamics $5B
+LinkedIn $15B</t>
+      </text>
+    </comment>
+    <comment ref="P31" authorId="30" shapeId="0" xr:uid="{6550F107-B2DD-468B-9840-A88B103B8C6E}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -330,7 +360,7 @@
 US weaker than expected</t>
       </text>
     </comment>
-    <comment ref="Q31" authorId="28" shapeId="0" xr:uid="{B0B4B47A-77DB-4469-A3F3-BA8FF53995B8}">
+    <comment ref="Q31" authorId="31" shapeId="0" xr:uid="{B0B4B47A-77DB-4469-A3F3-BA8FF53995B8}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -339,7 +369,7 @@
 Q223 guidance: 50.5-51.5B</t>
       </text>
     </comment>
-    <comment ref="R31" authorId="29" shapeId="0" xr:uid="{672EF133-CF99-4F62-BC53-D74F59EFAF45}">
+    <comment ref="R31" authorId="32" shapeId="0" xr:uid="{672EF133-CF99-4F62-BC53-D74F59EFAF45}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -348,7 +378,7 @@
 FQ323 Guidance: 54.850-55.80B</t>
       </text>
     </comment>
-    <comment ref="S34" authorId="30" shapeId="0" xr:uid="{667BC7EE-5E86-47FC-B964-2C031A25E303}">
+    <comment ref="S34" authorId="33" shapeId="0" xr:uid="{667BC7EE-5E86-47FC-B964-2C031A25E303}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -356,7 +386,7 @@
     16.6-16.8B - Q423</t>
       </text>
     </comment>
-    <comment ref="BG40" authorId="31" shapeId="0" xr:uid="{7492A336-ABB9-4529-8350-AF762E5855FF}">
+    <comment ref="BG40" authorId="34" shapeId="0" xr:uid="{7492A336-ABB9-4529-8350-AF762E5855FF}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -364,7 +394,7 @@
     Expect flat OM% y/y</t>
       </text>
     </comment>
-    <comment ref="BG43" authorId="32" shapeId="0" xr:uid="{9D309CA1-66AA-4222-B1F7-ACD53E16B28F}">
+    <comment ref="BG43" authorId="35" shapeId="0" xr:uid="{9D309CA1-66AA-4222-B1F7-ACD53E16B28F}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -372,7 +402,7 @@
     19% guidance - Q423</t>
       </text>
     </comment>
-    <comment ref="R45" authorId="33" shapeId="0" xr:uid="{48518769-DF2C-4CE7-8344-8EDB6814ABC3}">
+    <comment ref="R45" authorId="36" shapeId="0" xr:uid="{48518769-DF2C-4CE7-8344-8EDB6814ABC3}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -380,7 +410,7 @@
     2.69 +23% cc</t>
       </text>
     </comment>
-    <comment ref="P49" authorId="34" shapeId="0" xr:uid="{207240C6-AA0E-47C1-A8DC-C70F3CF7F6CF}">
+    <comment ref="P49" authorId="37" shapeId="0" xr:uid="{207240C6-AA0E-47C1-A8DC-C70F3CF7F6CF}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -388,7 +418,7 @@
     Bookings +4% y/y</t>
       </text>
     </comment>
-    <comment ref="R51" authorId="35" shapeId="0" xr:uid="{615EEB63-0CBB-48DD-AEFA-DCC9511390CB}">
+    <comment ref="R51" authorId="38" shapeId="0" xr:uid="{615EEB63-0CBB-48DD-AEFA-DCC9511390CB}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1814,7 +1844,7 @@
     <numFmt numFmtId="166" formatCode="0\x"/>
     <numFmt numFmtId="167" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -1891,6 +1921,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1928,7 +1964,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2003,11 +2039,6 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2486,6 +2517,10 @@
     <text>Dynamics $5B
 LinkedIn $15B</text>
   </threadedComment>
+  <threadedComment ref="BG25" dT="2023-09-28T18:19:04.32" personId="{2ADAC7E3-86EF-4E60-96A3-ED0BEE011F1E}" id="{A0D75F32-0D9E-487B-95D3-DB14B4DD59BC}">
+    <text>Dynamics $5B
+LinkedIn $15B</text>
+  </threadedComment>
   <threadedComment ref="K26" dT="2023-01-12T14:11:54.08" personId="{2ADAC7E3-86EF-4E60-96A3-ED0BEE011F1E}" id="{1194B53B-11DF-4936-8FD7-77F49319A1C9}">
     <text>16964 old</text>
   </threadedComment>
@@ -2501,6 +2536,10 @@
   </threadedComment>
   <threadedComment ref="S26" dT="2023-09-28T18:50:34.89" personId="{2ADAC7E3-86EF-4E60-96A3-ED0BEE011F1E}" id="{AA439B2E-FC6E-4E0D-A042-CA20F999D88F}">
     <text>23.3-23.6B Q423</text>
+  </threadedComment>
+  <threadedComment ref="BG26" dT="2023-09-28T18:19:04.32" personId="{2ADAC7E3-86EF-4E60-96A3-ED0BEE011F1E}" id="{6D4E8DBF-1690-432F-ABD1-8646E7B7B7B8}">
+    <text>Dynamics $5B
+LinkedIn $15B</text>
   </threadedComment>
   <threadedComment ref="B27" dT="2023-09-28T17:34:02.74" personId="{2ADAC7E3-86EF-4E60-96A3-ED0BEE011F1E}" id="{EC9B7190-CE1A-4E78-A2EF-A3F3AADAB339}">
     <text>Windows, Gaming, Devices, Search and News Advertising</text>
@@ -2531,6 +2570,10 @@
   </threadedComment>
   <threadedComment ref="AC27" dT="2023-04-30T03:57:25.69" personId="{2ADAC7E3-86EF-4E60-96A3-ED0BEE011F1E}" id="{530E3A34-4790-4FEE-B8A2-EEE361836B57}">
     <text>Hardware 203m</text>
+  </threadedComment>
+  <threadedComment ref="BG27" dT="2023-09-28T18:19:04.32" personId="{2ADAC7E3-86EF-4E60-96A3-ED0BEE011F1E}" id="{8E78C9E9-AF9E-443F-B0F3-D11AFB2F3B6C}">
+    <text>Dynamics $5B
+LinkedIn $15B</text>
   </threadedComment>
   <threadedComment ref="P31" dT="2023-04-25T17:28:33.19" personId="{2ADAC7E3-86EF-4E60-96A3-ED0BEE011F1E}" id="{6550F107-B2DD-468B-9840-A88B103B8C6E}">
     <text>Saw weakening in December
@@ -2569,7 +2612,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F630B22-A151-4F95-B31A-D44A037C9EC9}">
   <dimension ref="B2:M41"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
@@ -2895,10 +2938,10 @@
   <dimension ref="A1:DS124"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C104" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomRight" activeCell="T83" sqref="T83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3532,7 +3575,9 @@
         <f>SUM(O7:R7)</f>
         <v>111600</v>
       </c>
-      <c r="BG7" s="20"/>
+      <c r="BG7" s="5">
+        <v>137400</v>
+      </c>
       <c r="BH7" s="20"/>
       <c r="BI7" s="20"/>
       <c r="BJ7" s="20"/>
@@ -3544,62 +3589,62 @@
       <c r="B8" t="s">
         <v>463</v>
       </c>
-      <c r="C8" s="39">
+      <c r="C8" s="5">
         <v>9192</v>
       </c>
-      <c r="D8" s="39">
+      <c r="D8" s="5">
         <v>10119</v>
       </c>
-      <c r="E8" s="39">
+      <c r="E8" s="5">
         <v>10490</v>
       </c>
-      <c r="F8" s="39">
+      <c r="F8" s="5">
         <f>+BC8-E8-D8-C8</f>
         <v>11578</v>
       </c>
-      <c r="G8" s="39">
+      <c r="G8" s="5">
         <v>11195</v>
       </c>
-      <c r="H8" s="39">
+      <c r="H8" s="5">
         <v>12729</v>
       </c>
-      <c r="I8" s="39">
+      <c r="I8" s="5">
         <v>13204</v>
       </c>
-      <c r="J8" s="39">
+      <c r="J8" s="5">
         <f>+BD8-I8-H8-G8</f>
         <v>15461</v>
       </c>
-      <c r="K8" s="39">
+      <c r="K8" s="5">
         <v>15070</v>
       </c>
-      <c r="L8" s="39">
+      <c r="L8" s="5">
         <v>16375</v>
       </c>
-      <c r="M8" s="39">
+      <c r="M8" s="5">
         <v>17046</v>
       </c>
-      <c r="N8" s="39">
+      <c r="N8" s="5">
         <f>+BE8-M8-L8-K8</f>
         <v>18859</v>
       </c>
-      <c r="O8" s="39">
+      <c r="O8" s="5">
         <v>18388</v>
       </c>
-      <c r="P8" s="39">
+      <c r="P8" s="5">
         <v>19594</v>
       </c>
-      <c r="Q8" s="39">
+      <c r="Q8" s="5">
         <v>20025</v>
       </c>
-      <c r="R8" s="39">
+      <c r="R8" s="5">
         <f>+BF8-Q8-P8-O8</f>
         <v>21963</v>
       </c>
-      <c r="S8" s="39">
+      <c r="S8" s="5">
         <v>22308</v>
       </c>
-      <c r="T8" s="39">
+      <c r="T8" s="5">
         <v>23953</v>
       </c>
       <c r="U8" s="20"/>
@@ -3628,7 +3673,9 @@
       <c r="BF8" s="5">
         <v>79970</v>
       </c>
-      <c r="BG8" s="20"/>
+      <c r="BG8" s="5">
+        <v>0</v>
+      </c>
       <c r="BH8" s="20"/>
       <c r="BI8" s="20"/>
       <c r="BJ8" s="20"/>
@@ -3640,62 +3687,62 @@
       <c r="B9" t="s">
         <v>464</v>
       </c>
-      <c r="C9" s="39">
+      <c r="C9" s="5">
         <v>8466</v>
       </c>
-      <c r="D9" s="39">
+      <c r="D9" s="5">
         <v>8983</v>
       </c>
-      <c r="E9" s="39">
+      <c r="E9" s="5">
         <v>8920</v>
       </c>
-      <c r="F9" s="39">
+      <c r="F9" s="5">
         <f t="shared" ref="F9:F17" si="1">+BC9-E9-D9-C9</f>
         <v>8947</v>
       </c>
-      <c r="G9" s="39">
+      <c r="G9" s="5">
         <v>9278</v>
       </c>
-      <c r="H9" s="39">
+      <c r="H9" s="5">
         <v>9881</v>
       </c>
-      <c r="I9" s="39">
+      <c r="I9" s="5">
         <v>10016</v>
       </c>
-      <c r="J9" s="39">
+      <c r="J9" s="5">
         <f t="shared" ref="J9:J17" si="2">+BD9-I9-H9-G9</f>
         <v>10697</v>
       </c>
-      <c r="K9" s="39">
+      <c r="K9" s="5">
         <v>10808</v>
       </c>
-      <c r="L9" s="39">
+      <c r="L9" s="5">
         <v>11251</v>
       </c>
-      <c r="M9" s="39">
+      <c r="M9" s="5">
         <v>11164</v>
       </c>
-      <c r="N9" s="39">
+      <c r="N9" s="5">
         <f t="shared" ref="N9:N17" si="3">+BE9-M9-L9-K9</f>
         <v>11639</v>
       </c>
-      <c r="O9" s="39">
+      <c r="O9" s="5">
         <v>11577</v>
       </c>
-      <c r="P9" s="39">
+      <c r="P9" s="5">
         <v>11867</v>
       </c>
-      <c r="Q9" s="39">
+      <c r="Q9" s="5">
         <v>12438</v>
       </c>
-      <c r="R9" s="39">
+      <c r="R9" s="5">
         <f t="shared" ref="R9:R17" si="4">+BF9-Q9-P9-O9</f>
         <v>12846</v>
       </c>
-      <c r="S9" s="39">
+      <c r="S9" s="5">
         <v>13140</v>
       </c>
-      <c r="T9" s="39">
+      <c r="T9" s="5">
         <v>13477</v>
       </c>
       <c r="U9" s="20"/>
@@ -3724,7 +3771,9 @@
       <c r="BF9" s="5">
         <v>48728</v>
       </c>
-      <c r="BG9" s="20"/>
+      <c r="BG9" s="5">
+        <v>0</v>
+      </c>
       <c r="BH9" s="20"/>
       <c r="BI9" s="20"/>
       <c r="BJ9" s="20"/>
@@ -3736,62 +3785,62 @@
       <c r="B10" t="s">
         <v>110</v>
       </c>
-      <c r="C10" s="39">
+      <c r="C10" s="5">
         <v>5353</v>
       </c>
-      <c r="D10" s="39">
+      <c r="D10" s="5">
         <v>5593</v>
       </c>
-      <c r="E10" s="39">
+      <c r="E10" s="5">
         <v>5220</v>
       </c>
-      <c r="F10" s="39">
+      <c r="F10" s="5">
         <f t="shared" si="1"/>
         <v>6128</v>
       </c>
-      <c r="G10" s="39">
+      <c r="G10" s="5">
         <v>5151</v>
       </c>
-      <c r="H10" s="39">
+      <c r="H10" s="5">
         <v>5514</v>
       </c>
-      <c r="I10" s="39">
+      <c r="I10" s="5">
         <v>5463</v>
       </c>
-      <c r="J10" s="39">
+      <c r="J10" s="5">
         <f t="shared" si="2"/>
         <v>6360</v>
       </c>
-      <c r="K10" s="39">
+      <c r="K10" s="5">
         <v>5674</v>
       </c>
-      <c r="L10" s="39">
+      <c r="L10" s="5">
         <v>6600</v>
       </c>
-      <c r="M10" s="39">
+      <c r="M10" s="5">
         <v>6069</v>
       </c>
-      <c r="N10" s="39">
+      <c r="N10" s="5">
         <f t="shared" si="3"/>
         <v>6389</v>
       </c>
-      <c r="O10" s="39">
+      <c r="O10" s="5">
         <v>5313</v>
       </c>
-      <c r="P10" s="39">
+      <c r="P10" s="5">
         <v>4808</v>
       </c>
-      <c r="Q10" s="39">
+      <c r="Q10" s="5">
         <v>5328</v>
       </c>
-      <c r="R10" s="39">
+      <c r="R10" s="5">
         <f t="shared" si="4"/>
         <v>6058</v>
       </c>
-      <c r="S10" s="39">
+      <c r="S10" s="5">
         <v>5567</v>
       </c>
-      <c r="T10" s="39">
+      <c r="T10" s="5">
         <v>5262</v>
       </c>
       <c r="U10" s="20"/>
@@ -3820,7 +3869,9 @@
       <c r="BF10" s="5">
         <v>21507</v>
       </c>
-      <c r="BG10" s="20"/>
+      <c r="BG10" s="5">
+        <v>0</v>
+      </c>
       <c r="BH10" s="20"/>
       <c r="BI10" s="20"/>
       <c r="BJ10" s="20"/>
@@ -3832,62 +3883,62 @@
       <c r="B11" t="s">
         <v>412</v>
       </c>
-      <c r="C11" s="39">
+      <c r="C11" s="5">
         <v>2542</v>
       </c>
-      <c r="D11" s="39">
+      <c r="D11" s="5">
         <v>3327</v>
       </c>
-      <c r="E11" s="39">
+      <c r="E11" s="5">
         <v>2349</v>
       </c>
-      <c r="F11" s="39">
+      <c r="F11" s="5">
         <f t="shared" si="1"/>
         <v>3357</v>
       </c>
-      <c r="G11" s="39">
+      <c r="G11" s="5">
         <v>3092</v>
       </c>
-      <c r="H11" s="39">
+      <c r="H11" s="5">
         <v>5031</v>
       </c>
-      <c r="I11" s="39">
+      <c r="I11" s="5">
         <v>3533</v>
       </c>
-      <c r="J11" s="39">
+      <c r="J11" s="5">
         <f t="shared" si="2"/>
         <v>3714</v>
       </c>
-      <c r="K11" s="39">
+      <c r="K11" s="5">
         <v>3593</v>
       </c>
-      <c r="L11" s="39">
+      <c r="L11" s="5">
         <v>5442</v>
       </c>
-      <c r="M11" s="39">
+      <c r="M11" s="5">
         <v>3740</v>
       </c>
-      <c r="N11" s="39">
+      <c r="N11" s="5">
         <f t="shared" si="3"/>
         <v>3455</v>
       </c>
-      <c r="O11" s="39">
+      <c r="O11" s="5">
         <v>3610</v>
       </c>
-      <c r="P11" s="39">
+      <c r="P11" s="5">
         <v>4758</v>
       </c>
-      <c r="Q11" s="39">
+      <c r="Q11" s="5">
         <v>3607</v>
       </c>
-      <c r="R11" s="39">
+      <c r="R11" s="5">
         <f t="shared" si="4"/>
         <v>3491</v>
       </c>
-      <c r="S11" s="39">
+      <c r="S11" s="5">
         <v>3919</v>
       </c>
-      <c r="T11" s="39">
+      <c r="T11" s="5">
         <v>7111</v>
       </c>
       <c r="U11" s="20"/>
@@ -3916,7 +3967,9 @@
       <c r="BF11" s="5">
         <v>15466</v>
       </c>
-      <c r="BG11" s="20"/>
+      <c r="BG11" s="5">
+        <v>0</v>
+      </c>
       <c r="BH11" s="20"/>
       <c r="BI11" s="20"/>
       <c r="BJ11" s="20"/>
@@ -3928,62 +3981,62 @@
       <c r="B12" t="s">
         <v>87</v>
       </c>
-      <c r="C12" s="39">
+      <c r="C12" s="5">
         <v>1909</v>
       </c>
-      <c r="D12" s="39">
+      <c r="D12" s="5">
         <v>2102</v>
       </c>
-      <c r="E12" s="39">
+      <c r="E12" s="5">
         <v>2050</v>
       </c>
-      <c r="F12" s="39">
+      <c r="F12" s="5">
         <f t="shared" si="1"/>
         <v>2016</v>
       </c>
-      <c r="G12" s="39">
+      <c r="G12" s="5">
         <v>2206</v>
       </c>
-      <c r="H12" s="39">
+      <c r="H12" s="5">
         <v>2577</v>
       </c>
-      <c r="I12" s="39">
+      <c r="I12" s="5">
         <v>2562</v>
       </c>
-      <c r="J12" s="39">
+      <c r="J12" s="5">
         <f t="shared" si="2"/>
         <v>2944</v>
       </c>
-      <c r="K12" s="39">
+      <c r="K12" s="5">
         <v>3136</v>
       </c>
-      <c r="L12" s="39">
+      <c r="L12" s="5">
         <v>3531</v>
       </c>
-      <c r="M12" s="39">
+      <c r="M12" s="5">
         <v>3437</v>
       </c>
-      <c r="N12" s="39">
+      <c r="N12" s="5">
         <f t="shared" si="3"/>
         <v>3712</v>
       </c>
-      <c r="O12" s="39">
+      <c r="O12" s="5">
         <v>3628</v>
       </c>
-      <c r="P12" s="39">
+      <c r="P12" s="5">
         <v>3833</v>
       </c>
-      <c r="Q12" s="39">
+      <c r="Q12" s="5">
         <v>3697</v>
       </c>
-      <c r="R12" s="39">
+      <c r="R12" s="5">
         <f t="shared" si="4"/>
         <v>3987</v>
       </c>
-      <c r="S12" s="39">
+      <c r="S12" s="5">
         <v>3913</v>
       </c>
-      <c r="T12" s="39">
+      <c r="T12" s="5">
         <v>4195</v>
       </c>
       <c r="U12" s="20"/>
@@ -4012,7 +4065,9 @@
       <c r="BF12" s="5">
         <v>15145</v>
       </c>
-      <c r="BG12" s="20"/>
+      <c r="BG12" s="5">
+        <v>0</v>
+      </c>
       <c r="BH12" s="20"/>
       <c r="BI12" s="20"/>
       <c r="BJ12" s="20"/>
@@ -4024,62 +4079,62 @@
       <c r="B13" t="s">
         <v>458</v>
       </c>
-      <c r="C13" s="39">
+      <c r="C13" s="5">
         <v>1991</v>
       </c>
-      <c r="D13" s="39">
+      <c r="D13" s="5">
         <v>2163</v>
       </c>
-      <c r="E13" s="39">
+      <c r="E13" s="5">
         <v>1986</v>
       </c>
-      <c r="F13" s="39">
+      <c r="F13" s="5">
         <f t="shared" si="1"/>
         <v>1600</v>
       </c>
-      <c r="G13" s="39">
+      <c r="G13" s="5">
         <v>1943</v>
       </c>
-      <c r="H13" s="39">
+      <c r="H13" s="5">
         <v>2386</v>
       </c>
-      <c r="I13" s="39">
+      <c r="I13" s="5">
         <v>2401</v>
       </c>
-      <c r="J13" s="39">
+      <c r="J13" s="5">
         <f t="shared" si="2"/>
         <v>2537</v>
       </c>
-      <c r="K13" s="39">
+      <c r="K13" s="5">
         <v>2656</v>
       </c>
-      <c r="L13" s="39">
+      <c r="L13" s="5">
         <v>3064</v>
       </c>
-      <c r="M13" s="39">
+      <c r="M13" s="5">
         <v>2945</v>
       </c>
-      <c r="N13" s="39">
+      <c r="N13" s="5">
         <f t="shared" si="3"/>
         <v>2926</v>
       </c>
-      <c r="O13" s="39">
+      <c r="O13" s="5">
         <v>2913</v>
       </c>
-      <c r="P13" s="39">
+      <c r="P13" s="5">
         <v>3209</v>
       </c>
-      <c r="Q13" s="39">
+      <c r="Q13" s="5">
         <v>3045</v>
       </c>
-      <c r="R13" s="39">
+      <c r="R13" s="5">
         <f t="shared" si="4"/>
         <v>3041</v>
       </c>
-      <c r="S13" s="39">
+      <c r="S13" s="5">
         <v>3053</v>
       </c>
-      <c r="T13" s="39">
+      <c r="T13" s="5">
         <v>3220</v>
       </c>
       <c r="U13" s="20"/>
@@ -4108,7 +4163,9 @@
       <c r="BF13" s="5">
         <v>12208</v>
       </c>
-      <c r="BG13" s="20"/>
+      <c r="BG13" s="5">
+        <v>0</v>
+      </c>
       <c r="BH13" s="20"/>
       <c r="BI13" s="20"/>
       <c r="BJ13" s="20"/>
@@ -4120,62 +4177,62 @@
       <c r="B14" t="s">
         <v>459</v>
       </c>
-      <c r="C14" s="39">
+      <c r="C14" s="5">
         <v>1545</v>
       </c>
-      <c r="D14" s="39">
+      <c r="D14" s="5">
         <v>1612</v>
       </c>
-      <c r="E14" s="39">
+      <c r="E14" s="5">
         <v>1633</v>
       </c>
-      <c r="F14" s="39">
+      <c r="F14" s="5">
         <f t="shared" si="1"/>
         <v>1619</v>
       </c>
-      <c r="G14" s="39">
+      <c r="G14" s="5">
         <v>1637</v>
       </c>
-      <c r="H14" s="39">
+      <c r="H14" s="5">
         <v>1695</v>
       </c>
-      <c r="I14" s="39">
+      <c r="I14" s="5">
         <v>1803</v>
       </c>
-      <c r="J14" s="39">
+      <c r="J14" s="5">
         <f t="shared" si="2"/>
         <v>1808</v>
       </c>
-      <c r="K14" s="39">
+      <c r="K14" s="5">
         <v>1791</v>
       </c>
-      <c r="L14" s="39">
+      <c r="L14" s="5">
         <v>1823</v>
       </c>
-      <c r="M14" s="39">
+      <c r="M14" s="5">
         <v>1891</v>
       </c>
-      <c r="N14" s="39">
+      <c r="N14" s="5">
         <f t="shared" si="3"/>
         <v>1902</v>
       </c>
-      <c r="O14" s="39">
+      <c r="O14" s="5">
         <v>1929</v>
       </c>
-      <c r="P14" s="39">
+      <c r="P14" s="5">
         <v>1907</v>
       </c>
-      <c r="Q14" s="39">
+      <c r="Q14" s="5">
         <v>2007</v>
       </c>
-      <c r="R14" s="39">
+      <c r="R14" s="5">
         <f t="shared" si="4"/>
         <v>1879</v>
       </c>
-      <c r="S14" s="39">
+      <c r="S14" s="5">
         <v>1944</v>
       </c>
-      <c r="T14" s="39">
+      <c r="T14" s="5">
         <v>1917</v>
       </c>
       <c r="U14" s="20"/>
@@ -4204,7 +4261,9 @@
       <c r="BF14" s="5">
         <v>7722</v>
       </c>
-      <c r="BG14" s="20"/>
+      <c r="BG14" s="5">
+        <v>0</v>
+      </c>
       <c r="BH14" s="20"/>
       <c r="BI14" s="20"/>
       <c r="BJ14" s="20"/>
@@ -4216,62 +4275,62 @@
       <c r="B15" t="s">
         <v>111</v>
       </c>
-      <c r="C15" s="39">
+      <c r="C15" s="5">
         <v>855</v>
       </c>
-      <c r="D15" s="39">
+      <c r="D15" s="5">
         <v>959</v>
       </c>
-      <c r="E15" s="39">
+      <c r="E15" s="5">
         <v>961</v>
       </c>
-      <c r="F15" s="39">
+      <c r="F15" s="5">
         <f t="shared" si="1"/>
         <v>993</v>
       </c>
-      <c r="G15" s="39">
+      <c r="G15" s="5">
         <v>1032</v>
       </c>
-      <c r="H15" s="39">
+      <c r="H15" s="5">
         <v>1143</v>
       </c>
-      <c r="I15" s="39">
+      <c r="I15" s="5">
         <v>1125</v>
       </c>
-      <c r="J15" s="39">
+      <c r="J15" s="5">
         <f t="shared" si="2"/>
         <v>3843</v>
       </c>
-      <c r="K15" s="39">
+      <c r="K15" s="5">
         <v>1175</v>
       </c>
-      <c r="L15" s="39">
+      <c r="L15" s="5">
         <v>1357</v>
       </c>
-      <c r="M15" s="39">
+      <c r="M15" s="5">
         <v>1233</v>
       </c>
-      <c r="N15" s="39">
+      <c r="N15" s="5">
         <f t="shared" si="3"/>
         <v>3541</v>
       </c>
-      <c r="O15" s="39">
+      <c r="O15" s="5">
         <v>1260</v>
       </c>
-      <c r="P15" s="39">
+      <c r="P15" s="5">
         <v>1302</v>
       </c>
-      <c r="Q15" s="39">
+      <c r="Q15" s="5">
         <v>1428</v>
       </c>
-      <c r="R15" s="39">
+      <c r="R15" s="5">
         <f t="shared" si="4"/>
         <v>1531</v>
       </c>
-      <c r="S15" s="39">
+      <c r="S15" s="5">
         <v>1540</v>
       </c>
-      <c r="T15" s="39">
+      <c r="T15" s="5">
         <v>1576</v>
       </c>
       <c r="U15" s="20"/>
@@ -4300,7 +4359,9 @@
       <c r="BF15" s="5">
         <v>5521</v>
       </c>
-      <c r="BG15" s="20"/>
+      <c r="BG15" s="5">
+        <v>0</v>
+      </c>
       <c r="BH15" s="20"/>
       <c r="BI15" s="20"/>
       <c r="BJ15" s="20"/>
@@ -4309,65 +4370,65 @@
       <c r="BM15" s="20"/>
     </row>
     <row r="16" spans="1:65" s="19" customFormat="1">
-      <c r="B16" s="38" t="s">
+      <c r="B16" t="s">
         <v>460</v>
       </c>
-      <c r="C16" s="39">
+      <c r="C16" s="5">
         <v>1202</v>
       </c>
-      <c r="D16" s="39">
+      <c r="D16" s="5">
         <v>2048</v>
       </c>
-      <c r="E16" s="39">
+      <c r="E16" s="5">
         <v>1412</v>
       </c>
-      <c r="F16" s="39">
+      <c r="F16" s="5">
         <f t="shared" si="1"/>
         <v>1795</v>
       </c>
-      <c r="G16" s="39">
+      <c r="G16" s="5">
         <v>1620</v>
       </c>
-      <c r="H16" s="39">
+      <c r="H16" s="5">
         <v>2120</v>
       </c>
-      <c r="I16" s="39">
+      <c r="I16" s="5">
         <v>1599</v>
       </c>
-      <c r="J16" s="39">
+      <c r="J16" s="5">
         <f t="shared" si="2"/>
         <v>-1585</v>
       </c>
-      <c r="K16" s="39">
+      <c r="K16" s="5">
         <v>1414</v>
       </c>
-      <c r="L16" s="39">
+      <c r="L16" s="5">
         <v>2285</v>
       </c>
-      <c r="M16" s="39">
+      <c r="M16" s="5">
         <v>1835</v>
       </c>
-      <c r="N16" s="39">
+      <c r="N16" s="5">
         <f>+BE16-M16-L16-K16</f>
         <v>-847</v>
       </c>
-      <c r="O16" s="39">
+      <c r="O16" s="5">
         <v>1448</v>
       </c>
-      <c r="P16" s="39">
+      <c r="P16" s="5">
         <v>1430</v>
       </c>
-      <c r="Q16" s="39">
+      <c r="Q16" s="5">
         <v>1282</v>
       </c>
-      <c r="R16" s="39">
+      <c r="R16" s="5">
         <f t="shared" si="4"/>
         <v>1277</v>
       </c>
-      <c r="S16" s="39">
+      <c r="S16" s="5">
         <v>1125</v>
       </c>
-      <c r="T16" s="39">
+      <c r="T16" s="5">
         <v>1298</v>
       </c>
       <c r="U16" s="20"/>
@@ -4396,7 +4457,9 @@
       <c r="BF16" s="5">
         <v>5437</v>
       </c>
-      <c r="BG16" s="20"/>
+      <c r="BG16" s="5">
+        <v>0</v>
+      </c>
       <c r="BH16" s="20"/>
       <c r="BI16" s="20"/>
       <c r="BJ16" s="20"/>
@@ -4405,65 +4468,65 @@
       <c r="BM16" s="20"/>
     </row>
     <row r="17" spans="2:65" s="19" customFormat="1">
-      <c r="B17" s="38" t="s">
+      <c r="B17" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="39">
+      <c r="C17" s="5">
         <v>0</v>
       </c>
-      <c r="D17" s="39">
+      <c r="D17" s="5">
         <v>0</v>
       </c>
-      <c r="E17" s="39">
+      <c r="E17" s="5">
         <v>0</v>
       </c>
-      <c r="F17" s="39">
+      <c r="F17" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G17" s="39">
+      <c r="G17" s="5">
         <v>0</v>
       </c>
-      <c r="H17" s="39">
+      <c r="H17" s="5">
         <v>0</v>
       </c>
-      <c r="I17" s="39">
+      <c r="I17" s="5">
         <v>0</v>
       </c>
-      <c r="J17" s="39">
+      <c r="J17" s="5">
         <f t="shared" si="2"/>
         <v>373</v>
       </c>
-      <c r="K17" s="39">
+      <c r="K17" s="5">
         <v>0</v>
       </c>
-      <c r="L17" s="39">
+      <c r="L17" s="5">
         <v>0</v>
       </c>
-      <c r="M17" s="39">
+      <c r="M17" s="5">
         <v>0</v>
       </c>
-      <c r="N17" s="39">
+      <c r="N17" s="5">
         <f t="shared" si="3"/>
         <v>289</v>
       </c>
-      <c r="O17" s="39">
+      <c r="O17" s="5">
         <v>56</v>
       </c>
-      <c r="P17" s="39">
+      <c r="P17" s="5">
         <v>39</v>
       </c>
-      <c r="Q17" s="39">
+      <c r="Q17" s="5">
         <v>0</v>
       </c>
-      <c r="R17" s="39">
+      <c r="R17" s="5">
         <f t="shared" si="4"/>
         <v>116</v>
       </c>
-      <c r="S17" s="39">
+      <c r="S17" s="5">
         <v>8</v>
       </c>
-      <c r="T17" s="39">
+      <c r="T17" s="5">
         <v>11</v>
       </c>
       <c r="U17" s="20"/>
@@ -4492,7 +4555,9 @@
       <c r="BF17" s="5">
         <v>211</v>
       </c>
-      <c r="BG17" s="20"/>
+      <c r="BG17" s="5">
+        <v>0</v>
+      </c>
       <c r="BH17" s="20"/>
       <c r="BI17" s="20"/>
       <c r="BJ17" s="20"/>
@@ -4501,7 +4566,7 @@
       <c r="BM17" s="20"/>
     </row>
     <row r="18" spans="2:65" s="19" customFormat="1">
-      <c r="B18" s="38"/>
+      <c r="B18"/>
       <c r="C18" s="20"/>
       <c r="D18" s="20"/>
       <c r="E18" s="20"/>
@@ -4514,12 +4579,12 @@
       <c r="L18" s="21"/>
       <c r="M18" s="21"/>
       <c r="N18" s="21"/>
-      <c r="O18" s="39"/>
-      <c r="P18" s="39"/>
-      <c r="Q18" s="39"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
       <c r="R18" s="21"/>
-      <c r="S18" s="39"/>
-      <c r="T18" s="39"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
       <c r="U18" s="20"/>
       <c r="V18" s="20"/>
       <c r="AS18" s="20"/>
@@ -4545,7 +4610,7 @@
       <c r="BM18" s="20"/>
     </row>
     <row r="19" spans="2:65" s="19" customFormat="1">
-      <c r="B19" s="38"/>
+      <c r="B19"/>
       <c r="C19" s="20"/>
       <c r="D19" s="20"/>
       <c r="E19" s="20"/>
@@ -4572,7 +4637,7 @@
         <v>0.20717131474103589</v>
       </c>
       <c r="S19" s="20"/>
-      <c r="T19" s="39"/>
+      <c r="T19" s="5"/>
       <c r="U19" s="20"/>
       <c r="V19" s="20"/>
       <c r="AS19" s="20"/>
@@ -4749,7 +4814,7 @@
       <c r="P25" s="4">
         <v>17002</v>
       </c>
-      <c r="Q25" s="40">
+      <c r="Q25" s="4">
         <v>17516</v>
       </c>
       <c r="R25" s="4">
@@ -4760,6 +4825,12 @@
       </c>
       <c r="T25" s="4">
         <v>19249</v>
+      </c>
+      <c r="U25" s="4">
+        <v>19570</v>
+      </c>
+      <c r="V25" s="4">
+        <v>20317</v>
       </c>
       <c r="AA25" s="4">
         <v>1401</v>
@@ -4783,6 +4854,10 @@
         <f>SUM(O25:R25)</f>
         <v>69274</v>
       </c>
+      <c r="BG25" s="5">
+        <f>SUM(S25:V25)</f>
+        <v>77728</v>
+      </c>
     </row>
     <row r="26" spans="2:65" s="4" customFormat="1">
       <c r="B26" s="4" t="s">
@@ -4830,7 +4905,7 @@
       <c r="P26" s="4">
         <v>21508</v>
       </c>
-      <c r="Q26" s="40">
+      <c r="Q26" s="4">
         <v>22081</v>
       </c>
       <c r="R26" s="4">
@@ -4841,6 +4916,12 @@
       </c>
       <c r="T26" s="4">
         <v>25880</v>
+      </c>
+      <c r="U26" s="4">
+        <v>26708</v>
+      </c>
+      <c r="V26" s="4">
+        <v>28515</v>
       </c>
       <c r="BC26" s="5"/>
       <c r="BD26" s="5">
@@ -4855,6 +4936,10 @@
         <f>SUM(O26:R26)</f>
         <v>87907</v>
       </c>
+      <c r="BG26" s="5">
+        <f t="shared" ref="BG26:BG27" si="6">SUM(S26:V26)</f>
+        <v>105362</v>
+      </c>
     </row>
     <row r="27" spans="2:65" s="4" customFormat="1">
       <c r="B27" s="4" t="s">
@@ -4902,7 +4987,7 @@
       <c r="P27" s="4">
         <v>14237</v>
       </c>
-      <c r="Q27" s="40">
+      <c r="Q27" s="4">
         <v>13260</v>
       </c>
       <c r="R27" s="4">
@@ -4913,6 +4998,12 @@
       </c>
       <c r="T27" s="4">
         <v>16891</v>
+      </c>
+      <c r="U27" s="4">
+        <v>15580</v>
+      </c>
+      <c r="V27" s="4">
+        <v>15895</v>
       </c>
       <c r="AA27" s="4">
         <v>1104</v>
@@ -4936,6 +5027,10 @@
         <f>SUM(O27:R27)</f>
         <v>54734</v>
       </c>
+      <c r="BG27" s="5">
+        <f t="shared" si="6"/>
+        <v>62032</v>
+      </c>
     </row>
     <row r="29" spans="2:65" s="4" customFormat="1">
       <c r="B29" s="4" t="s">
@@ -4996,12 +5091,10 @@
         <v>18941</v>
       </c>
       <c r="U29" s="4">
-        <f t="shared" ref="U29:U30" si="6">Q29*1.05</f>
-        <v>16367.400000000001</v>
+        <v>17080</v>
       </c>
       <c r="V29" s="4">
-        <f t="shared" ref="V29:V30" si="7">R29*1.05</f>
-        <v>17695.650000000001</v>
+        <v>13217</v>
       </c>
       <c r="AY29" s="4">
         <v>61502</v>
@@ -5031,32 +5124,31 @@
         <v>64699</v>
       </c>
       <c r="BG29" s="5">
-        <f>+BF29*1.03</f>
-        <v>66639.97</v>
+        <v>64773</v>
       </c>
       <c r="BH29" s="5">
-        <f t="shared" ref="BH29:BM29" si="8">+BG29*1.03</f>
-        <v>68639.169099999999</v>
+        <f t="shared" ref="BH29:BM29" si="7">+BG29*1.03</f>
+        <v>66716.19</v>
       </c>
       <c r="BI29" s="5">
-        <f t="shared" si="8"/>
-        <v>70698.344173000005</v>
+        <f t="shared" si="7"/>
+        <v>68717.675700000007</v>
       </c>
       <c r="BJ29" s="5">
-        <f t="shared" si="8"/>
-        <v>72819.294498190007</v>
+        <f t="shared" si="7"/>
+        <v>70779.205971000003</v>
       </c>
       <c r="BK29" s="5">
-        <f t="shared" si="8"/>
-        <v>75003.873333135707</v>
+        <f t="shared" si="7"/>
+        <v>72902.582150130009</v>
       </c>
       <c r="BL29" s="5">
-        <f t="shared" si="8"/>
-        <v>77253.989533129774</v>
+        <f t="shared" si="7"/>
+        <v>75089.659614633914</v>
       </c>
       <c r="BM29" s="5">
-        <f t="shared" si="8"/>
-        <v>79571.609219123668</v>
+        <f t="shared" si="7"/>
+        <v>77342.349403072934</v>
       </c>
     </row>
     <row r="30" spans="2:65" s="4" customFormat="1">
@@ -5118,12 +5210,10 @@
         <v>43079</v>
       </c>
       <c r="U30" s="4">
-        <f t="shared" si="6"/>
-        <v>39132.450000000004</v>
+        <v>44778</v>
       </c>
       <c r="V30" s="4">
-        <f t="shared" si="7"/>
-        <v>41302.800000000003</v>
+        <v>51510</v>
       </c>
       <c r="AY30" s="4">
         <v>23818</v>
@@ -5153,32 +5243,31 @@
         <v>147216</v>
       </c>
       <c r="BG30" s="5">
-        <f>+BF30*1.15</f>
-        <v>169298.4</v>
+        <v>180349</v>
       </c>
       <c r="BH30" s="5">
         <f>+BG30*1.1</f>
-        <v>186228.24000000002</v>
+        <v>198383.90000000002</v>
       </c>
       <c r="BI30" s="5">
-        <f t="shared" ref="BI30:BM30" si="9">+BH30*1.1</f>
-        <v>204851.06400000004</v>
+        <f t="shared" ref="BI30:BM30" si="8">+BH30*1.1</f>
+        <v>218222.29000000004</v>
       </c>
       <c r="BJ30" s="5">
-        <f t="shared" si="9"/>
-        <v>225336.17040000006</v>
+        <f t="shared" si="8"/>
+        <v>240044.51900000006</v>
       </c>
       <c r="BK30" s="5">
-        <f t="shared" si="9"/>
-        <v>247869.78744000007</v>
+        <f t="shared" si="8"/>
+        <v>264048.97090000007</v>
       </c>
       <c r="BL30" s="5">
-        <f t="shared" si="9"/>
-        <v>272656.76618400012</v>
+        <f t="shared" si="8"/>
+        <v>290453.86799000012</v>
       </c>
       <c r="BM30" s="5">
-        <f t="shared" si="9"/>
-        <v>299922.44280240015</v>
+        <f t="shared" si="8"/>
+        <v>319499.25478900014</v>
       </c>
     </row>
     <row r="31" spans="2:65" s="6" customFormat="1">
@@ -5186,43 +5275,43 @@
         <v>8</v>
       </c>
       <c r="C31" s="7">
-        <f t="shared" ref="C31:D31" si="10">C29+C30</f>
+        <f t="shared" ref="C31:D31" si="9">C29+C30</f>
         <v>33055</v>
       </c>
       <c r="D31" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>36906</v>
       </c>
       <c r="E31" s="7">
-        <f t="shared" ref="E31:F31" si="11">E29+E30</f>
+        <f t="shared" ref="E31" si="10">E29+E30</f>
         <v>35021</v>
       </c>
       <c r="F31" s="7">
-        <f t="shared" ref="F31:G31" si="12">F29+F30</f>
+        <f t="shared" ref="F31:G31" si="11">F29+F30</f>
         <v>38033</v>
       </c>
       <c r="G31" s="7">
+        <f t="shared" si="11"/>
+        <v>37154</v>
+      </c>
+      <c r="H31" s="7">
+        <f t="shared" ref="H31:L31" si="12">H29+H30</f>
+        <v>43076</v>
+      </c>
+      <c r="I31" s="7">
         <f t="shared" si="12"/>
-        <v>37154</v>
-      </c>
-      <c r="H31" s="7">
-        <f t="shared" ref="H31:L31" si="13">H29+H30</f>
-        <v>43076</v>
-      </c>
-      <c r="I31" s="7">
-        <f t="shared" si="13"/>
         <v>41706</v>
       </c>
       <c r="J31" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>46152</v>
       </c>
       <c r="K31" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>45317</v>
       </c>
       <c r="L31" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>51728</v>
       </c>
       <c r="M31" s="7">
@@ -5230,11 +5319,11 @@
         <v>49360</v>
       </c>
       <c r="N31" s="7">
-        <f t="shared" ref="N31:V31" si="14">N29+N30</f>
+        <f t="shared" ref="N31:V31" si="13">N29+N30</f>
         <v>51865</v>
       </c>
       <c r="O31" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>50122</v>
       </c>
       <c r="P31" s="7">
@@ -5246,11 +5335,11 @@
         <v>52857</v>
       </c>
       <c r="R31" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>56189</v>
       </c>
       <c r="S31" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>56517</v>
       </c>
       <c r="T31" s="7">
@@ -5258,12 +5347,12 @@
         <v>62020</v>
       </c>
       <c r="U31" s="7">
-        <f t="shared" si="14"/>
-        <v>55499.850000000006</v>
+        <f t="shared" si="13"/>
+        <v>61858</v>
       </c>
       <c r="V31" s="7">
-        <f t="shared" si="14"/>
-        <v>58998.450000000004</v>
+        <f t="shared" si="13"/>
+        <v>64727</v>
       </c>
       <c r="Y31" s="6">
         <v>1183</v>
@@ -5348,60 +5437,60 @@
         <v>85320</v>
       </c>
       <c r="AZ31" s="7">
-        <f t="shared" ref="AZ31:BF31" si="15">+AZ30+AZ29</f>
+        <f t="shared" ref="AZ31:BF31" si="14">+AZ30+AZ29</f>
         <v>96571</v>
       </c>
       <c r="BA31" s="7">
+        <f t="shared" si="14"/>
+        <v>110360</v>
+      </c>
+      <c r="BB31" s="7">
+        <f t="shared" si="14"/>
+        <v>125843</v>
+      </c>
+      <c r="BC31" s="7">
+        <f t="shared" si="14"/>
+        <v>143015</v>
+      </c>
+      <c r="BD31" s="7">
+        <f t="shared" si="14"/>
+        <v>168088</v>
+      </c>
+      <c r="BE31" s="7">
+        <f t="shared" si="14"/>
+        <v>198270</v>
+      </c>
+      <c r="BF31" s="7">
+        <f t="shared" si="14"/>
+        <v>211915</v>
+      </c>
+      <c r="BG31" s="7">
+        <f t="shared" ref="BG31:BM31" si="15">+BG30+BG29</f>
+        <v>245122</v>
+      </c>
+      <c r="BH31" s="7">
         <f t="shared" si="15"/>
-        <v>110360</v>
-      </c>
-      <c r="BB31" s="7">
+        <v>265100.09000000003</v>
+      </c>
+      <c r="BI31" s="7">
         <f t="shared" si="15"/>
-        <v>125843</v>
-      </c>
-      <c r="BC31" s="7">
+        <v>286939.96570000006</v>
+      </c>
+      <c r="BJ31" s="7">
         <f t="shared" si="15"/>
-        <v>143015</v>
-      </c>
-      <c r="BD31" s="7">
+        <v>310823.72497100005</v>
+      </c>
+      <c r="BK31" s="7">
         <f t="shared" si="15"/>
-        <v>168088</v>
-      </c>
-      <c r="BE31" s="7">
+        <v>336951.55305013008</v>
+      </c>
+      <c r="BL31" s="7">
         <f t="shared" si="15"/>
-        <v>198270</v>
-      </c>
-      <c r="BF31" s="7">
+        <v>365543.52760463406</v>
+      </c>
+      <c r="BM31" s="7">
         <f t="shared" si="15"/>
-        <v>211915</v>
-      </c>
-      <c r="BG31" s="7">
-        <f t="shared" ref="BG31:BM31" si="16">+BG30+BG29</f>
-        <v>235938.37</v>
-      </c>
-      <c r="BH31" s="7">
-        <f t="shared" si="16"/>
-        <v>254867.40910000002</v>
-      </c>
-      <c r="BI31" s="7">
-        <f t="shared" si="16"/>
-        <v>275549.40817300003</v>
-      </c>
-      <c r="BJ31" s="7">
-        <f t="shared" si="16"/>
-        <v>298155.46489819005</v>
-      </c>
-      <c r="BK31" s="7">
-        <f t="shared" si="16"/>
-        <v>322873.66077313578</v>
-      </c>
-      <c r="BL31" s="7">
-        <f t="shared" si="16"/>
-        <v>349910.75571712991</v>
-      </c>
-      <c r="BM31" s="7">
-        <f t="shared" si="16"/>
-        <v>379494.05202152382</v>
+        <v>396841.60419207311</v>
       </c>
     </row>
     <row r="32" spans="2:65" s="4" customFormat="1">
@@ -5463,12 +5552,10 @@
         <v>5964</v>
       </c>
       <c r="U32" s="4">
-        <f t="shared" ref="T32:V32" si="17">U29*0.25</f>
-        <v>4091.8500000000004</v>
+        <v>4339</v>
       </c>
       <c r="V32" s="4">
-        <f t="shared" si="17"/>
-        <v>4423.9125000000004</v>
+        <v>1438</v>
       </c>
       <c r="AY32" s="4">
         <v>17880</v>
@@ -5498,32 +5585,31 @@
         <v>17804</v>
       </c>
       <c r="BG32" s="5">
-        <f>BG29*0.25</f>
-        <v>16659.9925</v>
+        <v>15272</v>
       </c>
       <c r="BH32" s="5">
-        <f t="shared" ref="BH32:BM32" si="18">BH29*0.25</f>
-        <v>17159.792275</v>
+        <f t="shared" ref="BH32:BM32" si="16">BH29*0.25</f>
+        <v>16679.047500000001</v>
       </c>
       <c r="BI32" s="5">
-        <f t="shared" si="18"/>
-        <v>17674.586043250001</v>
+        <f t="shared" si="16"/>
+        <v>17179.418925000002</v>
       </c>
       <c r="BJ32" s="5">
-        <f t="shared" si="18"/>
-        <v>18204.823624547502</v>
+        <f t="shared" si="16"/>
+        <v>17694.801492750001</v>
       </c>
       <c r="BK32" s="5">
-        <f t="shared" si="18"/>
-        <v>18750.968333283927</v>
+        <f t="shared" si="16"/>
+        <v>18225.645537532502</v>
       </c>
       <c r="BL32" s="5">
-        <f t="shared" si="18"/>
-        <v>19313.497383282443</v>
+        <f t="shared" si="16"/>
+        <v>18772.414903658479</v>
       </c>
       <c r="BM32" s="5">
-        <f t="shared" si="18"/>
-        <v>19892.902304780917</v>
+        <f t="shared" si="16"/>
+        <v>19335.587350768234</v>
       </c>
     </row>
     <row r="33" spans="2:123" s="4" customFormat="1">
@@ -5585,12 +5671,10 @@
         <v>13659</v>
       </c>
       <c r="U33" s="4">
-        <f t="shared" ref="T33:V33" si="19">U30*0.35</f>
-        <v>13696.3575</v>
+        <v>14166</v>
       </c>
       <c r="V33" s="4">
-        <f t="shared" si="19"/>
-        <v>14455.98</v>
+        <v>18246</v>
       </c>
       <c r="AY33" s="4">
         <v>14900</v>
@@ -5620,32 +5704,31 @@
         <v>48059</v>
       </c>
       <c r="BG33" s="5">
-        <f>BG30*0.35</f>
-        <v>59254.439999999995</v>
+        <v>58842</v>
       </c>
       <c r="BH33" s="5">
-        <f t="shared" ref="BH33:BM33" si="20">BH30*0.35</f>
-        <v>65179.884000000005</v>
+        <f t="shared" ref="BH33:BM33" si="17">BH30*0.35</f>
+        <v>69434.365000000005</v>
       </c>
       <c r="BI33" s="5">
-        <f t="shared" si="20"/>
-        <v>71697.872400000007</v>
+        <f t="shared" si="17"/>
+        <v>76377.801500000001</v>
       </c>
       <c r="BJ33" s="5">
-        <f t="shared" si="20"/>
-        <v>78867.659640000013</v>
+        <f t="shared" si="17"/>
+        <v>84015.581650000022</v>
       </c>
       <c r="BK33" s="5">
-        <f t="shared" si="20"/>
-        <v>86754.425604000018</v>
+        <f t="shared" si="17"/>
+        <v>92417.139815000017</v>
       </c>
       <c r="BL33" s="5">
-        <f t="shared" si="20"/>
-        <v>95429.868164400032</v>
+        <f t="shared" si="17"/>
+        <v>101658.85379650003</v>
       </c>
       <c r="BM33" s="5">
-        <f t="shared" si="20"/>
-        <v>104972.85498084004</v>
+        <f t="shared" si="17"/>
+        <v>111824.73917615005</v>
       </c>
     </row>
     <row r="34" spans="2:123" s="4" customFormat="1">
@@ -5665,15 +5748,15 @@
         <v>10975</v>
       </c>
       <c r="F34" s="5">
-        <f t="shared" ref="F34" si="21">F32+F33</f>
+        <f t="shared" ref="F34" si="18">F32+F33</f>
         <v>12339</v>
       </c>
       <c r="G34" s="5">
-        <f t="shared" ref="G34:H34" si="22">G32+G33</f>
+        <f t="shared" ref="G34:H34" si="19">G32+G33</f>
         <v>11002</v>
       </c>
       <c r="H34" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>14194</v>
       </c>
       <c r="I34" s="5">
@@ -5681,23 +5764,23 @@
         <v>13045</v>
       </c>
       <c r="J34" s="5">
-        <f t="shared" ref="J34:M34" si="23">J32+J33</f>
+        <f t="shared" ref="J34:M34" si="20">J32+J33</f>
         <v>13991</v>
       </c>
       <c r="K34" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>13646</v>
       </c>
       <c r="L34" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>16960</v>
       </c>
       <c r="M34" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>15615</v>
       </c>
       <c r="N34" s="5">
-        <f t="shared" ref="N34" si="24">N32+N33</f>
+        <f t="shared" ref="N34" si="21">N32+N33</f>
         <v>16429</v>
       </c>
       <c r="O34" s="5">
@@ -5725,12 +5808,12 @@
         <v>19623</v>
       </c>
       <c r="U34" s="4">
-        <f t="shared" ref="U34:V34" si="25">+U31-U35</f>
-        <v>17204.953500000003</v>
+        <f t="shared" ref="U34:V34" si="22">+U31-U35</f>
+        <v>18505</v>
       </c>
       <c r="V34" s="4">
-        <f t="shared" si="25"/>
-        <v>18289.519500000002</v>
+        <f t="shared" si="22"/>
+        <v>19684</v>
       </c>
       <c r="Y34" s="4">
         <v>253</v>
@@ -5811,31 +5894,31 @@
         <v>33038</v>
       </c>
       <c r="AY34" s="5">
-        <f t="shared" ref="AY34" si="26">AY32+AY33</f>
+        <f t="shared" ref="AY34" si="23">AY32+AY33</f>
         <v>32780</v>
       </c>
       <c r="AZ34" s="5">
-        <f t="shared" ref="AZ34:BA34" si="27">AZ32+AZ33</f>
+        <f t="shared" ref="AZ34:BA34" si="24">AZ32+AZ33</f>
         <v>34261</v>
       </c>
       <c r="BA34" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>38353</v>
       </c>
       <c r="BB34" s="5">
-        <f t="shared" ref="BB34:BC34" si="28">BB32+BB33</f>
+        <f t="shared" ref="BB34:BC34" si="25">BB32+BB33</f>
         <v>42910</v>
       </c>
       <c r="BC34" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>46078</v>
       </c>
       <c r="BD34" s="5">
-        <f t="shared" ref="BD34:BE34" si="29">BD32+BD33</f>
+        <f t="shared" ref="BD34:BE34" si="26">BD32+BD33</f>
         <v>52232</v>
       </c>
       <c r="BE34" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>62650</v>
       </c>
       <c r="BF34" s="5">
@@ -5843,32 +5926,32 @@
         <v>65863</v>
       </c>
       <c r="BG34" s="5">
-        <f>+BG31-BG35</f>
-        <v>77859.662099999987</v>
+        <f t="shared" ref="BG34:BM34" si="27">BG32+BG33</f>
+        <v>74114</v>
       </c>
       <c r="BH34" s="5">
-        <f>+BH31-BH35</f>
-        <v>84106.245002999989</v>
+        <f t="shared" si="27"/>
+        <v>86113.412500000006</v>
       </c>
       <c r="BI34" s="5">
-        <f t="shared" ref="BI34:BM34" si="30">+BI31-BI35</f>
-        <v>90931.304697090003</v>
+        <f t="shared" si="27"/>
+        <v>93557.220425000007</v>
       </c>
       <c r="BJ34" s="5">
-        <f t="shared" si="30"/>
-        <v>98391.303416402719</v>
+        <f t="shared" si="27"/>
+        <v>101710.38314275003</v>
       </c>
       <c r="BK34" s="5">
-        <f t="shared" si="30"/>
-        <v>106548.30805513478</v>
+        <f t="shared" si="27"/>
+        <v>110642.78535253252</v>
       </c>
       <c r="BL34" s="5">
-        <f t="shared" si="30"/>
-        <v>115470.54938665286</v>
+        <f t="shared" si="27"/>
+        <v>120431.26870015851</v>
       </c>
       <c r="BM34" s="5">
-        <f t="shared" si="30"/>
-        <v>125233.03716710286</v>
+        <f t="shared" si="27"/>
+        <v>131160.32652691827</v>
       </c>
     </row>
     <row r="35" spans="2:123" s="4" customFormat="1">
@@ -5888,15 +5971,15 @@
         <v>24046</v>
       </c>
       <c r="F35" s="5">
-        <f t="shared" ref="F35" si="31">F31-F34</f>
+        <f t="shared" ref="F35" si="28">F31-F34</f>
         <v>25694</v>
       </c>
       <c r="G35" s="5">
-        <f t="shared" ref="G35:H35" si="32">G31-G34</f>
+        <f t="shared" ref="G35:H35" si="29">G31-G34</f>
         <v>26152</v>
       </c>
       <c r="H35" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="29"/>
         <v>28882</v>
       </c>
       <c r="I35" s="5">
@@ -5904,23 +5987,23 @@
         <v>28661</v>
       </c>
       <c r="J35" s="5">
-        <f t="shared" ref="J35:M35" si="33">J31-J34</f>
+        <f t="shared" ref="J35:M35" si="30">J31-J34</f>
         <v>32161</v>
       </c>
       <c r="K35" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="30"/>
         <v>31671</v>
       </c>
       <c r="L35" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="30"/>
         <v>34768</v>
       </c>
       <c r="M35" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="30"/>
         <v>33745</v>
       </c>
       <c r="N35" s="5">
-        <f t="shared" ref="N35" si="34">N31-N34</f>
+        <f t="shared" ref="N35" si="31">N31-N34</f>
         <v>35436</v>
       </c>
       <c r="O35" s="5">
@@ -5948,143 +6031,141 @@
         <v>42397</v>
       </c>
       <c r="U35" s="4">
-        <f t="shared" ref="U35:V35" si="35">+U31*0.69</f>
-        <v>38294.896500000003</v>
+        <v>43353</v>
       </c>
       <c r="V35" s="4">
-        <f t="shared" si="35"/>
-        <v>40708.930500000002</v>
+        <v>45043</v>
       </c>
       <c r="Y35" s="4">
-        <f t="shared" ref="Y35:AE35" si="36">Y31-Y34</f>
+        <f t="shared" ref="Y35:AE35" si="32">Y31-Y34</f>
         <v>930</v>
       </c>
       <c r="Z35" s="4">
+        <f t="shared" si="32"/>
+        <v>1481</v>
+      </c>
+      <c r="AA35" s="4">
+        <f t="shared" si="32"/>
+        <v>2292</v>
+      </c>
+      <c r="AB35" s="4">
+        <f t="shared" si="32"/>
+        <v>3120</v>
+      </c>
+      <c r="AC35" s="4">
+        <f t="shared" si="32"/>
+        <v>3886</v>
+      </c>
+      <c r="AD35" s="4">
+        <f t="shared" si="32"/>
+        <v>5060</v>
+      </c>
+      <c r="AE35" s="4">
+        <f t="shared" si="32"/>
+        <v>7483</v>
+      </c>
+      <c r="AF35" s="4">
+        <f t="shared" ref="AF35" si="33">AF31-AF34</f>
+        <v>10273</v>
+      </c>
+      <c r="AG35" s="4">
+        <f t="shared" ref="AG35:AX35" si="34">AG31-AG34</f>
+        <v>13287</v>
+      </c>
+      <c r="AH35" s="4">
+        <f t="shared" si="34"/>
+        <v>16933</v>
+      </c>
+      <c r="AI35" s="4">
+        <f t="shared" si="34"/>
+        <v>19954</v>
+      </c>
+      <c r="AJ35" s="4">
+        <f t="shared" si="34"/>
+        <v>21841</v>
+      </c>
+      <c r="AK35" s="4">
+        <f t="shared" si="34"/>
+        <v>23174</v>
+      </c>
+      <c r="AL35" s="4">
+        <f t="shared" si="34"/>
+        <v>26501</v>
+      </c>
+      <c r="AM35" s="4">
+        <f t="shared" si="34"/>
+        <v>30119</v>
+      </c>
+      <c r="AN35" s="4">
+        <f t="shared" si="34"/>
+        <v>33588</v>
+      </c>
+      <c r="AO35" s="4">
+        <f t="shared" si="34"/>
+        <v>36632</v>
+      </c>
+      <c r="AP35" s="4">
+        <f t="shared" si="34"/>
+        <v>40429</v>
+      </c>
+      <c r="AQ35" s="4">
+        <f t="shared" si="34"/>
+        <v>48822</v>
+      </c>
+      <c r="AR35" s="4">
+        <f t="shared" si="34"/>
+        <v>46282</v>
+      </c>
+      <c r="AS35" s="4">
+        <f t="shared" si="34"/>
+        <v>50089</v>
+      </c>
+      <c r="AT35" s="4">
+        <f t="shared" si="34"/>
+        <v>54366</v>
+      </c>
+      <c r="AU35" s="4">
+        <f t="shared" si="34"/>
+        <v>56193</v>
+      </c>
+      <c r="AV35" s="4">
+        <f t="shared" si="34"/>
+        <v>57600</v>
+      </c>
+      <c r="AW35" s="4">
+        <f t="shared" si="34"/>
+        <v>59899</v>
+      </c>
+      <c r="AX35" s="4">
+        <f t="shared" si="34"/>
+        <v>60542</v>
+      </c>
+      <c r="AY35" s="5">
+        <f t="shared" ref="AY35" si="35">AY31-AY34</f>
+        <v>52540</v>
+      </c>
+      <c r="AZ35" s="5">
+        <f t="shared" ref="AZ35:BA35" si="36">AZ31-AZ34</f>
+        <v>62310</v>
+      </c>
+      <c r="BA35" s="5">
         <f t="shared" si="36"/>
-        <v>1481</v>
-      </c>
-      <c r="AA35" s="4">
-        <f t="shared" si="36"/>
-        <v>2292</v>
-      </c>
-      <c r="AB35" s="4">
-        <f t="shared" si="36"/>
-        <v>3120</v>
-      </c>
-      <c r="AC35" s="4">
-        <f t="shared" si="36"/>
-        <v>3886</v>
-      </c>
-      <c r="AD35" s="4">
-        <f t="shared" si="36"/>
-        <v>5060</v>
-      </c>
-      <c r="AE35" s="4">
-        <f t="shared" si="36"/>
-        <v>7483</v>
-      </c>
-      <c r="AF35" s="4">
-        <f t="shared" ref="AF35" si="37">AF31-AF34</f>
-        <v>10273</v>
-      </c>
-      <c r="AG35" s="4">
-        <f t="shared" ref="AG35:AX35" si="38">AG31-AG34</f>
-        <v>13287</v>
-      </c>
-      <c r="AH35" s="4">
+        <v>72007</v>
+      </c>
+      <c r="BB35" s="5">
+        <f t="shared" ref="BB35:BC35" si="37">BB31-BB34</f>
+        <v>82933</v>
+      </c>
+      <c r="BC35" s="5">
+        <f t="shared" si="37"/>
+        <v>96937</v>
+      </c>
+      <c r="BD35" s="5">
+        <f t="shared" ref="BD35:BE35" si="38">BD31-BD34</f>
+        <v>115856</v>
+      </c>
+      <c r="BE35" s="5">
         <f t="shared" si="38"/>
-        <v>16933</v>
-      </c>
-      <c r="AI35" s="4">
-        <f t="shared" si="38"/>
-        <v>19954</v>
-      </c>
-      <c r="AJ35" s="4">
-        <f t="shared" si="38"/>
-        <v>21841</v>
-      </c>
-      <c r="AK35" s="4">
-        <f t="shared" si="38"/>
-        <v>23174</v>
-      </c>
-      <c r="AL35" s="4">
-        <f t="shared" si="38"/>
-        <v>26501</v>
-      </c>
-      <c r="AM35" s="4">
-        <f t="shared" si="38"/>
-        <v>30119</v>
-      </c>
-      <c r="AN35" s="4">
-        <f t="shared" si="38"/>
-        <v>33588</v>
-      </c>
-      <c r="AO35" s="4">
-        <f t="shared" si="38"/>
-        <v>36632</v>
-      </c>
-      <c r="AP35" s="4">
-        <f t="shared" si="38"/>
-        <v>40429</v>
-      </c>
-      <c r="AQ35" s="4">
-        <f t="shared" si="38"/>
-        <v>48822</v>
-      </c>
-      <c r="AR35" s="4">
-        <f t="shared" si="38"/>
-        <v>46282</v>
-      </c>
-      <c r="AS35" s="4">
-        <f t="shared" si="38"/>
-        <v>50089</v>
-      </c>
-      <c r="AT35" s="4">
-        <f t="shared" si="38"/>
-        <v>54366</v>
-      </c>
-      <c r="AU35" s="4">
-        <f t="shared" si="38"/>
-        <v>56193</v>
-      </c>
-      <c r="AV35" s="4">
-        <f t="shared" si="38"/>
-        <v>57600</v>
-      </c>
-      <c r="AW35" s="4">
-        <f t="shared" si="38"/>
-        <v>59899</v>
-      </c>
-      <c r="AX35" s="4">
-        <f t="shared" si="38"/>
-        <v>60542</v>
-      </c>
-      <c r="AY35" s="5">
-        <f t="shared" ref="AY35" si="39">AY31-AY34</f>
-        <v>52540</v>
-      </c>
-      <c r="AZ35" s="5">
-        <f t="shared" ref="AZ35:BA35" si="40">AZ31-AZ34</f>
-        <v>62310</v>
-      </c>
-      <c r="BA35" s="5">
-        <f t="shared" si="40"/>
-        <v>72007</v>
-      </c>
-      <c r="BB35" s="5">
-        <f t="shared" ref="BB35:BC35" si="41">BB31-BB34</f>
-        <v>82933</v>
-      </c>
-      <c r="BC35" s="5">
-        <f t="shared" si="41"/>
-        <v>96937</v>
-      </c>
-      <c r="BD35" s="5">
-        <f t="shared" ref="BD35:BE35" si="42">BD31-BD34</f>
-        <v>115856</v>
-      </c>
-      <c r="BE35" s="5">
-        <f t="shared" si="42"/>
         <v>135620</v>
       </c>
       <c r="BF35" s="5">
@@ -6092,32 +6173,32 @@
         <v>146052</v>
       </c>
       <c r="BG35" s="5">
-        <f t="shared" ref="BG35:BM35" si="43">+BG31*0.67</f>
-        <v>158078.70790000001</v>
+        <f>BG31-BG34</f>
+        <v>171008</v>
       </c>
       <c r="BH35" s="5">
-        <f t="shared" si="43"/>
-        <v>170761.16409700003</v>
+        <f t="shared" ref="BG35:BM35" si="39">+BH31*0.67</f>
+        <v>177617.06030000004</v>
       </c>
       <c r="BI35" s="5">
-        <f t="shared" si="43"/>
-        <v>184618.10347591003</v>
+        <f t="shared" si="39"/>
+        <v>192249.77701900006</v>
       </c>
       <c r="BJ35" s="5">
-        <f t="shared" si="43"/>
-        <v>199764.16148178733</v>
+        <f t="shared" si="39"/>
+        <v>208251.89573057005</v>
       </c>
       <c r="BK35" s="5">
-        <f t="shared" si="43"/>
-        <v>216325.352718001</v>
+        <f t="shared" si="39"/>
+        <v>225757.54054358718</v>
       </c>
       <c r="BL35" s="5">
-        <f t="shared" si="43"/>
-        <v>234440.20633047706</v>
+        <f t="shared" si="39"/>
+        <v>244914.16349510485</v>
       </c>
       <c r="BM35" s="5">
-        <f t="shared" si="43"/>
-        <v>254261.01485442097</v>
+        <f t="shared" si="39"/>
+        <v>265883.874808689</v>
       </c>
     </row>
     <row r="36" spans="2:123" s="4" customFormat="1">
@@ -6179,12 +6260,10 @@
         <v>7142</v>
       </c>
       <c r="U36" s="4">
-        <f t="shared" ref="U36:U38" si="44">Q36*1.01</f>
-        <v>7053.84</v>
+        <v>7653</v>
       </c>
       <c r="V36" s="4">
-        <f t="shared" ref="V36:V38" si="45">R36*1.01</f>
-        <v>6806.39</v>
+        <v>8056</v>
       </c>
       <c r="Y36" s="4">
         <v>181</v>
@@ -6284,40 +6363,39 @@
         <v>20716</v>
       </c>
       <c r="BE36" s="5">
-        <f t="shared" ref="BE36:BE38" si="46">SUM(K36:N36)</f>
+        <f t="shared" ref="BE36:BE38" si="40">SUM(K36:N36)</f>
         <v>24512</v>
       </c>
       <c r="BF36" s="5">
-        <f t="shared" ref="BF36:BF38" si="47">SUM(O36:R36)</f>
+        <f t="shared" ref="BF36:BF38" si="41">SUM(O36:R36)</f>
         <v>27195</v>
       </c>
       <c r="BG36" s="5">
-        <f>+BF36*1.03</f>
-        <v>28010.850000000002</v>
+        <v>29510</v>
       </c>
       <c r="BH36" s="5">
-        <f t="shared" ref="BH36:BM36" si="48">+BG36*1.03</f>
-        <v>28851.175500000001</v>
+        <f t="shared" ref="BH36:BM36" si="42">+BG36*1.03</f>
+        <v>30395.3</v>
       </c>
       <c r="BI36" s="5">
-        <f t="shared" si="48"/>
-        <v>29716.710765000003</v>
+        <f t="shared" si="42"/>
+        <v>31307.159</v>
       </c>
       <c r="BJ36" s="5">
-        <f t="shared" si="48"/>
-        <v>30608.212087950003</v>
+        <f t="shared" si="42"/>
+        <v>32246.373770000002</v>
       </c>
       <c r="BK36" s="5">
-        <f t="shared" si="48"/>
-        <v>31526.458450588503</v>
+        <f t="shared" si="42"/>
+        <v>33213.764983100002</v>
       </c>
       <c r="BL36" s="5">
-        <f t="shared" si="48"/>
-        <v>32472.25220410616</v>
+        <f t="shared" si="42"/>
+        <v>34210.177932593004</v>
       </c>
       <c r="BM36" s="5">
-        <f t="shared" si="48"/>
-        <v>33446.419770229346</v>
+        <f t="shared" si="42"/>
+        <v>35236.483270570796</v>
       </c>
     </row>
     <row r="37" spans="2:123" s="4" customFormat="1">
@@ -6379,12 +6457,10 @@
         <v>6246</v>
       </c>
       <c r="U37" s="4">
-        <f t="shared" si="44"/>
-        <v>5807.5</v>
+        <v>6207</v>
       </c>
       <c r="V37" s="4">
-        <f t="shared" si="45"/>
-        <v>6266.04</v>
+        <v>6816</v>
       </c>
       <c r="Y37" s="4">
         <v>317</v>
@@ -6484,40 +6560,39 @@
         <v>20117</v>
       </c>
       <c r="BE37" s="5">
-        <f t="shared" si="46"/>
+        <f t="shared" si="40"/>
         <v>21825</v>
       </c>
       <c r="BF37" s="5">
-        <f t="shared" si="47"/>
+        <f t="shared" si="41"/>
         <v>22759</v>
       </c>
       <c r="BG37" s="5">
-        <f>+BF37*1.03</f>
-        <v>23441.77</v>
+        <v>24456</v>
       </c>
       <c r="BH37" s="5">
-        <f t="shared" ref="BH37:BM37" si="49">+BG37*1.03</f>
-        <v>24145.023100000002</v>
+        <f t="shared" ref="BH37:BM37" si="43">+BG37*1.03</f>
+        <v>25189.68</v>
       </c>
       <c r="BI37" s="5">
-        <f t="shared" si="49"/>
-        <v>24869.373793000002</v>
+        <f t="shared" si="43"/>
+        <v>25945.3704</v>
       </c>
       <c r="BJ37" s="5">
-        <f t="shared" si="49"/>
-        <v>25615.455006790002</v>
+        <f t="shared" si="43"/>
+        <v>26723.731512000002</v>
       </c>
       <c r="BK37" s="5">
-        <f t="shared" si="49"/>
-        <v>26383.918656993701</v>
+        <f t="shared" si="43"/>
+        <v>27525.443457360005</v>
       </c>
       <c r="BL37" s="5">
-        <f t="shared" si="49"/>
-        <v>27175.436216703514</v>
+        <f t="shared" si="43"/>
+        <v>28351.206761080804</v>
       </c>
       <c r="BM37" s="5">
-        <f t="shared" si="49"/>
-        <v>27990.699303204619</v>
+        <f t="shared" si="43"/>
+        <v>29201.742963913228</v>
       </c>
     </row>
     <row r="38" spans="2:123" s="4" customFormat="1">
@@ -6579,12 +6654,10 @@
         <v>1977</v>
       </c>
       <c r="U38" s="4">
-        <f t="shared" si="44"/>
-        <v>1659.43</v>
+        <v>1912</v>
       </c>
       <c r="V38" s="4">
-        <f t="shared" si="45"/>
-        <v>2218.9699999999998</v>
+        <v>2246</v>
       </c>
       <c r="Y38" s="4">
         <v>39</v>
@@ -6684,40 +6757,39 @@
         <v>5107</v>
       </c>
       <c r="BE38" s="5">
-        <f t="shared" si="46"/>
+        <f t="shared" si="40"/>
         <v>5900</v>
       </c>
       <c r="BF38" s="5">
-        <f t="shared" si="47"/>
+        <f t="shared" si="41"/>
         <v>7575</v>
       </c>
       <c r="BG38" s="5">
-        <f>+BF38*1.03</f>
-        <v>7802.25</v>
+        <v>7609</v>
       </c>
       <c r="BH38" s="5">
-        <f t="shared" ref="BH38:BM38" si="50">+BG38*1.03</f>
-        <v>8036.3175000000001</v>
+        <f t="shared" ref="BH38:BM38" si="44">+BG38*1.03</f>
+        <v>7837.27</v>
       </c>
       <c r="BI38" s="5">
-        <f t="shared" si="50"/>
-        <v>8277.4070250000004</v>
+        <f t="shared" si="44"/>
+        <v>8072.388100000001</v>
       </c>
       <c r="BJ38" s="5">
-        <f t="shared" si="50"/>
-        <v>8525.729235750001</v>
+        <f t="shared" si="44"/>
+        <v>8314.5597430000016</v>
       </c>
       <c r="BK38" s="5">
-        <f t="shared" si="50"/>
-        <v>8781.5011128225015</v>
+        <f t="shared" si="44"/>
+        <v>8563.9965352900017</v>
       </c>
       <c r="BL38" s="5">
-        <f t="shared" si="50"/>
-        <v>9044.9461462071758</v>
+        <f t="shared" si="44"/>
+        <v>8820.9164313487017</v>
       </c>
       <c r="BM38" s="5">
-        <f t="shared" si="50"/>
-        <v>9316.2945305933918</v>
+        <f t="shared" si="44"/>
+        <v>9085.5439242891625</v>
       </c>
     </row>
     <row r="39" spans="2:123" s="4" customFormat="1">
@@ -6725,43 +6797,43 @@
         <v>23</v>
       </c>
       <c r="C39" s="5">
-        <f t="shared" ref="C39:D39" si="51">SUM(C36:C38)</f>
+        <f t="shared" ref="C39:D39" si="45">SUM(C36:C38)</f>
         <v>9963</v>
       </c>
       <c r="D39" s="5">
-        <f t="shared" si="51"/>
+        <f t="shared" si="45"/>
         <v>10657</v>
       </c>
       <c r="E39" s="5">
-        <f t="shared" ref="E39:F39" si="52">SUM(E36:E38)</f>
+        <f t="shared" ref="E39:F39" si="46">SUM(E36:E38)</f>
         <v>11071</v>
       </c>
       <c r="F39" s="5">
-        <f t="shared" si="52"/>
+        <f t="shared" si="46"/>
         <v>12287</v>
       </c>
       <c r="G39" s="5">
-        <f t="shared" ref="G39:L39" si="53">SUM(G36:G38)</f>
+        <f t="shared" ref="G39:L39" si="47">SUM(G36:G38)</f>
         <v>10276</v>
       </c>
       <c r="H39" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="47"/>
         <v>10985</v>
       </c>
       <c r="I39" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="47"/>
         <v>11613</v>
       </c>
       <c r="J39" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="47"/>
         <v>13066</v>
       </c>
       <c r="K39" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="47"/>
         <v>11433</v>
       </c>
       <c r="L39" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="47"/>
         <v>12521</v>
       </c>
       <c r="M39" s="5">
@@ -6769,11 +6841,11 @@
         <v>13381</v>
       </c>
       <c r="N39" s="5">
-        <f t="shared" ref="N39:O39" si="54">SUM(N36:N38)</f>
+        <f t="shared" ref="N39:O39" si="48">SUM(N36:N38)</f>
         <v>14902</v>
       </c>
       <c r="O39" s="5">
-        <f t="shared" si="54"/>
+        <f t="shared" si="48"/>
         <v>13152</v>
       </c>
       <c r="P39" s="5">
@@ -6781,37 +6853,37 @@
         <v>14860</v>
       </c>
       <c r="Q39" s="5">
-        <f t="shared" ref="Q39:R39" si="55">SUM(Q36:Q38)</f>
+        <f t="shared" ref="Q39:R39" si="49">SUM(Q36:Q38)</f>
         <v>14377</v>
       </c>
       <c r="R39" s="5">
-        <f t="shared" si="55"/>
+        <f t="shared" si="49"/>
         <v>15140</v>
       </c>
       <c r="S39" s="5">
-        <f t="shared" ref="S39:U39" si="56">SUM(S36:S38)</f>
+        <f t="shared" ref="S39:U39" si="50">SUM(S36:S38)</f>
         <v>13320</v>
       </c>
       <c r="T39" s="5">
-        <f t="shared" si="56"/>
+        <f t="shared" si="50"/>
         <v>15365</v>
       </c>
       <c r="U39" s="5">
-        <f t="shared" si="56"/>
-        <v>14520.77</v>
+        <f t="shared" si="50"/>
+        <v>15772</v>
       </c>
       <c r="V39" s="5">
-        <f t="shared" ref="V39" si="57">SUM(V36:V38)</f>
-        <v>15291.4</v>
+        <f t="shared" ref="V39" si="51">SUM(V36:V38)</f>
+        <v>17118</v>
       </c>
       <c r="W39" s="5"/>
       <c r="X39" s="5"/>
       <c r="Y39" s="5">
-        <f t="shared" ref="Y39:Z39" si="58">Y36+Y37+Y38</f>
+        <f t="shared" ref="Y39:Z39" si="52">Y36+Y37+Y38</f>
         <v>537</v>
       </c>
       <c r="Z39" s="5">
-        <f t="shared" si="58"/>
+        <f t="shared" si="52"/>
         <v>831</v>
       </c>
       <c r="AA39" s="5">
@@ -6835,140 +6907,140 @@
         <v>4405</v>
       </c>
       <c r="AF39" s="5">
-        <f t="shared" ref="AF39" si="59">AF36+AF37+AF38</f>
+        <f t="shared" ref="AF39" si="53">AF36+AF37+AF38</f>
         <v>5143</v>
       </c>
       <c r="AG39" s="5">
-        <f t="shared" ref="AG39:AX39" si="60">AG36+AG37+AG38</f>
+        <f t="shared" ref="AG39:AX39" si="54">AG36+AG37+AG38</f>
         <v>6347</v>
       </c>
       <c r="AH39" s="5">
-        <f t="shared" si="60"/>
+        <f t="shared" si="54"/>
         <v>6890</v>
       </c>
       <c r="AI39" s="5">
-        <f t="shared" si="60"/>
+        <f t="shared" si="54"/>
         <v>8925</v>
       </c>
       <c r="AJ39" s="5">
-        <f t="shared" si="60"/>
+        <f t="shared" si="54"/>
         <v>10121</v>
       </c>
       <c r="AK39" s="5">
-        <f t="shared" si="60"/>
+        <f t="shared" si="54"/>
         <v>11264</v>
       </c>
       <c r="AL39" s="5">
-        <f t="shared" si="60"/>
+        <f t="shared" si="54"/>
         <v>13284</v>
       </c>
       <c r="AM39" s="5">
-        <f t="shared" si="60"/>
+        <f t="shared" si="54"/>
         <v>21085</v>
       </c>
       <c r="AN39" s="5">
-        <f t="shared" si="60"/>
+        <f t="shared" si="54"/>
         <v>19027</v>
       </c>
       <c r="AO39" s="5">
-        <f t="shared" si="60"/>
+        <f t="shared" si="54"/>
         <v>20160</v>
       </c>
       <c r="AP39" s="5">
-        <f t="shared" si="60"/>
+        <f t="shared" si="54"/>
         <v>21905</v>
       </c>
       <c r="AQ39" s="5">
-        <f t="shared" si="60"/>
+        <f t="shared" si="54"/>
         <v>26330</v>
       </c>
       <c r="AR39" s="5">
-        <f t="shared" si="60"/>
+        <f t="shared" si="54"/>
         <v>25589</v>
       </c>
       <c r="AS39" s="5">
-        <f t="shared" si="60"/>
+        <f t="shared" si="54"/>
         <v>25932</v>
       </c>
       <c r="AT39" s="5">
-        <f t="shared" si="60"/>
+        <f t="shared" si="54"/>
         <v>27205</v>
       </c>
       <c r="AU39" s="5">
-        <f t="shared" si="60"/>
+        <f t="shared" si="54"/>
         <v>28237</v>
       </c>
       <c r="AV39" s="5">
-        <f t="shared" si="60"/>
+        <f t="shared" si="54"/>
         <v>30836</v>
       </c>
       <c r="AW39" s="5">
-        <f t="shared" si="60"/>
+        <f t="shared" si="54"/>
         <v>32013</v>
       </c>
       <c r="AX39" s="5">
-        <f t="shared" si="60"/>
+        <f t="shared" si="54"/>
         <v>32370</v>
       </c>
       <c r="AY39" s="5">
-        <f t="shared" ref="AY39:AZ39" si="61">SUM(AY36:AY38)</f>
+        <f t="shared" ref="AY39:AZ39" si="55">SUM(AY36:AY38)</f>
         <v>31248</v>
       </c>
       <c r="AZ39" s="5">
-        <f t="shared" si="61"/>
+        <f t="shared" si="55"/>
         <v>32979</v>
       </c>
       <c r="BA39" s="5">
-        <f t="shared" ref="BA39:BB39" si="62">SUM(BA36:BA38)</f>
+        <f t="shared" ref="BA39:BB39" si="56">SUM(BA36:BA38)</f>
         <v>36949</v>
       </c>
       <c r="BB39" s="5">
-        <f t="shared" si="62"/>
+        <f t="shared" si="56"/>
         <v>39974</v>
       </c>
       <c r="BC39" s="5">
-        <f t="shared" ref="BC39" si="63">SUM(BC36:BC38)</f>
+        <f t="shared" ref="BC39" si="57">SUM(BC36:BC38)</f>
         <v>43978</v>
       </c>
       <c r="BD39" s="5">
-        <f t="shared" ref="BD39:BF39" si="64">SUM(BD36:BD38)</f>
+        <f t="shared" ref="BD39:BF39" si="58">SUM(BD36:BD38)</f>
         <v>45940</v>
       </c>
       <c r="BE39" s="5">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>52237</v>
       </c>
       <c r="BF39" s="5">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>57529</v>
       </c>
       <c r="BG39" s="5">
-        <f t="shared" ref="BG39" si="65">SUM(BG36:BG38)</f>
-        <v>59254.87</v>
+        <f t="shared" ref="BG39" si="59">SUM(BG36:BG38)</f>
+        <v>61575</v>
       </c>
       <c r="BH39" s="5">
-        <f t="shared" ref="BH39" si="66">SUM(BH36:BH38)</f>
-        <v>61032.516100000001</v>
+        <f t="shared" ref="BH39" si="60">SUM(BH36:BH38)</f>
+        <v>63422.25</v>
       </c>
       <c r="BI39" s="5">
-        <f t="shared" ref="BI39" si="67">SUM(BI36:BI38)</f>
-        <v>62863.491583000003</v>
+        <f t="shared" ref="BI39" si="61">SUM(BI36:BI38)</f>
+        <v>65324.917500000003</v>
       </c>
       <c r="BJ39" s="5">
-        <f t="shared" ref="BJ39" si="68">SUM(BJ36:BJ38)</f>
-        <v>64749.39633049001</v>
+        <f t="shared" ref="BJ39" si="62">SUM(BJ36:BJ38)</f>
+        <v>67284.665025000009</v>
       </c>
       <c r="BK39" s="5">
-        <f t="shared" ref="BK39" si="69">SUM(BK36:BK38)</f>
-        <v>66691.878220404702</v>
+        <f t="shared" ref="BK39" si="63">SUM(BK36:BK38)</f>
+        <v>69303.204975750006</v>
       </c>
       <c r="BL39" s="5">
-        <f t="shared" ref="BL39" si="70">SUM(BL36:BL38)</f>
-        <v>68692.634567016852</v>
+        <f t="shared" ref="BL39" si="64">SUM(BL36:BL38)</f>
+        <v>71382.30112502251</v>
       </c>
       <c r="BM39" s="5">
-        <f t="shared" ref="BM39" si="71">SUM(BM36:BM38)</f>
-        <v>70753.413604027359</v>
+        <f t="shared" ref="BM39" si="65">SUM(BM36:BM38)</f>
+        <v>73523.770158773186</v>
       </c>
     </row>
     <row r="40" spans="2:123" s="4" customFormat="1">
@@ -6976,43 +7048,43 @@
         <v>24</v>
       </c>
       <c r="C40" s="5">
-        <f t="shared" ref="C40:D40" si="72">C35-C39</f>
+        <f t="shared" ref="C40:D40" si="66">C35-C39</f>
         <v>12686</v>
       </c>
       <c r="D40" s="5">
-        <f t="shared" si="72"/>
+        <f t="shared" si="66"/>
         <v>13891</v>
       </c>
       <c r="E40" s="5">
-        <f t="shared" ref="E40:F40" si="73">E35-E39</f>
+        <f t="shared" ref="E40:F40" si="67">E35-E39</f>
         <v>12975</v>
       </c>
       <c r="F40" s="5">
-        <f t="shared" si="73"/>
+        <f t="shared" si="67"/>
         <v>13407</v>
       </c>
       <c r="G40" s="5">
-        <f t="shared" ref="G40:L40" si="74">G35-G39</f>
+        <f t="shared" ref="G40:L40" si="68">G35-G39</f>
         <v>15876</v>
       </c>
       <c r="H40" s="5">
-        <f t="shared" si="74"/>
+        <f t="shared" si="68"/>
         <v>17897</v>
       </c>
       <c r="I40" s="5">
-        <f t="shared" si="74"/>
+        <f t="shared" si="68"/>
         <v>17048</v>
       </c>
       <c r="J40" s="5">
-        <f t="shared" si="74"/>
+        <f t="shared" si="68"/>
         <v>19095</v>
       </c>
       <c r="K40" s="5">
-        <f t="shared" si="74"/>
+        <f t="shared" si="68"/>
         <v>20238</v>
       </c>
       <c r="L40" s="5">
-        <f t="shared" si="74"/>
+        <f t="shared" si="68"/>
         <v>22247</v>
       </c>
       <c r="M40" s="5">
@@ -7020,11 +7092,11 @@
         <v>20364</v>
       </c>
       <c r="N40" s="5">
-        <f t="shared" ref="N40:O40" si="75">N35-N39</f>
+        <f t="shared" ref="N40:O40" si="69">N35-N39</f>
         <v>20534</v>
       </c>
       <c r="O40" s="5">
-        <f t="shared" si="75"/>
+        <f t="shared" si="69"/>
         <v>21518</v>
       </c>
       <c r="P40" s="5">
@@ -7036,33 +7108,33 @@
         <v>22352</v>
       </c>
       <c r="R40" s="5">
-        <f t="shared" ref="R40:U40" si="76">R35-R39</f>
+        <f t="shared" ref="R40:U40" si="70">R35-R39</f>
         <v>24254</v>
       </c>
       <c r="S40" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="70"/>
         <v>26895</v>
       </c>
       <c r="T40" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="70"/>
         <v>27032</v>
       </c>
       <c r="U40" s="5">
-        <f t="shared" si="76"/>
-        <v>23774.126500000002</v>
+        <f t="shared" si="70"/>
+        <v>27581</v>
       </c>
       <c r="V40" s="5">
-        <f t="shared" ref="V40" si="77">V35-V39</f>
-        <v>25417.530500000001</v>
+        <f t="shared" ref="V40" si="71">V35-V39</f>
+        <v>27925</v>
       </c>
       <c r="W40" s="5"/>
       <c r="X40" s="5"/>
       <c r="Y40" s="5">
-        <f t="shared" ref="Y40:Z40" si="78">Y35-Y39</f>
+        <f t="shared" ref="Y40:Z40" si="72">Y35-Y39</f>
         <v>393</v>
       </c>
       <c r="Z40" s="5">
-        <f t="shared" si="78"/>
+        <f t="shared" si="72"/>
         <v>650</v>
       </c>
       <c r="AA40" s="5">
@@ -7086,140 +7158,140 @@
         <v>3078</v>
       </c>
       <c r="AF40" s="5">
-        <f t="shared" ref="AF40" si="79">AF35-AF39</f>
+        <f t="shared" ref="AF40" si="73">AF35-AF39</f>
         <v>5130</v>
       </c>
       <c r="AG40" s="5">
-        <f t="shared" ref="AG40:AX40" si="80">AG35-AG39</f>
+        <f t="shared" ref="AG40:AX40" si="74">AG35-AG39</f>
         <v>6940</v>
       </c>
       <c r="AH40" s="5">
-        <f t="shared" si="80"/>
+        <f t="shared" si="74"/>
         <v>10043</v>
       </c>
       <c r="AI40" s="5">
-        <f t="shared" si="80"/>
+        <f t="shared" si="74"/>
         <v>11029</v>
       </c>
       <c r="AJ40" s="5">
-        <f t="shared" si="80"/>
+        <f t="shared" si="74"/>
         <v>11720</v>
       </c>
       <c r="AK40" s="5">
-        <f t="shared" si="80"/>
+        <f t="shared" si="74"/>
         <v>11910</v>
       </c>
       <c r="AL40" s="5">
-        <f t="shared" si="80"/>
+        <f t="shared" si="74"/>
         <v>13217</v>
       </c>
       <c r="AM40" s="5">
-        <f t="shared" si="80"/>
+        <f t="shared" si="74"/>
         <v>9034</v>
       </c>
       <c r="AN40" s="5">
-        <f t="shared" si="80"/>
+        <f t="shared" si="74"/>
         <v>14561</v>
       </c>
       <c r="AO40" s="5">
-        <f t="shared" si="80"/>
+        <f t="shared" si="74"/>
         <v>16472</v>
       </c>
       <c r="AP40" s="5">
-        <f t="shared" si="80"/>
+        <f t="shared" si="74"/>
         <v>18524</v>
       </c>
       <c r="AQ40" s="5">
-        <f t="shared" si="80"/>
+        <f t="shared" si="74"/>
         <v>22492</v>
       </c>
       <c r="AR40" s="5">
-        <f t="shared" si="80"/>
+        <f t="shared" si="74"/>
         <v>20693</v>
       </c>
       <c r="AS40" s="5">
-        <f t="shared" si="80"/>
+        <f t="shared" si="74"/>
         <v>24157</v>
       </c>
       <c r="AT40" s="5">
-        <f t="shared" si="80"/>
+        <f t="shared" si="74"/>
         <v>27161</v>
       </c>
       <c r="AU40" s="5">
-        <f t="shared" si="80"/>
+        <f t="shared" si="74"/>
         <v>27956</v>
       </c>
       <c r="AV40" s="5">
-        <f t="shared" si="80"/>
+        <f t="shared" si="74"/>
         <v>26764</v>
       </c>
       <c r="AW40" s="5">
-        <f t="shared" si="80"/>
+        <f t="shared" si="74"/>
         <v>27886</v>
       </c>
       <c r="AX40" s="5">
-        <f t="shared" si="80"/>
+        <f t="shared" si="74"/>
         <v>28172</v>
       </c>
       <c r="AY40" s="5">
-        <f t="shared" ref="AY40:AZ40" si="81">AY35-AY39</f>
+        <f t="shared" ref="AY40:AZ40" si="75">AY35-AY39</f>
         <v>21292</v>
       </c>
       <c r="AZ40" s="5">
-        <f t="shared" si="81"/>
+        <f t="shared" si="75"/>
         <v>29331</v>
       </c>
       <c r="BA40" s="5">
-        <f t="shared" ref="BA40:BB40" si="82">BA35-BA39</f>
+        <f t="shared" ref="BA40:BB40" si="76">BA35-BA39</f>
         <v>35058</v>
       </c>
       <c r="BB40" s="5">
-        <f t="shared" si="82"/>
+        <f t="shared" si="76"/>
         <v>42959</v>
       </c>
       <c r="BC40" s="5">
-        <f t="shared" ref="BC40" si="83">BC35-BC39</f>
+        <f t="shared" ref="BC40" si="77">BC35-BC39</f>
         <v>52959</v>
       </c>
       <c r="BD40" s="5">
-        <f t="shared" ref="BD40:BF40" si="84">BD35-BD39</f>
+        <f t="shared" ref="BD40:BF40" si="78">BD35-BD39</f>
         <v>69916</v>
       </c>
       <c r="BE40" s="5">
-        <f t="shared" si="84"/>
+        <f t="shared" si="78"/>
         <v>83383</v>
       </c>
       <c r="BF40" s="5">
-        <f t="shared" si="84"/>
+        <f t="shared" si="78"/>
         <v>88523</v>
       </c>
       <c r="BG40" s="5">
-        <f t="shared" ref="BG40" si="85">BG35-BG39</f>
-        <v>98823.837900000013</v>
+        <f t="shared" ref="BG40" si="79">BG35-BG39</f>
+        <v>109433</v>
       </c>
       <c r="BH40" s="5">
-        <f t="shared" ref="BH40" si="86">BH35-BH39</f>
-        <v>109728.64799700002</v>
+        <f t="shared" ref="BH40" si="80">BH35-BH39</f>
+        <v>114194.81030000004</v>
       </c>
       <c r="BI40" s="5">
-        <f t="shared" ref="BI40" si="87">BI35-BI39</f>
-        <v>121754.61189291003</v>
+        <f t="shared" ref="BI40" si="81">BI35-BI39</f>
+        <v>126924.85951900005</v>
       </c>
       <c r="BJ40" s="5">
-        <f t="shared" ref="BJ40" si="88">BJ35-BJ39</f>
-        <v>135014.76515129732</v>
+        <f t="shared" ref="BJ40" si="82">BJ35-BJ39</f>
+        <v>140967.23070557002</v>
       </c>
       <c r="BK40" s="5">
-        <f t="shared" ref="BK40" si="89">BK35-BK39</f>
-        <v>149633.4744975963</v>
+        <f t="shared" ref="BK40" si="83">BK35-BK39</f>
+        <v>156454.33556783717</v>
       </c>
       <c r="BL40" s="5">
-        <f t="shared" ref="BL40" si="90">BL35-BL39</f>
-        <v>165747.5717634602</v>
+        <f t="shared" ref="BL40" si="84">BL35-BL39</f>
+        <v>173531.86237008235</v>
       </c>
       <c r="BM40" s="5">
-        <f t="shared" ref="BM40" si="91">BM35-BM39</f>
-        <v>183507.60125039361</v>
+        <f t="shared" ref="BM40" si="85">BM35-BM39</f>
+        <v>192360.10464991583</v>
       </c>
     </row>
     <row r="41" spans="2:123">
@@ -7281,12 +7353,11 @@
         <v>-506</v>
       </c>
       <c r="U41" s="4">
-        <f t="shared" ref="T41:V41" si="92">T41</f>
+        <f t="shared" ref="U41:V41" si="86">T41</f>
         <v>-506</v>
       </c>
       <c r="V41" s="4">
-        <f t="shared" si="92"/>
-        <v>-506</v>
+        <v>-675</v>
       </c>
       <c r="Y41">
         <f>31-14</f>
@@ -7397,40 +7468,40 @@
         <v>1186</v>
       </c>
       <c r="BE41" s="5">
-        <f t="shared" ref="BE41" si="93">SUM(K41:N41)</f>
+        <f t="shared" ref="BE41:BG41" si="87">SUM(K41:N41)</f>
         <v>333</v>
       </c>
       <c r="BF41" s="5">
-        <f t="shared" ref="BF41:BM41" si="94">+BE61*$BP$49</f>
-        <v>618.66999999999996</v>
+        <f t="shared" si="87"/>
+        <v>101</v>
       </c>
       <c r="BG41" s="5">
-        <f>+BF61*$BP$49</f>
-        <v>1376.3741950000001</v>
+        <f t="shared" si="87"/>
+        <v>-227</v>
       </c>
       <c r="BH41" s="5">
-        <f t="shared" si="94"/>
-        <v>2187.9959129695003</v>
+        <f t="shared" ref="BF41:BM41" si="88">+BG61*$BP$49</f>
+        <v>2256.5426000000002</v>
       </c>
       <c r="BI41" s="5">
-        <f t="shared" si="94"/>
-        <v>3139.2873862042411</v>
+        <f t="shared" si="88"/>
+        <v>3246.3790996500006</v>
       </c>
       <c r="BJ41" s="5">
-        <f t="shared" si="94"/>
-        <v>4200.8855300767127</v>
+        <f t="shared" si="88"/>
+        <v>4352.8346279085263</v>
       </c>
       <c r="BK41" s="5">
-        <f t="shared" si="94"/>
-        <v>5384.2185608683922</v>
+        <f t="shared" si="88"/>
+        <v>5588.0551832430938</v>
       </c>
       <c r="BL41" s="5">
-        <f t="shared" si="94"/>
-        <v>6701.8689518653418</v>
+        <f t="shared" si="88"/>
+        <v>6965.4155046272772</v>
       </c>
       <c r="BM41" s="5">
-        <f t="shared" si="94"/>
-        <v>8167.6891979456086</v>
+        <f t="shared" si="88"/>
+        <v>8499.6423665623097</v>
       </c>
     </row>
     <row r="42" spans="2:123">
@@ -7438,19 +7509,19 @@
         <v>29</v>
       </c>
       <c r="C42" s="5">
-        <f t="shared" ref="C42:D42" si="95">C40+C41</f>
+        <f t="shared" ref="C42:D42" si="89">C40+C41</f>
         <v>12686</v>
       </c>
       <c r="D42" s="5">
-        <f t="shared" si="95"/>
+        <f t="shared" si="89"/>
         <v>14085</v>
       </c>
       <c r="E42" s="5">
-        <f t="shared" ref="E42:F42" si="96">E40+E41</f>
+        <f t="shared" ref="E42:F42" si="90">E40+E41</f>
         <v>12843</v>
       </c>
       <c r="F42" s="5">
-        <f t="shared" si="96"/>
+        <f t="shared" si="90"/>
         <v>13422</v>
       </c>
       <c r="G42" s="5">
@@ -7458,71 +7529,71 @@
         <v>16124</v>
       </c>
       <c r="H42" s="5">
-        <f t="shared" ref="H42:V42" si="97">H40+H41</f>
+        <f t="shared" ref="H42:V42" si="91">H40+H41</f>
         <v>18337</v>
       </c>
       <c r="I42" s="5">
-        <f t="shared" si="97"/>
+        <f t="shared" si="91"/>
         <v>17236</v>
       </c>
       <c r="J42" s="5">
-        <f t="shared" si="97"/>
+        <f t="shared" si="91"/>
         <v>19405</v>
       </c>
       <c r="K42" s="5">
-        <f t="shared" si="97"/>
+        <f t="shared" si="91"/>
         <v>20524</v>
       </c>
       <c r="L42" s="5">
-        <f t="shared" si="97"/>
+        <f t="shared" si="91"/>
         <v>22515</v>
       </c>
       <c r="M42" s="5">
-        <f t="shared" si="97"/>
+        <f t="shared" si="91"/>
         <v>20190</v>
       </c>
       <c r="N42" s="5">
-        <f t="shared" si="97"/>
+        <f t="shared" si="91"/>
         <v>20487</v>
       </c>
       <c r="O42" s="5">
-        <f t="shared" si="97"/>
+        <f t="shared" si="91"/>
         <v>21572</v>
       </c>
       <c r="P42" s="5">
-        <f t="shared" si="97"/>
+        <f t="shared" si="91"/>
         <v>20339</v>
       </c>
       <c r="Q42" s="5">
-        <f t="shared" si="97"/>
+        <f t="shared" si="91"/>
         <v>22673</v>
       </c>
       <c r="R42" s="5">
-        <f t="shared" si="97"/>
+        <f t="shared" si="91"/>
         <v>24727</v>
       </c>
       <c r="S42" s="5">
-        <f t="shared" si="97"/>
+        <f t="shared" si="91"/>
         <v>27284</v>
       </c>
       <c r="T42" s="5">
-        <f t="shared" si="97"/>
+        <f t="shared" si="91"/>
         <v>26526</v>
       </c>
       <c r="U42" s="5">
-        <f t="shared" si="97"/>
-        <v>23268.126500000002</v>
+        <f t="shared" si="91"/>
+        <v>27075</v>
       </c>
       <c r="V42" s="5">
-        <f t="shared" si="97"/>
-        <v>24911.530500000001</v>
+        <f t="shared" si="91"/>
+        <v>27250</v>
       </c>
       <c r="Y42" s="4">
-        <f t="shared" ref="Y42:Z42" si="98">Y41+Y40</f>
+        <f t="shared" ref="Y42:Z42" si="92">Y41+Y40</f>
         <v>410</v>
       </c>
       <c r="Z42" s="4">
-        <f t="shared" si="98"/>
+        <f t="shared" si="92"/>
         <v>671</v>
       </c>
       <c r="AA42" s="4">
@@ -7546,79 +7617,79 @@
         <v>3379</v>
       </c>
       <c r="AF42" s="4">
-        <f t="shared" ref="AF42" si="99">AF41+AF40</f>
+        <f t="shared" ref="AF42" si="93">AF41+AF40</f>
         <v>5314</v>
       </c>
       <c r="AG42" s="4">
-        <f t="shared" ref="AG42:AX42" si="100">AG41+AG40</f>
+        <f t="shared" ref="AG42:AX42" si="94">AG41+AG40</f>
         <v>7413</v>
       </c>
       <c r="AH42" s="4">
-        <f t="shared" si="100"/>
+        <f t="shared" si="94"/>
         <v>11731</v>
       </c>
       <c r="AI42" s="4">
-        <f t="shared" si="100"/>
+        <f t="shared" si="94"/>
         <v>14119</v>
       </c>
       <c r="AJ42" s="4">
-        <f t="shared" si="100"/>
+        <f t="shared" si="94"/>
         <v>11684</v>
       </c>
       <c r="AK42" s="4">
-        <f t="shared" si="100"/>
+        <f t="shared" si="94"/>
         <v>11605</v>
       </c>
       <c r="AL42" s="4">
-        <f t="shared" si="100"/>
+        <f t="shared" si="94"/>
         <v>14794</v>
       </c>
       <c r="AM42" s="4">
-        <f t="shared" si="100"/>
+        <f t="shared" si="94"/>
         <v>12221</v>
       </c>
       <c r="AN42" s="4">
-        <f t="shared" si="100"/>
+        <f t="shared" si="94"/>
         <v>16628</v>
       </c>
       <c r="AO42" s="4">
-        <f t="shared" si="100"/>
+        <f t="shared" si="94"/>
         <v>18262</v>
       </c>
       <c r="AP42" s="4">
-        <f t="shared" si="100"/>
+        <f t="shared" si="94"/>
         <v>20101</v>
       </c>
       <c r="AQ42" s="4">
-        <f t="shared" si="100"/>
+        <f t="shared" si="94"/>
         <v>23814</v>
       </c>
       <c r="AR42" s="4">
-        <f t="shared" si="100"/>
+        <f t="shared" si="94"/>
         <v>20151</v>
       </c>
       <c r="AS42" s="4">
-        <f t="shared" si="100"/>
+        <f t="shared" si="94"/>
         <v>25072</v>
       </c>
       <c r="AT42" s="4">
-        <f t="shared" si="100"/>
+        <f t="shared" si="94"/>
         <v>28071</v>
       </c>
       <c r="AU42" s="4">
-        <f t="shared" si="100"/>
+        <f t="shared" si="94"/>
         <v>28460</v>
       </c>
       <c r="AV42" s="4">
-        <f t="shared" si="100"/>
+        <f t="shared" si="94"/>
         <v>27052</v>
       </c>
       <c r="AW42" s="4">
-        <f t="shared" si="100"/>
+        <f t="shared" si="94"/>
         <v>27947</v>
       </c>
       <c r="AX42" s="4">
-        <f t="shared" si="100"/>
+        <f t="shared" si="94"/>
         <v>28518</v>
       </c>
       <c r="AY42" s="4">
@@ -7642,44 +7713,44 @@
         <v>53036</v>
       </c>
       <c r="BD42" s="5">
-        <f t="shared" ref="BD42:BF42" si="101">+BD40+BD41</f>
+        <f t="shared" ref="BD42:BF42" si="95">+BD40+BD41</f>
         <v>71102</v>
       </c>
       <c r="BE42" s="5">
-        <f t="shared" si="101"/>
+        <f t="shared" si="95"/>
         <v>83716</v>
       </c>
       <c r="BF42" s="5">
-        <f t="shared" si="101"/>
-        <v>89141.67</v>
+        <f t="shared" si="95"/>
+        <v>88624</v>
       </c>
       <c r="BG42" s="5">
-        <f t="shared" ref="BG42" si="102">+BG40+BG41</f>
-        <v>100200.21209500001</v>
+        <f t="shared" ref="BG42" si="96">+BG40+BG41</f>
+        <v>109206</v>
       </c>
       <c r="BH42" s="5">
-        <f t="shared" ref="BH42" si="103">+BH40+BH41</f>
-        <v>111916.64390996953</v>
+        <f t="shared" ref="BH42" si="97">+BH40+BH41</f>
+        <v>116451.35290000004</v>
       </c>
       <c r="BI42" s="5">
-        <f t="shared" ref="BI42" si="104">+BI40+BI41</f>
-        <v>124893.89927911428</v>
+        <f t="shared" ref="BI42" si="98">+BI40+BI41</f>
+        <v>130171.23861865005</v>
       </c>
       <c r="BJ42" s="5">
-        <f t="shared" ref="BJ42" si="105">+BJ40+BJ41</f>
-        <v>139215.65068137404</v>
+        <f t="shared" ref="BJ42" si="99">+BJ40+BJ41</f>
+        <v>145320.06533347856</v>
       </c>
       <c r="BK42" s="5">
-        <f t="shared" ref="BK42" si="106">+BK40+BK41</f>
-        <v>155017.69305846468</v>
+        <f t="shared" ref="BK42" si="100">+BK40+BK41</f>
+        <v>162042.39075108027</v>
       </c>
       <c r="BL42" s="5">
-        <f t="shared" ref="BL42" si="107">+BL40+BL41</f>
-        <v>172449.44071532556</v>
+        <f t="shared" ref="BL42" si="101">+BL40+BL41</f>
+        <v>180497.27787470963</v>
       </c>
       <c r="BM42" s="5">
-        <f t="shared" ref="BM42" si="108">+BM40+BM41</f>
-        <v>191675.29044833922</v>
+        <f t="shared" ref="BM42" si="102">+BM40+BM41</f>
+        <v>200859.74701647813</v>
       </c>
     </row>
     <row r="43" spans="2:123" s="4" customFormat="1">
@@ -7741,12 +7812,11 @@
         <v>4656</v>
       </c>
       <c r="U43" s="4">
-        <f t="shared" ref="T43:V43" si="109">U42*0.2</f>
-        <v>4653.6253000000006</v>
+        <f t="shared" ref="U43:V43" si="103">U42*0.2</f>
+        <v>5415</v>
       </c>
       <c r="V43" s="4">
-        <f t="shared" si="109"/>
-        <v>4982.3061000000007</v>
+        <v>5214</v>
       </c>
       <c r="Y43" s="4">
         <v>131</v>
@@ -7847,40 +7917,40 @@
         <v>9831</v>
       </c>
       <c r="BE43" s="5">
-        <f t="shared" ref="BE43" si="110">SUM(K43:N43)</f>
+        <f t="shared" ref="BE43" si="104">SUM(K43:N43)</f>
         <v>10978</v>
       </c>
       <c r="BF43" s="5">
         <f>+BF42*0.15</f>
-        <v>13371.2505</v>
+        <v>13293.6</v>
       </c>
       <c r="BG43" s="5">
         <f>+BG42*0.19</f>
-        <v>19038.040298050004</v>
+        <v>20749.14</v>
       </c>
       <c r="BH43" s="5">
-        <f t="shared" ref="BH43:BM43" si="111">+BH42*0.15</f>
-        <v>16787.496586495428</v>
+        <f t="shared" ref="BH43:BM43" si="105">+BH42*0.15</f>
+        <v>17467.702935000005</v>
       </c>
       <c r="BI43" s="5">
-        <f t="shared" si="111"/>
-        <v>18734.08489186714</v>
+        <f t="shared" si="105"/>
+        <v>19525.685792797507</v>
       </c>
       <c r="BJ43" s="5">
-        <f t="shared" si="111"/>
-        <v>20882.347602206104</v>
+        <f t="shared" si="105"/>
+        <v>21798.009800021784</v>
       </c>
       <c r="BK43" s="5">
-        <f t="shared" si="111"/>
-        <v>23252.653958769701</v>
+        <f t="shared" si="105"/>
+        <v>24306.358612662039</v>
       </c>
       <c r="BL43" s="5">
-        <f t="shared" si="111"/>
-        <v>25867.416107298832</v>
+        <f t="shared" si="105"/>
+        <v>27074.591681206442</v>
       </c>
       <c r="BM43" s="5">
-        <f t="shared" si="111"/>
-        <v>28751.293567250883</v>
+        <f t="shared" si="105"/>
+        <v>30128.962052471717</v>
       </c>
     </row>
     <row r="44" spans="2:123" s="4" customFormat="1">
@@ -7888,19 +7958,19 @@
         <v>31</v>
       </c>
       <c r="C44" s="5">
-        <f t="shared" ref="C44:D44" si="112">C42-C43</f>
+        <f t="shared" ref="C44:D44" si="106">C42-C43</f>
         <v>10678</v>
       </c>
       <c r="D44" s="5">
-        <f t="shared" si="112"/>
+        <f t="shared" si="106"/>
         <v>11649</v>
       </c>
       <c r="E44" s="5">
-        <f t="shared" ref="E44:F44" si="113">E42-E43</f>
+        <f t="shared" ref="E44:F44" si="107">E42-E43</f>
         <v>10752</v>
       </c>
       <c r="F44" s="5">
-        <f t="shared" si="113"/>
+        <f t="shared" si="107"/>
         <v>11202</v>
       </c>
       <c r="G44" s="5">
@@ -7908,39 +7978,39 @@
         <v>13893</v>
       </c>
       <c r="H44" s="5">
-        <f t="shared" ref="H44:V44" si="114">H42-H43</f>
+        <f t="shared" ref="H44:V44" si="108">H42-H43</f>
         <v>15463</v>
       </c>
       <c r="I44" s="5">
-        <f t="shared" si="114"/>
+        <f t="shared" si="108"/>
         <v>15457</v>
       </c>
       <c r="J44" s="5">
-        <f t="shared" si="114"/>
+        <f t="shared" si="108"/>
         <v>16458</v>
       </c>
       <c r="K44" s="5">
-        <f t="shared" si="114"/>
+        <f t="shared" si="108"/>
         <v>20505</v>
       </c>
       <c r="L44" s="5">
-        <f t="shared" si="114"/>
+        <f t="shared" si="108"/>
         <v>18765</v>
       </c>
       <c r="M44" s="5">
-        <f t="shared" si="114"/>
+        <f t="shared" si="108"/>
         <v>16728</v>
       </c>
       <c r="N44" s="5">
-        <f t="shared" si="114"/>
+        <f t="shared" si="108"/>
         <v>16740</v>
       </c>
       <c r="O44" s="5">
-        <f t="shared" si="114"/>
+        <f t="shared" si="108"/>
         <v>17556</v>
       </c>
       <c r="P44" s="5">
-        <f t="shared" si="114"/>
+        <f t="shared" si="108"/>
         <v>16425</v>
       </c>
       <c r="Q44" s="5">
@@ -7948,31 +8018,31 @@
         <v>18299</v>
       </c>
       <c r="R44" s="5">
-        <f t="shared" si="114"/>
+        <f t="shared" si="108"/>
         <v>20081</v>
       </c>
       <c r="S44" s="5">
-        <f t="shared" si="114"/>
+        <f t="shared" si="108"/>
         <v>22291</v>
       </c>
       <c r="T44" s="5">
-        <f t="shared" si="114"/>
+        <f t="shared" si="108"/>
         <v>21870</v>
       </c>
       <c r="U44" s="5">
-        <f t="shared" si="114"/>
-        <v>18614.501200000002</v>
+        <f t="shared" si="108"/>
+        <v>21660</v>
       </c>
       <c r="V44" s="5">
-        <f t="shared" si="114"/>
-        <v>19929.224399999999</v>
+        <f t="shared" si="108"/>
+        <v>22036</v>
       </c>
       <c r="Y44" s="4">
-        <f t="shared" ref="Y44:Z44" si="115">Y42-Y43</f>
+        <f t="shared" ref="Y44:Z44" si="109">Y42-Y43</f>
         <v>279</v>
       </c>
       <c r="Z44" s="4">
-        <f t="shared" si="115"/>
+        <f t="shared" si="109"/>
         <v>463</v>
       </c>
       <c r="AA44" s="4">
@@ -7996,79 +8066,79 @@
         <v>2195</v>
       </c>
       <c r="AF44" s="4">
-        <f t="shared" ref="AF44" si="116">AF42-AF43</f>
+        <f t="shared" ref="AF44" si="110">AF42-AF43</f>
         <v>3454</v>
       </c>
       <c r="AG44" s="4">
-        <f t="shared" ref="AG44:AX44" si="117">AG42-AG43</f>
+        <f t="shared" ref="AG44:AX44" si="111">AG42-AG43</f>
         <v>4758</v>
       </c>
       <c r="AH44" s="4">
-        <f t="shared" si="117"/>
+        <f t="shared" si="111"/>
         <v>7625</v>
       </c>
       <c r="AI44" s="4">
-        <f t="shared" si="117"/>
+        <f t="shared" si="111"/>
         <v>9265</v>
       </c>
       <c r="AJ44" s="4">
-        <f t="shared" si="117"/>
+        <f t="shared" si="111"/>
         <v>7880</v>
       </c>
       <c r="AK44" s="4">
-        <f t="shared" si="117"/>
+        <f t="shared" si="111"/>
         <v>7921</v>
       </c>
       <c r="AL44" s="4">
-        <f t="shared" si="117"/>
+        <f t="shared" si="111"/>
         <v>10061</v>
       </c>
       <c r="AM44" s="4">
-        <f t="shared" si="117"/>
+        <f t="shared" si="111"/>
         <v>8193</v>
       </c>
       <c r="AN44" s="4">
-        <f t="shared" si="117"/>
+        <f t="shared" si="111"/>
         <v>12254</v>
       </c>
       <c r="AO44" s="4">
-        <f t="shared" si="117"/>
+        <f t="shared" si="111"/>
         <v>12599</v>
       </c>
       <c r="AP44" s="4">
-        <f t="shared" si="117"/>
+        <f t="shared" si="111"/>
         <v>14065</v>
       </c>
       <c r="AQ44" s="4">
-        <f t="shared" si="117"/>
+        <f t="shared" si="111"/>
         <v>17681</v>
       </c>
       <c r="AR44" s="4">
-        <f t="shared" si="117"/>
+        <f t="shared" si="111"/>
         <v>14899</v>
       </c>
       <c r="AS44" s="4">
-        <f t="shared" si="117"/>
+        <f t="shared" si="111"/>
         <v>18819</v>
       </c>
       <c r="AT44" s="4">
-        <f t="shared" si="117"/>
+        <f t="shared" si="111"/>
         <v>23150</v>
       </c>
       <c r="AU44" s="4">
-        <f t="shared" si="117"/>
+        <f t="shared" si="111"/>
         <v>23171</v>
       </c>
       <c r="AV44" s="4">
-        <f t="shared" si="117"/>
+        <f t="shared" si="111"/>
         <v>21863</v>
       </c>
       <c r="AW44" s="4">
-        <f t="shared" si="117"/>
+        <f t="shared" si="111"/>
         <v>22201</v>
       </c>
       <c r="AX44" s="4">
-        <f t="shared" si="117"/>
+        <f t="shared" si="111"/>
         <v>22204</v>
       </c>
       <c r="AY44" s="4">
@@ -8092,276 +8162,276 @@
         <v>44281</v>
       </c>
       <c r="BD44" s="4">
-        <f t="shared" ref="BD44:BF44" si="118">+BD42-BD43</f>
+        <f t="shared" ref="BD44:BF44" si="112">+BD42-BD43</f>
         <v>61271</v>
       </c>
       <c r="BE44" s="4">
-        <f t="shared" si="118"/>
+        <f t="shared" si="112"/>
         <v>72738</v>
       </c>
       <c r="BF44" s="4">
-        <f t="shared" si="118"/>
-        <v>75770.419500000004</v>
+        <f t="shared" si="112"/>
+        <v>75330.399999999994</v>
       </c>
       <c r="BG44" s="4">
-        <f t="shared" ref="BG44" si="119">+BG42-BG43</f>
-        <v>81162.171796950002</v>
+        <f t="shared" ref="BG44" si="113">+BG42-BG43</f>
+        <v>88456.86</v>
       </c>
       <c r="BH44" s="4">
-        <f t="shared" ref="BH44" si="120">+BH42-BH43</f>
-        <v>95129.147323474099</v>
+        <f t="shared" ref="BH44" si="114">+BH42-BH43</f>
+        <v>98983.649965000033</v>
       </c>
       <c r="BI44" s="4">
-        <f t="shared" ref="BI44" si="121">+BI42-BI43</f>
-        <v>106159.81438724714</v>
+        <f t="shared" ref="BI44" si="115">+BI42-BI43</f>
+        <v>110645.55282585254</v>
       </c>
       <c r="BJ44" s="4">
-        <f t="shared" ref="BJ44" si="122">+BJ42-BJ43</f>
-        <v>118333.30307916793</v>
+        <f t="shared" ref="BJ44" si="116">+BJ42-BJ43</f>
+        <v>123522.05553345678</v>
       </c>
       <c r="BK44" s="4">
-        <f t="shared" ref="BK44" si="123">+BK42-BK43</f>
-        <v>131765.03909969499</v>
+        <f t="shared" ref="BK44" si="117">+BK42-BK43</f>
+        <v>137736.03213841823</v>
       </c>
       <c r="BL44" s="4">
-        <f t="shared" ref="BL44" si="124">+BL42-BL43</f>
-        <v>146582.02460802672</v>
+        <f t="shared" ref="BL44" si="118">+BL42-BL43</f>
+        <v>153422.68619350318</v>
       </c>
       <c r="BM44" s="4">
-        <f t="shared" ref="BM44" si="125">+BM42-BM43</f>
-        <v>162923.99688108833</v>
+        <f t="shared" ref="BM44" si="119">+BM42-BM43</f>
+        <v>170730.78496400639</v>
       </c>
       <c r="BN44" s="4">
         <f>+BM44*(1+$BP$47)</f>
-        <v>162923.99688108833</v>
+        <v>170730.78496400639</v>
       </c>
       <c r="BO44" s="4">
-        <f t="shared" ref="BO44:DS44" si="126">+BN44*(1+$BP$47)</f>
-        <v>162923.99688108833</v>
+        <f t="shared" ref="BO44:DS44" si="120">+BN44*(1+$BP$47)</f>
+        <v>170730.78496400639</v>
       </c>
       <c r="BP44" s="4">
-        <f t="shared" si="126"/>
-        <v>162923.99688108833</v>
+        <f t="shared" si="120"/>
+        <v>170730.78496400639</v>
       </c>
       <c r="BQ44" s="4">
-        <f t="shared" si="126"/>
-        <v>162923.99688108833</v>
+        <f t="shared" si="120"/>
+        <v>170730.78496400639</v>
       </c>
       <c r="BR44" s="4">
-        <f t="shared" si="126"/>
-        <v>162923.99688108833</v>
+        <f t="shared" si="120"/>
+        <v>170730.78496400639</v>
       </c>
       <c r="BS44" s="4">
-        <f t="shared" si="126"/>
-        <v>162923.99688108833</v>
+        <f t="shared" si="120"/>
+        <v>170730.78496400639</v>
       </c>
       <c r="BT44" s="4">
-        <f t="shared" si="126"/>
-        <v>162923.99688108833</v>
+        <f t="shared" si="120"/>
+        <v>170730.78496400639</v>
       </c>
       <c r="BU44" s="4">
-        <f t="shared" si="126"/>
-        <v>162923.99688108833</v>
+        <f t="shared" si="120"/>
+        <v>170730.78496400639</v>
       </c>
       <c r="BV44" s="4">
-        <f t="shared" si="126"/>
-        <v>162923.99688108833</v>
+        <f t="shared" si="120"/>
+        <v>170730.78496400639</v>
       </c>
       <c r="BW44" s="4">
-        <f t="shared" si="126"/>
-        <v>162923.99688108833</v>
+        <f t="shared" si="120"/>
+        <v>170730.78496400639</v>
       </c>
       <c r="BX44" s="4">
-        <f t="shared" si="126"/>
-        <v>162923.99688108833</v>
+        <f t="shared" si="120"/>
+        <v>170730.78496400639</v>
       </c>
       <c r="BY44" s="4">
-        <f t="shared" si="126"/>
-        <v>162923.99688108833</v>
+        <f t="shared" si="120"/>
+        <v>170730.78496400639</v>
       </c>
       <c r="BZ44" s="4">
-        <f t="shared" si="126"/>
-        <v>162923.99688108833</v>
+        <f t="shared" si="120"/>
+        <v>170730.78496400639</v>
       </c>
       <c r="CA44" s="4">
-        <f t="shared" si="126"/>
-        <v>162923.99688108833</v>
+        <f t="shared" si="120"/>
+        <v>170730.78496400639</v>
       </c>
       <c r="CB44" s="4">
-        <f t="shared" si="126"/>
-        <v>162923.99688108833</v>
+        <f t="shared" si="120"/>
+        <v>170730.78496400639</v>
       </c>
       <c r="CC44" s="4">
-        <f t="shared" si="126"/>
-        <v>162923.99688108833</v>
+        <f t="shared" si="120"/>
+        <v>170730.78496400639</v>
       </c>
       <c r="CD44" s="4">
-        <f t="shared" si="126"/>
-        <v>162923.99688108833</v>
+        <f t="shared" si="120"/>
+        <v>170730.78496400639</v>
       </c>
       <c r="CE44" s="4">
-        <f t="shared" si="126"/>
-        <v>162923.99688108833</v>
+        <f t="shared" si="120"/>
+        <v>170730.78496400639</v>
       </c>
       <c r="CF44" s="4">
-        <f t="shared" si="126"/>
-        <v>162923.99688108833</v>
+        <f t="shared" si="120"/>
+        <v>170730.78496400639</v>
       </c>
       <c r="CG44" s="4">
-        <f t="shared" si="126"/>
-        <v>162923.99688108833</v>
+        <f t="shared" si="120"/>
+        <v>170730.78496400639</v>
       </c>
       <c r="CH44" s="4">
-        <f t="shared" si="126"/>
-        <v>162923.99688108833</v>
+        <f t="shared" si="120"/>
+        <v>170730.78496400639</v>
       </c>
       <c r="CI44" s="4">
-        <f t="shared" si="126"/>
-        <v>162923.99688108833</v>
+        <f t="shared" si="120"/>
+        <v>170730.78496400639</v>
       </c>
       <c r="CJ44" s="4">
-        <f t="shared" si="126"/>
-        <v>162923.99688108833</v>
+        <f t="shared" si="120"/>
+        <v>170730.78496400639</v>
       </c>
       <c r="CK44" s="4">
-        <f t="shared" si="126"/>
-        <v>162923.99688108833</v>
+        <f t="shared" si="120"/>
+        <v>170730.78496400639</v>
       </c>
       <c r="CL44" s="4">
-        <f t="shared" si="126"/>
-        <v>162923.99688108833</v>
+        <f t="shared" si="120"/>
+        <v>170730.78496400639</v>
       </c>
       <c r="CM44" s="4">
-        <f t="shared" si="126"/>
-        <v>162923.99688108833</v>
+        <f t="shared" si="120"/>
+        <v>170730.78496400639</v>
       </c>
       <c r="CN44" s="4">
-        <f t="shared" si="126"/>
-        <v>162923.99688108833</v>
+        <f t="shared" si="120"/>
+        <v>170730.78496400639</v>
       </c>
       <c r="CO44" s="4">
-        <f t="shared" si="126"/>
-        <v>162923.99688108833</v>
+        <f t="shared" si="120"/>
+        <v>170730.78496400639</v>
       </c>
       <c r="CP44" s="4">
-        <f t="shared" si="126"/>
-        <v>162923.99688108833</v>
+        <f t="shared" si="120"/>
+        <v>170730.78496400639</v>
       </c>
       <c r="CQ44" s="4">
-        <f t="shared" si="126"/>
-        <v>162923.99688108833</v>
+        <f t="shared" si="120"/>
+        <v>170730.78496400639</v>
       </c>
       <c r="CR44" s="4">
-        <f t="shared" si="126"/>
-        <v>162923.99688108833</v>
+        <f t="shared" si="120"/>
+        <v>170730.78496400639</v>
       </c>
       <c r="CS44" s="4">
-        <f t="shared" si="126"/>
-        <v>162923.99688108833</v>
+        <f t="shared" si="120"/>
+        <v>170730.78496400639</v>
       </c>
       <c r="CT44" s="4">
-        <f t="shared" si="126"/>
-        <v>162923.99688108833</v>
+        <f t="shared" si="120"/>
+        <v>170730.78496400639</v>
       </c>
       <c r="CU44" s="4">
-        <f t="shared" si="126"/>
-        <v>162923.99688108833</v>
+        <f t="shared" si="120"/>
+        <v>170730.78496400639</v>
       </c>
       <c r="CV44" s="4">
-        <f t="shared" si="126"/>
-        <v>162923.99688108833</v>
+        <f t="shared" si="120"/>
+        <v>170730.78496400639</v>
       </c>
       <c r="CW44" s="4">
-        <f t="shared" si="126"/>
-        <v>162923.99688108833</v>
+        <f t="shared" si="120"/>
+        <v>170730.78496400639</v>
       </c>
       <c r="CX44" s="4">
-        <f t="shared" si="126"/>
-        <v>162923.99688108833</v>
+        <f t="shared" si="120"/>
+        <v>170730.78496400639</v>
       </c>
       <c r="CY44" s="4">
-        <f t="shared" si="126"/>
-        <v>162923.99688108833</v>
+        <f t="shared" si="120"/>
+        <v>170730.78496400639</v>
       </c>
       <c r="CZ44" s="4">
-        <f t="shared" si="126"/>
-        <v>162923.99688108833</v>
+        <f t="shared" si="120"/>
+        <v>170730.78496400639</v>
       </c>
       <c r="DA44" s="4">
-        <f t="shared" si="126"/>
-        <v>162923.99688108833</v>
+        <f t="shared" si="120"/>
+        <v>170730.78496400639</v>
       </c>
       <c r="DB44" s="4">
-        <f t="shared" si="126"/>
-        <v>162923.99688108833</v>
+        <f t="shared" si="120"/>
+        <v>170730.78496400639</v>
       </c>
       <c r="DC44" s="4">
-        <f t="shared" si="126"/>
-        <v>162923.99688108833</v>
+        <f t="shared" si="120"/>
+        <v>170730.78496400639</v>
       </c>
       <c r="DD44" s="4">
-        <f t="shared" si="126"/>
-        <v>162923.99688108833</v>
+        <f t="shared" si="120"/>
+        <v>170730.78496400639</v>
       </c>
       <c r="DE44" s="4">
-        <f t="shared" si="126"/>
-        <v>162923.99688108833</v>
+        <f t="shared" si="120"/>
+        <v>170730.78496400639</v>
       </c>
       <c r="DF44" s="4">
-        <f t="shared" si="126"/>
-        <v>162923.99688108833</v>
+        <f t="shared" si="120"/>
+        <v>170730.78496400639</v>
       </c>
       <c r="DG44" s="4">
-        <f t="shared" si="126"/>
-        <v>162923.99688108833</v>
+        <f t="shared" si="120"/>
+        <v>170730.78496400639</v>
       </c>
       <c r="DH44" s="4">
-        <f t="shared" si="126"/>
-        <v>162923.99688108833</v>
+        <f t="shared" si="120"/>
+        <v>170730.78496400639</v>
       </c>
       <c r="DI44" s="4">
-        <f t="shared" si="126"/>
-        <v>162923.99688108833</v>
+        <f t="shared" si="120"/>
+        <v>170730.78496400639</v>
       </c>
       <c r="DJ44" s="4">
-        <f t="shared" si="126"/>
-        <v>162923.99688108833</v>
+        <f t="shared" si="120"/>
+        <v>170730.78496400639</v>
       </c>
       <c r="DK44" s="4">
-        <f t="shared" si="126"/>
-        <v>162923.99688108833</v>
+        <f t="shared" si="120"/>
+        <v>170730.78496400639</v>
       </c>
       <c r="DL44" s="4">
-        <f t="shared" si="126"/>
-        <v>162923.99688108833</v>
+        <f t="shared" si="120"/>
+        <v>170730.78496400639</v>
       </c>
       <c r="DM44" s="4">
-        <f t="shared" si="126"/>
-        <v>162923.99688108833</v>
+        <f t="shared" si="120"/>
+        <v>170730.78496400639</v>
       </c>
       <c r="DN44" s="4">
-        <f t="shared" si="126"/>
-        <v>162923.99688108833</v>
+        <f t="shared" si="120"/>
+        <v>170730.78496400639</v>
       </c>
       <c r="DO44" s="4">
-        <f t="shared" si="126"/>
-        <v>162923.99688108833</v>
+        <f t="shared" si="120"/>
+        <v>170730.78496400639</v>
       </c>
       <c r="DP44" s="4">
-        <f t="shared" si="126"/>
-        <v>162923.99688108833</v>
+        <f t="shared" si="120"/>
+        <v>170730.78496400639</v>
       </c>
       <c r="DQ44" s="4">
-        <f t="shared" si="126"/>
-        <v>162923.99688108833</v>
+        <f t="shared" si="120"/>
+        <v>170730.78496400639</v>
       </c>
       <c r="DR44" s="4">
-        <f t="shared" si="126"/>
-        <v>162923.99688108833</v>
+        <f t="shared" si="120"/>
+        <v>170730.78496400639</v>
       </c>
       <c r="DS44" s="4">
-        <f t="shared" si="126"/>
-        <v>162923.99688108833</v>
+        <f t="shared" si="120"/>
+        <v>170730.78496400639</v>
       </c>
     </row>
     <row r="45" spans="2:123" s="3" customFormat="1">
@@ -8369,43 +8439,43 @@
         <v>33</v>
       </c>
       <c r="C45" s="8">
-        <f t="shared" ref="C45:D45" si="127">C44/C46</f>
+        <f t="shared" ref="C45:D45" si="121">C44/C46</f>
         <v>1.3849546044098573</v>
       </c>
       <c r="D45" s="8">
-        <f t="shared" si="127"/>
+        <f t="shared" si="121"/>
         <v>1.5146274866727343</v>
       </c>
       <c r="E45" s="8">
-        <f t="shared" ref="E45:F45" si="128">E44/E46</f>
+        <f t="shared" ref="E45:F45" si="122">E44/E46</f>
         <v>1.4009120521172638</v>
       </c>
       <c r="F45" s="8">
-        <f t="shared" si="128"/>
+        <f t="shared" si="122"/>
         <v>1.4643137254901961</v>
       </c>
       <c r="G45" s="8">
-        <f t="shared" ref="G45:L45" si="129">G44/G46</f>
+        <f t="shared" ref="G45:L45" si="123">G44/G46</f>
         <v>1.8191698310855047</v>
       </c>
       <c r="H45" s="8">
-        <f t="shared" si="129"/>
+        <f t="shared" si="123"/>
         <v>2.0303308823529411</v>
       </c>
       <c r="I45" s="8">
-        <f t="shared" si="129"/>
+        <f t="shared" si="123"/>
         <v>2.0346189285244174</v>
       </c>
       <c r="J45" s="8">
-        <f t="shared" si="129"/>
+        <f t="shared" si="123"/>
         <v>2.1709537000395724</v>
       </c>
       <c r="K45" s="8">
-        <f t="shared" si="129"/>
+        <f t="shared" si="123"/>
         <v>2.7097925201532971</v>
       </c>
       <c r="L45" s="8">
-        <f t="shared" si="129"/>
+        <f t="shared" si="123"/>
         <v>2.4837855724685638</v>
       </c>
       <c r="M45" s="8">
@@ -8421,7 +8491,7 @@
         <v>2.3454909819639278</v>
       </c>
       <c r="P45" s="8">
-        <f t="shared" ref="P45:V45" si="130">P44/P46</f>
+        <f t="shared" ref="P45:V45" si="124">P44/P46</f>
         <v>2.1979124849458049</v>
       </c>
       <c r="Q45" s="8">
@@ -8429,31 +8499,31 @@
         <v>2.4516345123258305</v>
       </c>
       <c r="R45" s="8">
-        <f t="shared" si="130"/>
+        <f t="shared" si="124"/>
         <v>2.6892995848399623</v>
       </c>
       <c r="S45" s="8">
-        <f t="shared" si="130"/>
+        <f t="shared" si="124"/>
         <v>2.9872688287322435</v>
       </c>
       <c r="T45" s="8">
-        <f t="shared" si="130"/>
+        <f t="shared" si="124"/>
         <v>2.9284949116229244</v>
       </c>
       <c r="U45" s="8">
-        <f t="shared" si="130"/>
-        <v>2.4925684520621321</v>
+        <f t="shared" si="124"/>
+        <v>2.90037493304767</v>
       </c>
       <c r="V45" s="8">
-        <f t="shared" si="130"/>
-        <v>2.6686160149973217</v>
+        <f t="shared" si="124"/>
+        <v>2.9491434689507496</v>
       </c>
       <c r="Y45" s="11">
-        <f t="shared" ref="Y45:Z45" si="131">Y44/Y46</f>
+        <f t="shared" ref="Y45:Z45" si="125">Y44/Y46</f>
         <v>0.51955307262569828</v>
       </c>
       <c r="Z45" s="11">
-        <f t="shared" si="131"/>
+        <f t="shared" si="125"/>
         <v>0.82238010657193605</v>
       </c>
       <c r="AA45" s="11">
@@ -8477,79 +8547,79 @@
         <v>3.4296875</v>
       </c>
       <c r="AF45" s="11">
-        <f t="shared" ref="AF45" si="132">AF44/AF46</f>
+        <f t="shared" ref="AF45" si="126">AF44/AF46</f>
         <v>2.6326219512195124</v>
       </c>
       <c r="AG45" s="11">
-        <f t="shared" ref="AG45:AX45" si="133">AG44/AG46</f>
+        <f t="shared" ref="AG45:AX45" si="127">AG44/AG46</f>
         <v>1.7747109287579261</v>
       </c>
       <c r="AH45" s="11">
-        <f t="shared" si="133"/>
+        <f t="shared" si="127"/>
         <v>1.4924642787238207</v>
       </c>
       <c r="AI45" s="11">
-        <f t="shared" si="133"/>
+        <f t="shared" si="127"/>
         <v>1.7537384062085937</v>
       </c>
       <c r="AJ45" s="11">
-        <f t="shared" si="133"/>
+        <f t="shared" si="127"/>
         <v>1.4137064944384643</v>
       </c>
       <c r="AK45" s="11">
-        <f t="shared" si="133"/>
+        <f t="shared" si="127"/>
         <v>1.4264361606338916</v>
       </c>
       <c r="AL45" s="11">
-        <f t="shared" si="133"/>
+        <f t="shared" si="127"/>
         <v>0.92455430986950926</v>
       </c>
       <c r="AM45" s="11">
-        <f t="shared" si="133"/>
+        <f t="shared" si="127"/>
         <v>0.75206535707729028</v>
       </c>
       <c r="AN45" s="11">
-        <f t="shared" si="133"/>
+        <f t="shared" si="127"/>
         <v>1.123601687144691</v>
       </c>
       <c r="AO45" s="11">
-        <f t="shared" si="133"/>
+        <f t="shared" si="127"/>
         <v>1.1963726141866868</v>
       </c>
       <c r="AP45" s="11">
-        <f t="shared" si="133"/>
+        <f t="shared" si="127"/>
         <v>1.4227189965607931</v>
       </c>
       <c r="AQ45" s="11">
-        <f t="shared" si="133"/>
+        <f t="shared" si="127"/>
         <v>1.867053854276663</v>
       </c>
       <c r="AR45" s="11">
-        <f t="shared" si="133"/>
+        <f t="shared" si="127"/>
         <v>1.6561805246776344</v>
       </c>
       <c r="AS45" s="11">
-        <f t="shared" si="133"/>
+        <f t="shared" si="127"/>
         <v>2.1080990254284755</v>
       </c>
       <c r="AT45" s="11">
-        <f t="shared" si="133"/>
+        <f t="shared" si="127"/>
         <v>2.6940532991970207</v>
       </c>
       <c r="AU45" s="11">
-        <f t="shared" si="133"/>
+        <f t="shared" si="127"/>
         <v>2.724077122031507</v>
       </c>
       <c r="AV45" s="11">
-        <f t="shared" si="133"/>
+        <f t="shared" si="127"/>
         <v>2.581227863046045</v>
       </c>
       <c r="AW45" s="11">
-        <f t="shared" si="133"/>
+        <f t="shared" si="127"/>
         <v>2.6432908679604714</v>
       </c>
       <c r="AX45" s="11">
-        <f t="shared" si="133"/>
+        <f t="shared" si="127"/>
         <v>2.6900896535013326</v>
       </c>
       <c r="AY45" s="11">
@@ -8573,44 +8643,44 @@
         <v>5.7635038396459715</v>
       </c>
       <c r="BD45" s="11">
-        <f t="shared" ref="BD45:BF45" si="134">+BD44/BD46</f>
+        <f t="shared" ref="BD45:BF45" si="128">+BD44/BD46</f>
         <v>8.0537609674345241</v>
       </c>
       <c r="BE45" s="11">
-        <f t="shared" si="134"/>
+        <f t="shared" si="128"/>
         <v>9.6463099263974534</v>
       </c>
       <c r="BF45" s="11">
-        <f t="shared" si="134"/>
-        <v>10.140241493526046</v>
+        <f t="shared" si="128"/>
+        <v>10.081354344407641</v>
       </c>
       <c r="BG45" s="11">
-        <f t="shared" ref="BG45" si="135">+BG44/BG46</f>
-        <v>10.870176360670998</v>
+        <f t="shared" ref="BG45" si="129">+BG44/BG46</f>
+        <v>11.845578841647137</v>
       </c>
       <c r="BH45" s="11">
-        <f t="shared" ref="BH45" si="136">+BH44/BH46</f>
-        <v>12.740795195000883</v>
+        <f t="shared" ref="BH45" si="130">+BH44/BH46</f>
+        <v>13.255259452962843</v>
       </c>
       <c r="BI45" s="11">
-        <f t="shared" ref="BI45" si="137">+BI44/BI46</f>
-        <v>14.218149653418219</v>
+        <f t="shared" ref="BI45" si="131">+BI44/BI46</f>
+        <v>14.81694714775394</v>
       </c>
       <c r="BJ45" s="11">
-        <f t="shared" ref="BJ45" si="138">+BJ44/BJ46</f>
-        <v>15.848563996406339</v>
+        <f t="shared" ref="BJ45" si="132">+BJ44/BJ46</f>
+        <v>16.54128631181209</v>
       </c>
       <c r="BK45" s="11">
-        <f t="shared" ref="BK45" si="139">+BK44/BK46</f>
-        <v>17.647497368203975</v>
+        <f t="shared" ref="BK45" si="133">+BK44/BK46</f>
+        <v>18.444731454759722</v>
       </c>
       <c r="BL45" s="11">
-        <f t="shared" ref="BL45" si="140">+BL44/BL46</f>
-        <v>19.631959366239432</v>
+        <f t="shared" ref="BL45" si="134">+BL44/BL46</f>
+        <v>20.545388174556837</v>
       </c>
       <c r="BM45" s="11">
-        <f t="shared" ref="BM45" si="141">+BM44/BM46</f>
-        <v>21.820665222137325</v>
+        <f t="shared" ref="BM45" si="135">+BM44/BM46</f>
+        <v>22.863178435086226</v>
       </c>
     </row>
     <row r="46" spans="2:123" s="4" customFormat="1">
@@ -8672,12 +8742,11 @@
         <v>7468</v>
       </c>
       <c r="U46" s="4">
-        <f t="shared" ref="T46:V46" si="142">T46</f>
+        <f t="shared" ref="U46:V46" si="136">T46</f>
         <v>7468</v>
       </c>
       <c r="V46" s="4">
-        <f t="shared" si="142"/>
-        <v>7468</v>
+        <v>7472</v>
       </c>
       <c r="Y46" s="4">
         <v>537</v>
@@ -8786,31 +8855,31 @@
       </c>
       <c r="BG46" s="5">
         <f>AVERAGE(S46:V46)</f>
-        <v>7466.5</v>
+        <v>7467.5</v>
       </c>
       <c r="BH46" s="5">
-        <f t="shared" ref="BH46:BM46" si="143">+BG46</f>
-        <v>7466.5</v>
+        <f t="shared" ref="BH46:BM46" si="137">+BG46</f>
+        <v>7467.5</v>
       </c>
       <c r="BI46" s="5">
-        <f t="shared" si="143"/>
-        <v>7466.5</v>
+        <f t="shared" si="137"/>
+        <v>7467.5</v>
       </c>
       <c r="BJ46" s="5">
-        <f t="shared" si="143"/>
-        <v>7466.5</v>
+        <f t="shared" si="137"/>
+        <v>7467.5</v>
       </c>
       <c r="BK46" s="5">
-        <f t="shared" si="143"/>
-        <v>7466.5</v>
+        <f t="shared" si="137"/>
+        <v>7467.5</v>
       </c>
       <c r="BL46" s="5">
-        <f t="shared" si="143"/>
-        <v>7466.5</v>
+        <f t="shared" si="137"/>
+        <v>7467.5</v>
       </c>
       <c r="BM46" s="5">
-        <f t="shared" si="143"/>
-        <v>7466.5</v>
+        <f t="shared" si="137"/>
+        <v>7467.5</v>
       </c>
     </row>
     <row r="47" spans="2:123">
@@ -8838,27 +8907,27 @@
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
       <c r="G48" s="10">
-        <f t="shared" ref="G48:K48" si="144">G31/C31-1</f>
+        <f t="shared" ref="G48:K48" si="138">G31/C31-1</f>
         <v>0.12400544546967174</v>
       </c>
       <c r="H48" s="10">
-        <f t="shared" si="144"/>
+        <f t="shared" si="138"/>
         <v>0.16718148810491518</v>
       </c>
       <c r="I48" s="10">
-        <f t="shared" si="144"/>
+        <f t="shared" si="138"/>
         <v>0.19088546871876866</v>
       </c>
       <c r="J48" s="10">
-        <f t="shared" si="144"/>
+        <f t="shared" si="138"/>
         <v>0.21347251071437956</v>
       </c>
       <c r="K48" s="10">
-        <f t="shared" si="144"/>
+        <f t="shared" si="138"/>
         <v>0.21970716477364483</v>
       </c>
       <c r="L48" s="10">
-        <f t="shared" ref="L48" si="145">L31/H31-1</f>
+        <f t="shared" ref="L48" si="139">L31/H31-1</f>
         <v>0.2008543040208004</v>
       </c>
       <c r="M48" s="10">
@@ -8866,15 +8935,15 @@
         <v>0.18352275451973332</v>
       </c>
       <c r="N48" s="10">
-        <f t="shared" ref="N48:O48" si="146">N31/J31-1</f>
+        <f t="shared" ref="N48:O48" si="140">N31/J31-1</f>
         <v>0.12378661813139202</v>
       </c>
       <c r="O48" s="10">
-        <f t="shared" si="146"/>
+        <f t="shared" si="140"/>
         <v>0.1060308493501334</v>
       </c>
       <c r="P48" s="10">
-        <f t="shared" ref="P48" si="147">P31/L31-1</f>
+        <f t="shared" ref="P48" si="141">P31/L31-1</f>
         <v>1.9699195793380753E-2</v>
       </c>
       <c r="Q48" s="10">
@@ -8886,147 +8955,147 @@
         <v>8.3370288248336921E-2</v>
       </c>
       <c r="S48" s="10">
-        <f t="shared" ref="S48:V48" si="148">S31/O31-1</f>
+        <f t="shared" ref="S48:V48" si="142">S31/O31-1</f>
         <v>0.12758868361198683</v>
       </c>
       <c r="T48" s="10">
-        <f t="shared" si="148"/>
+        <f t="shared" si="142"/>
         <v>0.17580146738203117</v>
       </c>
       <c r="U48" s="10">
-        <f t="shared" si="148"/>
-        <v>5.0000000000000044E-2</v>
+        <f t="shared" si="142"/>
+        <v>0.17028964943148495</v>
       </c>
       <c r="V48" s="10">
-        <f t="shared" si="148"/>
-        <v>5.0000000000000044E-2</v>
+        <f t="shared" si="142"/>
+        <v>0.15195144957198026</v>
       </c>
       <c r="Z48" s="18">
-        <f t="shared" ref="Z48:AZ48" si="149">Z31/Y31-1</f>
+        <f t="shared" ref="Z48:AZ48" si="143">Z31/Y31-1</f>
         <v>0.55790363482671168</v>
       </c>
       <c r="AA48" s="18">
-        <f t="shared" si="149"/>
+        <f t="shared" si="143"/>
         <v>0.49701573521432452</v>
       </c>
       <c r="AB48" s="18">
-        <f t="shared" si="149"/>
+        <f t="shared" si="143"/>
         <v>0.36027546212395789</v>
       </c>
       <c r="AC48" s="18">
-        <f t="shared" si="149"/>
+        <f t="shared" si="143"/>
         <v>0.23874233946176382</v>
       </c>
       <c r="AD48" s="18">
-        <f t="shared" si="149"/>
+        <f t="shared" si="143"/>
         <v>0.27704882770488282</v>
       </c>
       <c r="AE48" s="18">
-        <f t="shared" si="149"/>
+        <f t="shared" si="143"/>
         <v>0.46050193700522146</v>
       </c>
       <c r="AF48" s="18">
-        <f t="shared" si="149"/>
+        <f t="shared" si="143"/>
         <v>0.30988351977857231</v>
       </c>
       <c r="AG48" s="18">
-        <f t="shared" si="149"/>
+        <f t="shared" si="143"/>
         <v>0.27522451135763348</v>
       </c>
       <c r="AH48" s="18">
-        <f t="shared" si="149"/>
+        <f t="shared" si="143"/>
         <v>0.36336647334990335</v>
       </c>
       <c r="AI48" s="18">
-        <f t="shared" si="149"/>
+        <f t="shared" si="143"/>
         <v>0.16250569706790907</v>
       </c>
       <c r="AJ48" s="18">
-        <f t="shared" si="149"/>
+        <f t="shared" si="143"/>
         <v>0.10193413486670155</v>
       </c>
       <c r="AK48" s="18">
-        <f t="shared" si="149"/>
+        <f t="shared" si="143"/>
         <v>0.12132352941176472</v>
       </c>
       <c r="AL48" s="18">
-        <f t="shared" si="149"/>
+        <f t="shared" si="143"/>
         <v>0.13474352194606021</v>
       </c>
       <c r="AM48" s="18">
-        <f t="shared" si="149"/>
+        <f t="shared" si="143"/>
         <v>0.14440612669711372</v>
       </c>
       <c r="AN48" s="18">
-        <f t="shared" si="149"/>
+        <f t="shared" si="143"/>
         <v>8.0168318175648068E-2</v>
       </c>
       <c r="AO48" s="18">
-        <f t="shared" si="149"/>
+        <f t="shared" si="143"/>
         <v>0.11294862772695291</v>
       </c>
       <c r="AP48" s="18">
-        <f t="shared" si="149"/>
+        <f t="shared" si="143"/>
         <v>0.15446456799602548</v>
       </c>
       <c r="AQ48" s="18">
-        <f t="shared" si="149"/>
+        <f t="shared" si="143"/>
         <v>0.18187864324556946</v>
       </c>
       <c r="AR48" s="18">
-        <f t="shared" si="149"/>
+        <f t="shared" si="143"/>
         <v>-3.2820258192651441E-2</v>
       </c>
       <c r="AS48" s="18">
-        <f t="shared" si="149"/>
+        <f t="shared" si="143"/>
         <v>6.9254068484008391E-2</v>
       </c>
       <c r="AT48" s="18">
-        <f t="shared" si="149"/>
+        <f t="shared" si="143"/>
         <v>0.11937455988733126</v>
       </c>
       <c r="AU48" s="18">
-        <f t="shared" si="149"/>
+        <f t="shared" si="143"/>
         <v>5.4044007263057026E-2</v>
       </c>
       <c r="AV48" s="18">
-        <f t="shared" si="149"/>
+        <f t="shared" si="143"/>
         <v>5.5966252051598442E-2</v>
       </c>
       <c r="AW48" s="18">
-        <f t="shared" si="149"/>
+        <f t="shared" si="143"/>
         <v>0.11540289534868786</v>
       </c>
       <c r="AX48" s="18">
-        <f t="shared" si="149"/>
+        <f t="shared" si="143"/>
         <v>7.7700874091647165E-2</v>
       </c>
       <c r="AY48" s="18">
-        <f t="shared" si="149"/>
+        <f t="shared" si="143"/>
         <v>-8.8266723658901425E-2</v>
       </c>
       <c r="AZ48" s="18">
-        <f t="shared" si="149"/>
+        <f t="shared" si="143"/>
         <v>0.1318682606657291</v>
       </c>
       <c r="BA48" s="10">
-        <f t="shared" ref="BA48:BE48" si="150">+BA31/AZ31-1</f>
+        <f t="shared" ref="BA48:BE48" si="144">+BA31/AZ31-1</f>
         <v>0.14278613662486661</v>
       </c>
       <c r="BB48" s="10">
-        <f t="shared" si="150"/>
+        <f t="shared" si="144"/>
         <v>0.14029539688292858</v>
       </c>
       <c r="BC48" s="10">
-        <f t="shared" si="150"/>
+        <f t="shared" si="144"/>
         <v>0.13645574247276371</v>
       </c>
       <c r="BD48" s="10">
-        <f t="shared" si="150"/>
+        <f t="shared" si="144"/>
         <v>0.17531727441177503</v>
       </c>
       <c r="BE48" s="10">
-        <f t="shared" si="150"/>
+        <f t="shared" si="144"/>
         <v>0.17956070629670173</v>
       </c>
       <c r="BF48" s="10">
@@ -9034,32 +9103,32 @@
         <v>6.8820295556564215E-2</v>
       </c>
       <c r="BG48" s="10">
-        <f t="shared" ref="BG48:BM48" si="151">+BG31/BF31-1</f>
-        <v>0.11336323525942005</v>
+        <f t="shared" ref="BG48:BM48" si="145">+BG31/BF31-1</f>
+        <v>0.1566996201307127</v>
       </c>
       <c r="BH48" s="10">
-        <f t="shared" si="151"/>
-        <v>8.0228744057187606E-2</v>
+        <f t="shared" si="145"/>
+        <v>8.1502639501962459E-2</v>
       </c>
       <c r="BI48" s="10">
-        <f t="shared" si="151"/>
-        <v>8.1148072819640982E-2</v>
+        <f t="shared" si="145"/>
+        <v>8.2383509187039516E-2</v>
       </c>
       <c r="BJ48" s="10">
-        <f t="shared" si="151"/>
-        <v>8.2039939316425947E-2</v>
+        <f t="shared" si="145"/>
+        <v>8.3236084637895225E-2</v>
       </c>
       <c r="BK48" s="10">
-        <f t="shared" si="151"/>
-        <v>8.2903715628308783E-2</v>
+        <f t="shared" si="145"/>
+        <v>8.4059954180034868E-2</v>
       </c>
       <c r="BL48" s="10">
-        <f t="shared" si="151"/>
-        <v>8.3738930203388406E-2</v>
+        <f t="shared" si="145"/>
+        <v>8.4854853155255316E-2</v>
       </c>
       <c r="BM48" s="10">
-        <f t="shared" si="151"/>
-        <v>8.4545261387475756E-2</v>
+        <f t="shared" si="145"/>
+        <v>8.5620655883396068E-2</v>
       </c>
       <c r="BO48" s="3" t="s">
         <v>97</v>
@@ -9133,19 +9202,19 @@
       <c r="K50" s="18"/>
       <c r="L50" s="18"/>
       <c r="M50" s="18">
-        <f t="shared" ref="M50" si="152">M76/I76-1</f>
+        <f t="shared" ref="M50" si="146">M76/I76-1</f>
         <v>0.12477838234395056</v>
       </c>
       <c r="N50" s="18">
-        <f t="shared" ref="N50" si="153">N76/J76-1</f>
+        <f t="shared" ref="N50" si="147">N76/J76-1</f>
         <v>9.666749733807567E-2</v>
       </c>
       <c r="O50" s="18">
-        <f t="shared" ref="O50:P50" si="154">O76/K76-1</f>
+        <f t="shared" ref="O50:P50" si="148">O76/K76-1</f>
         <v>7.5508960136535519E-2</v>
       </c>
       <c r="P50" s="18">
-        <f t="shared" si="154"/>
+        <f t="shared" si="148"/>
         <v>7.7701324485300205E-2</v>
       </c>
       <c r="Q50" s="18">
@@ -9189,59 +9258,59 @@
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
       <c r="G51" s="12">
-        <f t="shared" ref="G51:J53" si="155">G25/C25-1</f>
+        <f t="shared" ref="G51:J53" si="149">G25/C25-1</f>
         <v>0.11212422135957389</v>
       </c>
       <c r="H51" s="12">
-        <f t="shared" si="155"/>
+        <f t="shared" si="149"/>
         <v>0.12912227295788936</v>
       </c>
       <c r="I51" s="12">
-        <f t="shared" si="155"/>
+        <f t="shared" si="149"/>
         <v>0.15404922081239891</v>
       </c>
       <c r="J51" s="12">
-        <f t="shared" si="155"/>
+        <f t="shared" si="149"/>
         <v>0.25008509189925121</v>
       </c>
       <c r="K51" s="12">
-        <f t="shared" ref="K51:K53" si="156">K25/G25-1</f>
+        <f t="shared" ref="K51:K53" si="150">K25/G25-1</f>
         <v>0.22079714262521311</v>
       </c>
       <c r="L51" s="12">
-        <f t="shared" ref="L51:L53" si="157">L25/H25-1</f>
+        <f t="shared" ref="L51:L53" si="151">L25/H25-1</f>
         <v>0.19343967647719618</v>
       </c>
       <c r="M51" s="12">
-        <f t="shared" ref="M51:M53" si="158">M25/I25-1</f>
+        <f t="shared" ref="M51:M53" si="152">M25/I25-1</f>
         <v>0.16506788665879579</v>
       </c>
       <c r="N51" s="12">
-        <f t="shared" ref="N51" si="159">N25/J25-1</f>
+        <f t="shared" ref="N51" si="153">N25/J25-1</f>
         <v>0.12994350282485878</v>
       </c>
       <c r="O51" s="12">
-        <f t="shared" ref="O51" si="160">O25/K25-1</f>
+        <f t="shared" ref="O51" si="154">O25/K25-1</f>
         <v>9.4820134317441296E-2</v>
       </c>
       <c r="P51" s="12">
-        <f t="shared" ref="P51" si="161">P25/L25-1</f>
+        <f t="shared" ref="P51" si="155">P25/L25-1</f>
         <v>6.6892570281124497E-2</v>
       </c>
       <c r="Q51" s="12">
-        <f t="shared" ref="Q51:T51" si="162">Q25/M25-1</f>
+        <f t="shared" ref="Q51:T51" si="156">Q25/M25-1</f>
         <v>0.10937994806510853</v>
       </c>
       <c r="R51" s="12">
-        <f t="shared" si="162"/>
+        <f t="shared" si="156"/>
         <v>0.10186746987951811</v>
       </c>
       <c r="S51" s="12">
-        <f t="shared" si="162"/>
+        <f t="shared" si="156"/>
         <v>0.12918311569996965</v>
       </c>
       <c r="T51" s="12">
-        <f t="shared" si="162"/>
+        <f t="shared" si="156"/>
         <v>0.13216092224444176</v>
       </c>
       <c r="BA51" s="10"/>
@@ -9269,59 +9338,59 @@
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
       <c r="G52" s="12">
-        <f t="shared" si="155"/>
+        <f t="shared" si="149"/>
         <v>0.19741816505301979</v>
       </c>
       <c r="H52" s="12">
-        <f t="shared" si="155"/>
+        <f t="shared" si="149"/>
         <v>0.23017945909512183</v>
       </c>
       <c r="I52" s="12">
-        <f t="shared" si="155"/>
+        <f t="shared" si="149"/>
         <v>0.23100724696685937</v>
       </c>
       <c r="J52" s="12">
-        <f t="shared" si="155"/>
+        <f t="shared" si="149"/>
         <v>0.29945404233041661</v>
       </c>
       <c r="K52" s="12">
-        <f t="shared" si="156"/>
+        <f t="shared" si="150"/>
         <v>0.30232558139534893</v>
       </c>
       <c r="L52" s="12">
+        <f t="shared" si="151"/>
+        <v>0.25518800082186144</v>
+      </c>
+      <c r="M52" s="12">
+        <f t="shared" si="152"/>
+        <v>0.25592009525069459</v>
+      </c>
+      <c r="N52" s="12">
+        <f t="shared" ref="N52:Q52" si="157">N26/J26-1</f>
+        <v>0.19735251798561149</v>
+      </c>
+      <c r="O52" s="12">
         <f t="shared" si="157"/>
-        <v>0.25518800082186144</v>
-      </c>
-      <c r="M52" s="12">
+        <v>0.20180936613055822</v>
+      </c>
+      <c r="P52" s="12">
+        <f t="shared" si="157"/>
+        <v>0.17356905112675292</v>
+      </c>
+      <c r="Q52" s="12">
+        <f t="shared" si="157"/>
+        <v>0.16295359983146374</v>
+      </c>
+      <c r="R52" s="12">
+        <f t="shared" ref="R52:T53" si="158">R26/N26-1</f>
+        <v>0.15328782926360307</v>
+      </c>
+      <c r="S52" s="12">
         <f t="shared" si="158"/>
-        <v>0.25592009525069459</v>
-      </c>
-      <c r="N52" s="12">
-        <f t="shared" ref="N52:Q52" si="163">N26/J26-1</f>
-        <v>0.19735251798561149</v>
-      </c>
-      <c r="O52" s="12">
-        <f t="shared" si="163"/>
-        <v>0.20180936613055822</v>
-      </c>
-      <c r="P52" s="12">
-        <f t="shared" si="163"/>
-        <v>0.17356905112675292</v>
-      </c>
-      <c r="Q52" s="12">
-        <f t="shared" si="163"/>
-        <v>0.16295359983146374</v>
-      </c>
-      <c r="R52" s="12">
-        <f>R26/N26-1</f>
-        <v>0.15328782926360307</v>
-      </c>
-      <c r="S52" s="12">
-        <f>S26/O26-1</f>
         <v>0.19355473554735547</v>
       </c>
       <c r="T52" s="12">
-        <f>T26/P26-1</f>
+        <f t="shared" si="158"/>
         <v>0.20327320066951837</v>
       </c>
       <c r="BA52" s="10"/>
@@ -9349,59 +9418,59 @@
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
       <c r="G53" s="12">
-        <f t="shared" si="155"/>
+        <f t="shared" si="149"/>
         <v>6.4313302793496785E-2</v>
       </c>
       <c r="H53" s="12">
-        <f t="shared" si="155"/>
+        <f t="shared" si="149"/>
         <v>0.14465218378623868</v>
       </c>
       <c r="I53" s="12">
-        <f t="shared" si="155"/>
+        <f t="shared" si="149"/>
         <v>0.18541420387378382</v>
       </c>
       <c r="J53" s="12">
-        <f t="shared" si="155"/>
+        <f t="shared" si="149"/>
         <v>9.1092176607281194E-2</v>
       </c>
       <c r="K53" s="12">
-        <f t="shared" si="156"/>
+        <f t="shared" si="150"/>
         <v>0.12802768166089962</v>
       </c>
       <c r="L53" s="12">
-        <f t="shared" si="157"/>
+        <f t="shared" si="151"/>
         <v>0.15493982277476515</v>
       </c>
       <c r="M53" s="12">
+        <f t="shared" si="152"/>
+        <v>0.11874808223381406</v>
+      </c>
+      <c r="N53" s="12">
+        <f t="shared" ref="N53:Q53" si="159">N27/J27-1</f>
+        <v>2.6622178049126699E-2</v>
+      </c>
+      <c r="O53" s="12">
+        <f t="shared" si="159"/>
+        <v>-2.5437677689660321E-3</v>
+      </c>
+      <c r="P53" s="12">
+        <f t="shared" si="159"/>
+        <v>-0.18482679645004296</v>
+      </c>
+      <c r="Q53" s="12">
+        <f t="shared" si="159"/>
+        <v>-9.0784421283598427E-2</v>
+      </c>
+      <c r="R53" s="12">
         <f t="shared" si="158"/>
-        <v>0.11874808223381406</v>
-      </c>
-      <c r="N53" s="12">
-        <f t="shared" ref="N53:Q53" si="164">N27/J27-1</f>
-        <v>2.6622178049126699E-2</v>
-      </c>
-      <c r="O53" s="12">
-        <f t="shared" si="164"/>
-        <v>-2.5437677689660321E-3</v>
-      </c>
-      <c r="P53" s="12">
-        <f t="shared" si="164"/>
-        <v>-0.18482679645004296</v>
-      </c>
-      <c r="Q53" s="12">
-        <f t="shared" si="164"/>
-        <v>-9.0784421283598427E-2</v>
-      </c>
-      <c r="R53" s="12">
-        <f>R27/N27-1</f>
         <v>-3.8448240094046016E-2</v>
       </c>
       <c r="S53" s="12">
-        <f>S27/O27-1</f>
+        <f t="shared" si="158"/>
         <v>2.5052505250525048E-2</v>
       </c>
       <c r="T53" s="12">
-        <f>T27/P27-1</f>
+        <f t="shared" si="158"/>
         <v>0.1864156774601391</v>
       </c>
       <c r="BA53" s="10"/>
@@ -9425,27 +9494,27 @@
         <v>22</v>
       </c>
       <c r="C54" s="9">
-        <f t="shared" ref="C54:D54" si="165">C35/C31</f>
+        <f t="shared" ref="C54:D54" si="160">C35/C31</f>
         <v>0.6851913477537438</v>
       </c>
       <c r="D54" s="9">
-        <f t="shared" si="165"/>
+        <f t="shared" si="160"/>
         <v>0.66514929821709212</v>
       </c>
       <c r="E54" s="9">
-        <f t="shared" ref="E54:F54" si="166">E35/E31</f>
+        <f t="shared" ref="E54:F54" si="161">E35/E31</f>
         <v>0.68661660146769077</v>
       </c>
       <c r="F54" s="9">
-        <f t="shared" si="166"/>
+        <f t="shared" si="161"/>
         <v>0.67557121447164303</v>
       </c>
       <c r="G54" s="9">
-        <f t="shared" ref="G54:H54" si="167">G35/G31</f>
+        <f t="shared" ref="G54:H54" si="162">G35/G31</f>
         <v>0.70388114334930285</v>
       </c>
       <c r="H54" s="9">
-        <f t="shared" si="167"/>
+        <f t="shared" si="162"/>
         <v>0.67048936762930633</v>
       </c>
       <c r="I54" s="9">
@@ -9453,27 +9522,27 @@
         <v>0.68721526878626582</v>
       </c>
       <c r="J54" s="9">
-        <f t="shared" ref="J54:M54" si="168">J35/J31</f>
+        <f t="shared" ref="J54:M54" si="163">J35/J31</f>
         <v>0.69684954064829263</v>
       </c>
       <c r="K54" s="9">
-        <f t="shared" si="168"/>
+        <f t="shared" si="163"/>
         <v>0.6988768012004325</v>
       </c>
       <c r="L54" s="9">
-        <f t="shared" si="168"/>
+        <f t="shared" si="163"/>
         <v>0.67213114754098358</v>
       </c>
       <c r="M54" s="9">
-        <f t="shared" si="168"/>
+        <f t="shared" si="163"/>
         <v>0.68365072933549431</v>
       </c>
       <c r="N54" s="9">
-        <f t="shared" ref="N54:O54" si="169">N35/N31</f>
+        <f t="shared" ref="N54:O54" si="164">N35/N31</f>
         <v>0.68323532247180174</v>
       </c>
       <c r="O54" s="9">
-        <f t="shared" si="169"/>
+        <f t="shared" si="164"/>
         <v>0.69171222217788597</v>
       </c>
       <c r="P54" s="9">
@@ -9481,193 +9550,193 @@
         <v>0.66845507801391546</v>
       </c>
       <c r="Q54" s="9">
-        <f t="shared" ref="Q54:R54" si="170">Q35/Q31</f>
+        <f t="shared" ref="Q54:R54" si="165">Q35/Q31</f>
         <v>0.69487485101311086</v>
       </c>
       <c r="R54" s="9">
-        <f t="shared" si="170"/>
+        <f t="shared" si="165"/>
         <v>0.70109807969531401</v>
       </c>
       <c r="S54" s="9">
-        <f t="shared" ref="S54:V54" si="171">S35/S31</f>
+        <f t="shared" ref="S54:V54" si="166">S35/S31</f>
         <v>0.71155581506449384</v>
       </c>
       <c r="T54" s="9">
-        <f t="shared" si="171"/>
+        <f t="shared" si="166"/>
         <v>0.68360206385037081</v>
       </c>
       <c r="U54" s="9">
-        <f t="shared" si="171"/>
-        <v>0.69</v>
+        <f t="shared" si="166"/>
+        <v>0.70084710142584628</v>
       </c>
       <c r="V54" s="9">
-        <f t="shared" si="171"/>
-        <v>0.69</v>
+        <f t="shared" si="166"/>
+        <v>0.69589197707293715</v>
       </c>
       <c r="W54" s="9"/>
       <c r="X54" s="9"/>
       <c r="Y54" s="9">
-        <f t="shared" ref="Y54:AD54" si="172">Y35/Y31</f>
+        <f t="shared" ref="Y54:AD54" si="167">Y35/Y31</f>
         <v>0.78613693998309386</v>
       </c>
       <c r="Z54" s="9">
+        <f t="shared" si="167"/>
+        <v>0.8035811177428106</v>
+      </c>
+      <c r="AA54" s="9">
+        <f t="shared" si="167"/>
+        <v>0.8307357738310982</v>
+      </c>
+      <c r="AB54" s="9">
+        <f t="shared" si="167"/>
+        <v>0.83133493205435649</v>
+      </c>
+      <c r="AC54" s="9">
+        <f t="shared" si="167"/>
+        <v>0.83587868358786832</v>
+      </c>
+      <c r="AD54" s="9">
+        <f t="shared" si="167"/>
+        <v>0.85228229745662798</v>
+      </c>
+      <c r="AE54" s="9">
+        <f t="shared" ref="AE54:AM54" si="168">AE35/AE31</f>
+        <v>0.86299158113251062</v>
+      </c>
+      <c r="AF54" s="9">
+        <f t="shared" si="168"/>
+        <v>0.90447261841873572</v>
+      </c>
+      <c r="AG54" s="9">
+        <f t="shared" si="168"/>
+        <v>0.91735708367854185</v>
+      </c>
+      <c r="AH54" s="9">
+        <f t="shared" si="168"/>
+        <v>0.85749734136830913</v>
+      </c>
+      <c r="AI54" s="9">
+        <f t="shared" si="168"/>
+        <v>0.86922808851716327</v>
+      </c>
+      <c r="AJ54" s="9">
+        <f t="shared" si="168"/>
+        <v>0.86341714104996836</v>
+      </c>
+      <c r="AK54" s="9">
+        <f t="shared" si="168"/>
+        <v>0.8169927727833598</v>
+      </c>
+      <c r="AL54" s="9">
+        <f t="shared" si="168"/>
+        <v>0.82334482865753256</v>
+      </c>
+      <c r="AM54" s="9">
+        <f t="shared" si="168"/>
+        <v>0.81767340844305691</v>
+      </c>
+      <c r="AN54" s="9">
+        <f t="shared" ref="AN54:AW54" si="169">AN35/AN31</f>
+        <v>0.84417412285111093</v>
+      </c>
+      <c r="AO54" s="9">
+        <f t="shared" si="169"/>
+        <v>0.82724357526760306</v>
+      </c>
+      <c r="AP54" s="9">
+        <f t="shared" si="169"/>
+        <v>0.79083369195258402</v>
+      </c>
+      <c r="AQ54" s="9">
+        <f t="shared" si="169"/>
+        <v>0.80804369414101296</v>
+      </c>
+      <c r="AR54" s="9">
+        <f t="shared" si="169"/>
+        <v>0.79199822030562828</v>
+      </c>
+      <c r="AS54" s="9">
+        <f t="shared" si="169"/>
+        <v>0.80162921707957235</v>
+      </c>
+      <c r="AT54" s="9">
+        <f t="shared" si="169"/>
+        <v>0.77729007906438097</v>
+      </c>
+      <c r="AU54" s="9">
+        <f t="shared" si="169"/>
+        <v>0.76221803236439101</v>
+      </c>
+      <c r="AV54" s="9">
+        <f t="shared" si="169"/>
+        <v>0.7398938971598864</v>
+      </c>
+      <c r="AW54" s="9">
+        <f t="shared" si="169"/>
+        <v>0.68981838701876019</v>
+      </c>
+      <c r="AX54" s="9">
+        <f t="shared" ref="AX54:AY54" si="170">AX35/AX31</f>
+        <v>0.64695447745244705</v>
+      </c>
+      <c r="AY54" s="9">
+        <f t="shared" si="170"/>
+        <v>0.61579934364744493</v>
+      </c>
+      <c r="AZ54" s="9">
+        <f t="shared" ref="AZ54:BA54" si="171">AZ35/AZ31</f>
+        <v>0.64522475691460168</v>
+      </c>
+      <c r="BA54" s="9">
+        <f t="shared" si="171"/>
+        <v>0.65247372236317502</v>
+      </c>
+      <c r="BB54" s="9">
+        <f t="shared" ref="BB54:BF54" si="172">BB35/BB31</f>
+        <v>0.65901957200638894</v>
+      </c>
+      <c r="BC54" s="9">
         <f t="shared" si="172"/>
-        <v>0.8035811177428106</v>
-      </c>
-      <c r="AA54" s="9">
+        <v>0.67781001992797962</v>
+      </c>
+      <c r="BD54" s="9">
         <f t="shared" si="172"/>
-        <v>0.8307357738310982</v>
-      </c>
-      <c r="AB54" s="9">
+        <v>0.68925800771024703</v>
+      </c>
+      <c r="BE54" s="9">
         <f t="shared" si="172"/>
-        <v>0.83133493205435649</v>
-      </c>
-      <c r="AC54" s="9">
+        <v>0.68401674484289099</v>
+      </c>
+      <c r="BF54" s="9">
         <f t="shared" si="172"/>
-        <v>0.83587868358786832</v>
-      </c>
-      <c r="AD54" s="9">
-        <f t="shared" si="172"/>
-        <v>0.85228229745662798</v>
-      </c>
-      <c r="AE54" s="9">
-        <f t="shared" ref="AE54:AM54" si="173">AE35/AE31</f>
-        <v>0.86299158113251062</v>
-      </c>
-      <c r="AF54" s="9">
+        <v>0.68920085883491022</v>
+      </c>
+      <c r="BG54" s="9">
+        <f t="shared" ref="BG54:BM54" si="173">BG35/BG31</f>
+        <v>0.69764443827971379</v>
+      </c>
+      <c r="BH54" s="9">
         <f t="shared" si="173"/>
-        <v>0.90447261841873572</v>
-      </c>
-      <c r="AG54" s="9">
+        <v>0.67</v>
+      </c>
+      <c r="BI54" s="9">
         <f t="shared" si="173"/>
-        <v>0.91735708367854185</v>
-      </c>
-      <c r="AH54" s="9">
+        <v>0.67</v>
+      </c>
+      <c r="BJ54" s="9">
         <f t="shared" si="173"/>
-        <v>0.85749734136830913</v>
-      </c>
-      <c r="AI54" s="9">
+        <v>0.67</v>
+      </c>
+      <c r="BK54" s="9">
         <f t="shared" si="173"/>
-        <v>0.86922808851716327</v>
-      </c>
-      <c r="AJ54" s="9">
+        <v>0.67</v>
+      </c>
+      <c r="BL54" s="9">
         <f t="shared" si="173"/>
-        <v>0.86341714104996836</v>
-      </c>
-      <c r="AK54" s="9">
+        <v>0.67</v>
+      </c>
+      <c r="BM54" s="9">
         <f t="shared" si="173"/>
-        <v>0.8169927727833598</v>
-      </c>
-      <c r="AL54" s="9">
-        <f t="shared" si="173"/>
-        <v>0.82334482865753256</v>
-      </c>
-      <c r="AM54" s="9">
-        <f t="shared" si="173"/>
-        <v>0.81767340844305691</v>
-      </c>
-      <c r="AN54" s="9">
-        <f t="shared" ref="AN54:AW54" si="174">AN35/AN31</f>
-        <v>0.84417412285111093</v>
-      </c>
-      <c r="AO54" s="9">
-        <f t="shared" si="174"/>
-        <v>0.82724357526760306</v>
-      </c>
-      <c r="AP54" s="9">
-        <f t="shared" si="174"/>
-        <v>0.79083369195258402</v>
-      </c>
-      <c r="AQ54" s="9">
-        <f t="shared" si="174"/>
-        <v>0.80804369414101296</v>
-      </c>
-      <c r="AR54" s="9">
-        <f t="shared" si="174"/>
-        <v>0.79199822030562828</v>
-      </c>
-      <c r="AS54" s="9">
-        <f t="shared" si="174"/>
-        <v>0.80162921707957235</v>
-      </c>
-      <c r="AT54" s="9">
-        <f t="shared" si="174"/>
-        <v>0.77729007906438097</v>
-      </c>
-      <c r="AU54" s="9">
-        <f t="shared" si="174"/>
-        <v>0.76221803236439101</v>
-      </c>
-      <c r="AV54" s="9">
-        <f t="shared" si="174"/>
-        <v>0.7398938971598864</v>
-      </c>
-      <c r="AW54" s="9">
-        <f t="shared" si="174"/>
-        <v>0.68981838701876019</v>
-      </c>
-      <c r="AX54" s="9">
-        <f t="shared" ref="AX54:AY54" si="175">AX35/AX31</f>
-        <v>0.64695447745244705</v>
-      </c>
-      <c r="AY54" s="9">
-        <f t="shared" si="175"/>
-        <v>0.61579934364744493</v>
-      </c>
-      <c r="AZ54" s="9">
-        <f t="shared" ref="AZ54:BA54" si="176">AZ35/AZ31</f>
-        <v>0.64522475691460168</v>
-      </c>
-      <c r="BA54" s="9">
-        <f t="shared" si="176"/>
-        <v>0.65247372236317502</v>
-      </c>
-      <c r="BB54" s="9">
-        <f t="shared" ref="BB54:BF54" si="177">BB35/BB31</f>
-        <v>0.65901957200638894</v>
-      </c>
-      <c r="BC54" s="9">
-        <f t="shared" si="177"/>
-        <v>0.67781001992797962</v>
-      </c>
-      <c r="BD54" s="9">
-        <f t="shared" si="177"/>
-        <v>0.68925800771024703</v>
-      </c>
-      <c r="BE54" s="9">
-        <f t="shared" si="177"/>
-        <v>0.68401674484289099</v>
-      </c>
-      <c r="BF54" s="9">
-        <f t="shared" si="177"/>
-        <v>0.68920085883491022</v>
-      </c>
-      <c r="BG54" s="9">
-        <f t="shared" ref="BG54:BM54" si="178">BG35/BG31</f>
-        <v>0.67</v>
-      </c>
-      <c r="BH54" s="9">
-        <f t="shared" si="178"/>
-        <v>0.67</v>
-      </c>
-      <c r="BI54" s="9">
-        <f t="shared" si="178"/>
-        <v>0.67</v>
-      </c>
-      <c r="BJ54" s="9">
-        <f t="shared" si="178"/>
-        <v>0.67</v>
-      </c>
-      <c r="BK54" s="9">
-        <f t="shared" si="178"/>
-        <v>0.67</v>
-      </c>
-      <c r="BL54" s="9">
-        <f t="shared" si="178"/>
-        <v>0.67</v>
-      </c>
-      <c r="BM54" s="9">
-        <f t="shared" si="178"/>
         <v>0.67</v>
       </c>
       <c r="BO54" t="s">
@@ -9675,7 +9744,7 @@
       </c>
       <c r="BP54" s="4">
         <f>NPV(BP48,BF44:DS44)+Main!L5-Main!L6</f>
-        <v>2006642.4213977153</v>
+        <v>2099279.5161494645</v>
       </c>
     </row>
     <row r="55" spans="2:68">
@@ -9683,63 +9752,63 @@
         <v>455</v>
       </c>
       <c r="C55" s="9">
-        <f t="shared" ref="C55" si="179">+C40/C31</f>
+        <f t="shared" ref="C55" si="174">+C40/C31</f>
         <v>0.38378460142187265</v>
       </c>
       <c r="D55" s="9">
-        <f t="shared" ref="D55:E55" si="180">+D40/D31</f>
+        <f t="shared" ref="D55:E55" si="175">+D40/D31</f>
         <v>0.37638866309001245</v>
       </c>
       <c r="E55" s="9">
-        <f t="shared" si="180"/>
+        <f t="shared" si="175"/>
         <v>0.37049199051997372</v>
       </c>
       <c r="F55" s="9">
-        <f t="shared" ref="F55:J55" si="181">+F40/F31</f>
+        <f t="shared" ref="F55:I55" si="176">+F40/F31</f>
         <v>0.35250966266137301</v>
       </c>
       <c r="G55" s="9">
-        <f t="shared" si="181"/>
+        <f t="shared" si="176"/>
         <v>0.42730257845723207</v>
       </c>
       <c r="H55" s="9">
-        <f t="shared" si="181"/>
+        <f t="shared" si="176"/>
         <v>0.41547497446373849</v>
       </c>
       <c r="I55" s="9">
-        <f t="shared" si="181"/>
+        <f t="shared" si="176"/>
         <v>0.40876612477820939</v>
       </c>
       <c r="J55" s="9">
-        <f t="shared" ref="J55:R55" si="182">+J40/J31</f>
+        <f t="shared" ref="J55:Q55" si="177">+J40/J31</f>
         <v>0.41374154966198645</v>
       </c>
       <c r="K55" s="9">
-        <f t="shared" si="182"/>
+        <f t="shared" si="177"/>
         <v>0.44658737339188381</v>
       </c>
       <c r="L55" s="9">
-        <f t="shared" si="182"/>
+        <f t="shared" si="177"/>
         <v>0.43007655428394681</v>
       </c>
       <c r="M55" s="9">
-        <f t="shared" si="182"/>
+        <f t="shared" si="177"/>
         <v>0.41256077795786061</v>
       </c>
       <c r="N55" s="9">
-        <f t="shared" si="182"/>
+        <f t="shared" si="177"/>
         <v>0.3959124650535043</v>
       </c>
       <c r="O55" s="9">
-        <f t="shared" si="182"/>
+        <f t="shared" si="177"/>
         <v>0.42931247755476637</v>
       </c>
       <c r="P55" s="9">
-        <f t="shared" si="182"/>
+        <f t="shared" si="177"/>
         <v>0.3867328947617874</v>
       </c>
       <c r="Q55" s="9">
-        <f t="shared" si="182"/>
+        <f t="shared" si="177"/>
         <v>0.42287681858599618</v>
       </c>
       <c r="R55" s="9">
@@ -9747,20 +9816,20 @@
         <v>0.4316503230169606</v>
       </c>
       <c r="S55" s="9">
-        <f t="shared" ref="S55:V55" si="183">+S40/S31</f>
+        <f t="shared" ref="S55:V55" si="178">+S40/S31</f>
         <v>0.47587451563246458</v>
       </c>
       <c r="T55" s="9">
-        <f t="shared" si="183"/>
+        <f t="shared" si="178"/>
         <v>0.43585940019348596</v>
       </c>
       <c r="U55" s="9">
-        <f t="shared" si="183"/>
-        <v>0.42836379737963254</v>
+        <f t="shared" si="178"/>
+        <v>0.44587603866921011</v>
       </c>
       <c r="V55" s="9">
-        <f t="shared" si="183"/>
-        <v>0.43081691976653624</v>
+        <f t="shared" si="178"/>
+        <v>0.43142737960974553</v>
       </c>
       <c r="W55" s="9"/>
       <c r="X55" s="9"/>
@@ -9784,59 +9853,59 @@
       <c r="AP55" s="9"/>
       <c r="AQ55" s="9"/>
       <c r="AR55" s="9">
-        <f t="shared" ref="AR55:AT55" si="184">AR40/AR31</f>
+        <f t="shared" ref="AR55:AT55" si="179">AR40/AR31</f>
         <v>0.35410784263394768</v>
       </c>
       <c r="AS55" s="9">
-        <f t="shared" si="184"/>
+        <f t="shared" si="179"/>
         <v>0.38661097240893672</v>
       </c>
       <c r="AT55" s="9">
-        <f t="shared" si="184"/>
+        <f t="shared" si="179"/>
         <v>0.38833049769097694</v>
       </c>
       <c r="AU55" s="9">
-        <f t="shared" ref="AU55:BE55" si="185">AU40/AU31</f>
+        <f t="shared" ref="AU55:BE55" si="180">AU40/AU31</f>
         <v>0.37920323372624554</v>
       </c>
       <c r="AV55" s="9">
-        <f t="shared" si="185"/>
+        <f t="shared" si="180"/>
         <v>0.34379375457616668</v>
       </c>
       <c r="AW55" s="9">
-        <f t="shared" si="185"/>
+        <f t="shared" si="180"/>
         <v>0.32114518673776099</v>
       </c>
       <c r="AX55" s="9">
-        <f t="shared" si="185"/>
+        <f t="shared" si="180"/>
         <v>0.30104723231459712</v>
       </c>
       <c r="AY55" s="9">
-        <f t="shared" si="185"/>
+        <f t="shared" si="180"/>
         <v>0.24955461790904829</v>
       </c>
       <c r="AZ55" s="9">
-        <f t="shared" si="185"/>
+        <f t="shared" si="180"/>
         <v>0.30372472067183731</v>
       </c>
       <c r="BA55" s="9">
-        <f t="shared" si="185"/>
+        <f t="shared" si="180"/>
         <v>0.31766944545125048</v>
       </c>
       <c r="BB55" s="9">
-        <f t="shared" si="185"/>
+        <f t="shared" si="180"/>
         <v>0.3413698020549415</v>
       </c>
       <c r="BC55" s="9">
-        <f t="shared" si="185"/>
+        <f t="shared" si="180"/>
         <v>0.37030381428521486</v>
       </c>
       <c r="BD55" s="9">
-        <f t="shared" si="185"/>
+        <f t="shared" si="180"/>
         <v>0.41594878872971303</v>
       </c>
       <c r="BE55" s="9">
-        <f t="shared" si="185"/>
+        <f t="shared" si="180"/>
         <v>0.4205527815604983</v>
       </c>
       <c r="BF55" s="9">
@@ -9844,32 +9913,32 @@
         <v>0.41772880636104098</v>
       </c>
       <c r="BG55" s="9">
-        <f t="shared" ref="BG55:BM55" si="186">BG40/BG31</f>
-        <v>0.41885445720422676</v>
+        <f t="shared" ref="BG55:BM55" si="181">BG40/BG31</f>
+        <v>0.44644299573273716</v>
       </c>
       <c r="BH55" s="9">
-        <f t="shared" si="186"/>
-        <v>0.43053228494172352</v>
+        <f t="shared" si="181"/>
+        <v>0.43076111479252999</v>
       </c>
       <c r="BI55" s="9">
-        <f t="shared" si="186"/>
-        <v>0.44186127163251976</v>
+        <f t="shared" si="181"/>
+        <v>0.44233942528487596</v>
       </c>
       <c r="BJ55" s="9">
-        <f t="shared" si="186"/>
-        <v>0.45283344109557166</v>
+        <f t="shared" si="181"/>
+        <v>0.45352789822823952</v>
       </c>
       <c r="BK55" s="9">
-        <f t="shared" si="186"/>
-        <v>0.46344280341509458</v>
+        <f t="shared" si="181"/>
+        <v>0.46432293945996628</v>
       </c>
       <c r="BL55" s="9">
-        <f t="shared" si="186"/>
-        <v>0.47368527275981076</v>
+        <f t="shared" si="181"/>
+        <v>0.47472284219397148</v>
       </c>
       <c r="BM55" s="9">
-        <f t="shared" si="186"/>
-        <v>0.48355857034614491</v>
+        <f t="shared" si="181"/>
+        <v>0.48472766619704694</v>
       </c>
       <c r="BP55" s="4"/>
     </row>
@@ -9878,19 +9947,19 @@
         <v>89</v>
       </c>
       <c r="C56" s="9">
-        <f t="shared" ref="C56:D56" si="187">+C43/C42</f>
+        <f t="shared" ref="C56:D56" si="182">+C43/C42</f>
         <v>0.15828472331704241</v>
       </c>
       <c r="D56" s="9">
-        <f t="shared" si="187"/>
+        <f t="shared" si="182"/>
         <v>0.17294994675186368</v>
       </c>
       <c r="E56" s="9">
-        <f t="shared" ref="E56:F56" si="188">+E43/E42</f>
+        <f t="shared" ref="E56:F56" si="183">+E43/E42</f>
         <v>0.16281242700303666</v>
       </c>
       <c r="F56" s="9">
-        <f t="shared" si="188"/>
+        <f t="shared" si="183"/>
         <v>0.16540008940545373</v>
       </c>
       <c r="G56" s="9">
@@ -9898,35 +9967,35 @@
         <v>0.13836516993301909</v>
       </c>
       <c r="H56" s="9">
-        <f t="shared" ref="H56:O56" si="189">+H43/H42</f>
+        <f t="shared" ref="H56:O56" si="184">+H43/H42</f>
         <v>0.15673228990565524</v>
       </c>
       <c r="I56" s="9">
-        <f t="shared" si="189"/>
+        <f t="shared" si="184"/>
         <v>0.10321420283128337</v>
       </c>
       <c r="J56" s="9">
-        <f t="shared" si="189"/>
+        <f t="shared" si="184"/>
         <v>0.15186807523834064</v>
       </c>
       <c r="K56" s="9">
-        <f t="shared" si="189"/>
+        <f t="shared" si="184"/>
         <v>9.2574546871954783E-4</v>
       </c>
       <c r="L56" s="9">
-        <f t="shared" si="189"/>
+        <f t="shared" si="184"/>
         <v>0.16655562958027981</v>
       </c>
       <c r="M56" s="9">
-        <f t="shared" si="189"/>
+        <f t="shared" si="184"/>
         <v>0.17147102526002972</v>
       </c>
       <c r="N56" s="9">
-        <f t="shared" si="189"/>
+        <f t="shared" si="184"/>
         <v>0.18289647093278666</v>
       </c>
       <c r="O56" s="9">
-        <f t="shared" si="189"/>
+        <f t="shared" si="184"/>
         <v>0.18616725384758021</v>
       </c>
       <c r="P56" s="9">
@@ -9934,193 +10003,193 @@
         <v>0.19243817296818919</v>
       </c>
       <c r="Q56" s="9">
-        <f t="shared" ref="Q56:R56" si="190">+Q43/Q42</f>
+        <f t="shared" ref="Q56:R56" si="185">+Q43/Q42</f>
         <v>0.19291668504388479</v>
       </c>
       <c r="R56" s="9">
-        <f t="shared" si="190"/>
+        <f t="shared" si="185"/>
         <v>0.18789177821814212</v>
       </c>
       <c r="S56" s="9">
-        <f t="shared" ref="S56:V56" si="191">+S43/S42</f>
+        <f t="shared" ref="S56:V56" si="186">+S43/S42</f>
         <v>0.18300102624248643</v>
       </c>
       <c r="T56" s="9">
-        <f t="shared" si="191"/>
+        <f t="shared" si="186"/>
         <v>0.17552589911784663</v>
       </c>
       <c r="U56" s="9">
-        <f t="shared" si="191"/>
+        <f t="shared" si="186"/>
         <v>0.2</v>
       </c>
       <c r="V56" s="9">
-        <f t="shared" si="191"/>
-        <v>0.2</v>
+        <f t="shared" si="186"/>
+        <v>0.1913394495412844</v>
       </c>
       <c r="W56" s="9"/>
       <c r="X56" s="9"/>
       <c r="Y56" s="9">
-        <f t="shared" ref="Y56:AD56" si="192">+Y43/Y42</f>
+        <f t="shared" ref="Y56:AD56" si="187">+Y43/Y42</f>
         <v>0.31951219512195123</v>
       </c>
       <c r="Z56" s="9">
+        <f t="shared" si="187"/>
+        <v>0.30998509687034276</v>
+      </c>
+      <c r="AA56" s="9">
+        <f t="shared" si="187"/>
+        <v>0.31988472622478387</v>
+      </c>
+      <c r="AB56" s="9">
+        <f t="shared" si="187"/>
+        <v>0.31977159172019987</v>
+      </c>
+      <c r="AC56" s="9">
+        <f t="shared" si="187"/>
+        <v>0.31788079470198677</v>
+      </c>
+      <c r="AD56" s="9">
+        <f t="shared" si="187"/>
+        <v>0.32263895164934481</v>
+      </c>
+      <c r="AE56" s="9">
+        <f t="shared" ref="AE56:AM56" si="188">+AE43/AE42</f>
+        <v>0.35039952648712636</v>
+      </c>
+      <c r="AF56" s="9">
+        <f t="shared" si="188"/>
+        <v>0.35001881821603315</v>
+      </c>
+      <c r="AG56" s="9">
+        <f t="shared" si="188"/>
+        <v>0.35815459328207205</v>
+      </c>
+      <c r="AH56" s="9">
+        <f t="shared" si="188"/>
+        <v>0.35001278663370555</v>
+      </c>
+      <c r="AI56" s="9">
+        <f t="shared" si="188"/>
+        <v>0.34379205326156242</v>
+      </c>
+      <c r="AJ56" s="9">
+        <f t="shared" si="188"/>
+        <v>0.32557343375556319</v>
+      </c>
+      <c r="AK56" s="9">
+        <f t="shared" si="188"/>
+        <v>0.31744937526928046</v>
+      </c>
+      <c r="AL56" s="9">
+        <f t="shared" si="188"/>
+        <v>0.31992699743139108</v>
+      </c>
+      <c r="AM56" s="9">
+        <f t="shared" si="188"/>
+        <v>0.32959659602323871</v>
+      </c>
+      <c r="AN56" s="9">
+        <f t="shared" ref="AN56:AW56" si="189">+AN43/AN42</f>
+        <v>0.26305027664180902</v>
+      </c>
+      <c r="AO56" s="9">
+        <f t="shared" si="189"/>
+        <v>0.31009747015660938</v>
+      </c>
+      <c r="AP56" s="9">
+        <f t="shared" si="189"/>
+        <v>0.30028356798169248</v>
+      </c>
+      <c r="AQ56" s="9">
+        <f t="shared" si="189"/>
+        <v>0.25753758293440832</v>
+      </c>
+      <c r="AR56" s="9">
+        <f t="shared" si="189"/>
+        <v>0.26063222668850183</v>
+      </c>
+      <c r="AS56" s="9">
+        <f t="shared" si="189"/>
+        <v>0.24940172303765157</v>
+      </c>
+      <c r="AT56" s="9">
+        <f t="shared" si="189"/>
+        <v>0.17530547540166008</v>
+      </c>
+      <c r="AU56" s="9">
+        <f t="shared" si="189"/>
+        <v>0.18583977512297961</v>
+      </c>
+      <c r="AV56" s="9">
+        <f t="shared" si="189"/>
+        <v>0.19181576223569421</v>
+      </c>
+      <c r="AW56" s="9">
+        <f t="shared" si="189"/>
+        <v>0.20560346369914481</v>
+      </c>
+      <c r="AX56" s="9">
+        <f t="shared" ref="AX56:AY56" si="190">+AX43/AX42</f>
+        <v>0.22140402552773686</v>
+      </c>
+      <c r="AY56" s="9">
+        <f t="shared" si="190"/>
+        <v>0.1415560136139207</v>
+      </c>
+      <c r="AZ56" s="9">
+        <f t="shared" ref="AZ56:BA56" si="191">+AZ43/AZ42</f>
+        <v>0.14605886052901645</v>
+      </c>
+      <c r="BA56" s="9">
+        <f t="shared" si="191"/>
+        <v>0.5456763722103416</v>
+      </c>
+      <c r="BB56" s="9">
+        <f t="shared" ref="BB56:BF56" si="192">+BB43/BB42</f>
+        <v>0.10181285478850027</v>
+      </c>
+      <c r="BC56" s="9">
         <f t="shared" si="192"/>
-        <v>0.30998509687034276</v>
-      </c>
-      <c r="AA56" s="9">
+        <v>0.16507655177615205</v>
+      </c>
+      <c r="BD56" s="9">
         <f t="shared" si="192"/>
-        <v>0.31988472622478387</v>
-      </c>
-      <c r="AB56" s="9">
+        <v>0.13826615285083402</v>
+      </c>
+      <c r="BE56" s="9">
         <f t="shared" si="192"/>
-        <v>0.31977159172019987</v>
-      </c>
-      <c r="AC56" s="9">
+        <v>0.13113383343685794</v>
+      </c>
+      <c r="BF56" s="9">
         <f t="shared" si="192"/>
-        <v>0.31788079470198677</v>
-      </c>
-      <c r="AD56" s="9">
-        <f t="shared" si="192"/>
-        <v>0.32263895164934481</v>
-      </c>
-      <c r="AE56" s="9">
-        <f t="shared" ref="AE56:AM56" si="193">+AE43/AE42</f>
-        <v>0.35039952648712636</v>
-      </c>
-      <c r="AF56" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="BG56" s="9">
+        <f t="shared" ref="BG56:BM56" si="193">+BG43/BG42</f>
+        <v>0.19</v>
+      </c>
+      <c r="BH56" s="9">
         <f t="shared" si="193"/>
-        <v>0.35001881821603315</v>
-      </c>
-      <c r="AG56" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="BI56" s="9">
         <f t="shared" si="193"/>
-        <v>0.35815459328207205</v>
-      </c>
-      <c r="AH56" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="BJ56" s="9">
         <f t="shared" si="193"/>
-        <v>0.35001278663370555</v>
-      </c>
-      <c r="AI56" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="BK56" s="9">
         <f t="shared" si="193"/>
-        <v>0.34379205326156242</v>
-      </c>
-      <c r="AJ56" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="BL56" s="9">
         <f t="shared" si="193"/>
-        <v>0.32557343375556319</v>
-      </c>
-      <c r="AK56" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="BM56" s="9">
         <f t="shared" si="193"/>
-        <v>0.31744937526928046</v>
-      </c>
-      <c r="AL56" s="9">
-        <f t="shared" si="193"/>
-        <v>0.31992699743139108</v>
-      </c>
-      <c r="AM56" s="9">
-        <f t="shared" si="193"/>
-        <v>0.32959659602323871</v>
-      </c>
-      <c r="AN56" s="9">
-        <f t="shared" ref="AN56:AW56" si="194">+AN43/AN42</f>
-        <v>0.26305027664180902</v>
-      </c>
-      <c r="AO56" s="9">
-        <f t="shared" si="194"/>
-        <v>0.31009747015660938</v>
-      </c>
-      <c r="AP56" s="9">
-        <f t="shared" si="194"/>
-        <v>0.30028356798169248</v>
-      </c>
-      <c r="AQ56" s="9">
-        <f t="shared" si="194"/>
-        <v>0.25753758293440832</v>
-      </c>
-      <c r="AR56" s="9">
-        <f t="shared" si="194"/>
-        <v>0.26063222668850183</v>
-      </c>
-      <c r="AS56" s="9">
-        <f t="shared" si="194"/>
-        <v>0.24940172303765157</v>
-      </c>
-      <c r="AT56" s="9">
-        <f t="shared" si="194"/>
-        <v>0.17530547540166008</v>
-      </c>
-      <c r="AU56" s="9">
-        <f t="shared" si="194"/>
-        <v>0.18583977512297961</v>
-      </c>
-      <c r="AV56" s="9">
-        <f t="shared" si="194"/>
-        <v>0.19181576223569421</v>
-      </c>
-      <c r="AW56" s="9">
-        <f t="shared" si="194"/>
-        <v>0.20560346369914481</v>
-      </c>
-      <c r="AX56" s="9">
-        <f t="shared" ref="AX56:AY56" si="195">+AX43/AX42</f>
-        <v>0.22140402552773686</v>
-      </c>
-      <c r="AY56" s="9">
-        <f t="shared" si="195"/>
-        <v>0.1415560136139207</v>
-      </c>
-      <c r="AZ56" s="9">
-        <f t="shared" ref="AZ56:BA56" si="196">+AZ43/AZ42</f>
-        <v>0.14605886052901645</v>
-      </c>
-      <c r="BA56" s="9">
-        <f t="shared" si="196"/>
-        <v>0.5456763722103416</v>
-      </c>
-      <c r="BB56" s="9">
-        <f t="shared" ref="BB56:BF56" si="197">+BB43/BB42</f>
-        <v>0.10181285478850027</v>
-      </c>
-      <c r="BC56" s="9">
-        <f t="shared" si="197"/>
-        <v>0.16507655177615205</v>
-      </c>
-      <c r="BD56" s="9">
-        <f t="shared" si="197"/>
-        <v>0.13826615285083402</v>
-      </c>
-      <c r="BE56" s="9">
-        <f t="shared" si="197"/>
-        <v>0.13113383343685794</v>
-      </c>
-      <c r="BF56" s="9">
-        <f t="shared" si="197"/>
-        <v>0.15</v>
-      </c>
-      <c r="BG56" s="9">
-        <f t="shared" ref="BG56:BM56" si="198">+BG43/BG42</f>
-        <v>0.19000000000000003</v>
-      </c>
-      <c r="BH56" s="9">
-        <f t="shared" si="198"/>
-        <v>0.15</v>
-      </c>
-      <c r="BI56" s="9">
-        <f t="shared" si="198"/>
-        <v>0.15</v>
-      </c>
-      <c r="BJ56" s="9">
-        <f t="shared" si="198"/>
-        <v>0.15</v>
-      </c>
-      <c r="BK56" s="9">
-        <f t="shared" si="198"/>
-        <v>0.15</v>
-      </c>
-      <c r="BL56" s="9">
-        <f t="shared" si="198"/>
-        <v>0.15</v>
-      </c>
-      <c r="BM56" s="9">
-        <f t="shared" si="198"/>
         <v>0.15</v>
       </c>
       <c r="BO56" t="s">
@@ -10128,7 +10197,7 @@
       </c>
       <c r="BP56" s="1">
         <f>+BP54/Main!L3</f>
-        <v>270.05714867265237</v>
+        <v>282.52439714861652</v>
       </c>
     </row>
     <row r="57" spans="2:68">
@@ -10136,55 +10205,55 @@
         <v>156</v>
       </c>
       <c r="C57" s="9">
-        <f t="shared" ref="C57" si="199">(C29-C32)/C29</f>
+        <f t="shared" ref="C57" si="194">(C29-C32)/C29</f>
         <v>0.79039827498731607</v>
       </c>
       <c r="D57" s="9">
-        <f t="shared" ref="D57:E57" si="200">(D29-D32)/D29</f>
+        <f t="shared" ref="D57:E57" si="195">(D29-D32)/D29</f>
         <v>0.72796494111202414</v>
       </c>
       <c r="E57" s="9">
-        <f t="shared" si="200"/>
+        <f t="shared" si="195"/>
         <v>0.78728498519311951</v>
       </c>
       <c r="F57" s="9">
-        <f t="shared" ref="F57:I57" si="201">(F29-F32)/F29</f>
+        <f t="shared" ref="F57:I57" si="196">(F29-F32)/F29</f>
         <v>0.75918884664131814</v>
       </c>
       <c r="G57" s="9">
-        <f t="shared" si="201"/>
+        <f t="shared" si="196"/>
         <v>0.77238499019173579</v>
       </c>
       <c r="H57" s="9">
-        <f t="shared" si="201"/>
+        <f t="shared" si="196"/>
         <v>0.68869475847893113</v>
       </c>
       <c r="I57" s="9">
-        <f t="shared" si="201"/>
+        <f t="shared" si="196"/>
         <v>0.74651810584958223</v>
       </c>
       <c r="J57" s="9">
-        <f t="shared" ref="J57:L57" si="202">(J29-J32)/J29</f>
+        <f t="shared" ref="J57:L57" si="197">(J29-J32)/J29</f>
         <v>0.7736297391488014</v>
       </c>
       <c r="K57" s="9">
-        <f t="shared" si="202"/>
+        <f t="shared" si="197"/>
         <v>0.77199206301485179</v>
       </c>
       <c r="L57" s="9">
-        <f t="shared" si="202"/>
+        <f t="shared" si="197"/>
         <v>0.69531738774724483</v>
       </c>
       <c r="M57" s="9">
-        <f t="shared" ref="M57:O57" si="203">(M29-M32)/M29</f>
+        <f t="shared" ref="M57:O57" si="198">(M29-M32)/M29</f>
         <v>0.73603593228146957</v>
       </c>
       <c r="N57" s="9">
-        <f t="shared" si="203"/>
+        <f t="shared" si="198"/>
         <v>0.75735130318556476</v>
       </c>
       <c r="O57" s="9">
-        <f t="shared" si="203"/>
+        <f t="shared" si="198"/>
         <v>0.72670097198399086</v>
       </c>
       <c r="P57" s="9">
@@ -10192,28 +10261,28 @@
         <v>0.65550644790216139</v>
       </c>
       <c r="Q57" s="9">
-        <f t="shared" ref="Q57:V57" si="204">(Q29-Q32)/Q29</f>
+        <f t="shared" ref="Q57:V57" si="199">(Q29-Q32)/Q29</f>
         <v>0.74717731588401337</v>
       </c>
       <c r="R57" s="9">
-        <f t="shared" si="204"/>
+        <f t="shared" si="199"/>
         <v>0.77030795704028954</v>
       </c>
       <c r="S57" s="9">
-        <f t="shared" si="204"/>
+        <f t="shared" si="199"/>
         <v>0.77270679111683294</v>
       </c>
       <c r="T57" s="9">
-        <f t="shared" si="204"/>
+        <f t="shared" si="199"/>
         <v>0.68512750118789922</v>
       </c>
       <c r="U57" s="9">
-        <f t="shared" si="204"/>
-        <v>0.75</v>
+        <f t="shared" si="199"/>
+        <v>0.74596018735363001</v>
       </c>
       <c r="V57" s="9">
-        <f t="shared" si="204"/>
-        <v>0.75</v>
+        <f t="shared" si="199"/>
+        <v>0.89120072633729286</v>
       </c>
       <c r="W57" s="9"/>
       <c r="X57" s="9"/>
@@ -10244,63 +10313,63 @@
       <c r="AW57" s="9"/>
       <c r="AX57" s="9"/>
       <c r="AY57" s="9">
-        <f t="shared" ref="AY57" si="205">(AY29-AY32)/AY29</f>
+        <f t="shared" ref="AY57" si="200">(AY29-AY32)/AY29</f>
         <v>0.70927774706513613</v>
       </c>
       <c r="AZ57" s="9">
-        <f t="shared" ref="AZ57:BM57" si="206">(AZ29-AZ32)/AZ29</f>
+        <f t="shared" ref="AZ57:BM57" si="201">(AZ29-AZ32)/AZ29</f>
         <v>0.76218833743398473</v>
       </c>
       <c r="BA57" s="9">
-        <f t="shared" si="206"/>
+        <f t="shared" si="201"/>
         <v>0.76091911251686128</v>
       </c>
       <c r="BB57" s="9">
-        <f t="shared" si="206"/>
+        <f t="shared" si="201"/>
         <v>0.75369689264254036</v>
       </c>
       <c r="BC57" s="9">
-        <f t="shared" si="206"/>
+        <f t="shared" si="201"/>
         <v>0.76459781602269217</v>
       </c>
       <c r="BD57" s="9">
-        <f t="shared" si="206"/>
+        <f t="shared" si="201"/>
         <v>0.74366153586402906</v>
       </c>
       <c r="BE57" s="9">
-        <f t="shared" si="206"/>
+        <f t="shared" si="201"/>
         <v>0.73788703734257277</v>
       </c>
       <c r="BF57" s="9">
-        <f t="shared" si="206"/>
+        <f t="shared" si="201"/>
         <v>0.72481800336944935</v>
       </c>
       <c r="BG57" s="9">
-        <f t="shared" si="206"/>
+        <f t="shared" si="201"/>
+        <v>0.76422274713229277</v>
+      </c>
+      <c r="BH57" s="9">
+        <f t="shared" si="201"/>
         <v>0.75</v>
       </c>
-      <c r="BH57" s="9">
-        <f t="shared" si="206"/>
+      <c r="BI57" s="9">
+        <f t="shared" si="201"/>
         <v>0.75</v>
       </c>
-      <c r="BI57" s="9">
-        <f t="shared" si="206"/>
+      <c r="BJ57" s="9">
+        <f t="shared" si="201"/>
         <v>0.75</v>
       </c>
-      <c r="BJ57" s="9">
-        <f t="shared" si="206"/>
+      <c r="BK57" s="9">
+        <f t="shared" si="201"/>
         <v>0.75</v>
       </c>
-      <c r="BK57" s="9">
-        <f t="shared" si="206"/>
+      <c r="BL57" s="9">
+        <f t="shared" si="201"/>
         <v>0.75</v>
       </c>
-      <c r="BL57" s="9">
-        <f t="shared" si="206"/>
-        <v>0.75</v>
-      </c>
       <c r="BM57" s="9">
-        <f t="shared" si="206"/>
+        <f t="shared" si="201"/>
         <v>0.75</v>
       </c>
       <c r="BP57" s="1"/>
@@ -10310,55 +10379,55 @@
         <v>157</v>
       </c>
       <c r="C58" s="9">
-        <f t="shared" ref="C58" si="207">(C30-C33)/C30</f>
+        <f t="shared" ref="C58" si="202">(C30-C33)/C30</f>
         <v>0.58922890032972752</v>
       </c>
       <c r="D58" s="9">
-        <f t="shared" ref="D58:E58" si="208">(D30-D33)/D30</f>
+        <f t="shared" ref="D58:E58" si="203">(D30-D33)/D30</f>
         <v>0.60366736368023166</v>
       </c>
       <c r="E58" s="9">
-        <f t="shared" si="208"/>
+        <f t="shared" si="203"/>
         <v>0.60318537859007837</v>
       </c>
       <c r="F58" s="9">
-        <f t="shared" ref="F58:K58" si="209">(F30-F33)/F30</f>
+        <f t="shared" ref="F58:K58" si="204">(F30-F33)/F30</f>
         <v>0.59926581514633415</v>
       </c>
       <c r="G58" s="9">
-        <f t="shared" si="209"/>
+        <f t="shared" si="204"/>
         <v>0.65317783710364852</v>
       </c>
       <c r="H58" s="9">
-        <f t="shared" si="209"/>
+        <f t="shared" si="204"/>
         <v>0.65548780487804881</v>
       </c>
       <c r="I58" s="9">
-        <f t="shared" si="209"/>
+        <f t="shared" si="204"/>
         <v>0.64692143518704948</v>
       </c>
       <c r="J58" s="9">
-        <f t="shared" si="209"/>
+        <f t="shared" si="204"/>
         <v>0.64341882854413168</v>
       </c>
       <c r="K58" s="9">
-        <f t="shared" si="209"/>
+        <f t="shared" si="204"/>
         <v>0.65648748518441047</v>
       </c>
       <c r="L58" s="9">
-        <f t="shared" ref="L58:O58" si="210">(L30-L33)/L30</f>
+        <f t="shared" ref="L58:O58" si="205">(L30-L33)/L30</f>
         <v>0.65656402468577335</v>
       </c>
       <c r="M58" s="9">
-        <f t="shared" si="210"/>
+        <f t="shared" si="205"/>
         <v>0.65521660311308372</v>
       </c>
       <c r="N58" s="9">
-        <f t="shared" si="210"/>
+        <f t="shared" si="205"/>
         <v>0.64398832168450859</v>
       </c>
       <c r="O58" s="9">
-        <f t="shared" si="210"/>
+        <f t="shared" si="205"/>
         <v>0.67569296995433525</v>
       </c>
       <c r="P58" s="9">
@@ -10366,28 +10435,28 @@
         <v>0.67435826662986476</v>
       </c>
       <c r="Q58" s="9">
-        <f t="shared" ref="Q58:V58" si="211">(Q30-Q33)/Q30</f>
+        <f t="shared" ref="Q58:V58" si="206">(Q30-Q33)/Q30</f>
         <v>0.67299900721779493</v>
       </c>
       <c r="R58" s="9">
-        <f t="shared" si="211"/>
+        <f t="shared" si="206"/>
         <v>0.67144600366076879</v>
       </c>
       <c r="S58" s="9">
-        <f t="shared" si="211"/>
+        <f t="shared" si="206"/>
         <v>0.68837538431506518</v>
       </c>
       <c r="T58" s="9">
-        <f t="shared" si="211"/>
+        <f t="shared" si="206"/>
         <v>0.68293135866663568</v>
       </c>
       <c r="U58" s="9">
-        <f t="shared" si="211"/>
-        <v>0.65000000000000013</v>
+        <f t="shared" si="206"/>
+        <v>0.68363928714993971</v>
       </c>
       <c r="V58" s="9">
-        <f t="shared" si="211"/>
-        <v>0.65</v>
+        <f t="shared" si="206"/>
+        <v>0.64577751892836344</v>
       </c>
       <c r="W58" s="9"/>
       <c r="X58" s="9"/>
@@ -10418,64 +10487,64 @@
       <c r="AW58" s="9"/>
       <c r="AX58" s="9"/>
       <c r="AY58" s="9">
-        <f t="shared" ref="AY58" si="212">(AY30-AY33)/AY30</f>
+        <f t="shared" ref="AY58" si="207">(AY30-AY33)/AY30</f>
         <v>0.37442270551683599</v>
       </c>
       <c r="AZ58" s="9">
-        <f t="shared" ref="AZ58:BM58" si="213">(AZ30-AZ33)/AZ30</f>
+        <f t="shared" ref="AZ58:BM58" si="208">(AZ30-AZ33)/AZ30</f>
         <v>0.41739926739926742</v>
       </c>
       <c r="BA58" s="9">
-        <f t="shared" si="213"/>
+        <f t="shared" si="208"/>
         <v>0.4999672938970412</v>
       </c>
       <c r="BB58" s="9">
-        <f t="shared" si="213"/>
+        <f t="shared" si="208"/>
         <v>0.55437146585471941</v>
       </c>
       <c r="BC58" s="9">
-        <f t="shared" si="213"/>
+        <f t="shared" si="208"/>
         <v>0.59904766985888447</v>
       </c>
       <c r="BD58" s="9">
-        <f t="shared" si="213"/>
+        <f t="shared" si="208"/>
         <v>0.64940111736450412</v>
       </c>
       <c r="BE58" s="9">
-        <f t="shared" si="213"/>
+        <f t="shared" si="208"/>
         <v>0.65280632159186858</v>
       </c>
       <c r="BF58" s="9">
-        <f t="shared" si="213"/>
+        <f t="shared" si="208"/>
         <v>0.67354771220519505</v>
       </c>
       <c r="BG58" s="9">
-        <f t="shared" si="213"/>
+        <f t="shared" si="208"/>
+        <v>0.67373259624394921</v>
+      </c>
+      <c r="BH58" s="9">
+        <f t="shared" si="208"/>
         <v>0.65</v>
       </c>
-      <c r="BH58" s="9">
-        <f t="shared" si="213"/>
+      <c r="BI58" s="9">
+        <f t="shared" si="208"/>
         <v>0.65</v>
       </c>
-      <c r="BI58" s="9">
-        <f t="shared" si="213"/>
+      <c r="BJ58" s="9">
+        <f t="shared" si="208"/>
         <v>0.64999999999999991</v>
       </c>
-      <c r="BJ58" s="9">
-        <f t="shared" si="213"/>
-        <v>0.65</v>
-      </c>
       <c r="BK58" s="9">
-        <f t="shared" si="213"/>
-        <v>0.65</v>
+        <f t="shared" si="208"/>
+        <v>0.65000000000000013</v>
       </c>
       <c r="BL58" s="9">
-        <f t="shared" si="213"/>
-        <v>0.65</v>
+        <f t="shared" si="208"/>
+        <v>0.65000000000000013</v>
       </c>
       <c r="BM58" s="9">
-        <f t="shared" si="213"/>
-        <v>0.65</v>
+        <f t="shared" si="208"/>
+        <v>0.64999999999999991</v>
       </c>
       <c r="BP58" s="1"/>
     </row>
@@ -10563,151 +10632,151 @@
         <v>82</v>
       </c>
       <c r="G61" s="5">
-        <f t="shared" ref="G61:H61" si="214">+G62-G73</f>
+        <f t="shared" ref="G61:H61" si="209">+G62-G73</f>
         <v>77528</v>
       </c>
       <c r="H61" s="5">
-        <f t="shared" si="214"/>
+        <f t="shared" si="209"/>
         <v>75239</v>
       </c>
       <c r="I61" s="5">
-        <f t="shared" ref="I61:V61" si="215">+I62-I73</f>
+        <f t="shared" ref="I61:V61" si="210">+I62-I73</f>
         <v>72744</v>
       </c>
       <c r="J61" s="5">
-        <f t="shared" si="215"/>
+        <f t="shared" si="210"/>
         <v>78172</v>
       </c>
       <c r="K61" s="5">
-        <f t="shared" si="215"/>
+        <f t="shared" si="210"/>
         <v>83720</v>
       </c>
       <c r="L61" s="5">
-        <f t="shared" si="215"/>
+        <f t="shared" si="210"/>
         <v>79105</v>
       </c>
       <c r="M61" s="5">
-        <f t="shared" si="215"/>
+        <f t="shared" si="210"/>
         <v>61674</v>
       </c>
       <c r="N61" s="5">
-        <f t="shared" si="215"/>
+        <f t="shared" si="210"/>
         <v>61867</v>
       </c>
       <c r="O61" s="5">
-        <f t="shared" si="215"/>
+        <f t="shared" si="210"/>
         <v>65479</v>
       </c>
       <c r="P61" s="5">
-        <f t="shared" si="215"/>
+        <f t="shared" si="210"/>
         <v>58489</v>
       </c>
       <c r="Q61" s="5">
-        <f t="shared" si="215"/>
+        <f t="shared" si="210"/>
         <v>65632</v>
       </c>
       <c r="R61" s="5">
-        <f t="shared" si="215"/>
+        <f t="shared" si="210"/>
         <v>73904</v>
       </c>
       <c r="S61" s="5">
-        <f t="shared" si="215"/>
+        <f t="shared" si="210"/>
         <v>83872</v>
       </c>
       <c r="T61" s="5">
-        <f t="shared" si="215"/>
+        <f t="shared" si="210"/>
         <v>20165</v>
       </c>
       <c r="U61" s="5">
-        <f t="shared" si="215"/>
-        <v>0</v>
+        <f t="shared" si="210"/>
+        <v>29386</v>
       </c>
       <c r="V61" s="5">
-        <f t="shared" si="215"/>
-        <v>0</v>
+        <f t="shared" si="210"/>
+        <v>38513</v>
       </c>
       <c r="AC61" s="4">
-        <f t="shared" ref="AC61:AQ61" si="216">AC62</f>
+        <f t="shared" ref="AC61:AQ61" si="211">AC62</f>
         <v>3614</v>
       </c>
       <c r="AD61" s="4">
-        <f t="shared" si="216"/>
+        <f t="shared" si="211"/>
         <v>4750</v>
       </c>
       <c r="AE61" s="4">
-        <f t="shared" si="216"/>
+        <f t="shared" si="211"/>
         <v>6940</v>
       </c>
       <c r="AF61" s="4">
-        <f t="shared" si="216"/>
+        <f t="shared" si="211"/>
         <v>11312</v>
       </c>
       <c r="AG61" s="4">
-        <f t="shared" si="216"/>
+        <f t="shared" si="211"/>
         <v>18630</v>
       </c>
       <c r="AH61" s="4">
-        <f t="shared" si="216"/>
+        <f t="shared" si="211"/>
         <v>31608</v>
       </c>
       <c r="AI61" s="4">
-        <f t="shared" si="216"/>
+        <f t="shared" si="211"/>
         <v>41524</v>
       </c>
       <c r="AJ61" s="4">
-        <f t="shared" si="216"/>
+        <f t="shared" si="211"/>
         <v>45741</v>
       </c>
       <c r="AK61" s="4">
-        <f t="shared" si="216"/>
+        <f t="shared" si="211"/>
         <v>52843</v>
       </c>
       <c r="AL61" s="4">
-        <f t="shared" si="216"/>
+        <f t="shared" si="211"/>
         <v>62740</v>
       </c>
       <c r="AM61" s="4">
-        <f t="shared" si="216"/>
+        <f t="shared" si="211"/>
         <v>72802</v>
       </c>
       <c r="AN61" s="4">
-        <f t="shared" si="216"/>
+        <f t="shared" si="211"/>
         <v>48755</v>
       </c>
       <c r="AO61" s="4">
-        <f t="shared" si="216"/>
+        <f t="shared" si="211"/>
         <v>43393</v>
       </c>
       <c r="AP61" s="4">
-        <f t="shared" si="216"/>
+        <f t="shared" si="211"/>
         <v>33528</v>
       </c>
       <c r="AQ61" s="4">
-        <f t="shared" si="216"/>
+        <f t="shared" si="211"/>
         <v>30250</v>
       </c>
       <c r="AR61" s="4">
-        <f t="shared" ref="AR61:AW61" si="217">AR62-AR73</f>
+        <f t="shared" ref="AR61:AW61" si="212">AR62-AR73</f>
         <v>30634</v>
       </c>
       <c r="AS61" s="4">
-        <f t="shared" si="217"/>
+        <f t="shared" si="212"/>
         <v>38603</v>
       </c>
       <c r="AT61" s="4">
-        <f t="shared" si="217"/>
+        <f t="shared" si="212"/>
         <v>51716</v>
       </c>
       <c r="AU61" s="4">
-        <f t="shared" si="217"/>
+        <f t="shared" si="212"/>
         <v>60872</v>
       </c>
       <c r="AV61" s="4">
-        <f t="shared" si="217"/>
+        <f t="shared" si="212"/>
         <v>72266</v>
       </c>
       <c r="AW61" s="4">
-        <f t="shared" si="217"/>
+        <f t="shared" si="212"/>
         <v>77661</v>
       </c>
       <c r="BE61" s="5">
@@ -10715,36 +10784,36 @@
         <v>61867</v>
       </c>
       <c r="BF61" s="5">
-        <f t="shared" ref="BF61:BM61" si="218">+BE61+BF44</f>
-        <v>137637.41950000002</v>
+        <f t="shared" ref="BF61:BM61" si="213">+BE61+BF44</f>
+        <v>137197.4</v>
       </c>
       <c r="BG61" s="5">
-        <f t="shared" si="218"/>
-        <v>218799.59129695001</v>
+        <f t="shared" si="213"/>
+        <v>225654.26</v>
       </c>
       <c r="BH61" s="5">
-        <f t="shared" si="218"/>
-        <v>313928.73862042412</v>
+        <f t="shared" si="213"/>
+        <v>324637.90996500006</v>
       </c>
       <c r="BI61" s="5">
-        <f t="shared" si="218"/>
-        <v>420088.55300767126</v>
+        <f t="shared" si="213"/>
+        <v>435283.46279085259</v>
       </c>
       <c r="BJ61" s="5">
-        <f t="shared" si="218"/>
-        <v>538421.85608683922</v>
+        <f t="shared" si="213"/>
+        <v>558805.51832430938</v>
       </c>
       <c r="BK61" s="5">
-        <f t="shared" si="218"/>
-        <v>670186.89518653415</v>
+        <f t="shared" si="213"/>
+        <v>696541.55046272767</v>
       </c>
       <c r="BL61" s="5">
-        <f t="shared" si="218"/>
-        <v>816768.91979456088</v>
+        <f t="shared" si="213"/>
+        <v>849964.23665623087</v>
       </c>
       <c r="BM61" s="5">
-        <f t="shared" si="218"/>
-        <v>979692.91667564923</v>
+        <f t="shared" si="213"/>
+        <v>1020695.0216202373</v>
       </c>
     </row>
     <row r="62" spans="2:68" s="4" customFormat="1">
@@ -10811,6 +10880,14 @@
         <f>81017+13367</f>
         <v>94384</v>
       </c>
+      <c r="U62" s="4">
+        <f>80021+14807</f>
+        <v>94828</v>
+      </c>
+      <c r="V62" s="5">
+        <f>75543 + 14600</f>
+        <v>90143</v>
+      </c>
       <c r="AC62" s="4">
         <f>3614</f>
         <v>3614</v>
@@ -10948,6 +11025,12 @@
       <c r="T63" s="4">
         <v>42831</v>
       </c>
+      <c r="U63" s="4">
+        <v>44029</v>
+      </c>
+      <c r="V63" s="4">
+        <v>56924</v>
+      </c>
       <c r="AC63" s="4">
         <v>475</v>
       </c>
@@ -11066,6 +11149,12 @@
       <c r="T64" s="4">
         <v>1615</v>
       </c>
+      <c r="U64" s="4">
+        <v>1304</v>
+      </c>
+      <c r="V64" s="4">
+        <v>1246</v>
+      </c>
       <c r="AC64" s="4">
         <v>102</v>
       </c>
@@ -11184,6 +11273,12 @@
       <c r="T65" s="4">
         <v>21930</v>
       </c>
+      <c r="U65" s="4">
+        <v>21826</v>
+      </c>
+      <c r="V65" s="4">
+        <v>26021</v>
+      </c>
       <c r="AC65" s="4">
         <v>121</v>
       </c>
@@ -11317,6 +11412,12 @@
       <c r="T66" s="4">
         <v>112308</v>
       </c>
+      <c r="U66" s="4">
+        <v>121375</v>
+      </c>
+      <c r="V66" s="4">
+        <v>135591</v>
+      </c>
       <c r="AC66" s="4">
         <v>930</v>
       </c>
@@ -11434,6 +11535,12 @@
       </c>
       <c r="T67" s="4">
         <v>16398</v>
+      </c>
+      <c r="U67" s="4">
+        <v>17371</v>
+      </c>
+      <c r="V67" s="4">
+        <v>18961</v>
       </c>
       <c r="AC67" s="4">
         <v>0</v>
@@ -11567,6 +11674,14 @@
         <f>118931+29896</f>
         <v>148827</v>
       </c>
+      <c r="U68" s="4">
+        <f>119163 + 28828</f>
+        <v>147991</v>
+      </c>
+      <c r="V68" s="4">
+        <f>119220 + 27597</f>
+        <v>146817</v>
+      </c>
       <c r="AC68" s="4">
         <v>0</v>
       </c>
@@ -11698,6 +11813,12 @@
       <c r="T69" s="4">
         <v>32265</v>
       </c>
+      <c r="U69" s="4">
+        <v>35551</v>
+      </c>
+      <c r="V69" s="4">
+        <v>36460</v>
+      </c>
       <c r="AC69" s="4">
         <v>121</v>
       </c>
@@ -11782,145 +11903,151 @@
       <c r="E70" s="7"/>
       <c r="F70" s="7"/>
       <c r="G70" s="7">
-        <f t="shared" ref="G70:H70" si="219">SUM(G62:G69)</f>
+        <f t="shared" ref="G70:H70" si="214">SUM(G62:G69)</f>
         <v>301001</v>
       </c>
       <c r="H70" s="7">
-        <f t="shared" si="219"/>
+        <f t="shared" si="214"/>
         <v>304137</v>
       </c>
       <c r="I70" s="7">
-        <f t="shared" ref="I70:K70" si="220">SUM(I62:I69)</f>
+        <f t="shared" ref="I70:K70" si="215">SUM(I62:I69)</f>
         <v>308879</v>
       </c>
       <c r="J70" s="7">
-        <f t="shared" si="220"/>
+        <f t="shared" si="215"/>
         <v>333779</v>
       </c>
       <c r="K70" s="7">
-        <f t="shared" si="220"/>
+        <f t="shared" si="215"/>
         <v>335418</v>
       </c>
       <c r="L70" s="7">
-        <f t="shared" ref="L70" si="221">SUM(L62:L69)</f>
+        <f t="shared" ref="L70" si="216">SUM(L62:L69)</f>
         <v>340389</v>
       </c>
       <c r="M70" s="7">
-        <f t="shared" ref="M70:T70" si="222">SUM(M62:M69)</f>
+        <f t="shared" ref="M70:V70" si="217">SUM(M62:M69)</f>
         <v>344607</v>
       </c>
       <c r="N70" s="7">
-        <f t="shared" si="222"/>
+        <f t="shared" si="217"/>
         <v>364840</v>
       </c>
       <c r="O70" s="7">
-        <f t="shared" si="222"/>
+        <f t="shared" si="217"/>
         <v>359784</v>
       </c>
       <c r="P70" s="7">
-        <f t="shared" si="222"/>
+        <f t="shared" si="217"/>
         <v>364552</v>
       </c>
       <c r="Q70" s="7">
-        <f t="shared" si="222"/>
+        <f t="shared" si="217"/>
         <v>380088</v>
       </c>
       <c r="R70" s="7">
-        <f t="shared" si="222"/>
+        <f t="shared" si="217"/>
         <v>411976</v>
       </c>
       <c r="S70" s="7">
-        <f t="shared" si="222"/>
+        <f t="shared" si="217"/>
         <v>445785</v>
       </c>
       <c r="T70" s="7">
-        <f t="shared" si="222"/>
+        <f t="shared" si="217"/>
         <v>470558</v>
       </c>
-      <c r="U70" s="7"/>
-      <c r="V70" s="7"/>
+      <c r="U70" s="7">
+        <f t="shared" si="217"/>
+        <v>484275</v>
+      </c>
+      <c r="V70" s="7">
+        <f t="shared" si="217"/>
+        <v>512163</v>
+      </c>
       <c r="AC70" s="6">
-        <f t="shared" ref="AC70:AW70" si="223">SUM(AC62:AC69)</f>
+        <f t="shared" ref="AC70:AW70" si="218">SUM(AC62:AC69)</f>
         <v>5363</v>
       </c>
       <c r="AD70" s="6">
-        <f t="shared" si="223"/>
+        <f t="shared" si="218"/>
         <v>7210</v>
       </c>
       <c r="AE70" s="6">
-        <f t="shared" si="223"/>
+        <f t="shared" si="218"/>
         <v>10093</v>
       </c>
       <c r="AF70" s="6">
-        <f t="shared" si="223"/>
+        <f t="shared" si="218"/>
         <v>14387</v>
       </c>
       <c r="AG70" s="6">
-        <f t="shared" si="223"/>
+        <f t="shared" si="218"/>
         <v>22357</v>
       </c>
       <c r="AH70" s="6">
-        <f t="shared" si="223"/>
+        <f t="shared" si="218"/>
         <v>37156</v>
       </c>
       <c r="AI70" s="6">
-        <f t="shared" si="223"/>
+        <f t="shared" si="218"/>
         <v>52150</v>
       </c>
       <c r="AJ70" s="6">
-        <f t="shared" si="223"/>
+        <f t="shared" si="218"/>
         <v>59257</v>
       </c>
       <c r="AK70" s="6">
-        <f t="shared" si="223"/>
+        <f t="shared" si="218"/>
         <v>67646</v>
       </c>
       <c r="AL70" s="6">
-        <f t="shared" si="223"/>
+        <f t="shared" si="218"/>
         <v>79571</v>
       </c>
       <c r="AM70" s="6">
-        <f t="shared" si="223"/>
+        <f t="shared" si="218"/>
         <v>92389</v>
       </c>
       <c r="AN70" s="6">
-        <f t="shared" si="223"/>
+        <f t="shared" si="218"/>
         <v>70815</v>
       </c>
       <c r="AO70" s="6">
-        <f t="shared" si="223"/>
+        <f t="shared" si="218"/>
         <v>69597</v>
       </c>
       <c r="AP70" s="6">
-        <f t="shared" si="223"/>
+        <f t="shared" si="218"/>
         <v>63171</v>
       </c>
       <c r="AQ70" s="6">
-        <f t="shared" si="223"/>
+        <f t="shared" si="218"/>
         <v>72793</v>
       </c>
       <c r="AR70" s="6">
-        <f t="shared" si="223"/>
+        <f t="shared" si="218"/>
         <v>77888</v>
       </c>
       <c r="AS70" s="6">
-        <f t="shared" si="223"/>
+        <f t="shared" si="218"/>
         <v>86113</v>
       </c>
       <c r="AT70" s="6">
-        <f t="shared" si="223"/>
+        <f t="shared" si="218"/>
         <v>108704</v>
       </c>
       <c r="AU70" s="6">
-        <f t="shared" si="223"/>
+        <f t="shared" si="218"/>
         <v>121271</v>
       </c>
       <c r="AV70" s="6">
-        <f t="shared" si="223"/>
+        <f t="shared" si="218"/>
         <v>142431</v>
       </c>
       <c r="AW70" s="6">
-        <f t="shared" si="223"/>
+        <f t="shared" si="218"/>
         <v>172384</v>
       </c>
       <c r="BC70" s="7"/>
@@ -12116,6 +12243,14 @@
         <f>27041+44928+2250</f>
         <v>74219</v>
       </c>
+      <c r="U73" s="4">
+        <f>20535+2249+42658</f>
+        <v>65442</v>
+      </c>
+      <c r="V73" s="4">
+        <f>6693+2249+42688</f>
+        <v>51630</v>
+      </c>
       <c r="AC73" s="4">
         <v>0</v>
       </c>
@@ -13088,141 +13223,141 @@
         <v>301001</v>
       </c>
       <c r="H81" s="7">
-        <f t="shared" ref="G81:H81" si="224">SUM(H72:H80)</f>
+        <f t="shared" ref="H81" si="219">SUM(H72:H80)</f>
         <v>304137</v>
       </c>
       <c r="I81" s="7">
-        <f t="shared" ref="I81:L81" si="225">SUM(I72:I80)</f>
+        <f t="shared" ref="I81:L81" si="220">SUM(I72:I80)</f>
         <v>308879</v>
       </c>
       <c r="J81" s="7">
-        <f t="shared" si="225"/>
+        <f t="shared" si="220"/>
         <v>333779</v>
       </c>
       <c r="K81" s="7">
-        <f t="shared" si="225"/>
+        <f t="shared" si="220"/>
         <v>335418</v>
       </c>
       <c r="L81" s="7">
-        <f t="shared" si="225"/>
+        <f t="shared" si="220"/>
         <v>340389</v>
       </c>
       <c r="M81" s="7">
-        <f t="shared" ref="M81:S81" si="226">SUM(M72:M80)</f>
+        <f t="shared" ref="M81:S81" si="221">SUM(M72:M80)</f>
         <v>344607</v>
       </c>
       <c r="N81" s="7">
-        <f t="shared" si="226"/>
+        <f t="shared" si="221"/>
         <v>364840</v>
       </c>
       <c r="O81" s="7">
-        <f t="shared" si="226"/>
+        <f t="shared" si="221"/>
         <v>359784</v>
       </c>
       <c r="P81" s="7">
-        <f t="shared" si="226"/>
+        <f t="shared" si="221"/>
         <v>364552</v>
       </c>
       <c r="Q81" s="7">
-        <f t="shared" si="226"/>
+        <f t="shared" si="221"/>
         <v>380088</v>
       </c>
       <c r="R81" s="7">
-        <f t="shared" si="226"/>
+        <f t="shared" si="221"/>
         <v>411976</v>
       </c>
       <c r="S81" s="7">
-        <f t="shared" si="226"/>
+        <f t="shared" si="221"/>
         <v>445785</v>
       </c>
       <c r="T81" s="7">
-        <f t="shared" ref="T81" si="227">SUM(T72:T80)</f>
+        <f t="shared" ref="T81" si="222">SUM(T72:T80)</f>
         <v>470558</v>
       </c>
       <c r="U81" s="7"/>
       <c r="V81" s="7"/>
       <c r="AC81" s="6">
-        <f t="shared" ref="AC81:AW81" si="228">SUM(AC72:AC80)</f>
+        <f t="shared" ref="AC81:AW81" si="223">SUM(AC72:AC80)</f>
         <v>5363</v>
       </c>
       <c r="AD81" s="6">
-        <f t="shared" si="228"/>
+        <f t="shared" si="223"/>
         <v>7210</v>
       </c>
       <c r="AE81" s="6">
-        <f t="shared" si="228"/>
+        <f t="shared" si="223"/>
         <v>10093</v>
       </c>
       <c r="AF81" s="6">
-        <f t="shared" si="228"/>
+        <f t="shared" si="223"/>
         <v>14387</v>
       </c>
       <c r="AG81" s="6">
-        <f t="shared" si="228"/>
+        <f t="shared" si="223"/>
         <v>22357</v>
       </c>
       <c r="AH81" s="6">
-        <f t="shared" si="228"/>
+        <f t="shared" si="223"/>
         <v>37156</v>
       </c>
       <c r="AI81" s="6">
-        <f t="shared" si="228"/>
+        <f t="shared" si="223"/>
         <v>52150</v>
       </c>
       <c r="AJ81" s="6">
-        <f t="shared" si="228"/>
+        <f t="shared" si="223"/>
         <v>59257</v>
       </c>
       <c r="AK81" s="6">
-        <f t="shared" si="228"/>
+        <f t="shared" si="223"/>
         <v>67646</v>
       </c>
       <c r="AL81" s="6">
-        <f t="shared" si="228"/>
+        <f t="shared" si="223"/>
         <v>79571</v>
       </c>
       <c r="AM81" s="6">
-        <f t="shared" si="228"/>
+        <f t="shared" si="223"/>
         <v>92389</v>
       </c>
       <c r="AN81" s="6">
-        <f t="shared" si="228"/>
+        <f t="shared" si="223"/>
         <v>70815</v>
       </c>
       <c r="AO81" s="6">
-        <f t="shared" si="228"/>
+        <f t="shared" si="223"/>
         <v>69597</v>
       </c>
       <c r="AP81" s="6">
-        <f t="shared" si="228"/>
+        <f t="shared" si="223"/>
         <v>63171</v>
       </c>
       <c r="AQ81" s="6">
-        <f t="shared" si="228"/>
+        <f t="shared" si="223"/>
         <v>72793</v>
       </c>
       <c r="AR81" s="6">
-        <f t="shared" si="228"/>
+        <f t="shared" si="223"/>
         <v>77888</v>
       </c>
       <c r="AS81" s="6">
-        <f t="shared" si="228"/>
+        <f t="shared" si="223"/>
         <v>86113</v>
       </c>
       <c r="AT81" s="6">
-        <f t="shared" si="228"/>
+        <f t="shared" si="223"/>
         <v>108704</v>
       </c>
       <c r="AU81" s="6">
-        <f t="shared" si="228"/>
+        <f t="shared" si="223"/>
         <v>121271</v>
       </c>
       <c r="AV81" s="6">
-        <f t="shared" si="228"/>
+        <f t="shared" si="223"/>
         <v>142431</v>
       </c>
       <c r="AW81" s="6">
-        <f t="shared" si="228"/>
+        <f t="shared" si="223"/>
         <v>172384</v>
       </c>
       <c r="BC81" s="7"/>
@@ -13239,63 +13374,69 @@
       <c r="E83" s="5"/>
       <c r="F83" s="5"/>
       <c r="G83" s="5">
-        <f t="shared" ref="G83:H83" si="229">G44</f>
+        <f t="shared" ref="G83:H83" si="224">G44</f>
         <v>13893</v>
       </c>
       <c r="H83" s="5">
-        <f t="shared" si="229"/>
+        <f t="shared" si="224"/>
         <v>15463</v>
       </c>
       <c r="I83" s="5">
-        <f t="shared" ref="I83:T83" si="230">I44</f>
+        <f t="shared" ref="I83:V83" si="225">I44</f>
         <v>15457</v>
       </c>
       <c r="J83" s="5">
-        <f t="shared" si="230"/>
+        <f t="shared" si="225"/>
         <v>16458</v>
       </c>
       <c r="K83" s="5">
-        <f t="shared" si="230"/>
+        <f t="shared" si="225"/>
         <v>20505</v>
       </c>
       <c r="L83" s="5">
-        <f t="shared" si="230"/>
+        <f t="shared" si="225"/>
         <v>18765</v>
       </c>
       <c r="M83" s="5">
-        <f t="shared" si="230"/>
+        <f t="shared" si="225"/>
         <v>16728</v>
       </c>
       <c r="N83" s="5">
-        <f t="shared" si="230"/>
+        <f t="shared" si="225"/>
         <v>16740</v>
       </c>
       <c r="O83" s="5">
-        <f t="shared" si="230"/>
+        <f t="shared" si="225"/>
         <v>17556</v>
       </c>
       <c r="P83" s="5">
-        <f t="shared" si="230"/>
+        <f t="shared" si="225"/>
         <v>16425</v>
       </c>
       <c r="Q83" s="5">
-        <f t="shared" si="230"/>
+        <f t="shared" si="225"/>
         <v>18299</v>
       </c>
       <c r="R83" s="5">
-        <f t="shared" si="230"/>
+        <f t="shared" si="225"/>
         <v>20081</v>
       </c>
       <c r="S83" s="5">
-        <f t="shared" si="230"/>
+        <f t="shared" si="225"/>
         <v>22291</v>
       </c>
       <c r="T83" s="5">
-        <f t="shared" si="230"/>
+        <f t="shared" si="225"/>
         <v>21870</v>
       </c>
-      <c r="U83" s="5"/>
-      <c r="V83" s="5"/>
+      <c r="U83" s="5">
+        <f t="shared" si="225"/>
+        <v>21660</v>
+      </c>
+      <c r="V83" s="5">
+        <f t="shared" si="225"/>
+        <v>22036</v>
+      </c>
       <c r="BC83" s="5"/>
       <c r="BD83" s="5"/>
       <c r="BE83" s="5"/>
@@ -13654,47 +13795,47 @@
       <c r="E90" s="5"/>
       <c r="F90" s="5"/>
       <c r="G90" s="5">
-        <f t="shared" ref="G90:H90" si="231">SUM(G84:G89)</f>
+        <f t="shared" ref="G90:H90" si="226">SUM(G84:G89)</f>
         <v>19335</v>
       </c>
       <c r="H90" s="5">
-        <f t="shared" si="231"/>
+        <f t="shared" si="226"/>
         <v>12516</v>
       </c>
       <c r="I90" s="5">
-        <f t="shared" ref="I90:K90" si="232">SUM(I84:I89)</f>
+        <f t="shared" ref="I90:K90" si="227">SUM(I84:I89)</f>
         <v>22179</v>
       </c>
       <c r="J90" s="5">
-        <f t="shared" si="232"/>
+        <f t="shared" si="227"/>
         <v>22710</v>
       </c>
       <c r="K90" s="5">
-        <f t="shared" si="232"/>
+        <f t="shared" si="227"/>
         <v>24540</v>
       </c>
       <c r="L90" s="5">
-        <f t="shared" ref="L90" si="233">SUM(L84:L89)</f>
+        <f t="shared" ref="L90" si="228">SUM(L84:L89)</f>
         <v>14480</v>
       </c>
       <c r="M90" s="5">
-        <f t="shared" ref="M90:Q90" si="234">SUM(M84:M89)</f>
+        <f t="shared" ref="M90:Q90" si="229">SUM(M84:M89)</f>
         <v>25386</v>
       </c>
       <c r="N90" s="5">
-        <f t="shared" si="234"/>
+        <f t="shared" si="229"/>
         <v>24629</v>
       </c>
       <c r="O90" s="5">
-        <f t="shared" si="234"/>
+        <f t="shared" si="229"/>
         <v>23198</v>
       </c>
       <c r="P90" s="5">
-        <f t="shared" si="234"/>
+        <f t="shared" si="229"/>
         <v>11173</v>
       </c>
       <c r="Q90" s="5">
-        <f t="shared" si="234"/>
+        <f t="shared" si="229"/>
         <v>24441</v>
       </c>
       <c r="R90" s="5">
@@ -13977,59 +14118,59 @@
       <c r="E96" s="5"/>
       <c r="F96" s="5"/>
       <c r="G96" s="5">
-        <f t="shared" ref="G96:H96" si="235">SUM(G92:G95)</f>
+        <f t="shared" ref="G96:H96" si="230">SUM(G92:G95)</f>
         <v>-5371</v>
       </c>
       <c r="H96" s="5">
-        <f t="shared" si="235"/>
+        <f t="shared" si="230"/>
         <v>-1669</v>
       </c>
       <c r="I96" s="5">
-        <f t="shared" ref="I96:L96" si="236">SUM(I92:I95)</f>
+        <f t="shared" ref="I96:L96" si="231">SUM(I92:I95)</f>
         <v>-9684</v>
       </c>
       <c r="J96" s="5">
-        <f t="shared" si="236"/>
+        <f t="shared" si="231"/>
         <v>-10853</v>
       </c>
       <c r="K96" s="5">
-        <f t="shared" si="236"/>
+        <f t="shared" si="231"/>
         <v>-3250</v>
       </c>
       <c r="L96" s="5">
-        <f t="shared" si="236"/>
+        <f t="shared" si="231"/>
         <v>-1161</v>
       </c>
       <c r="M96" s="5">
-        <f t="shared" ref="M96:T96" si="237">SUM(M92:M95)</f>
+        <f t="shared" ref="M96:T96" si="232">SUM(M92:M95)</f>
         <v>-16171</v>
       </c>
       <c r="N96" s="5">
-        <f t="shared" si="237"/>
+        <f t="shared" si="232"/>
         <v>-9729</v>
       </c>
       <c r="O96" s="5">
-        <f t="shared" si="237"/>
+        <f t="shared" si="232"/>
         <v>-3132</v>
       </c>
       <c r="P96" s="5">
-        <f t="shared" si="237"/>
+        <f t="shared" si="232"/>
         <v>-7150</v>
       </c>
       <c r="Q96" s="5">
-        <f t="shared" si="237"/>
+        <f t="shared" si="232"/>
         <v>-3264</v>
       </c>
       <c r="R96" s="5">
-        <f t="shared" si="237"/>
+        <f t="shared" si="232"/>
         <v>-9134</v>
       </c>
       <c r="S96" s="5">
-        <f t="shared" si="237"/>
+        <f t="shared" si="232"/>
         <v>503</v>
       </c>
       <c r="T96" s="5">
-        <f t="shared" si="237"/>
+        <f t="shared" si="232"/>
         <v>-71925</v>
       </c>
       <c r="BC96" s="5"/>
@@ -14337,23 +14478,23 @@
       <c r="E103" s="5"/>
       <c r="F103" s="5"/>
       <c r="G103" s="5">
-        <f t="shared" ref="G103:H103" si="238">SUM(G98:G102)</f>
+        <f t="shared" ref="G103:H103" si="233">SUM(G98:G102)</f>
         <v>-10289</v>
       </c>
       <c r="H103" s="5">
-        <f t="shared" si="238"/>
+        <f t="shared" si="233"/>
         <v>-13634</v>
       </c>
       <c r="I103" s="5">
-        <f t="shared" ref="I103:K103" si="239">SUM(I98:I102)</f>
+        <f t="shared" ref="I103:K103" si="234">SUM(I98:I102)</f>
         <v>-13192</v>
       </c>
       <c r="J103" s="5">
-        <f t="shared" si="239"/>
+        <f t="shared" si="234"/>
         <v>-11371</v>
       </c>
       <c r="K103" s="5">
-        <f t="shared" si="239"/>
+        <f t="shared" si="234"/>
         <v>-16276</v>
       </c>
       <c r="L103" s="5">
@@ -14377,19 +14518,19 @@
         <v>-11349</v>
       </c>
       <c r="Q103" s="5">
-        <f t="shared" ref="Q103:T103" si="240">SUM(Q98:Q102)</f>
+        <f t="shared" ref="Q103:T103" si="235">SUM(Q98:Q102)</f>
         <v>-10290</v>
       </c>
       <c r="R103" s="5">
-        <f t="shared" si="240"/>
+        <f t="shared" si="235"/>
         <v>-11413</v>
       </c>
       <c r="S103" s="5">
-        <f t="shared" si="240"/>
+        <f t="shared" si="235"/>
         <v>14761</v>
       </c>
       <c r="T103" s="5">
-        <f t="shared" si="240"/>
+        <f t="shared" si="235"/>
         <v>-10147</v>
       </c>
       <c r="BC103" s="5"/>
@@ -14449,23 +14590,23 @@
         <v>67</v>
       </c>
       <c r="G105" s="5">
-        <f t="shared" ref="G105:H105" si="241">G103+G104+G96+G90</f>
+        <f t="shared" ref="G105:H105" si="236">G103+G104+G96+G90</f>
         <v>3629</v>
       </c>
       <c r="H105" s="5">
-        <f t="shared" si="241"/>
+        <f t="shared" si="236"/>
         <v>-2773</v>
       </c>
       <c r="I105" s="5">
-        <f t="shared" ref="I105:K105" si="242">I103+I104+I96+I90</f>
+        <f t="shared" ref="I105:K105" si="237">I103+I104+I96+I90</f>
         <v>-730</v>
       </c>
       <c r="J105" s="5">
-        <f t="shared" si="242"/>
+        <f t="shared" si="237"/>
         <v>522</v>
       </c>
       <c r="K105" s="5">
-        <f t="shared" si="242"/>
+        <f t="shared" si="237"/>
         <v>4941</v>
       </c>
       <c r="L105" s="5">
@@ -14489,19 +14630,19 @@
         <v>-7238</v>
       </c>
       <c r="Q105" s="5">
-        <f t="shared" ref="Q105:T105" si="243">Q103+Q104+Q96+Q90</f>
+        <f t="shared" ref="Q105:T105" si="238">Q103+Q104+Q96+Q90</f>
         <v>10916</v>
       </c>
       <c r="R105" s="5">
-        <f t="shared" si="243"/>
+        <f t="shared" si="238"/>
         <v>8142</v>
       </c>
       <c r="S105" s="5">
-        <f t="shared" si="243"/>
+        <f t="shared" si="238"/>
         <v>45748</v>
       </c>
       <c r="T105" s="5">
-        <f t="shared" si="243"/>
+        <f t="shared" si="238"/>
         <v>-63147</v>
       </c>
     </row>
@@ -14510,23 +14651,23 @@
         <v>72</v>
       </c>
       <c r="G107" s="5">
-        <f t="shared" ref="G107:K107" si="244">G90+G92</f>
+        <f t="shared" ref="G107:K107" si="239">G90+G92</f>
         <v>14428</v>
       </c>
       <c r="H107" s="5">
-        <f t="shared" si="244"/>
+        <f t="shared" si="239"/>
         <v>8342</v>
       </c>
       <c r="I107" s="5">
-        <f t="shared" si="244"/>
+        <f t="shared" si="239"/>
         <v>17090</v>
       </c>
       <c r="J107" s="5">
-        <f t="shared" si="244"/>
+        <f t="shared" si="239"/>
         <v>16258</v>
       </c>
       <c r="K107" s="5">
-        <f t="shared" si="244"/>
+        <f t="shared" si="239"/>
         <v>18730</v>
       </c>
       <c r="L107" s="5">
@@ -14534,11 +14675,11 @@
         <v>8615</v>
       </c>
       <c r="M107" s="5">
-        <f t="shared" ref="M107:N107" si="245">M90+M92</f>
+        <f t="shared" ref="M107:N107" si="240">M90+M92</f>
         <v>20046</v>
       </c>
       <c r="N107" s="5">
-        <f t="shared" si="245"/>
+        <f t="shared" si="240"/>
         <v>17758</v>
       </c>
       <c r="O107" s="5">
@@ -14550,19 +14691,19 @@
         <v>4899</v>
       </c>
       <c r="Q107" s="5">
-        <f t="shared" ref="Q107:T107" si="246">Q90+Q92</f>
+        <f t="shared" ref="Q107:T107" si="241">Q90+Q92</f>
         <v>17834</v>
       </c>
       <c r="R107" s="5">
-        <f t="shared" si="246"/>
+        <f t="shared" si="241"/>
         <v>19827</v>
       </c>
       <c r="S107" s="5">
-        <f t="shared" si="246"/>
+        <f t="shared" si="241"/>
         <v>20666</v>
       </c>
       <c r="T107" s="5">
-        <f t="shared" si="246"/>
+        <f t="shared" si="241"/>
         <v>9118</v>
       </c>
     </row>
@@ -14571,43 +14712,43 @@
         <v>103</v>
       </c>
       <c r="K108" s="4">
-        <f>SUM(H107:K107)</f>
+        <f t="shared" ref="K108:P108" si="242">SUM(H107:K107)</f>
         <v>60420</v>
       </c>
       <c r="L108" s="4">
-        <f>SUM(I107:L107)</f>
+        <f t="shared" si="242"/>
         <v>60693</v>
       </c>
       <c r="M108" s="4">
-        <f>SUM(J107:M107)</f>
+        <f t="shared" si="242"/>
         <v>63649</v>
       </c>
       <c r="N108" s="4">
-        <f>SUM(K107:N107)</f>
+        <f t="shared" si="242"/>
         <v>65149</v>
       </c>
       <c r="O108" s="4">
-        <f>SUM(L107:O107)</f>
+        <f t="shared" si="242"/>
         <v>63334</v>
       </c>
       <c r="P108" s="4">
-        <f>SUM(M107:P107)</f>
+        <f t="shared" si="242"/>
         <v>59618</v>
       </c>
       <c r="Q108" s="4">
-        <f t="shared" ref="Q108:T108" si="247">SUM(N107:Q107)</f>
+        <f t="shared" ref="Q108:T108" si="243">SUM(N107:Q107)</f>
         <v>57406</v>
       </c>
       <c r="R108" s="4">
-        <f t="shared" si="247"/>
+        <f t="shared" si="243"/>
         <v>59475</v>
       </c>
       <c r="S108" s="4">
-        <f t="shared" si="247"/>
+        <f t="shared" si="243"/>
         <v>63226</v>
       </c>
       <c r="T108" s="4">
-        <f t="shared" si="247"/>
+        <f t="shared" si="243"/>
         <v>67445</v>
       </c>
     </row>
@@ -14616,27 +14757,27 @@
         <v>465</v>
       </c>
       <c r="O109" s="12">
-        <f>+O108/K108-1</f>
+        <f t="shared" ref="O109:T109" si="244">+O108/K108-1</f>
         <v>4.8229063224098034E-2</v>
       </c>
       <c r="P109" s="12">
-        <f>+P108/L108-1</f>
+        <f t="shared" si="244"/>
         <v>-1.7712092004020241E-2</v>
       </c>
       <c r="Q109" s="12">
-        <f>+Q108/M108-1</f>
+        <f t="shared" si="244"/>
         <v>-9.8084808873666551E-2</v>
       </c>
       <c r="R109" s="12">
-        <f>+R108/N108-1</f>
+        <f t="shared" si="244"/>
         <v>-8.7092664507513518E-2</v>
       </c>
       <c r="S109" s="12">
-        <f>+S108/O108-1</f>
+        <f t="shared" si="244"/>
         <v>-1.7052452079451275E-3</v>
       </c>
       <c r="T109" s="12">
-        <f>+T108/P108-1</f>
+        <f t="shared" si="244"/>
         <v>0.13128585326579212</v>
       </c>
     </row>
@@ -14645,39 +14786,39 @@
         <v>466</v>
       </c>
       <c r="K110" s="4">
-        <f t="shared" ref="K110:S110" si="248">SUM(H92:K92)</f>
+        <f t="shared" ref="K110:S110" si="245">SUM(H92:K92)</f>
         <v>-21525</v>
       </c>
       <c r="L110" s="4">
-        <f t="shared" si="248"/>
+        <f t="shared" si="245"/>
         <v>-23216</v>
       </c>
       <c r="M110" s="4">
-        <f t="shared" si="248"/>
+        <f t="shared" si="245"/>
         <v>-23467</v>
       </c>
       <c r="N110" s="4">
-        <f t="shared" si="248"/>
+        <f t="shared" si="245"/>
         <v>-23886</v>
       </c>
       <c r="O110" s="4">
-        <f t="shared" si="248"/>
+        <f t="shared" si="245"/>
         <v>-24359</v>
       </c>
       <c r="P110" s="4">
-        <f t="shared" si="248"/>
+        <f t="shared" si="245"/>
         <v>-24768</v>
       </c>
       <c r="Q110" s="4">
-        <f t="shared" si="248"/>
+        <f t="shared" si="245"/>
         <v>-26035</v>
       </c>
       <c r="R110" s="4">
-        <f t="shared" si="248"/>
+        <f t="shared" si="245"/>
         <v>-28107</v>
       </c>
       <c r="S110" s="4">
-        <f t="shared" si="248"/>
+        <f t="shared" si="245"/>
         <v>-31741</v>
       </c>
       <c r="T110" s="4">
@@ -14690,23 +14831,23 @@
         <v>465</v>
       </c>
       <c r="O111" s="12">
-        <f t="shared" ref="O111:S111" si="249">+O110/K110-1</f>
+        <f t="shared" ref="O111:S111" si="246">+O110/K110-1</f>
         <v>0.13166085946573758</v>
       </c>
       <c r="P111" s="12">
-        <f t="shared" si="249"/>
+        <f t="shared" si="246"/>
         <v>6.6850447966919413E-2</v>
       </c>
       <c r="Q111" s="12">
-        <f t="shared" si="249"/>
+        <f t="shared" si="246"/>
         <v>0.10943026377466225</v>
       </c>
       <c r="R111" s="12">
-        <f t="shared" si="249"/>
+        <f t="shared" si="246"/>
         <v>0.17671439336850048</v>
       </c>
       <c r="S111" s="12">
-        <f t="shared" si="249"/>
+        <f t="shared" si="246"/>
         <v>0.3030502073155712</v>
       </c>
       <c r="T111" s="12">
@@ -14914,95 +15055,95 @@
         <v>2</v>
       </c>
       <c r="AC117" s="4">
-        <f t="shared" ref="AC117:AY117" si="250">AC116*AC46</f>
+        <f t="shared" ref="AC117:AY117" si="247">AC116*AC46</f>
         <v>20734.741379310344</v>
       </c>
       <c r="AD117" s="4">
-        <f t="shared" si="250"/>
+        <f t="shared" si="247"/>
         <v>36544.838709677417</v>
       </c>
       <c r="AE117" s="4">
-        <f t="shared" si="250"/>
+        <f t="shared" si="247"/>
         <v>49327.24832214765</v>
       </c>
       <c r="AF117" s="4">
-        <f t="shared" si="250"/>
+        <f t="shared" si="247"/>
         <v>114885.89743906935</v>
       </c>
       <c r="AG117" s="4">
-        <f t="shared" si="250"/>
+        <f t="shared" si="247"/>
         <v>184709.73040305718</v>
       </c>
       <c r="AH117" s="4">
-        <f t="shared" si="250"/>
+        <f t="shared" si="247"/>
         <v>372704.58101536665</v>
       </c>
       <c r="AI117" s="4">
-        <f t="shared" si="250"/>
+        <f t="shared" si="247"/>
         <v>298261.112605042</v>
       </c>
       <c r="AJ117" s="4">
-        <f t="shared" si="250"/>
+        <f t="shared" si="247"/>
         <v>266298.08220699872</v>
       </c>
       <c r="AK117" s="4">
-        <f t="shared" si="250"/>
+        <f t="shared" si="247"/>
         <v>222567.08981033842</v>
       </c>
       <c r="AL117" s="4">
-        <f t="shared" si="250"/>
+        <f t="shared" si="247"/>
         <v>236906.16184222695</v>
       </c>
       <c r="AM117" s="4">
-        <f t="shared" si="250"/>
+        <f t="shared" si="247"/>
         <v>252642.2008830022</v>
       </c>
       <c r="AN117" s="4">
-        <f t="shared" si="250"/>
+        <f t="shared" si="247"/>
         <v>260731.99813293503</v>
       </c>
       <c r="AO117" s="4">
-        <f t="shared" si="250"/>
+        <f t="shared" si="247"/>
         <v>247113.52251981141</v>
       </c>
       <c r="AP117" s="4">
-        <f t="shared" si="250"/>
+        <f t="shared" si="247"/>
         <v>265170.46442666667</v>
       </c>
       <c r="AQ117" s="4">
-        <f t="shared" si="250"/>
+        <f t="shared" si="247"/>
         <v>298326.78203723987</v>
       </c>
       <c r="AR117" s="4">
-        <f t="shared" si="250"/>
+        <f t="shared" si="247"/>
         <v>151214.58181818182</v>
       </c>
       <c r="AS117" s="4">
-        <f t="shared" si="250"/>
+        <f t="shared" si="247"/>
         <v>242693.07615855773</v>
       </c>
       <c r="AT117" s="4">
-        <f t="shared" si="250"/>
+        <f t="shared" si="247"/>
         <v>213717.28455478634</v>
       </c>
       <c r="AU117" s="4">
-        <f t="shared" si="250"/>
+        <f t="shared" si="247"/>
         <v>198199.0335202195</v>
       </c>
       <c r="AV117" s="4">
-        <f t="shared" si="250"/>
+        <f t="shared" si="247"/>
         <v>206380.61592027853</v>
       </c>
       <c r="AW117" s="4">
-        <f t="shared" si="250"/>
+        <f t="shared" si="247"/>
         <v>290064.69972083991</v>
       </c>
       <c r="AX117" s="4">
-        <f t="shared" si="250"/>
+        <f t="shared" si="247"/>
         <v>377052.05051894463</v>
       </c>
       <c r="AY117" s="4">
-        <f t="shared" si="250"/>
+        <f t="shared" si="247"/>
         <v>436539.84856262838</v>
       </c>
     </row>
@@ -15011,95 +15152,95 @@
         <v>5</v>
       </c>
       <c r="AC118" s="4">
-        <f t="shared" ref="AC118:AY118" si="251">AC117-AC61</f>
+        <f t="shared" ref="AC118:AY118" si="248">AC117-AC61</f>
         <v>17120.741379310344</v>
       </c>
       <c r="AD118" s="4">
-        <f t="shared" si="251"/>
+        <f t="shared" si="248"/>
         <v>31794.838709677417</v>
       </c>
       <c r="AE118" s="4">
-        <f t="shared" si="251"/>
+        <f t="shared" si="248"/>
         <v>42387.24832214765</v>
       </c>
       <c r="AF118" s="4">
-        <f t="shared" si="251"/>
+        <f t="shared" si="248"/>
         <v>103573.89743906935</v>
       </c>
       <c r="AG118" s="4">
-        <f t="shared" si="251"/>
+        <f t="shared" si="248"/>
         <v>166079.73040305718</v>
       </c>
       <c r="AH118" s="4">
-        <f t="shared" si="251"/>
+        <f t="shared" si="248"/>
         <v>341096.58101536665</v>
       </c>
       <c r="AI118" s="4">
-        <f t="shared" si="251"/>
+        <f t="shared" si="248"/>
         <v>256737.112605042</v>
       </c>
       <c r="AJ118" s="4">
-        <f t="shared" si="251"/>
+        <f t="shared" si="248"/>
         <v>220557.08220699872</v>
       </c>
       <c r="AK118" s="4">
-        <f t="shared" si="251"/>
+        <f t="shared" si="248"/>
         <v>169724.08981033842</v>
       </c>
       <c r="AL118" s="4">
-        <f t="shared" si="251"/>
+        <f t="shared" si="248"/>
         <v>174166.16184222695</v>
       </c>
       <c r="AM118" s="4">
-        <f t="shared" si="251"/>
+        <f t="shared" si="248"/>
         <v>179840.2008830022</v>
       </c>
       <c r="AN118" s="4">
-        <f t="shared" si="251"/>
+        <f t="shared" si="248"/>
         <v>211976.99813293503</v>
       </c>
       <c r="AO118" s="4">
-        <f t="shared" si="251"/>
+        <f t="shared" si="248"/>
         <v>203720.52251981141</v>
       </c>
       <c r="AP118" s="4">
-        <f t="shared" si="251"/>
+        <f t="shared" si="248"/>
         <v>231642.46442666667</v>
       </c>
       <c r="AQ118" s="4">
-        <f t="shared" si="251"/>
+        <f t="shared" si="248"/>
         <v>268076.78203723987</v>
       </c>
       <c r="AR118" s="4">
-        <f t="shared" si="251"/>
+        <f t="shared" si="248"/>
         <v>120580.58181818182</v>
       </c>
       <c r="AS118" s="4">
-        <f t="shared" si="251"/>
+        <f t="shared" si="248"/>
         <v>204090.07615855773</v>
       </c>
       <c r="AT118" s="4">
-        <f t="shared" si="251"/>
+        <f t="shared" si="248"/>
         <v>162001.28455478634</v>
       </c>
       <c r="AU118" s="4">
-        <f t="shared" si="251"/>
+        <f t="shared" si="248"/>
         <v>137327.0335202195</v>
       </c>
       <c r="AV118" s="4">
-        <f t="shared" si="251"/>
+        <f t="shared" si="248"/>
         <v>134114.61592027853</v>
       </c>
       <c r="AW118" s="4">
-        <f t="shared" si="251"/>
+        <f t="shared" si="248"/>
         <v>212403.69972083991</v>
       </c>
       <c r="AX118" s="4">
-        <f t="shared" si="251"/>
+        <f t="shared" si="248"/>
         <v>377052.05051894463</v>
       </c>
       <c r="AY118" s="4">
-        <f t="shared" si="251"/>
+        <f t="shared" si="248"/>
         <v>436539.84856262838</v>
       </c>
     </row>
@@ -15108,95 +15249,95 @@
         <v>223</v>
       </c>
       <c r="AC119" s="24">
-        <f t="shared" ref="AC119:AY119" si="252">AC118/AC44</f>
+        <f t="shared" ref="AC119:AY119" si="249">AC118/AC44</f>
         <v>13.85173250753264</v>
       </c>
       <c r="AD119" s="24">
-        <f t="shared" si="252"/>
+        <f t="shared" si="249"/>
         <v>21.21069960618907</v>
       </c>
       <c r="AE119" s="24">
-        <f t="shared" si="252"/>
+        <f t="shared" si="249"/>
         <v>19.310819281160661</v>
       </c>
       <c r="AF119" s="24">
-        <f t="shared" si="252"/>
+        <f t="shared" si="249"/>
         <v>29.986652414322336</v>
       </c>
       <c r="AG119" s="24">
-        <f t="shared" si="252"/>
+        <f t="shared" si="249"/>
         <v>34.905365784585371</v>
       </c>
       <c r="AH119" s="24">
-        <f t="shared" si="252"/>
+        <f t="shared" si="249"/>
         <v>44.733977838080875</v>
       </c>
       <c r="AI119" s="24">
-        <f t="shared" si="252"/>
+        <f t="shared" si="249"/>
         <v>27.710427696172907</v>
       </c>
       <c r="AJ119" s="24">
-        <f t="shared" si="252"/>
+        <f t="shared" si="249"/>
         <v>27.989477437436385</v>
       </c>
       <c r="AK119" s="24">
-        <f t="shared" si="252"/>
+        <f t="shared" si="249"/>
         <v>21.427103877078451</v>
       </c>
       <c r="AL119" s="24">
-        <f t="shared" si="252"/>
+        <f t="shared" si="249"/>
         <v>17.311018968514755</v>
       </c>
       <c r="AM119" s="24">
-        <f t="shared" si="252"/>
+        <f t="shared" si="249"/>
         <v>21.950470021115855</v>
       </c>
       <c r="AN119" s="24">
-        <f t="shared" si="252"/>
+        <f t="shared" si="249"/>
         <v>17.298596224329607</v>
       </c>
       <c r="AO119" s="24">
-        <f t="shared" si="252"/>
+        <f t="shared" si="249"/>
         <v>16.16957873798011</v>
       </c>
       <c r="AP119" s="24">
-        <f t="shared" si="252"/>
+        <f t="shared" si="249"/>
         <v>16.469425128095747</v>
       </c>
       <c r="AQ119" s="24">
-        <f t="shared" si="252"/>
+        <f t="shared" si="249"/>
         <v>15.161856345073236</v>
       </c>
       <c r="AR119" s="25">
-        <f t="shared" si="252"/>
+        <f t="shared" si="249"/>
         <v>8.0931996656273455</v>
       </c>
       <c r="AS119" s="25">
-        <f t="shared" si="252"/>
+        <f t="shared" si="249"/>
         <v>10.844894848746359</v>
       </c>
       <c r="AT119" s="25">
-        <f t="shared" si="252"/>
+        <f t="shared" si="249"/>
         <v>6.9978956611138807</v>
       </c>
       <c r="AU119" s="25">
-        <f t="shared" si="252"/>
+        <f t="shared" si="249"/>
         <v>5.9266770325069915</v>
       </c>
       <c r="AV119" s="25">
-        <f t="shared" si="252"/>
+        <f t="shared" si="249"/>
         <v>6.1343189827689946</v>
       </c>
       <c r="AW119" s="25">
-        <f t="shared" si="252"/>
+        <f t="shared" si="249"/>
         <v>9.5673032620530574</v>
       </c>
       <c r="AX119" s="25">
-        <f t="shared" si="252"/>
+        <f t="shared" si="249"/>
         <v>16.98126691222053</v>
       </c>
       <c r="AY119" s="25">
-        <f t="shared" si="252"/>
+        <f t="shared" si="249"/>
         <v>24.376806374951329</v>
       </c>
     </row>

--- a/MSFT.xlsx
+++ b/MSFT.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4f922bae05200f16/Documents/Stocks/martinshkreli/models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4f922bae05200f16/Documents/Stocks/jukkamic/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="103" documentId="13_ncr:1_{C09E0527-82C7-4143-98EC-0CAA14AC6C95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2A312B5-C8DF-41A6-9319-1CCFE6644E1C}"/>
+  <xr:revisionPtr revIDLastSave="152" documentId="13_ncr:1_{C09E0527-82C7-4143-98EC-0CAA14AC6C95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E48CC5F5-0BAF-42E9-850E-7EDDCF72323C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{AF5D6250-CC2E-478D-A72E-6EAEA79B8F65}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{AF5D6250-CC2E-478D-A72E-6EAEA79B8F65}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1844,7 +1844,7 @@
     <numFmt numFmtId="166" formatCode="0\x"/>
     <numFmt numFmtId="167" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -1920,12 +1920,6 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2938,10 +2932,10 @@
   <dimension ref="A1:DS124"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C104" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="R79" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="T83" sqref="T83"/>
+      <selection pane="bottomRight" activeCell="U96" sqref="U96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6177,7 +6171,7 @@
         <v>171008</v>
       </c>
       <c r="BH35" s="5">
-        <f t="shared" ref="BG35:BM35" si="39">+BH31*0.67</f>
+        <f t="shared" ref="BH35:BM35" si="39">+BH31*0.67</f>
         <v>177617.06030000004</v>
       </c>
       <c r="BI35" s="5">
@@ -7353,7 +7347,7 @@
         <v>-506</v>
       </c>
       <c r="U41" s="4">
-        <f t="shared" ref="U41:V41" si="86">T41</f>
+        <f t="shared" ref="U41" si="86">T41</f>
         <v>-506</v>
       </c>
       <c r="V41" s="4">
@@ -7480,7 +7474,7 @@
         <v>-227</v>
       </c>
       <c r="BH41" s="5">
-        <f t="shared" ref="BF41:BM41" si="88">+BG61*$BP$49</f>
+        <f t="shared" ref="BH41:BM41" si="88">+BG61*$BP$49</f>
         <v>2256.5426000000002</v>
       </c>
       <c r="BI41" s="5">
@@ -7812,7 +7806,7 @@
         <v>4656</v>
       </c>
       <c r="U43" s="4">
-        <f t="shared" ref="U43:V43" si="103">U42*0.2</f>
+        <f t="shared" ref="U43" si="103">U42*0.2</f>
         <v>5415</v>
       </c>
       <c r="V43" s="4">
@@ -8742,7 +8736,7 @@
         <v>7468</v>
       </c>
       <c r="U46" s="4">
-        <f t="shared" ref="U46:V46" si="136">T46</f>
+        <f t="shared" ref="U46" si="136">T46</f>
         <v>7468</v>
       </c>
       <c r="V46" s="4">
@@ -9232,6 +9226,14 @@
       <c r="T50" s="18">
         <f>T76/P76-1</f>
         <v>0.16171200726795543</v>
+      </c>
+      <c r="U50" s="18">
+        <f t="shared" ref="U50:V50" si="149">U76/Q76-1</f>
+        <v>0.13211787581121692</v>
+      </c>
+      <c r="V50" s="18">
+        <f t="shared" si="149"/>
+        <v>0.11839146674595358</v>
       </c>
       <c r="BA50" s="10"/>
       <c r="BB50" s="10"/>
@@ -9258,60 +9260,68 @@
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
       <c r="G51" s="12">
-        <f t="shared" ref="G51:J53" si="149">G25/C25-1</f>
+        <f t="shared" ref="G51:J53" si="150">G25/C25-1</f>
         <v>0.11212422135957389</v>
       </c>
       <c r="H51" s="12">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>0.12912227295788936</v>
       </c>
       <c r="I51" s="12">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>0.15404922081239891</v>
       </c>
       <c r="J51" s="12">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>0.25008509189925121</v>
       </c>
       <c r="K51" s="12">
-        <f t="shared" ref="K51:K53" si="150">K25/G25-1</f>
+        <f t="shared" ref="K51:K53" si="151">K25/G25-1</f>
         <v>0.22079714262521311</v>
       </c>
       <c r="L51" s="12">
-        <f t="shared" ref="L51:L53" si="151">L25/H25-1</f>
+        <f t="shared" ref="L51:L53" si="152">L25/H25-1</f>
         <v>0.19343967647719618</v>
       </c>
       <c r="M51" s="12">
-        <f t="shared" ref="M51:M53" si="152">M25/I25-1</f>
+        <f t="shared" ref="M51:M53" si="153">M25/I25-1</f>
         <v>0.16506788665879579</v>
       </c>
       <c r="N51" s="12">
-        <f t="shared" ref="N51" si="153">N25/J25-1</f>
+        <f t="shared" ref="N51" si="154">N25/J25-1</f>
         <v>0.12994350282485878</v>
       </c>
       <c r="O51" s="12">
-        <f t="shared" ref="O51" si="154">O25/K25-1</f>
+        <f t="shared" ref="O51" si="155">O25/K25-1</f>
         <v>9.4820134317441296E-2</v>
       </c>
       <c r="P51" s="12">
-        <f t="shared" ref="P51" si="155">P25/L25-1</f>
+        <f t="shared" ref="P51" si="156">P25/L25-1</f>
         <v>6.6892570281124497E-2</v>
       </c>
       <c r="Q51" s="12">
-        <f t="shared" ref="Q51:T51" si="156">Q25/M25-1</f>
+        <f t="shared" ref="Q51:T51" si="157">Q25/M25-1</f>
         <v>0.10937994806510853</v>
       </c>
       <c r="R51" s="12">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>0.10186746987951811</v>
       </c>
       <c r="S51" s="12">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>0.12918311569996965</v>
       </c>
       <c r="T51" s="12">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>0.13216092224444176</v>
+      </c>
+      <c r="U51" s="12">
+        <f t="shared" ref="U51:U53" si="158">U25/Q25-1</f>
+        <v>0.11726421557433198</v>
+      </c>
+      <c r="V51" s="12">
+        <f t="shared" ref="V51:V53" si="159">V25/R25-1</f>
+        <v>0.1107648570335138</v>
       </c>
       <c r="BA51" s="10"/>
       <c r="BB51" s="10"/>
@@ -9338,60 +9348,68 @@
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
       <c r="G52" s="12">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>0.19741816505301979</v>
       </c>
       <c r="H52" s="12">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>0.23017945909512183</v>
       </c>
       <c r="I52" s="12">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>0.23100724696685937</v>
       </c>
       <c r="J52" s="12">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>0.29945404233041661</v>
       </c>
       <c r="K52" s="12">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>0.30232558139534893</v>
       </c>
       <c r="L52" s="12">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>0.25518800082186144</v>
       </c>
       <c r="M52" s="12">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>0.25592009525069459</v>
       </c>
       <c r="N52" s="12">
-        <f t="shared" ref="N52:Q52" si="157">N26/J26-1</f>
+        <f t="shared" ref="N52:Q52" si="160">N26/J26-1</f>
         <v>0.19735251798561149</v>
       </c>
       <c r="O52" s="12">
-        <f t="shared" si="157"/>
+        <f t="shared" si="160"/>
         <v>0.20180936613055822</v>
       </c>
       <c r="P52" s="12">
-        <f t="shared" si="157"/>
+        <f t="shared" si="160"/>
         <v>0.17356905112675292</v>
       </c>
       <c r="Q52" s="12">
-        <f t="shared" si="157"/>
+        <f t="shared" si="160"/>
         <v>0.16295359983146374</v>
       </c>
       <c r="R52" s="12">
-        <f t="shared" ref="R52:T53" si="158">R26/N26-1</f>
+        <f t="shared" ref="R52:T53" si="161">R26/N26-1</f>
         <v>0.15328782926360307</v>
       </c>
       <c r="S52" s="12">
+        <f t="shared" si="161"/>
+        <v>0.19355473554735547</v>
+      </c>
+      <c r="T52" s="12">
+        <f t="shared" si="161"/>
+        <v>0.20327320066951837</v>
+      </c>
+      <c r="U52" s="12">
         <f t="shared" si="158"/>
-        <v>0.19355473554735547</v>
-      </c>
-      <c r="T52" s="12">
-        <f t="shared" si="158"/>
-        <v>0.20327320066951837</v>
+        <v>0.20954666908201625</v>
+      </c>
+      <c r="V52" s="12">
+        <f t="shared" si="159"/>
+        <v>0.1884716375609552</v>
       </c>
       <c r="BA52" s="10"/>
       <c r="BB52" s="10"/>
@@ -9418,60 +9436,68 @@
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
       <c r="G53" s="12">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>6.4313302793496785E-2</v>
       </c>
       <c r="H53" s="12">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>0.14465218378623868</v>
       </c>
       <c r="I53" s="12">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>0.18541420387378382</v>
       </c>
       <c r="J53" s="12">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>9.1092176607281194E-2</v>
       </c>
       <c r="K53" s="12">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>0.12802768166089962</v>
       </c>
       <c r="L53" s="12">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>0.15493982277476515</v>
       </c>
       <c r="M53" s="12">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>0.11874808223381406</v>
       </c>
       <c r="N53" s="12">
-        <f t="shared" ref="N53:Q53" si="159">N27/J27-1</f>
+        <f t="shared" ref="N53:Q53" si="162">N27/J27-1</f>
         <v>2.6622178049126699E-2</v>
       </c>
       <c r="O53" s="12">
+        <f t="shared" si="162"/>
+        <v>-2.5437677689660321E-3</v>
+      </c>
+      <c r="P53" s="12">
+        <f t="shared" si="162"/>
+        <v>-0.18482679645004296</v>
+      </c>
+      <c r="Q53" s="12">
+        <f t="shared" si="162"/>
+        <v>-9.0784421283598427E-2</v>
+      </c>
+      <c r="R53" s="12">
+        <f t="shared" si="161"/>
+        <v>-3.8448240094046016E-2</v>
+      </c>
+      <c r="S53" s="12">
+        <f t="shared" si="161"/>
+        <v>2.5052505250525048E-2</v>
+      </c>
+      <c r="T53" s="12">
+        <f t="shared" si="161"/>
+        <v>0.1864156774601391</v>
+      </c>
+      <c r="U53" s="12">
+        <f t="shared" si="158"/>
+        <v>0.17496229260935148</v>
+      </c>
+      <c r="V53" s="12">
         <f t="shared" si="159"/>
-        <v>-2.5437677689660321E-3</v>
-      </c>
-      <c r="P53" s="12">
-        <f t="shared" si="159"/>
-        <v>-0.18482679645004296</v>
-      </c>
-      <c r="Q53" s="12">
-        <f t="shared" si="159"/>
-        <v>-9.0784421283598427E-2</v>
-      </c>
-      <c r="R53" s="12">
-        <f t="shared" si="158"/>
-        <v>-3.8448240094046016E-2</v>
-      </c>
-      <c r="S53" s="12">
-        <f t="shared" si="158"/>
-        <v>2.5052505250525048E-2</v>
-      </c>
-      <c r="T53" s="12">
-        <f t="shared" si="158"/>
-        <v>0.1864156774601391</v>
+        <v>0.14311398777418205</v>
       </c>
       <c r="BA53" s="10"/>
       <c r="BB53" s="10"/>
@@ -9494,27 +9520,27 @@
         <v>22</v>
       </c>
       <c r="C54" s="9">
-        <f t="shared" ref="C54:D54" si="160">C35/C31</f>
+        <f t="shared" ref="C54:D54" si="163">C35/C31</f>
         <v>0.6851913477537438</v>
       </c>
       <c r="D54" s="9">
-        <f t="shared" si="160"/>
+        <f t="shared" si="163"/>
         <v>0.66514929821709212</v>
       </c>
       <c r="E54" s="9">
-        <f t="shared" ref="E54:F54" si="161">E35/E31</f>
+        <f t="shared" ref="E54:F54" si="164">E35/E31</f>
         <v>0.68661660146769077</v>
       </c>
       <c r="F54" s="9">
-        <f t="shared" si="161"/>
+        <f t="shared" si="164"/>
         <v>0.67557121447164303</v>
       </c>
       <c r="G54" s="9">
-        <f t="shared" ref="G54:H54" si="162">G35/G31</f>
+        <f t="shared" ref="G54:H54" si="165">G35/G31</f>
         <v>0.70388114334930285</v>
       </c>
       <c r="H54" s="9">
-        <f t="shared" si="162"/>
+        <f t="shared" si="165"/>
         <v>0.67048936762930633</v>
       </c>
       <c r="I54" s="9">
@@ -9522,27 +9548,27 @@
         <v>0.68721526878626582</v>
       </c>
       <c r="J54" s="9">
-        <f t="shared" ref="J54:M54" si="163">J35/J31</f>
+        <f t="shared" ref="J54:M54" si="166">J35/J31</f>
         <v>0.69684954064829263</v>
       </c>
       <c r="K54" s="9">
-        <f t="shared" si="163"/>
+        <f t="shared" si="166"/>
         <v>0.6988768012004325</v>
       </c>
       <c r="L54" s="9">
-        <f t="shared" si="163"/>
+        <f t="shared" si="166"/>
         <v>0.67213114754098358</v>
       </c>
       <c r="M54" s="9">
-        <f t="shared" si="163"/>
+        <f t="shared" si="166"/>
         <v>0.68365072933549431</v>
       </c>
       <c r="N54" s="9">
-        <f t="shared" ref="N54:O54" si="164">N35/N31</f>
+        <f t="shared" ref="N54:O54" si="167">N35/N31</f>
         <v>0.68323532247180174</v>
       </c>
       <c r="O54" s="9">
-        <f t="shared" si="164"/>
+        <f t="shared" si="167"/>
         <v>0.69171222217788597</v>
       </c>
       <c r="P54" s="9">
@@ -9550,193 +9576,193 @@
         <v>0.66845507801391546</v>
       </c>
       <c r="Q54" s="9">
-        <f t="shared" ref="Q54:R54" si="165">Q35/Q31</f>
+        <f t="shared" ref="Q54:R54" si="168">Q35/Q31</f>
         <v>0.69487485101311086</v>
       </c>
       <c r="R54" s="9">
-        <f t="shared" si="165"/>
+        <f t="shared" si="168"/>
         <v>0.70109807969531401</v>
       </c>
       <c r="S54" s="9">
-        <f t="shared" ref="S54:V54" si="166">S35/S31</f>
+        <f t="shared" ref="S54:V54" si="169">S35/S31</f>
         <v>0.71155581506449384</v>
       </c>
       <c r="T54" s="9">
-        <f t="shared" si="166"/>
+        <f t="shared" si="169"/>
         <v>0.68360206385037081</v>
       </c>
       <c r="U54" s="9">
-        <f t="shared" si="166"/>
+        <f t="shared" si="169"/>
         <v>0.70084710142584628</v>
       </c>
       <c r="V54" s="9">
-        <f t="shared" si="166"/>
+        <f t="shared" si="169"/>
         <v>0.69589197707293715</v>
       </c>
       <c r="W54" s="9"/>
       <c r="X54" s="9"/>
       <c r="Y54" s="9">
-        <f t="shared" ref="Y54:AD54" si="167">Y35/Y31</f>
+        <f t="shared" ref="Y54:AD54" si="170">Y35/Y31</f>
         <v>0.78613693998309386</v>
       </c>
       <c r="Z54" s="9">
-        <f t="shared" si="167"/>
+        <f t="shared" si="170"/>
         <v>0.8035811177428106</v>
       </c>
       <c r="AA54" s="9">
-        <f t="shared" si="167"/>
+        <f t="shared" si="170"/>
         <v>0.8307357738310982</v>
       </c>
       <c r="AB54" s="9">
-        <f t="shared" si="167"/>
+        <f t="shared" si="170"/>
         <v>0.83133493205435649</v>
       </c>
       <c r="AC54" s="9">
-        <f t="shared" si="167"/>
+        <f t="shared" si="170"/>
         <v>0.83587868358786832</v>
       </c>
       <c r="AD54" s="9">
-        <f t="shared" si="167"/>
+        <f t="shared" si="170"/>
         <v>0.85228229745662798</v>
       </c>
       <c r="AE54" s="9">
-        <f t="shared" ref="AE54:AM54" si="168">AE35/AE31</f>
+        <f t="shared" ref="AE54:AM54" si="171">AE35/AE31</f>
         <v>0.86299158113251062</v>
       </c>
       <c r="AF54" s="9">
-        <f t="shared" si="168"/>
+        <f t="shared" si="171"/>
         <v>0.90447261841873572</v>
       </c>
       <c r="AG54" s="9">
-        <f t="shared" si="168"/>
+        <f t="shared" si="171"/>
         <v>0.91735708367854185</v>
       </c>
       <c r="AH54" s="9">
-        <f t="shared" si="168"/>
+        <f t="shared" si="171"/>
         <v>0.85749734136830913</v>
       </c>
       <c r="AI54" s="9">
-        <f t="shared" si="168"/>
+        <f t="shared" si="171"/>
         <v>0.86922808851716327</v>
       </c>
       <c r="AJ54" s="9">
-        <f t="shared" si="168"/>
+        <f t="shared" si="171"/>
         <v>0.86341714104996836</v>
       </c>
       <c r="AK54" s="9">
-        <f t="shared" si="168"/>
+        <f t="shared" si="171"/>
         <v>0.8169927727833598</v>
       </c>
       <c r="AL54" s="9">
-        <f t="shared" si="168"/>
+        <f t="shared" si="171"/>
         <v>0.82334482865753256</v>
       </c>
       <c r="AM54" s="9">
-        <f t="shared" si="168"/>
+        <f t="shared" si="171"/>
         <v>0.81767340844305691</v>
       </c>
       <c r="AN54" s="9">
-        <f t="shared" ref="AN54:AW54" si="169">AN35/AN31</f>
+        <f t="shared" ref="AN54:AW54" si="172">AN35/AN31</f>
         <v>0.84417412285111093</v>
       </c>
       <c r="AO54" s="9">
-        <f t="shared" si="169"/>
+        <f t="shared" si="172"/>
         <v>0.82724357526760306</v>
       </c>
       <c r="AP54" s="9">
-        <f t="shared" si="169"/>
+        <f t="shared" si="172"/>
         <v>0.79083369195258402</v>
       </c>
       <c r="AQ54" s="9">
-        <f t="shared" si="169"/>
+        <f t="shared" si="172"/>
         <v>0.80804369414101296</v>
       </c>
       <c r="AR54" s="9">
-        <f t="shared" si="169"/>
+        <f t="shared" si="172"/>
         <v>0.79199822030562828</v>
       </c>
       <c r="AS54" s="9">
-        <f t="shared" si="169"/>
+        <f t="shared" si="172"/>
         <v>0.80162921707957235</v>
       </c>
       <c r="AT54" s="9">
-        <f t="shared" si="169"/>
+        <f t="shared" si="172"/>
         <v>0.77729007906438097</v>
       </c>
       <c r="AU54" s="9">
-        <f t="shared" si="169"/>
+        <f t="shared" si="172"/>
         <v>0.76221803236439101</v>
       </c>
       <c r="AV54" s="9">
-        <f t="shared" si="169"/>
+        <f t="shared" si="172"/>
         <v>0.7398938971598864</v>
       </c>
       <c r="AW54" s="9">
-        <f t="shared" si="169"/>
+        <f t="shared" si="172"/>
         <v>0.68981838701876019</v>
       </c>
       <c r="AX54" s="9">
-        <f t="shared" ref="AX54:AY54" si="170">AX35/AX31</f>
+        <f t="shared" ref="AX54:AY54" si="173">AX35/AX31</f>
         <v>0.64695447745244705</v>
       </c>
       <c r="AY54" s="9">
-        <f t="shared" si="170"/>
+        <f t="shared" si="173"/>
         <v>0.61579934364744493</v>
       </c>
       <c r="AZ54" s="9">
-        <f t="shared" ref="AZ54:BA54" si="171">AZ35/AZ31</f>
+        <f t="shared" ref="AZ54:BA54" si="174">AZ35/AZ31</f>
         <v>0.64522475691460168</v>
       </c>
       <c r="BA54" s="9">
-        <f t="shared" si="171"/>
+        <f t="shared" si="174"/>
         <v>0.65247372236317502</v>
       </c>
       <c r="BB54" s="9">
-        <f t="shared" ref="BB54:BF54" si="172">BB35/BB31</f>
+        <f t="shared" ref="BB54:BF54" si="175">BB35/BB31</f>
         <v>0.65901957200638894</v>
       </c>
       <c r="BC54" s="9">
-        <f t="shared" si="172"/>
+        <f t="shared" si="175"/>
         <v>0.67781001992797962</v>
       </c>
       <c r="BD54" s="9">
-        <f t="shared" si="172"/>
+        <f t="shared" si="175"/>
         <v>0.68925800771024703</v>
       </c>
       <c r="BE54" s="9">
-        <f t="shared" si="172"/>
+        <f t="shared" si="175"/>
         <v>0.68401674484289099</v>
       </c>
       <c r="BF54" s="9">
-        <f t="shared" si="172"/>
+        <f t="shared" si="175"/>
         <v>0.68920085883491022</v>
       </c>
       <c r="BG54" s="9">
-        <f t="shared" ref="BG54:BM54" si="173">BG35/BG31</f>
+        <f t="shared" ref="BG54:BM54" si="176">BG35/BG31</f>
         <v>0.69764443827971379</v>
       </c>
       <c r="BH54" s="9">
-        <f t="shared" si="173"/>
+        <f t="shared" si="176"/>
         <v>0.67</v>
       </c>
       <c r="BI54" s="9">
-        <f t="shared" si="173"/>
+        <f t="shared" si="176"/>
         <v>0.67</v>
       </c>
       <c r="BJ54" s="9">
-        <f t="shared" si="173"/>
+        <f t="shared" si="176"/>
         <v>0.67</v>
       </c>
       <c r="BK54" s="9">
-        <f t="shared" si="173"/>
+        <f t="shared" si="176"/>
         <v>0.67</v>
       </c>
       <c r="BL54" s="9">
-        <f t="shared" si="173"/>
+        <f t="shared" si="176"/>
         <v>0.67</v>
       </c>
       <c r="BM54" s="9">
-        <f t="shared" si="173"/>
+        <f t="shared" si="176"/>
         <v>0.67</v>
       </c>
       <c r="BO54" t="s">
@@ -9752,63 +9778,63 @@
         <v>455</v>
       </c>
       <c r="C55" s="9">
-        <f t="shared" ref="C55" si="174">+C40/C31</f>
+        <f t="shared" ref="C55" si="177">+C40/C31</f>
         <v>0.38378460142187265</v>
       </c>
       <c r="D55" s="9">
-        <f t="shared" ref="D55:E55" si="175">+D40/D31</f>
+        <f t="shared" ref="D55:E55" si="178">+D40/D31</f>
         <v>0.37638866309001245</v>
       </c>
       <c r="E55" s="9">
-        <f t="shared" si="175"/>
+        <f t="shared" si="178"/>
         <v>0.37049199051997372</v>
       </c>
       <c r="F55" s="9">
-        <f t="shared" ref="F55:I55" si="176">+F40/F31</f>
+        <f t="shared" ref="F55:I55" si="179">+F40/F31</f>
         <v>0.35250966266137301</v>
       </c>
       <c r="G55" s="9">
-        <f t="shared" si="176"/>
+        <f t="shared" si="179"/>
         <v>0.42730257845723207</v>
       </c>
       <c r="H55" s="9">
-        <f t="shared" si="176"/>
+        <f t="shared" si="179"/>
         <v>0.41547497446373849</v>
       </c>
       <c r="I55" s="9">
-        <f t="shared" si="176"/>
+        <f t="shared" si="179"/>
         <v>0.40876612477820939</v>
       </c>
       <c r="J55" s="9">
-        <f t="shared" ref="J55:Q55" si="177">+J40/J31</f>
+        <f t="shared" ref="J55:Q55" si="180">+J40/J31</f>
         <v>0.41374154966198645</v>
       </c>
       <c r="K55" s="9">
-        <f t="shared" si="177"/>
+        <f t="shared" si="180"/>
         <v>0.44658737339188381</v>
       </c>
       <c r="L55" s="9">
-        <f t="shared" si="177"/>
+        <f t="shared" si="180"/>
         <v>0.43007655428394681</v>
       </c>
       <c r="M55" s="9">
-        <f t="shared" si="177"/>
+        <f t="shared" si="180"/>
         <v>0.41256077795786061</v>
       </c>
       <c r="N55" s="9">
-        <f t="shared" si="177"/>
+        <f t="shared" si="180"/>
         <v>0.3959124650535043</v>
       </c>
       <c r="O55" s="9">
-        <f t="shared" si="177"/>
+        <f t="shared" si="180"/>
         <v>0.42931247755476637</v>
       </c>
       <c r="P55" s="9">
-        <f t="shared" si="177"/>
+        <f t="shared" si="180"/>
         <v>0.3867328947617874</v>
       </c>
       <c r="Q55" s="9">
-        <f t="shared" si="177"/>
+        <f t="shared" si="180"/>
         <v>0.42287681858599618</v>
       </c>
       <c r="R55" s="9">
@@ -9816,19 +9842,19 @@
         <v>0.4316503230169606</v>
       </c>
       <c r="S55" s="9">
-        <f t="shared" ref="S55:V55" si="178">+S40/S31</f>
+        <f t="shared" ref="S55:V55" si="181">+S40/S31</f>
         <v>0.47587451563246458</v>
       </c>
       <c r="T55" s="9">
-        <f t="shared" si="178"/>
+        <f t="shared" si="181"/>
         <v>0.43585940019348596</v>
       </c>
       <c r="U55" s="9">
-        <f t="shared" si="178"/>
+        <f t="shared" si="181"/>
         <v>0.44587603866921011</v>
       </c>
       <c r="V55" s="9">
-        <f t="shared" si="178"/>
+        <f t="shared" si="181"/>
         <v>0.43142737960974553</v>
       </c>
       <c r="W55" s="9"/>
@@ -9853,59 +9879,59 @@
       <c r="AP55" s="9"/>
       <c r="AQ55" s="9"/>
       <c r="AR55" s="9">
-        <f t="shared" ref="AR55:AT55" si="179">AR40/AR31</f>
+        <f t="shared" ref="AR55:AT55" si="182">AR40/AR31</f>
         <v>0.35410784263394768</v>
       </c>
       <c r="AS55" s="9">
-        <f t="shared" si="179"/>
+        <f t="shared" si="182"/>
         <v>0.38661097240893672</v>
       </c>
       <c r="AT55" s="9">
-        <f t="shared" si="179"/>
+        <f t="shared" si="182"/>
         <v>0.38833049769097694</v>
       </c>
       <c r="AU55" s="9">
-        <f t="shared" ref="AU55:BE55" si="180">AU40/AU31</f>
+        <f t="shared" ref="AU55:BE55" si="183">AU40/AU31</f>
         <v>0.37920323372624554</v>
       </c>
       <c r="AV55" s="9">
-        <f t="shared" si="180"/>
+        <f t="shared" si="183"/>
         <v>0.34379375457616668</v>
       </c>
       <c r="AW55" s="9">
-        <f t="shared" si="180"/>
+        <f t="shared" si="183"/>
         <v>0.32114518673776099</v>
       </c>
       <c r="AX55" s="9">
-        <f t="shared" si="180"/>
+        <f t="shared" si="183"/>
         <v>0.30104723231459712</v>
       </c>
       <c r="AY55" s="9">
-        <f t="shared" si="180"/>
+        <f t="shared" si="183"/>
         <v>0.24955461790904829</v>
       </c>
       <c r="AZ55" s="9">
-        <f t="shared" si="180"/>
+        <f t="shared" si="183"/>
         <v>0.30372472067183731</v>
       </c>
       <c r="BA55" s="9">
-        <f t="shared" si="180"/>
+        <f t="shared" si="183"/>
         <v>0.31766944545125048</v>
       </c>
       <c r="BB55" s="9">
-        <f t="shared" si="180"/>
+        <f t="shared" si="183"/>
         <v>0.3413698020549415</v>
       </c>
       <c r="BC55" s="9">
-        <f t="shared" si="180"/>
+        <f t="shared" si="183"/>
         <v>0.37030381428521486</v>
       </c>
       <c r="BD55" s="9">
-        <f t="shared" si="180"/>
+        <f t="shared" si="183"/>
         <v>0.41594878872971303</v>
       </c>
       <c r="BE55" s="9">
-        <f t="shared" si="180"/>
+        <f t="shared" si="183"/>
         <v>0.4205527815604983</v>
       </c>
       <c r="BF55" s="9">
@@ -9913,31 +9939,31 @@
         <v>0.41772880636104098</v>
       </c>
       <c r="BG55" s="9">
-        <f t="shared" ref="BG55:BM55" si="181">BG40/BG31</f>
+        <f t="shared" ref="BG55:BM55" si="184">BG40/BG31</f>
         <v>0.44644299573273716</v>
       </c>
       <c r="BH55" s="9">
-        <f t="shared" si="181"/>
+        <f t="shared" si="184"/>
         <v>0.43076111479252999</v>
       </c>
       <c r="BI55" s="9">
-        <f t="shared" si="181"/>
+        <f t="shared" si="184"/>
         <v>0.44233942528487596</v>
       </c>
       <c r="BJ55" s="9">
-        <f t="shared" si="181"/>
+        <f t="shared" si="184"/>
         <v>0.45352789822823952</v>
       </c>
       <c r="BK55" s="9">
-        <f t="shared" si="181"/>
+        <f t="shared" si="184"/>
         <v>0.46432293945996628</v>
       </c>
       <c r="BL55" s="9">
-        <f t="shared" si="181"/>
+        <f t="shared" si="184"/>
         <v>0.47472284219397148</v>
       </c>
       <c r="BM55" s="9">
-        <f t="shared" si="181"/>
+        <f t="shared" si="184"/>
         <v>0.48472766619704694</v>
       </c>
       <c r="BP55" s="4"/>
@@ -9947,19 +9973,19 @@
         <v>89</v>
       </c>
       <c r="C56" s="9">
-        <f t="shared" ref="C56:D56" si="182">+C43/C42</f>
+        <f t="shared" ref="C56:D56" si="185">+C43/C42</f>
         <v>0.15828472331704241</v>
       </c>
       <c r="D56" s="9">
-        <f t="shared" si="182"/>
+        <f t="shared" si="185"/>
         <v>0.17294994675186368</v>
       </c>
       <c r="E56" s="9">
-        <f t="shared" ref="E56:F56" si="183">+E43/E42</f>
+        <f t="shared" ref="E56:F56" si="186">+E43/E42</f>
         <v>0.16281242700303666</v>
       </c>
       <c r="F56" s="9">
-        <f t="shared" si="183"/>
+        <f t="shared" si="186"/>
         <v>0.16540008940545373</v>
       </c>
       <c r="G56" s="9">
@@ -9967,35 +9993,35 @@
         <v>0.13836516993301909</v>
       </c>
       <c r="H56" s="9">
-        <f t="shared" ref="H56:O56" si="184">+H43/H42</f>
+        <f t="shared" ref="H56:O56" si="187">+H43/H42</f>
         <v>0.15673228990565524</v>
       </c>
       <c r="I56" s="9">
-        <f t="shared" si="184"/>
+        <f t="shared" si="187"/>
         <v>0.10321420283128337</v>
       </c>
       <c r="J56" s="9">
-        <f t="shared" si="184"/>
+        <f t="shared" si="187"/>
         <v>0.15186807523834064</v>
       </c>
       <c r="K56" s="9">
-        <f t="shared" si="184"/>
+        <f t="shared" si="187"/>
         <v>9.2574546871954783E-4</v>
       </c>
       <c r="L56" s="9">
-        <f t="shared" si="184"/>
+        <f t="shared" si="187"/>
         <v>0.16655562958027981</v>
       </c>
       <c r="M56" s="9">
-        <f t="shared" si="184"/>
+        <f t="shared" si="187"/>
         <v>0.17147102526002972</v>
       </c>
       <c r="N56" s="9">
-        <f t="shared" si="184"/>
+        <f t="shared" si="187"/>
         <v>0.18289647093278666</v>
       </c>
       <c r="O56" s="9">
-        <f t="shared" si="184"/>
+        <f t="shared" si="187"/>
         <v>0.18616725384758021</v>
       </c>
       <c r="P56" s="9">
@@ -10003,193 +10029,193 @@
         <v>0.19243817296818919</v>
       </c>
       <c r="Q56" s="9">
-        <f t="shared" ref="Q56:R56" si="185">+Q43/Q42</f>
+        <f t="shared" ref="Q56:R56" si="188">+Q43/Q42</f>
         <v>0.19291668504388479</v>
       </c>
       <c r="R56" s="9">
-        <f t="shared" si="185"/>
+        <f t="shared" si="188"/>
         <v>0.18789177821814212</v>
       </c>
       <c r="S56" s="9">
-        <f t="shared" ref="S56:V56" si="186">+S43/S42</f>
+        <f t="shared" ref="S56:V56" si="189">+S43/S42</f>
         <v>0.18300102624248643</v>
       </c>
       <c r="T56" s="9">
-        <f t="shared" si="186"/>
+        <f t="shared" si="189"/>
         <v>0.17552589911784663</v>
       </c>
       <c r="U56" s="9">
-        <f t="shared" si="186"/>
+        <f t="shared" si="189"/>
         <v>0.2</v>
       </c>
       <c r="V56" s="9">
-        <f t="shared" si="186"/>
+        <f t="shared" si="189"/>
         <v>0.1913394495412844</v>
       </c>
       <c r="W56" s="9"/>
       <c r="X56" s="9"/>
       <c r="Y56" s="9">
-        <f t="shared" ref="Y56:AD56" si="187">+Y43/Y42</f>
+        <f t="shared" ref="Y56:AD56" si="190">+Y43/Y42</f>
         <v>0.31951219512195123</v>
       </c>
       <c r="Z56" s="9">
-        <f t="shared" si="187"/>
+        <f t="shared" si="190"/>
         <v>0.30998509687034276</v>
       </c>
       <c r="AA56" s="9">
-        <f t="shared" si="187"/>
+        <f t="shared" si="190"/>
         <v>0.31988472622478387</v>
       </c>
       <c r="AB56" s="9">
-        <f t="shared" si="187"/>
+        <f t="shared" si="190"/>
         <v>0.31977159172019987</v>
       </c>
       <c r="AC56" s="9">
-        <f t="shared" si="187"/>
+        <f t="shared" si="190"/>
         <v>0.31788079470198677</v>
       </c>
       <c r="AD56" s="9">
-        <f t="shared" si="187"/>
+        <f t="shared" si="190"/>
         <v>0.32263895164934481</v>
       </c>
       <c r="AE56" s="9">
-        <f t="shared" ref="AE56:AM56" si="188">+AE43/AE42</f>
+        <f t="shared" ref="AE56:AM56" si="191">+AE43/AE42</f>
         <v>0.35039952648712636</v>
       </c>
       <c r="AF56" s="9">
-        <f t="shared" si="188"/>
+        <f t="shared" si="191"/>
         <v>0.35001881821603315</v>
       </c>
       <c r="AG56" s="9">
-        <f t="shared" si="188"/>
+        <f t="shared" si="191"/>
         <v>0.35815459328207205</v>
       </c>
       <c r="AH56" s="9">
-        <f t="shared" si="188"/>
+        <f t="shared" si="191"/>
         <v>0.35001278663370555</v>
       </c>
       <c r="AI56" s="9">
-        <f t="shared" si="188"/>
+        <f t="shared" si="191"/>
         <v>0.34379205326156242</v>
       </c>
       <c r="AJ56" s="9">
-        <f t="shared" si="188"/>
+        <f t="shared" si="191"/>
         <v>0.32557343375556319</v>
       </c>
       <c r="AK56" s="9">
-        <f t="shared" si="188"/>
+        <f t="shared" si="191"/>
         <v>0.31744937526928046</v>
       </c>
       <c r="AL56" s="9">
-        <f t="shared" si="188"/>
+        <f t="shared" si="191"/>
         <v>0.31992699743139108</v>
       </c>
       <c r="AM56" s="9">
-        <f t="shared" si="188"/>
+        <f t="shared" si="191"/>
         <v>0.32959659602323871</v>
       </c>
       <c r="AN56" s="9">
-        <f t="shared" ref="AN56:AW56" si="189">+AN43/AN42</f>
+        <f t="shared" ref="AN56:AW56" si="192">+AN43/AN42</f>
         <v>0.26305027664180902</v>
       </c>
       <c r="AO56" s="9">
-        <f t="shared" si="189"/>
+        <f t="shared" si="192"/>
         <v>0.31009747015660938</v>
       </c>
       <c r="AP56" s="9">
-        <f t="shared" si="189"/>
+        <f t="shared" si="192"/>
         <v>0.30028356798169248</v>
       </c>
       <c r="AQ56" s="9">
-        <f t="shared" si="189"/>
+        <f t="shared" si="192"/>
         <v>0.25753758293440832</v>
       </c>
       <c r="AR56" s="9">
-        <f t="shared" si="189"/>
+        <f t="shared" si="192"/>
         <v>0.26063222668850183</v>
       </c>
       <c r="AS56" s="9">
-        <f t="shared" si="189"/>
+        <f t="shared" si="192"/>
         <v>0.24940172303765157</v>
       </c>
       <c r="AT56" s="9">
-        <f t="shared" si="189"/>
+        <f t="shared" si="192"/>
         <v>0.17530547540166008</v>
       </c>
       <c r="AU56" s="9">
-        <f t="shared" si="189"/>
+        <f t="shared" si="192"/>
         <v>0.18583977512297961</v>
       </c>
       <c r="AV56" s="9">
-        <f t="shared" si="189"/>
+        <f t="shared" si="192"/>
         <v>0.19181576223569421</v>
       </c>
       <c r="AW56" s="9">
-        <f t="shared" si="189"/>
+        <f t="shared" si="192"/>
         <v>0.20560346369914481</v>
       </c>
       <c r="AX56" s="9">
-        <f t="shared" ref="AX56:AY56" si="190">+AX43/AX42</f>
+        <f t="shared" ref="AX56:AY56" si="193">+AX43/AX42</f>
         <v>0.22140402552773686</v>
       </c>
       <c r="AY56" s="9">
-        <f t="shared" si="190"/>
+        <f t="shared" si="193"/>
         <v>0.1415560136139207</v>
       </c>
       <c r="AZ56" s="9">
-        <f t="shared" ref="AZ56:BA56" si="191">+AZ43/AZ42</f>
+        <f t="shared" ref="AZ56:BA56" si="194">+AZ43/AZ42</f>
         <v>0.14605886052901645</v>
       </c>
       <c r="BA56" s="9">
-        <f t="shared" si="191"/>
+        <f t="shared" si="194"/>
         <v>0.5456763722103416</v>
       </c>
       <c r="BB56" s="9">
-        <f t="shared" ref="BB56:BF56" si="192">+BB43/BB42</f>
+        <f t="shared" ref="BB56:BF56" si="195">+BB43/BB42</f>
         <v>0.10181285478850027</v>
       </c>
       <c r="BC56" s="9">
-        <f t="shared" si="192"/>
+        <f t="shared" si="195"/>
         <v>0.16507655177615205</v>
       </c>
       <c r="BD56" s="9">
-        <f t="shared" si="192"/>
+        <f t="shared" si="195"/>
         <v>0.13826615285083402</v>
       </c>
       <c r="BE56" s="9">
-        <f t="shared" si="192"/>
+        <f t="shared" si="195"/>
         <v>0.13113383343685794</v>
       </c>
       <c r="BF56" s="9">
-        <f t="shared" si="192"/>
+        <f t="shared" si="195"/>
         <v>0.15</v>
       </c>
       <c r="BG56" s="9">
-        <f t="shared" ref="BG56:BM56" si="193">+BG43/BG42</f>
+        <f t="shared" ref="BG56:BM56" si="196">+BG43/BG42</f>
         <v>0.19</v>
       </c>
       <c r="BH56" s="9">
-        <f t="shared" si="193"/>
+        <f t="shared" si="196"/>
         <v>0.15</v>
       </c>
       <c r="BI56" s="9">
-        <f t="shared" si="193"/>
+        <f t="shared" si="196"/>
         <v>0.15</v>
       </c>
       <c r="BJ56" s="9">
-        <f t="shared" si="193"/>
+        <f t="shared" si="196"/>
         <v>0.15</v>
       </c>
       <c r="BK56" s="9">
-        <f t="shared" si="193"/>
+        <f t="shared" si="196"/>
         <v>0.15</v>
       </c>
       <c r="BL56" s="9">
-        <f t="shared" si="193"/>
+        <f t="shared" si="196"/>
         <v>0.15</v>
       </c>
       <c r="BM56" s="9">
-        <f t="shared" si="193"/>
+        <f t="shared" si="196"/>
         <v>0.15</v>
       </c>
       <c r="BO56" t="s">
@@ -10205,55 +10231,55 @@
         <v>156</v>
       </c>
       <c r="C57" s="9">
-        <f t="shared" ref="C57" si="194">(C29-C32)/C29</f>
+        <f t="shared" ref="C57" si="197">(C29-C32)/C29</f>
         <v>0.79039827498731607</v>
       </c>
       <c r="D57" s="9">
-        <f t="shared" ref="D57:E57" si="195">(D29-D32)/D29</f>
+        <f t="shared" ref="D57:E57" si="198">(D29-D32)/D29</f>
         <v>0.72796494111202414</v>
       </c>
       <c r="E57" s="9">
-        <f t="shared" si="195"/>
+        <f t="shared" si="198"/>
         <v>0.78728498519311951</v>
       </c>
       <c r="F57" s="9">
-        <f t="shared" ref="F57:I57" si="196">(F29-F32)/F29</f>
+        <f t="shared" ref="F57:I57" si="199">(F29-F32)/F29</f>
         <v>0.75918884664131814</v>
       </c>
       <c r="G57" s="9">
-        <f t="shared" si="196"/>
+        <f t="shared" si="199"/>
         <v>0.77238499019173579</v>
       </c>
       <c r="H57" s="9">
-        <f t="shared" si="196"/>
+        <f t="shared" si="199"/>
         <v>0.68869475847893113</v>
       </c>
       <c r="I57" s="9">
-        <f t="shared" si="196"/>
+        <f t="shared" si="199"/>
         <v>0.74651810584958223</v>
       </c>
       <c r="J57" s="9">
-        <f t="shared" ref="J57:L57" si="197">(J29-J32)/J29</f>
+        <f t="shared" ref="J57:L57" si="200">(J29-J32)/J29</f>
         <v>0.7736297391488014</v>
       </c>
       <c r="K57" s="9">
-        <f t="shared" si="197"/>
+        <f t="shared" si="200"/>
         <v>0.77199206301485179</v>
       </c>
       <c r="L57" s="9">
-        <f t="shared" si="197"/>
+        <f t="shared" si="200"/>
         <v>0.69531738774724483</v>
       </c>
       <c r="M57" s="9">
-        <f t="shared" ref="M57:O57" si="198">(M29-M32)/M29</f>
+        <f t="shared" ref="M57:O57" si="201">(M29-M32)/M29</f>
         <v>0.73603593228146957</v>
       </c>
       <c r="N57" s="9">
-        <f t="shared" si="198"/>
+        <f t="shared" si="201"/>
         <v>0.75735130318556476</v>
       </c>
       <c r="O57" s="9">
-        <f t="shared" si="198"/>
+        <f t="shared" si="201"/>
         <v>0.72670097198399086</v>
       </c>
       <c r="P57" s="9">
@@ -10261,27 +10287,27 @@
         <v>0.65550644790216139</v>
       </c>
       <c r="Q57" s="9">
-        <f t="shared" ref="Q57:V57" si="199">(Q29-Q32)/Q29</f>
+        <f t="shared" ref="Q57:V57" si="202">(Q29-Q32)/Q29</f>
         <v>0.74717731588401337</v>
       </c>
       <c r="R57" s="9">
-        <f t="shared" si="199"/>
+        <f t="shared" si="202"/>
         <v>0.77030795704028954</v>
       </c>
       <c r="S57" s="9">
-        <f t="shared" si="199"/>
+        <f t="shared" si="202"/>
         <v>0.77270679111683294</v>
       </c>
       <c r="T57" s="9">
-        <f t="shared" si="199"/>
+        <f t="shared" si="202"/>
         <v>0.68512750118789922</v>
       </c>
       <c r="U57" s="9">
-        <f t="shared" si="199"/>
+        <f t="shared" si="202"/>
         <v>0.74596018735363001</v>
       </c>
       <c r="V57" s="9">
-        <f t="shared" si="199"/>
+        <f t="shared" si="202"/>
         <v>0.89120072633729286</v>
       </c>
       <c r="W57" s="9"/>
@@ -10313,63 +10339,63 @@
       <c r="AW57" s="9"/>
       <c r="AX57" s="9"/>
       <c r="AY57" s="9">
-        <f t="shared" ref="AY57" si="200">(AY29-AY32)/AY29</f>
+        <f t="shared" ref="AY57" si="203">(AY29-AY32)/AY29</f>
         <v>0.70927774706513613</v>
       </c>
       <c r="AZ57" s="9">
-        <f t="shared" ref="AZ57:BM57" si="201">(AZ29-AZ32)/AZ29</f>
+        <f t="shared" ref="AZ57:BM57" si="204">(AZ29-AZ32)/AZ29</f>
         <v>0.76218833743398473</v>
       </c>
       <c r="BA57" s="9">
-        <f t="shared" si="201"/>
+        <f t="shared" si="204"/>
         <v>0.76091911251686128</v>
       </c>
       <c r="BB57" s="9">
-        <f t="shared" si="201"/>
+        <f t="shared" si="204"/>
         <v>0.75369689264254036</v>
       </c>
       <c r="BC57" s="9">
-        <f t="shared" si="201"/>
+        <f t="shared" si="204"/>
         <v>0.76459781602269217</v>
       </c>
       <c r="BD57" s="9">
-        <f t="shared" si="201"/>
+        <f t="shared" si="204"/>
         <v>0.74366153586402906</v>
       </c>
       <c r="BE57" s="9">
-        <f t="shared" si="201"/>
+        <f t="shared" si="204"/>
         <v>0.73788703734257277</v>
       </c>
       <c r="BF57" s="9">
-        <f t="shared" si="201"/>
+        <f t="shared" si="204"/>
         <v>0.72481800336944935</v>
       </c>
       <c r="BG57" s="9">
-        <f t="shared" si="201"/>
+        <f t="shared" si="204"/>
         <v>0.76422274713229277</v>
       </c>
       <c r="BH57" s="9">
-        <f t="shared" si="201"/>
+        <f t="shared" si="204"/>
         <v>0.75</v>
       </c>
       <c r="BI57" s="9">
-        <f t="shared" si="201"/>
+        <f t="shared" si="204"/>
         <v>0.75</v>
       </c>
       <c r="BJ57" s="9">
-        <f t="shared" si="201"/>
+        <f t="shared" si="204"/>
         <v>0.75</v>
       </c>
       <c r="BK57" s="9">
-        <f t="shared" si="201"/>
+        <f t="shared" si="204"/>
         <v>0.75</v>
       </c>
       <c r="BL57" s="9">
-        <f t="shared" si="201"/>
+        <f t="shared" si="204"/>
         <v>0.75</v>
       </c>
       <c r="BM57" s="9">
-        <f t="shared" si="201"/>
+        <f t="shared" si="204"/>
         <v>0.75</v>
       </c>
       <c r="BP57" s="1"/>
@@ -10379,55 +10405,55 @@
         <v>157</v>
       </c>
       <c r="C58" s="9">
-        <f t="shared" ref="C58" si="202">(C30-C33)/C30</f>
+        <f t="shared" ref="C58" si="205">(C30-C33)/C30</f>
         <v>0.58922890032972752</v>
       </c>
       <c r="D58" s="9">
-        <f t="shared" ref="D58:E58" si="203">(D30-D33)/D30</f>
+        <f t="shared" ref="D58:E58" si="206">(D30-D33)/D30</f>
         <v>0.60366736368023166</v>
       </c>
       <c r="E58" s="9">
-        <f t="shared" si="203"/>
+        <f t="shared" si="206"/>
         <v>0.60318537859007837</v>
       </c>
       <c r="F58" s="9">
-        <f t="shared" ref="F58:K58" si="204">(F30-F33)/F30</f>
+        <f t="shared" ref="F58:K58" si="207">(F30-F33)/F30</f>
         <v>0.59926581514633415</v>
       </c>
       <c r="G58" s="9">
-        <f t="shared" si="204"/>
+        <f t="shared" si="207"/>
         <v>0.65317783710364852</v>
       </c>
       <c r="H58" s="9">
-        <f t="shared" si="204"/>
+        <f t="shared" si="207"/>
         <v>0.65548780487804881</v>
       </c>
       <c r="I58" s="9">
-        <f t="shared" si="204"/>
+        <f t="shared" si="207"/>
         <v>0.64692143518704948</v>
       </c>
       <c r="J58" s="9">
-        <f t="shared" si="204"/>
+        <f t="shared" si="207"/>
         <v>0.64341882854413168</v>
       </c>
       <c r="K58" s="9">
-        <f t="shared" si="204"/>
+        <f t="shared" si="207"/>
         <v>0.65648748518441047</v>
       </c>
       <c r="L58" s="9">
-        <f t="shared" ref="L58:O58" si="205">(L30-L33)/L30</f>
+        <f t="shared" ref="L58:O58" si="208">(L30-L33)/L30</f>
         <v>0.65656402468577335</v>
       </c>
       <c r="M58" s="9">
-        <f t="shared" si="205"/>
+        <f t="shared" si="208"/>
         <v>0.65521660311308372</v>
       </c>
       <c r="N58" s="9">
-        <f t="shared" si="205"/>
+        <f t="shared" si="208"/>
         <v>0.64398832168450859</v>
       </c>
       <c r="O58" s="9">
-        <f t="shared" si="205"/>
+        <f t="shared" si="208"/>
         <v>0.67569296995433525</v>
       </c>
       <c r="P58" s="9">
@@ -10435,27 +10461,27 @@
         <v>0.67435826662986476</v>
       </c>
       <c r="Q58" s="9">
-        <f t="shared" ref="Q58:V58" si="206">(Q30-Q33)/Q30</f>
+        <f t="shared" ref="Q58:V58" si="209">(Q30-Q33)/Q30</f>
         <v>0.67299900721779493</v>
       </c>
       <c r="R58" s="9">
-        <f t="shared" si="206"/>
+        <f t="shared" si="209"/>
         <v>0.67144600366076879</v>
       </c>
       <c r="S58" s="9">
-        <f t="shared" si="206"/>
+        <f t="shared" si="209"/>
         <v>0.68837538431506518</v>
       </c>
       <c r="T58" s="9">
-        <f t="shared" si="206"/>
+        <f t="shared" si="209"/>
         <v>0.68293135866663568</v>
       </c>
       <c r="U58" s="9">
-        <f t="shared" si="206"/>
+        <f t="shared" si="209"/>
         <v>0.68363928714993971</v>
       </c>
       <c r="V58" s="9">
-        <f t="shared" si="206"/>
+        <f t="shared" si="209"/>
         <v>0.64577751892836344</v>
       </c>
       <c r="W58" s="9"/>
@@ -10487,63 +10513,63 @@
       <c r="AW58" s="9"/>
       <c r="AX58" s="9"/>
       <c r="AY58" s="9">
-        <f t="shared" ref="AY58" si="207">(AY30-AY33)/AY30</f>
+        <f t="shared" ref="AY58" si="210">(AY30-AY33)/AY30</f>
         <v>0.37442270551683599</v>
       </c>
       <c r="AZ58" s="9">
-        <f t="shared" ref="AZ58:BM58" si="208">(AZ30-AZ33)/AZ30</f>
+        <f t="shared" ref="AZ58:BM58" si="211">(AZ30-AZ33)/AZ30</f>
         <v>0.41739926739926742</v>
       </c>
       <c r="BA58" s="9">
-        <f t="shared" si="208"/>
+        <f t="shared" si="211"/>
         <v>0.4999672938970412</v>
       </c>
       <c r="BB58" s="9">
-        <f t="shared" si="208"/>
+        <f t="shared" si="211"/>
         <v>0.55437146585471941</v>
       </c>
       <c r="BC58" s="9">
-        <f t="shared" si="208"/>
+        <f t="shared" si="211"/>
         <v>0.59904766985888447</v>
       </c>
       <c r="BD58" s="9">
-        <f t="shared" si="208"/>
+        <f t="shared" si="211"/>
         <v>0.64940111736450412</v>
       </c>
       <c r="BE58" s="9">
-        <f t="shared" si="208"/>
+        <f t="shared" si="211"/>
         <v>0.65280632159186858</v>
       </c>
       <c r="BF58" s="9">
-        <f t="shared" si="208"/>
+        <f t="shared" si="211"/>
         <v>0.67354771220519505</v>
       </c>
       <c r="BG58" s="9">
-        <f t="shared" si="208"/>
+        <f t="shared" si="211"/>
         <v>0.67373259624394921</v>
       </c>
       <c r="BH58" s="9">
-        <f t="shared" si="208"/>
+        <f t="shared" si="211"/>
         <v>0.65</v>
       </c>
       <c r="BI58" s="9">
-        <f t="shared" si="208"/>
+        <f t="shared" si="211"/>
         <v>0.65</v>
       </c>
       <c r="BJ58" s="9">
-        <f t="shared" si="208"/>
+        <f t="shared" si="211"/>
         <v>0.64999999999999991</v>
       </c>
       <c r="BK58" s="9">
-        <f t="shared" si="208"/>
+        <f t="shared" si="211"/>
         <v>0.65000000000000013</v>
       </c>
       <c r="BL58" s="9">
-        <f t="shared" si="208"/>
+        <f t="shared" si="211"/>
         <v>0.65000000000000013</v>
       </c>
       <c r="BM58" s="9">
-        <f t="shared" si="208"/>
+        <f t="shared" si="211"/>
         <v>0.64999999999999991</v>
       </c>
       <c r="BP58" s="1"/>
@@ -10632,151 +10658,151 @@
         <v>82</v>
       </c>
       <c r="G61" s="5">
-        <f t="shared" ref="G61:H61" si="209">+G62-G73</f>
+        <f t="shared" ref="G61:H61" si="212">+G62-G73</f>
         <v>77528</v>
       </c>
       <c r="H61" s="5">
-        <f t="shared" si="209"/>
+        <f t="shared" si="212"/>
         <v>75239</v>
       </c>
       <c r="I61" s="5">
-        <f t="shared" ref="I61:V61" si="210">+I62-I73</f>
+        <f t="shared" ref="I61:V61" si="213">+I62-I73</f>
         <v>72744</v>
       </c>
       <c r="J61" s="5">
-        <f t="shared" si="210"/>
+        <f t="shared" si="213"/>
         <v>78172</v>
       </c>
       <c r="K61" s="5">
-        <f t="shared" si="210"/>
+        <f t="shared" si="213"/>
         <v>83720</v>
       </c>
       <c r="L61" s="5">
-        <f t="shared" si="210"/>
+        <f t="shared" si="213"/>
         <v>79105</v>
       </c>
       <c r="M61" s="5">
-        <f t="shared" si="210"/>
+        <f t="shared" si="213"/>
         <v>61674</v>
       </c>
       <c r="N61" s="5">
-        <f t="shared" si="210"/>
+        <f t="shared" si="213"/>
         <v>61867</v>
       </c>
       <c r="O61" s="5">
-        <f t="shared" si="210"/>
+        <f t="shared" si="213"/>
         <v>65479</v>
       </c>
       <c r="P61" s="5">
-        <f t="shared" si="210"/>
+        <f t="shared" si="213"/>
         <v>58489</v>
       </c>
       <c r="Q61" s="5">
-        <f t="shared" si="210"/>
+        <f t="shared" si="213"/>
         <v>65632</v>
       </c>
       <c r="R61" s="5">
-        <f t="shared" si="210"/>
+        <f t="shared" si="213"/>
         <v>73904</v>
       </c>
       <c r="S61" s="5">
-        <f t="shared" si="210"/>
+        <f t="shared" si="213"/>
         <v>83872</v>
       </c>
       <c r="T61" s="5">
-        <f t="shared" si="210"/>
+        <f t="shared" si="213"/>
         <v>20165</v>
       </c>
       <c r="U61" s="5">
-        <f t="shared" si="210"/>
+        <f t="shared" si="213"/>
         <v>29386</v>
       </c>
       <c r="V61" s="5">
-        <f t="shared" si="210"/>
+        <f t="shared" si="213"/>
         <v>38513</v>
       </c>
       <c r="AC61" s="4">
-        <f t="shared" ref="AC61:AQ61" si="211">AC62</f>
+        <f t="shared" ref="AC61:AQ61" si="214">AC62</f>
         <v>3614</v>
       </c>
       <c r="AD61" s="4">
-        <f t="shared" si="211"/>
+        <f t="shared" si="214"/>
         <v>4750</v>
       </c>
       <c r="AE61" s="4">
-        <f t="shared" si="211"/>
+        <f t="shared" si="214"/>
         <v>6940</v>
       </c>
       <c r="AF61" s="4">
-        <f t="shared" si="211"/>
+        <f t="shared" si="214"/>
         <v>11312</v>
       </c>
       <c r="AG61" s="4">
-        <f t="shared" si="211"/>
+        <f t="shared" si="214"/>
         <v>18630</v>
       </c>
       <c r="AH61" s="4">
-        <f t="shared" si="211"/>
+        <f t="shared" si="214"/>
         <v>31608</v>
       </c>
       <c r="AI61" s="4">
-        <f t="shared" si="211"/>
+        <f t="shared" si="214"/>
         <v>41524</v>
       </c>
       <c r="AJ61" s="4">
-        <f t="shared" si="211"/>
+        <f t="shared" si="214"/>
         <v>45741</v>
       </c>
       <c r="AK61" s="4">
-        <f t="shared" si="211"/>
+        <f t="shared" si="214"/>
         <v>52843</v>
       </c>
       <c r="AL61" s="4">
-        <f t="shared" si="211"/>
+        <f t="shared" si="214"/>
         <v>62740</v>
       </c>
       <c r="AM61" s="4">
-        <f t="shared" si="211"/>
+        <f t="shared" si="214"/>
         <v>72802</v>
       </c>
       <c r="AN61" s="4">
-        <f t="shared" si="211"/>
+        <f t="shared" si="214"/>
         <v>48755</v>
       </c>
       <c r="AO61" s="4">
-        <f t="shared" si="211"/>
+        <f t="shared" si="214"/>
         <v>43393</v>
       </c>
       <c r="AP61" s="4">
-        <f t="shared" si="211"/>
+        <f t="shared" si="214"/>
         <v>33528</v>
       </c>
       <c r="AQ61" s="4">
-        <f t="shared" si="211"/>
+        <f t="shared" si="214"/>
         <v>30250</v>
       </c>
       <c r="AR61" s="4">
-        <f t="shared" ref="AR61:AW61" si="212">AR62-AR73</f>
+        <f t="shared" ref="AR61:AW61" si="215">AR62-AR73</f>
         <v>30634</v>
       </c>
       <c r="AS61" s="4">
-        <f t="shared" si="212"/>
+        <f t="shared" si="215"/>
         <v>38603</v>
       </c>
       <c r="AT61" s="4">
-        <f t="shared" si="212"/>
+        <f t="shared" si="215"/>
         <v>51716</v>
       </c>
       <c r="AU61" s="4">
-        <f t="shared" si="212"/>
+        <f t="shared" si="215"/>
         <v>60872</v>
       </c>
       <c r="AV61" s="4">
-        <f t="shared" si="212"/>
+        <f t="shared" si="215"/>
         <v>72266</v>
       </c>
       <c r="AW61" s="4">
-        <f t="shared" si="212"/>
+        <f t="shared" si="215"/>
         <v>77661</v>
       </c>
       <c r="BE61" s="5">
@@ -10784,35 +10810,35 @@
         <v>61867</v>
       </c>
       <c r="BF61" s="5">
-        <f t="shared" ref="BF61:BM61" si="213">+BE61+BF44</f>
+        <f t="shared" ref="BF61:BM61" si="216">+BE61+BF44</f>
         <v>137197.4</v>
       </c>
       <c r="BG61" s="5">
-        <f t="shared" si="213"/>
+        <f t="shared" si="216"/>
         <v>225654.26</v>
       </c>
       <c r="BH61" s="5">
-        <f t="shared" si="213"/>
+        <f t="shared" si="216"/>
         <v>324637.90996500006</v>
       </c>
       <c r="BI61" s="5">
-        <f t="shared" si="213"/>
+        <f t="shared" si="216"/>
         <v>435283.46279085259</v>
       </c>
       <c r="BJ61" s="5">
-        <f t="shared" si="213"/>
+        <f t="shared" si="216"/>
         <v>558805.51832430938</v>
       </c>
       <c r="BK61" s="5">
-        <f t="shared" si="213"/>
+        <f t="shared" si="216"/>
         <v>696541.55046272767</v>
       </c>
       <c r="BL61" s="5">
-        <f t="shared" si="213"/>
+        <f t="shared" si="216"/>
         <v>849964.23665623087</v>
       </c>
       <c r="BM61" s="5">
-        <f t="shared" si="213"/>
+        <f t="shared" si="216"/>
         <v>1020695.0216202373</v>
       </c>
     </row>
@@ -11903,151 +11929,151 @@
       <c r="E70" s="7"/>
       <c r="F70" s="7"/>
       <c r="G70" s="7">
-        <f t="shared" ref="G70:H70" si="214">SUM(G62:G69)</f>
+        <f t="shared" ref="G70:H70" si="217">SUM(G62:G69)</f>
         <v>301001</v>
       </c>
       <c r="H70" s="7">
-        <f t="shared" si="214"/>
+        <f t="shared" si="217"/>
         <v>304137</v>
       </c>
       <c r="I70" s="7">
-        <f t="shared" ref="I70:K70" si="215">SUM(I62:I69)</f>
+        <f t="shared" ref="I70:K70" si="218">SUM(I62:I69)</f>
         <v>308879</v>
       </c>
       <c r="J70" s="7">
-        <f t="shared" si="215"/>
+        <f t="shared" si="218"/>
         <v>333779</v>
       </c>
       <c r="K70" s="7">
-        <f t="shared" si="215"/>
+        <f t="shared" si="218"/>
         <v>335418</v>
       </c>
       <c r="L70" s="7">
-        <f t="shared" ref="L70" si="216">SUM(L62:L69)</f>
+        <f t="shared" ref="L70" si="219">SUM(L62:L69)</f>
         <v>340389</v>
       </c>
       <c r="M70" s="7">
-        <f t="shared" ref="M70:V70" si="217">SUM(M62:M69)</f>
+        <f t="shared" ref="M70:V70" si="220">SUM(M62:M69)</f>
         <v>344607</v>
       </c>
       <c r="N70" s="7">
-        <f t="shared" si="217"/>
+        <f t="shared" si="220"/>
         <v>364840</v>
       </c>
       <c r="O70" s="7">
-        <f t="shared" si="217"/>
+        <f t="shared" si="220"/>
         <v>359784</v>
       </c>
       <c r="P70" s="7">
-        <f t="shared" si="217"/>
+        <f t="shared" si="220"/>
         <v>364552</v>
       </c>
       <c r="Q70" s="7">
-        <f t="shared" si="217"/>
+        <f t="shared" si="220"/>
         <v>380088</v>
       </c>
       <c r="R70" s="7">
-        <f t="shared" si="217"/>
+        <f t="shared" si="220"/>
         <v>411976</v>
       </c>
       <c r="S70" s="7">
-        <f t="shared" si="217"/>
+        <f t="shared" si="220"/>
         <v>445785</v>
       </c>
       <c r="T70" s="7">
-        <f t="shared" si="217"/>
+        <f t="shared" si="220"/>
         <v>470558</v>
       </c>
       <c r="U70" s="7">
-        <f t="shared" si="217"/>
+        <f t="shared" si="220"/>
         <v>484275</v>
       </c>
       <c r="V70" s="7">
-        <f t="shared" si="217"/>
+        <f t="shared" si="220"/>
         <v>512163</v>
       </c>
       <c r="AC70" s="6">
-        <f t="shared" ref="AC70:AW70" si="218">SUM(AC62:AC69)</f>
+        <f t="shared" ref="AC70:AW70" si="221">SUM(AC62:AC69)</f>
         <v>5363</v>
       </c>
       <c r="AD70" s="6">
-        <f t="shared" si="218"/>
+        <f t="shared" si="221"/>
         <v>7210</v>
       </c>
       <c r="AE70" s="6">
-        <f t="shared" si="218"/>
+        <f t="shared" si="221"/>
         <v>10093</v>
       </c>
       <c r="AF70" s="6">
-        <f t="shared" si="218"/>
+        <f t="shared" si="221"/>
         <v>14387</v>
       </c>
       <c r="AG70" s="6">
-        <f t="shared" si="218"/>
+        <f t="shared" si="221"/>
         <v>22357</v>
       </c>
       <c r="AH70" s="6">
-        <f t="shared" si="218"/>
+        <f t="shared" si="221"/>
         <v>37156</v>
       </c>
       <c r="AI70" s="6">
-        <f t="shared" si="218"/>
+        <f t="shared" si="221"/>
         <v>52150</v>
       </c>
       <c r="AJ70" s="6">
-        <f t="shared" si="218"/>
+        <f t="shared" si="221"/>
         <v>59257</v>
       </c>
       <c r="AK70" s="6">
-        <f t="shared" si="218"/>
+        <f t="shared" si="221"/>
         <v>67646</v>
       </c>
       <c r="AL70" s="6">
-        <f t="shared" si="218"/>
+        <f t="shared" si="221"/>
         <v>79571</v>
       </c>
       <c r="AM70" s="6">
-        <f t="shared" si="218"/>
+        <f t="shared" si="221"/>
         <v>92389</v>
       </c>
       <c r="AN70" s="6">
-        <f t="shared" si="218"/>
+        <f t="shared" si="221"/>
         <v>70815</v>
       </c>
       <c r="AO70" s="6">
-        <f t="shared" si="218"/>
+        <f t="shared" si="221"/>
         <v>69597</v>
       </c>
       <c r="AP70" s="6">
-        <f t="shared" si="218"/>
+        <f t="shared" si="221"/>
         <v>63171</v>
       </c>
       <c r="AQ70" s="6">
-        <f t="shared" si="218"/>
+        <f t="shared" si="221"/>
         <v>72793</v>
       </c>
       <c r="AR70" s="6">
-        <f t="shared" si="218"/>
+        <f t="shared" si="221"/>
         <v>77888</v>
       </c>
       <c r="AS70" s="6">
-        <f t="shared" si="218"/>
+        <f t="shared" si="221"/>
         <v>86113</v>
       </c>
       <c r="AT70" s="6">
-        <f t="shared" si="218"/>
+        <f t="shared" si="221"/>
         <v>108704</v>
       </c>
       <c r="AU70" s="6">
-        <f t="shared" si="218"/>
+        <f t="shared" si="221"/>
         <v>121271</v>
       </c>
       <c r="AV70" s="6">
-        <f t="shared" si="218"/>
+        <f t="shared" si="221"/>
         <v>142431</v>
       </c>
       <c r="AW70" s="6">
-        <f t="shared" si="218"/>
+        <f t="shared" si="221"/>
         <v>172384</v>
       </c>
       <c r="BC70" s="7"/>
@@ -12109,6 +12135,12 @@
       </c>
       <c r="T72" s="4">
         <v>17695</v>
+      </c>
+      <c r="U72" s="4">
+        <v>18087</v>
+      </c>
+      <c r="V72" s="4">
+        <v>21996</v>
       </c>
       <c r="AC72" s="4">
         <v>324</v>
@@ -12374,6 +12406,12 @@
       <c r="T74" s="4">
         <v>8813</v>
       </c>
+      <c r="U74" s="4">
+        <v>10432</v>
+      </c>
+      <c r="V74" s="4">
+        <v>12564</v>
+      </c>
       <c r="AC74" s="4">
         <v>96</v>
       </c>
@@ -12506,6 +12544,14 @@
         <f>5787+2548+25890</f>
         <v>34225</v>
       </c>
+      <c r="U75" s="4">
+        <f>7311+26786+2469</f>
+        <v>36566</v>
+      </c>
+      <c r="V75" s="4">
+        <f>5017+27931+2618</f>
+        <v>35566</v>
+      </c>
       <c r="AC75" s="4">
         <v>305</v>
       </c>
@@ -12641,6 +12687,14 @@
         <f>2966+43068</f>
         <v>46034</v>
       </c>
+      <c r="U76" s="4">
+        <f>41888+2945</f>
+        <v>44833</v>
+      </c>
+      <c r="V76" s="4">
+        <f>57582+2602</f>
+        <v>60184</v>
+      </c>
       <c r="AC76" s="4">
         <v>0</v>
       </c>
@@ -12772,6 +12826,12 @@
       <c r="T77" s="4">
         <v>16362</v>
       </c>
+      <c r="U77" s="4">
+        <v>18023</v>
+      </c>
+      <c r="V77" s="4">
+        <v>19185</v>
+      </c>
       <c r="AC77" s="4">
         <v>188</v>
       </c>
@@ -12891,6 +12951,12 @@
       <c r="T78" s="4">
         <v>14155</v>
       </c>
+      <c r="U78" s="4">
+        <v>14469</v>
+      </c>
+      <c r="V78" s="4">
+        <v>15497</v>
+      </c>
       <c r="AC78" s="4">
         <v>0</v>
       </c>
@@ -13009,6 +13075,12 @@
       <c r="T79" s="4">
         <v>20787</v>
       </c>
+      <c r="U79" s="4">
+        <v>23271</v>
+      </c>
+      <c r="V79" s="4">
+        <v>27064</v>
+      </c>
       <c r="AC79" s="4">
         <v>0</v>
       </c>
@@ -13140,6 +13212,12 @@
       </c>
       <c r="T80" s="4">
         <v>238268</v>
+      </c>
+      <c r="U80" s="4">
+        <v>253152</v>
+      </c>
+      <c r="V80" s="4">
+        <v>268477</v>
       </c>
       <c r="AC80" s="4">
         <v>4450</v>
@@ -13223,141 +13301,147 @@
         <v>301001</v>
       </c>
       <c r="H81" s="7">
-        <f t="shared" ref="H81" si="219">SUM(H72:H80)</f>
+        <f t="shared" ref="H81" si="222">SUM(H72:H80)</f>
         <v>304137</v>
       </c>
       <c r="I81" s="7">
-        <f t="shared" ref="I81:L81" si="220">SUM(I72:I80)</f>
+        <f t="shared" ref="I81:L81" si="223">SUM(I72:I80)</f>
         <v>308879</v>
       </c>
       <c r="J81" s="7">
-        <f t="shared" si="220"/>
+        <f t="shared" si="223"/>
         <v>333779</v>
       </c>
       <c r="K81" s="7">
-        <f t="shared" si="220"/>
+        <f t="shared" si="223"/>
         <v>335418</v>
       </c>
       <c r="L81" s="7">
-        <f t="shared" si="220"/>
+        <f t="shared" si="223"/>
         <v>340389</v>
       </c>
       <c r="M81" s="7">
-        <f t="shared" ref="M81:S81" si="221">SUM(M72:M80)</f>
+        <f t="shared" ref="M81:S81" si="224">SUM(M72:M80)</f>
         <v>344607</v>
       </c>
       <c r="N81" s="7">
-        <f t="shared" si="221"/>
+        <f t="shared" si="224"/>
         <v>364840</v>
       </c>
       <c r="O81" s="7">
-        <f t="shared" si="221"/>
+        <f t="shared" si="224"/>
         <v>359784</v>
       </c>
       <c r="P81" s="7">
-        <f t="shared" si="221"/>
+        <f t="shared" si="224"/>
         <v>364552</v>
       </c>
       <c r="Q81" s="7">
-        <f t="shared" si="221"/>
+        <f t="shared" si="224"/>
         <v>380088</v>
       </c>
       <c r="R81" s="7">
-        <f t="shared" si="221"/>
+        <f t="shared" si="224"/>
         <v>411976</v>
       </c>
       <c r="S81" s="7">
-        <f t="shared" si="221"/>
+        <f t="shared" si="224"/>
         <v>445785</v>
       </c>
       <c r="T81" s="7">
-        <f t="shared" ref="T81" si="222">SUM(T72:T80)</f>
+        <f t="shared" ref="T81:V81" si="225">SUM(T72:T80)</f>
         <v>470558</v>
       </c>
-      <c r="U81" s="7"/>
-      <c r="V81" s="7"/>
+      <c r="U81" s="7">
+        <f t="shared" si="225"/>
+        <v>484275</v>
+      </c>
+      <c r="V81" s="7">
+        <f t="shared" si="225"/>
+        <v>512163</v>
+      </c>
       <c r="AC81" s="6">
-        <f t="shared" ref="AC81:AW81" si="223">SUM(AC72:AC80)</f>
+        <f t="shared" ref="AC81:AW81" si="226">SUM(AC72:AC80)</f>
         <v>5363</v>
       </c>
       <c r="AD81" s="6">
-        <f t="shared" si="223"/>
+        <f t="shared" si="226"/>
         <v>7210</v>
       </c>
       <c r="AE81" s="6">
-        <f t="shared" si="223"/>
+        <f t="shared" si="226"/>
         <v>10093</v>
       </c>
       <c r="AF81" s="6">
-        <f t="shared" si="223"/>
+        <f t="shared" si="226"/>
         <v>14387</v>
       </c>
       <c r="AG81" s="6">
-        <f t="shared" si="223"/>
+        <f t="shared" si="226"/>
         <v>22357</v>
       </c>
       <c r="AH81" s="6">
-        <f t="shared" si="223"/>
+        <f t="shared" si="226"/>
         <v>37156</v>
       </c>
       <c r="AI81" s="6">
-        <f t="shared" si="223"/>
+        <f t="shared" si="226"/>
         <v>52150</v>
       </c>
       <c r="AJ81" s="6">
-        <f t="shared" si="223"/>
+        <f t="shared" si="226"/>
         <v>59257</v>
       </c>
       <c r="AK81" s="6">
-        <f t="shared" si="223"/>
+        <f t="shared" si="226"/>
         <v>67646</v>
       </c>
       <c r="AL81" s="6">
-        <f t="shared" si="223"/>
+        <f t="shared" si="226"/>
         <v>79571</v>
       </c>
       <c r="AM81" s="6">
-        <f t="shared" si="223"/>
+        <f t="shared" si="226"/>
         <v>92389</v>
       </c>
       <c r="AN81" s="6">
-        <f t="shared" si="223"/>
+        <f t="shared" si="226"/>
         <v>70815</v>
       </c>
       <c r="AO81" s="6">
-        <f t="shared" si="223"/>
+        <f t="shared" si="226"/>
         <v>69597</v>
       </c>
       <c r="AP81" s="6">
-        <f t="shared" si="223"/>
+        <f t="shared" si="226"/>
         <v>63171</v>
       </c>
       <c r="AQ81" s="6">
-        <f t="shared" si="223"/>
+        <f t="shared" si="226"/>
         <v>72793</v>
       </c>
       <c r="AR81" s="6">
-        <f t="shared" si="223"/>
+        <f t="shared" si="226"/>
         <v>77888</v>
       </c>
       <c r="AS81" s="6">
-        <f t="shared" si="223"/>
+        <f t="shared" si="226"/>
         <v>86113</v>
       </c>
       <c r="AT81" s="6">
-        <f t="shared" si="223"/>
+        <f t="shared" si="226"/>
         <v>108704</v>
       </c>
       <c r="AU81" s="6">
-        <f t="shared" si="223"/>
+        <f t="shared" si="226"/>
         <v>121271</v>
       </c>
       <c r="AV81" s="6">
-        <f t="shared" si="223"/>
+        <f t="shared" si="226"/>
         <v>142431</v>
       </c>
       <c r="AW81" s="6">
-        <f t="shared" si="223"/>
+        <f t="shared" si="226"/>
         <v>172384</v>
       </c>
       <c r="BC81" s="7"/>
@@ -13374,67 +13458,67 @@
       <c r="E83" s="5"/>
       <c r="F83" s="5"/>
       <c r="G83" s="5">
-        <f t="shared" ref="G83:H83" si="224">G44</f>
+        <f t="shared" ref="G83:H83" si="227">G44</f>
         <v>13893</v>
       </c>
       <c r="H83" s="5">
-        <f t="shared" si="224"/>
+        <f t="shared" si="227"/>
         <v>15463</v>
       </c>
       <c r="I83" s="5">
-        <f t="shared" ref="I83:V83" si="225">I44</f>
+        <f t="shared" ref="I83:V84" si="228">I44</f>
         <v>15457</v>
       </c>
       <c r="J83" s="5">
-        <f t="shared" si="225"/>
+        <f t="shared" si="228"/>
         <v>16458</v>
       </c>
       <c r="K83" s="5">
-        <f t="shared" si="225"/>
+        <f t="shared" si="228"/>
         <v>20505</v>
       </c>
       <c r="L83" s="5">
-        <f t="shared" si="225"/>
+        <f t="shared" si="228"/>
         <v>18765</v>
       </c>
       <c r="M83" s="5">
-        <f t="shared" si="225"/>
+        <f t="shared" si="228"/>
         <v>16728</v>
       </c>
       <c r="N83" s="5">
-        <f t="shared" si="225"/>
+        <f t="shared" si="228"/>
         <v>16740</v>
       </c>
       <c r="O83" s="5">
-        <f t="shared" si="225"/>
+        <f t="shared" si="228"/>
         <v>17556</v>
       </c>
       <c r="P83" s="5">
-        <f t="shared" si="225"/>
+        <f t="shared" si="228"/>
         <v>16425</v>
       </c>
       <c r="Q83" s="5">
-        <f t="shared" si="225"/>
+        <f t="shared" si="228"/>
         <v>18299</v>
       </c>
       <c r="R83" s="5">
-        <f t="shared" si="225"/>
+        <f t="shared" si="228"/>
         <v>20081</v>
       </c>
       <c r="S83" s="5">
-        <f t="shared" si="225"/>
+        <f t="shared" si="228"/>
         <v>22291</v>
       </c>
       <c r="T83" s="5">
-        <f t="shared" si="225"/>
+        <f t="shared" si="228"/>
         <v>21870</v>
       </c>
       <c r="U83" s="5">
-        <f t="shared" si="225"/>
+        <f t="shared" si="228"/>
         <v>21660</v>
       </c>
       <c r="V83" s="5">
-        <f t="shared" si="225"/>
+        <f t="shared" si="228"/>
         <v>22036</v>
       </c>
       <c r="BC83" s="5"/>
@@ -13492,6 +13576,12 @@
       <c r="T84" s="4">
         <v>21870</v>
       </c>
+      <c r="U84" s="4">
+        <v>21660</v>
+      </c>
+      <c r="V84" s="4">
+        <v>22036</v>
+      </c>
       <c r="BC84" s="5"/>
       <c r="BD84" s="5"/>
       <c r="BE84" s="5"/>
@@ -13547,6 +13637,12 @@
       <c r="T85" s="4">
         <v>5959</v>
       </c>
+      <c r="U85" s="4">
+        <v>6027</v>
+      </c>
+      <c r="V85" s="4">
+        <v>6380</v>
+      </c>
       <c r="BC85" s="5"/>
       <c r="BD85" s="5"/>
       <c r="BE85" s="5"/>
@@ -13602,6 +13698,12 @@
       <c r="T86" s="4">
         <v>2828</v>
       </c>
+      <c r="U86" s="4">
+        <v>2703</v>
+      </c>
+      <c r="V86" s="4">
+        <v>2696</v>
+      </c>
       <c r="BC86" s="5"/>
       <c r="BD86" s="5"/>
       <c r="BE86" s="5"/>
@@ -13657,6 +13759,12 @@
       <c r="T87" s="4">
         <v>198</v>
       </c>
+      <c r="U87" s="4">
+        <v>49</v>
+      </c>
+      <c r="V87" s="4">
+        <v>44</v>
+      </c>
       <c r="BC87" s="5"/>
       <c r="BD87" s="5"/>
       <c r="BE87" s="5"/>
@@ -13711,6 +13819,12 @@
       </c>
       <c r="T88" s="4">
         <v>-1702</v>
+      </c>
+      <c r="U88" s="4">
+        <v>-1323</v>
+      </c>
+      <c r="V88" s="4">
+        <v>-1145</v>
       </c>
       <c r="BC88" s="5"/>
       <c r="BD88" s="5"/>
@@ -13781,6 +13895,14 @@
         <f>-2951+1474+725-1427-2521-5538-1554+1518-26</f>
         <v>-10300</v>
       </c>
+      <c r="U89" s="4">
+        <f>-1408+106+1152-554-407-181+1414+1715+6</f>
+        <v>1843</v>
+      </c>
+      <c r="V89" s="4">
+        <f>-13246+55-2528-1240+4204+15657-806+4652+436</f>
+        <v>7184</v>
+      </c>
       <c r="BC89" s="5"/>
       <c r="BD89" s="5"/>
       <c r="BE89" s="5"/>
@@ -13795,47 +13917,47 @@
       <c r="E90" s="5"/>
       <c r="F90" s="5"/>
       <c r="G90" s="5">
-        <f t="shared" ref="G90:H90" si="226">SUM(G84:G89)</f>
+        <f t="shared" ref="G90:H90" si="229">SUM(G84:G89)</f>
         <v>19335</v>
       </c>
       <c r="H90" s="5">
-        <f t="shared" si="226"/>
+        <f t="shared" si="229"/>
         <v>12516</v>
       </c>
       <c r="I90" s="5">
-        <f t="shared" ref="I90:K90" si="227">SUM(I84:I89)</f>
+        <f t="shared" ref="I90:K90" si="230">SUM(I84:I89)</f>
         <v>22179</v>
       </c>
       <c r="J90" s="5">
-        <f t="shared" si="227"/>
+        <f t="shared" si="230"/>
         <v>22710</v>
       </c>
       <c r="K90" s="5">
-        <f t="shared" si="227"/>
+        <f t="shared" si="230"/>
         <v>24540</v>
       </c>
       <c r="L90" s="5">
-        <f t="shared" ref="L90" si="228">SUM(L84:L89)</f>
+        <f t="shared" ref="L90" si="231">SUM(L84:L89)</f>
         <v>14480</v>
       </c>
       <c r="M90" s="5">
-        <f t="shared" ref="M90:Q90" si="229">SUM(M84:M89)</f>
+        <f t="shared" ref="M90:Q90" si="232">SUM(M84:M89)</f>
         <v>25386</v>
       </c>
       <c r="N90" s="5">
-        <f t="shared" si="229"/>
+        <f t="shared" si="232"/>
         <v>24629</v>
       </c>
       <c r="O90" s="5">
-        <f t="shared" si="229"/>
+        <f t="shared" si="232"/>
         <v>23198</v>
       </c>
       <c r="P90" s="5">
-        <f t="shared" si="229"/>
+        <f t="shared" si="232"/>
         <v>11173</v>
       </c>
       <c r="Q90" s="5">
-        <f t="shared" si="229"/>
+        <f t="shared" si="232"/>
         <v>24441</v>
       </c>
       <c r="R90" s="5">
@@ -13850,8 +13972,14 @@
         <f>SUM(T84:T89)</f>
         <v>18853</v>
       </c>
-      <c r="U90" s="5"/>
-      <c r="V90" s="5"/>
+      <c r="U90" s="5">
+        <f t="shared" ref="U90:V90" si="233">SUM(U84:U89)</f>
+        <v>30959</v>
+      </c>
+      <c r="V90" s="5">
+        <f t="shared" si="233"/>
+        <v>37195</v>
+      </c>
       <c r="BC90" s="5"/>
       <c r="BD90" s="5"/>
       <c r="BE90" s="5"/>
@@ -13925,6 +14053,12 @@
       <c r="T92" s="4">
         <v>-9735</v>
       </c>
+      <c r="U92" s="4">
+        <v>-10952</v>
+      </c>
+      <c r="V92" s="4">
+        <v>-13873</v>
+      </c>
       <c r="BC92" s="5"/>
       <c r="BD92" s="5"/>
       <c r="BE92" s="5"/>
@@ -13979,6 +14113,12 @@
       </c>
       <c r="T93" s="4">
         <v>-65029</v>
+      </c>
+      <c r="U93" s="4">
+        <v>-1575</v>
+      </c>
+      <c r="V93" s="4">
+        <v>-1342</v>
       </c>
       <c r="BC93" s="5"/>
       <c r="BD93" s="5"/>
@@ -14049,6 +14189,14 @@
         <f>-4258+4150+1600</f>
         <v>1492</v>
       </c>
+      <c r="U94" s="4">
+        <f>-2183+3350+1941</f>
+        <v>3108</v>
+      </c>
+      <c r="V94" s="4">
+        <f>-2831+1557+2023</f>
+        <v>749</v>
+      </c>
       <c r="BC94" s="5"/>
       <c r="BD94" s="5"/>
       <c r="BE94" s="5"/>
@@ -14104,6 +14252,12 @@
       <c r="T95" s="4">
         <v>1347</v>
       </c>
+      <c r="U95" s="4">
+        <v>-1281</v>
+      </c>
+      <c r="V95" s="4">
+        <v>-382</v>
+      </c>
       <c r="BC95" s="5"/>
       <c r="BD95" s="5"/>
       <c r="BE95" s="5"/>
@@ -14118,60 +14272,68 @@
       <c r="E96" s="5"/>
       <c r="F96" s="5"/>
       <c r="G96" s="5">
-        <f t="shared" ref="G96:H96" si="230">SUM(G92:G95)</f>
+        <f t="shared" ref="G96:H96" si="234">SUM(G92:G95)</f>
         <v>-5371</v>
       </c>
       <c r="H96" s="5">
-        <f t="shared" si="230"/>
+        <f t="shared" si="234"/>
         <v>-1669</v>
       </c>
       <c r="I96" s="5">
-        <f t="shared" ref="I96:L96" si="231">SUM(I92:I95)</f>
+        <f t="shared" ref="I96:L96" si="235">SUM(I92:I95)</f>
         <v>-9684</v>
       </c>
       <c r="J96" s="5">
-        <f t="shared" si="231"/>
+        <f t="shared" si="235"/>
         <v>-10853</v>
       </c>
       <c r="K96" s="5">
-        <f t="shared" si="231"/>
+        <f t="shared" si="235"/>
         <v>-3250</v>
       </c>
       <c r="L96" s="5">
-        <f t="shared" si="231"/>
+        <f t="shared" si="235"/>
         <v>-1161</v>
       </c>
       <c r="M96" s="5">
-        <f t="shared" ref="M96:T96" si="232">SUM(M92:M95)</f>
+        <f t="shared" ref="M96:V96" si="236">SUM(M92:M95)</f>
         <v>-16171</v>
       </c>
       <c r="N96" s="5">
-        <f t="shared" si="232"/>
+        <f t="shared" si="236"/>
         <v>-9729</v>
       </c>
       <c r="O96" s="5">
-        <f t="shared" si="232"/>
+        <f t="shared" si="236"/>
         <v>-3132</v>
       </c>
       <c r="P96" s="5">
-        <f t="shared" si="232"/>
+        <f t="shared" si="236"/>
         <v>-7150</v>
       </c>
       <c r="Q96" s="5">
-        <f t="shared" si="232"/>
+        <f t="shared" si="236"/>
         <v>-3264</v>
       </c>
       <c r="R96" s="5">
-        <f t="shared" si="232"/>
+        <f t="shared" si="236"/>
         <v>-9134</v>
       </c>
       <c r="S96" s="5">
-        <f t="shared" si="232"/>
+        <f t="shared" si="236"/>
         <v>503</v>
       </c>
       <c r="T96" s="5">
-        <f t="shared" si="232"/>
+        <f t="shared" si="236"/>
         <v>-71925</v>
+      </c>
+      <c r="U96" s="5">
+        <f t="shared" si="236"/>
+        <v>-10700</v>
+      </c>
+      <c r="V96" s="5">
+        <f t="shared" si="236"/>
+        <v>-14848</v>
       </c>
       <c r="BC96" s="5"/>
       <c r="BD96" s="5"/>
@@ -14478,23 +14640,23 @@
       <c r="E103" s="5"/>
       <c r="F103" s="5"/>
       <c r="G103" s="5">
-        <f t="shared" ref="G103:H103" si="233">SUM(G98:G102)</f>
+        <f t="shared" ref="G103:H103" si="237">SUM(G98:G102)</f>
         <v>-10289</v>
       </c>
       <c r="H103" s="5">
-        <f t="shared" si="233"/>
+        <f t="shared" si="237"/>
         <v>-13634</v>
       </c>
       <c r="I103" s="5">
-        <f t="shared" ref="I103:K103" si="234">SUM(I98:I102)</f>
+        <f t="shared" ref="I103:K103" si="238">SUM(I98:I102)</f>
         <v>-13192</v>
       </c>
       <c r="J103" s="5">
-        <f t="shared" si="234"/>
+        <f t="shared" si="238"/>
         <v>-11371</v>
       </c>
       <c r="K103" s="5">
-        <f t="shared" si="234"/>
+        <f t="shared" si="238"/>
         <v>-16276</v>
       </c>
       <c r="L103" s="5">
@@ -14518,19 +14680,19 @@
         <v>-11349</v>
       </c>
       <c r="Q103" s="5">
-        <f t="shared" ref="Q103:T103" si="235">SUM(Q98:Q102)</f>
+        <f t="shared" ref="Q103:T103" si="239">SUM(Q98:Q102)</f>
         <v>-10290</v>
       </c>
       <c r="R103" s="5">
-        <f t="shared" si="235"/>
+        <f t="shared" si="239"/>
         <v>-11413</v>
       </c>
       <c r="S103" s="5">
-        <f t="shared" si="235"/>
+        <f t="shared" si="239"/>
         <v>14761</v>
       </c>
       <c r="T103" s="5">
-        <f t="shared" si="235"/>
+        <f t="shared" si="239"/>
         <v>-10147</v>
       </c>
       <c r="BC103" s="5"/>
@@ -14590,23 +14752,23 @@
         <v>67</v>
       </c>
       <c r="G105" s="5">
-        <f t="shared" ref="G105:H105" si="236">G103+G104+G96+G90</f>
+        <f t="shared" ref="G105:H105" si="240">G103+G104+G96+G90</f>
         <v>3629</v>
       </c>
       <c r="H105" s="5">
-        <f t="shared" si="236"/>
+        <f t="shared" si="240"/>
         <v>-2773</v>
       </c>
       <c r="I105" s="5">
-        <f t="shared" ref="I105:K105" si="237">I103+I104+I96+I90</f>
+        <f t="shared" ref="I105:K105" si="241">I103+I104+I96+I90</f>
         <v>-730</v>
       </c>
       <c r="J105" s="5">
-        <f t="shared" si="237"/>
+        <f t="shared" si="241"/>
         <v>522</v>
       </c>
       <c r="K105" s="5">
-        <f t="shared" si="237"/>
+        <f t="shared" si="241"/>
         <v>4941</v>
       </c>
       <c r="L105" s="5">
@@ -14630,19 +14792,19 @@
         <v>-7238</v>
       </c>
       <c r="Q105" s="5">
-        <f t="shared" ref="Q105:T105" si="238">Q103+Q104+Q96+Q90</f>
+        <f t="shared" ref="Q105:T105" si="242">Q103+Q104+Q96+Q90</f>
         <v>10916</v>
       </c>
       <c r="R105" s="5">
-        <f t="shared" si="238"/>
+        <f t="shared" si="242"/>
         <v>8142</v>
       </c>
       <c r="S105" s="5">
-        <f t="shared" si="238"/>
+        <f t="shared" si="242"/>
         <v>45748</v>
       </c>
       <c r="T105" s="5">
-        <f t="shared" si="238"/>
+        <f t="shared" si="242"/>
         <v>-63147</v>
       </c>
     </row>
@@ -14651,23 +14813,23 @@
         <v>72</v>
       </c>
       <c r="G107" s="5">
-        <f t="shared" ref="G107:K107" si="239">G90+G92</f>
+        <f t="shared" ref="G107:K107" si="243">G90+G92</f>
         <v>14428</v>
       </c>
       <c r="H107" s="5">
-        <f t="shared" si="239"/>
+        <f t="shared" si="243"/>
         <v>8342</v>
       </c>
       <c r="I107" s="5">
-        <f t="shared" si="239"/>
+        <f t="shared" si="243"/>
         <v>17090</v>
       </c>
       <c r="J107" s="5">
-        <f t="shared" si="239"/>
+        <f t="shared" si="243"/>
         <v>16258</v>
       </c>
       <c r="K107" s="5">
-        <f t="shared" si="239"/>
+        <f t="shared" si="243"/>
         <v>18730</v>
       </c>
       <c r="L107" s="5">
@@ -14675,11 +14837,11 @@
         <v>8615</v>
       </c>
       <c r="M107" s="5">
-        <f t="shared" ref="M107:N107" si="240">M90+M92</f>
+        <f t="shared" ref="M107:N107" si="244">M90+M92</f>
         <v>20046</v>
       </c>
       <c r="N107" s="5">
-        <f t="shared" si="240"/>
+        <f t="shared" si="244"/>
         <v>17758</v>
       </c>
       <c r="O107" s="5">
@@ -14691,19 +14853,19 @@
         <v>4899</v>
       </c>
       <c r="Q107" s="5">
-        <f t="shared" ref="Q107:T107" si="241">Q90+Q92</f>
+        <f t="shared" ref="Q107:T107" si="245">Q90+Q92</f>
         <v>17834</v>
       </c>
       <c r="R107" s="5">
-        <f t="shared" si="241"/>
+        <f t="shared" si="245"/>
         <v>19827</v>
       </c>
       <c r="S107" s="5">
-        <f t="shared" si="241"/>
+        <f t="shared" si="245"/>
         <v>20666</v>
       </c>
       <c r="T107" s="5">
-        <f t="shared" si="241"/>
+        <f t="shared" si="245"/>
         <v>9118</v>
       </c>
     </row>
@@ -14712,43 +14874,43 @@
         <v>103</v>
       </c>
       <c r="K108" s="4">
-        <f t="shared" ref="K108:P108" si="242">SUM(H107:K107)</f>
+        <f t="shared" ref="K108:P108" si="246">SUM(H107:K107)</f>
         <v>60420</v>
       </c>
       <c r="L108" s="4">
-        <f t="shared" si="242"/>
+        <f t="shared" si="246"/>
         <v>60693</v>
       </c>
       <c r="M108" s="4">
-        <f t="shared" si="242"/>
+        <f t="shared" si="246"/>
         <v>63649</v>
       </c>
       <c r="N108" s="4">
-        <f t="shared" si="242"/>
+        <f t="shared" si="246"/>
         <v>65149</v>
       </c>
       <c r="O108" s="4">
-        <f t="shared" si="242"/>
+        <f t="shared" si="246"/>
         <v>63334</v>
       </c>
       <c r="P108" s="4">
-        <f t="shared" si="242"/>
+        <f t="shared" si="246"/>
         <v>59618</v>
       </c>
       <c r="Q108" s="4">
-        <f t="shared" ref="Q108:T108" si="243">SUM(N107:Q107)</f>
+        <f t="shared" ref="Q108:T108" si="247">SUM(N107:Q107)</f>
         <v>57406</v>
       </c>
       <c r="R108" s="4">
-        <f t="shared" si="243"/>
+        <f t="shared" si="247"/>
         <v>59475</v>
       </c>
       <c r="S108" s="4">
-        <f t="shared" si="243"/>
+        <f t="shared" si="247"/>
         <v>63226</v>
       </c>
       <c r="T108" s="4">
-        <f t="shared" si="243"/>
+        <f t="shared" si="247"/>
         <v>67445</v>
       </c>
     </row>
@@ -14757,27 +14919,27 @@
         <v>465</v>
       </c>
       <c r="O109" s="12">
-        <f t="shared" ref="O109:T109" si="244">+O108/K108-1</f>
+        <f t="shared" ref="O109:T109" si="248">+O108/K108-1</f>
         <v>4.8229063224098034E-2</v>
       </c>
       <c r="P109" s="12">
-        <f t="shared" si="244"/>
+        <f t="shared" si="248"/>
         <v>-1.7712092004020241E-2</v>
       </c>
       <c r="Q109" s="12">
-        <f t="shared" si="244"/>
+        <f t="shared" si="248"/>
         <v>-9.8084808873666551E-2</v>
       </c>
       <c r="R109" s="12">
-        <f t="shared" si="244"/>
+        <f t="shared" si="248"/>
         <v>-8.7092664507513518E-2</v>
       </c>
       <c r="S109" s="12">
-        <f t="shared" si="244"/>
+        <f t="shared" si="248"/>
         <v>-1.7052452079451275E-3</v>
       </c>
       <c r="T109" s="12">
-        <f t="shared" si="244"/>
+        <f t="shared" si="248"/>
         <v>0.13128585326579212</v>
       </c>
     </row>
@@ -14786,39 +14948,39 @@
         <v>466</v>
       </c>
       <c r="K110" s="4">
-        <f t="shared" ref="K110:S110" si="245">SUM(H92:K92)</f>
+        <f t="shared" ref="K110:S110" si="249">SUM(H92:K92)</f>
         <v>-21525</v>
       </c>
       <c r="L110" s="4">
-        <f t="shared" si="245"/>
+        <f t="shared" si="249"/>
         <v>-23216</v>
       </c>
       <c r="M110" s="4">
-        <f t="shared" si="245"/>
+        <f t="shared" si="249"/>
         <v>-23467</v>
       </c>
       <c r="N110" s="4">
-        <f t="shared" si="245"/>
+        <f t="shared" si="249"/>
         <v>-23886</v>
       </c>
       <c r="O110" s="4">
-        <f t="shared" si="245"/>
+        <f t="shared" si="249"/>
         <v>-24359</v>
       </c>
       <c r="P110" s="4">
-        <f t="shared" si="245"/>
+        <f t="shared" si="249"/>
         <v>-24768</v>
       </c>
       <c r="Q110" s="4">
-        <f t="shared" si="245"/>
+        <f t="shared" si="249"/>
         <v>-26035</v>
       </c>
       <c r="R110" s="4">
-        <f t="shared" si="245"/>
+        <f t="shared" si="249"/>
         <v>-28107</v>
       </c>
       <c r="S110" s="4">
-        <f t="shared" si="245"/>
+        <f t="shared" si="249"/>
         <v>-31741</v>
       </c>
       <c r="T110" s="4">
@@ -14831,23 +14993,23 @@
         <v>465</v>
       </c>
       <c r="O111" s="12">
-        <f t="shared" ref="O111:S111" si="246">+O110/K110-1</f>
+        <f t="shared" ref="O111:S111" si="250">+O110/K110-1</f>
         <v>0.13166085946573758</v>
       </c>
       <c r="P111" s="12">
-        <f t="shared" si="246"/>
+        <f t="shared" si="250"/>
         <v>6.6850447966919413E-2</v>
       </c>
       <c r="Q111" s="12">
-        <f t="shared" si="246"/>
+        <f t="shared" si="250"/>
         <v>0.10943026377466225</v>
       </c>
       <c r="R111" s="12">
-        <f t="shared" si="246"/>
+        <f t="shared" si="250"/>
         <v>0.17671439336850048</v>
       </c>
       <c r="S111" s="12">
-        <f t="shared" si="246"/>
+        <f t="shared" si="250"/>
         <v>0.3030502073155712</v>
       </c>
       <c r="T111" s="12">
@@ -15055,95 +15217,95 @@
         <v>2</v>
       </c>
       <c r="AC117" s="4">
-        <f t="shared" ref="AC117:AY117" si="247">AC116*AC46</f>
+        <f t="shared" ref="AC117:AY117" si="251">AC116*AC46</f>
         <v>20734.741379310344</v>
       </c>
       <c r="AD117" s="4">
-        <f t="shared" si="247"/>
+        <f t="shared" si="251"/>
         <v>36544.838709677417</v>
       </c>
       <c r="AE117" s="4">
-        <f t="shared" si="247"/>
+        <f t="shared" si="251"/>
         <v>49327.24832214765</v>
       </c>
       <c r="AF117" s="4">
-        <f t="shared" si="247"/>
+        <f t="shared" si="251"/>
         <v>114885.89743906935</v>
       </c>
       <c r="AG117" s="4">
-        <f t="shared" si="247"/>
+        <f t="shared" si="251"/>
         <v>184709.73040305718</v>
       </c>
       <c r="AH117" s="4">
-        <f t="shared" si="247"/>
+        <f t="shared" si="251"/>
         <v>372704.58101536665</v>
       </c>
       <c r="AI117" s="4">
-        <f t="shared" si="247"/>
+        <f t="shared" si="251"/>
         <v>298261.112605042</v>
       </c>
       <c r="AJ117" s="4">
-        <f t="shared" si="247"/>
+        <f t="shared" si="251"/>
         <v>266298.08220699872</v>
       </c>
       <c r="AK117" s="4">
-        <f t="shared" si="247"/>
+        <f t="shared" si="251"/>
         <v>222567.08981033842</v>
       </c>
       <c r="AL117" s="4">
-        <f t="shared" si="247"/>
+        <f t="shared" si="251"/>
         <v>236906.16184222695</v>
       </c>
       <c r="AM117" s="4">
-        <f t="shared" si="247"/>
+        <f t="shared" si="251"/>
         <v>252642.2008830022</v>
       </c>
       <c r="AN117" s="4">
-        <f t="shared" si="247"/>
+        <f t="shared" si="251"/>
         <v>260731.99813293503</v>
       </c>
       <c r="AO117" s="4">
-        <f t="shared" si="247"/>
+        <f t="shared" si="251"/>
         <v>247113.52251981141</v>
       </c>
       <c r="AP117" s="4">
-        <f t="shared" si="247"/>
+        <f t="shared" si="251"/>
         <v>265170.46442666667</v>
       </c>
       <c r="AQ117" s="4">
-        <f t="shared" si="247"/>
+        <f t="shared" si="251"/>
         <v>298326.78203723987</v>
       </c>
       <c r="AR117" s="4">
-        <f t="shared" si="247"/>
+        <f t="shared" si="251"/>
         <v>151214.58181818182</v>
       </c>
       <c r="AS117" s="4">
-        <f t="shared" si="247"/>
+        <f t="shared" si="251"/>
         <v>242693.07615855773</v>
       </c>
       <c r="AT117" s="4">
-        <f t="shared" si="247"/>
+        <f t="shared" si="251"/>
         <v>213717.28455478634</v>
       </c>
       <c r="AU117" s="4">
-        <f t="shared" si="247"/>
+        <f t="shared" si="251"/>
         <v>198199.0335202195</v>
       </c>
       <c r="AV117" s="4">
-        <f t="shared" si="247"/>
+        <f t="shared" si="251"/>
         <v>206380.61592027853</v>
       </c>
       <c r="AW117" s="4">
-        <f t="shared" si="247"/>
+        <f t="shared" si="251"/>
         <v>290064.69972083991</v>
       </c>
       <c r="AX117" s="4">
-        <f t="shared" si="247"/>
+        <f t="shared" si="251"/>
         <v>377052.05051894463</v>
       </c>
       <c r="AY117" s="4">
-        <f t="shared" si="247"/>
+        <f t="shared" si="251"/>
         <v>436539.84856262838</v>
       </c>
     </row>
@@ -15152,95 +15314,95 @@
         <v>5</v>
       </c>
       <c r="AC118" s="4">
-        <f t="shared" ref="AC118:AY118" si="248">AC117-AC61</f>
+        <f t="shared" ref="AC118:AY118" si="252">AC117-AC61</f>
         <v>17120.741379310344</v>
       </c>
       <c r="AD118" s="4">
-        <f t="shared" si="248"/>
+        <f t="shared" si="252"/>
         <v>31794.838709677417</v>
       </c>
       <c r="AE118" s="4">
-        <f t="shared" si="248"/>
+        <f t="shared" si="252"/>
         <v>42387.24832214765</v>
       </c>
       <c r="AF118" s="4">
-        <f t="shared" si="248"/>
+        <f t="shared" si="252"/>
         <v>103573.89743906935</v>
       </c>
       <c r="AG118" s="4">
-        <f t="shared" si="248"/>
+        <f t="shared" si="252"/>
         <v>166079.73040305718</v>
       </c>
       <c r="AH118" s="4">
-        <f t="shared" si="248"/>
+        <f t="shared" si="252"/>
         <v>341096.58101536665</v>
       </c>
       <c r="AI118" s="4">
-        <f t="shared" si="248"/>
+        <f t="shared" si="252"/>
         <v>256737.112605042</v>
       </c>
       <c r="AJ118" s="4">
-        <f t="shared" si="248"/>
+        <f t="shared" si="252"/>
         <v>220557.08220699872</v>
       </c>
       <c r="AK118" s="4">
-        <f t="shared" si="248"/>
+        <f t="shared" si="252"/>
         <v>169724.08981033842</v>
       </c>
       <c r="AL118" s="4">
-        <f t="shared" si="248"/>
+        <f t="shared" si="252"/>
         <v>174166.16184222695</v>
       </c>
       <c r="AM118" s="4">
-        <f t="shared" si="248"/>
+        <f t="shared" si="252"/>
         <v>179840.2008830022</v>
       </c>
       <c r="AN118" s="4">
-        <f t="shared" si="248"/>
+        <f t="shared" si="252"/>
         <v>211976.99813293503</v>
       </c>
       <c r="AO118" s="4">
-        <f t="shared" si="248"/>
+        <f t="shared" si="252"/>
         <v>203720.52251981141</v>
       </c>
       <c r="AP118" s="4">
-        <f t="shared" si="248"/>
+        <f t="shared" si="252"/>
         <v>231642.46442666667</v>
       </c>
       <c r="AQ118" s="4">
-        <f t="shared" si="248"/>
+        <f t="shared" si="252"/>
         <v>268076.78203723987</v>
       </c>
       <c r="AR118" s="4">
-        <f t="shared" si="248"/>
+        <f t="shared" si="252"/>
         <v>120580.58181818182</v>
       </c>
       <c r="AS118" s="4">
-        <f t="shared" si="248"/>
+        <f t="shared" si="252"/>
         <v>204090.07615855773</v>
       </c>
       <c r="AT118" s="4">
-        <f t="shared" si="248"/>
+        <f t="shared" si="252"/>
         <v>162001.28455478634</v>
       </c>
       <c r="AU118" s="4">
-        <f t="shared" si="248"/>
+        <f t="shared" si="252"/>
         <v>137327.0335202195</v>
       </c>
       <c r="AV118" s="4">
-        <f t="shared" si="248"/>
+        <f t="shared" si="252"/>
         <v>134114.61592027853</v>
       </c>
       <c r="AW118" s="4">
-        <f t="shared" si="248"/>
+        <f t="shared" si="252"/>
         <v>212403.69972083991</v>
       </c>
       <c r="AX118" s="4">
-        <f t="shared" si="248"/>
+        <f t="shared" si="252"/>
         <v>377052.05051894463</v>
       </c>
       <c r="AY118" s="4">
-        <f t="shared" si="248"/>
+        <f t="shared" si="252"/>
         <v>436539.84856262838</v>
       </c>
     </row>
@@ -15249,95 +15411,95 @@
         <v>223</v>
       </c>
       <c r="AC119" s="24">
-        <f t="shared" ref="AC119:AY119" si="249">AC118/AC44</f>
+        <f t="shared" ref="AC119:AY119" si="253">AC118/AC44</f>
         <v>13.85173250753264</v>
       </c>
       <c r="AD119" s="24">
-        <f t="shared" si="249"/>
+        <f t="shared" si="253"/>
         <v>21.21069960618907</v>
       </c>
       <c r="AE119" s="24">
-        <f t="shared" si="249"/>
+        <f t="shared" si="253"/>
         <v>19.310819281160661</v>
       </c>
       <c r="AF119" s="24">
-        <f t="shared" si="249"/>
+        <f t="shared" si="253"/>
         <v>29.986652414322336</v>
       </c>
       <c r="AG119" s="24">
-        <f t="shared" si="249"/>
+        <f t="shared" si="253"/>
         <v>34.905365784585371</v>
       </c>
       <c r="AH119" s="24">
-        <f t="shared" si="249"/>
+        <f t="shared" si="253"/>
         <v>44.733977838080875</v>
       </c>
       <c r="AI119" s="24">
-        <f t="shared" si="249"/>
+        <f t="shared" si="253"/>
         <v>27.710427696172907</v>
       </c>
       <c r="AJ119" s="24">
-        <f t="shared" si="249"/>
+        <f t="shared" si="253"/>
         <v>27.989477437436385</v>
       </c>
       <c r="AK119" s="24">
-        <f t="shared" si="249"/>
+        <f t="shared" si="253"/>
         <v>21.427103877078451</v>
       </c>
       <c r="AL119" s="24">
-        <f t="shared" si="249"/>
+        <f t="shared" si="253"/>
         <v>17.311018968514755</v>
       </c>
       <c r="AM119" s="24">
-        <f t="shared" si="249"/>
+        <f t="shared" si="253"/>
         <v>21.950470021115855</v>
       </c>
       <c r="AN119" s="24">
-        <f t="shared" si="249"/>
+        <f t="shared" si="253"/>
         <v>17.298596224329607</v>
       </c>
       <c r="AO119" s="24">
-        <f t="shared" si="249"/>
+        <f t="shared" si="253"/>
         <v>16.16957873798011</v>
       </c>
       <c r="AP119" s="24">
-        <f t="shared" si="249"/>
+        <f t="shared" si="253"/>
         <v>16.469425128095747</v>
       </c>
       <c r="AQ119" s="24">
-        <f t="shared" si="249"/>
+        <f t="shared" si="253"/>
         <v>15.161856345073236</v>
       </c>
       <c r="AR119" s="25">
-        <f t="shared" si="249"/>
+        <f t="shared" si="253"/>
         <v>8.0931996656273455</v>
       </c>
       <c r="AS119" s="25">
-        <f t="shared" si="249"/>
+        <f t="shared" si="253"/>
         <v>10.844894848746359</v>
       </c>
       <c r="AT119" s="25">
-        <f t="shared" si="249"/>
+        <f t="shared" si="253"/>
         <v>6.9978956611138807</v>
       </c>
       <c r="AU119" s="25">
-        <f t="shared" si="249"/>
+        <f t="shared" si="253"/>
         <v>5.9266770325069915</v>
       </c>
       <c r="AV119" s="25">
-        <f t="shared" si="249"/>
+        <f t="shared" si="253"/>
         <v>6.1343189827689946</v>
       </c>
       <c r="AW119" s="25">
-        <f t="shared" si="249"/>
+        <f t="shared" si="253"/>
         <v>9.5673032620530574</v>
       </c>
       <c r="AX119" s="25">
-        <f t="shared" si="249"/>
+        <f t="shared" si="253"/>
         <v>16.98126691222053</v>
       </c>
       <c r="AY119" s="25">
-        <f t="shared" si="249"/>
+        <f t="shared" si="253"/>
         <v>24.376806374951329</v>
       </c>
     </row>

--- a/MSFT.xlsx
+++ b/MSFT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B0DBE76-1804-438E-9F57-8DCB0790E310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89FFE51E-7AC1-4ABC-BE57-6D707E2140C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39820" yWindow="1480" windowWidth="26400" windowHeight="18030" activeTab="1" xr2:uid="{AF5D6250-CC2E-478D-A72E-6EAEA79B8F65}"/>
+    <workbookView xWindow="50560" yWindow="1170" windowWidth="24340" windowHeight="15680" xr2:uid="{AF5D6250-CC2E-478D-A72E-6EAEA79B8F65}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -89,6 +89,7 @@
     <author>tc={A0430351-424E-4888-96FD-79404C358012}</author>
     <author>tc={7E9BCCA4-1A9A-4F06-8F56-AD948C1F9AEB}</author>
     <author>tc={4186E1B7-27BA-4064-8D1E-8ED4CB51C8F1}</author>
+    <author>tc={84606C58-4C9A-4115-A0B2-4BCBFC0DF51B}</author>
     <author>tc={6C2A9AED-575A-4447-8CAD-2E4A869395ED}</author>
     <author>tc={1194B53B-11DF-4936-8FD7-77F49319A1C9}</author>
     <author>tc={B7D8227E-9C6A-4B9D-BCEB-E38F55E93FBB}</author>
@@ -101,6 +102,7 @@
     <author>tc={06B3106E-8D95-4ED7-A96C-DF96D1DF1BC4}</author>
     <author>tc={575D0825-4C80-4173-A064-BC46798AA03A}</author>
     <author>tc={D794CECC-1BAE-4B21-8F7F-C698B1CC85A9}</author>
+    <author>tc={6A2619C1-69D1-4798-B8E6-F50765CC9231}</author>
     <author>tc={EC9B7190-CE1A-4E78-A2EF-A3F3AADAB339}</author>
     <author>tc={F728FAC2-51F0-4023-AB40-41F83CEF5C89}</author>
     <author>tc={A9249A39-B9EC-4BC7-B87E-1B27108C92D8}</author>
@@ -113,18 +115,24 @@
     <author>tc={76D53B89-C9A8-4A1F-A500-58B63D0047E4}</author>
     <author>tc={48B23987-2CE7-423E-ACAE-6D661625B256}</author>
     <author>tc={6A8206A7-827A-4B9C-8CF5-46B679BA4558}</author>
+    <author>tc={14D854E7-BAC8-4D23-9C78-D47A63D064F3}</author>
     <author>tc={1C31850E-87A1-42A5-A544-D7C66ECB0D78}</author>
     <author>tc={6CD6DA57-15E4-4617-9E8A-DE627D4291F4}</author>
     <author>tc={530E3A34-4790-4FEE-B8A2-EEE361836B57}</author>
     <author>tc={6550F107-B2DD-468B-9840-A88B103B8C6E}</author>
     <author>tc={B0B4B47A-77DB-4469-A3F3-BA8FF53995B8}</author>
     <author>tc={672EF133-CF99-4F62-BC53-D74F59EFAF45}</author>
+    <author>tc={35883118-41B9-4E5B-B10B-13A3DA011BA4}</author>
+    <author>tc={7F4F4845-E039-4FA5-97EA-E3560B883DA3}</author>
     <author>tc={5ABABD65-6006-454E-8377-B6AC9472B498}</author>
     <author>tc={667BC7EE-5E86-47FC-B964-2C031A25E303}</author>
     <author>tc={4CE52B0D-7FB3-47B3-B571-475342092488}</author>
     <author>tc={E1D462E3-FE87-45D3-BF08-737DAD82C45D}</author>
     <author>tc={7492A336-ABB9-4529-8350-AF762E5855FF}</author>
+    <author>tc={4E294EC4-BE43-4E60-A4B5-9C95B46B99AF}</author>
     <author>tc={48518769-DF2C-4CE7-8344-8EDB6814ABC3}</author>
+    <author>tc={EA740F5A-2BED-4510-A7C4-E95F65795F3A}</author>
+    <author>tc={7F99F30D-CC1F-42AF-8158-A4F78646B952}</author>
     <author>tc={0B1C80B2-A99F-49BC-9191-A0A5F60188E6}</author>
     <author>tc={885AFC63-6D78-4BB2-A861-4B904F8487BB}</author>
     <author>tc={5CB2A726-6A99-4883-BF78-BAC1241A440D}</author>
@@ -383,7 +391,15 @@
     Q2 guidance: 29.4-29.7B</t>
       </text>
     </comment>
-    <comment ref="BR27" authorId="29" shapeId="0" xr:uid="{6C2A9AED-575A-4447-8CAD-2E4A869395ED}">
+    <comment ref="AF27" authorId="29" shapeId="0" xr:uid="{84606C58-4C9A-4115-A0B2-4BCBFC0DF51B}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Q1 guidance: 33.3-33.6B guidance</t>
+      </text>
+    </comment>
+    <comment ref="BR27" authorId="30" shapeId="0" xr:uid="{6C2A9AED-575A-4447-8CAD-2E4A869395ED}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -392,7 +408,7 @@
 LinkedIn $15B</t>
       </text>
     </comment>
-    <comment ref="O28" authorId="30" shapeId="0" xr:uid="{1194B53B-11DF-4936-8FD7-77F49319A1C9}">
+    <comment ref="O28" authorId="31" shapeId="0" xr:uid="{1194B53B-11DF-4936-8FD7-77F49319A1C9}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -400,7 +416,7 @@
     16964 old</t>
       </text>
     </comment>
-    <comment ref="T28" authorId="31" shapeId="0" xr:uid="{B7D8227E-9C6A-4B9D-BCEB-E38F55E93FBB}">
+    <comment ref="T28" authorId="32" shapeId="0" xr:uid="{B7D8227E-9C6A-4B9D-BCEB-E38F55E93FBB}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -409,7 +425,7 @@
 Grew from Nuance</t>
       </text>
     </comment>
-    <comment ref="U28" authorId="32" shapeId="0" xr:uid="{C7BC1CA5-759B-43A0-833B-88C4CD54B000}">
+    <comment ref="U28" authorId="33" shapeId="0" xr:uid="{C7BC1CA5-759B-43A0-833B-88C4CD54B000}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -417,7 +433,7 @@
     Q223 guidance: 21.7-22.0B</t>
       </text>
     </comment>
-    <comment ref="V28" authorId="33" shapeId="0" xr:uid="{21797C47-1950-4375-853A-A1712EF01174}">
+    <comment ref="V28" authorId="34" shapeId="0" xr:uid="{21797C47-1950-4375-853A-A1712EF01174}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -425,7 +441,7 @@
     Guidance: 23.6-23.9B</t>
       </text>
     </comment>
-    <comment ref="W28" authorId="34" shapeId="0" xr:uid="{AA439B2E-FC6E-4E0D-A042-CA20F999D88F}">
+    <comment ref="W28" authorId="35" shapeId="0" xr:uid="{AA439B2E-FC6E-4E0D-A042-CA20F999D88F}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -434,7 +450,7 @@
 Recast from 24,259</t>
       </text>
     </comment>
-    <comment ref="X28" authorId="35" shapeId="0" xr:uid="{1CD8F411-765D-4154-9E6A-8137C38BB816}">
+    <comment ref="X28" authorId="36" shapeId="0" xr:uid="{1CD8F411-765D-4154-9E6A-8137C38BB816}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -442,7 +458,7 @@
     Was 25,880</t>
       </text>
     </comment>
-    <comment ref="Y28" authorId="36" shapeId="0" xr:uid="{BBA0104C-8A16-4A96-9E2C-AD8EE02A03E1}">
+    <comment ref="Y28" authorId="37" shapeId="0" xr:uid="{BBA0104C-8A16-4A96-9E2C-AD8EE02A03E1}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -450,7 +466,7 @@
     Recast from 26708</t>
       </text>
     </comment>
-    <comment ref="Z28" authorId="37" shapeId="0" xr:uid="{2FD712AC-9525-47EF-B2E5-F90621F9547F}">
+    <comment ref="Z28" authorId="38" shapeId="0" xr:uid="{2FD712AC-9525-47EF-B2E5-F90621F9547F}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -458,7 +474,7 @@
     Recast from 28,515</t>
       </text>
     </comment>
-    <comment ref="AA28" authorId="38" shapeId="0" xr:uid="{06B3106E-8D95-4ED7-A96C-DF96D1DF1BC4}">
+    <comment ref="AA28" authorId="39" shapeId="0" xr:uid="{06B3106E-8D95-4ED7-A96C-DF96D1DF1BC4}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -466,7 +482,7 @@
     Q4 guidance: 28.6-28.9</t>
       </text>
     </comment>
-    <comment ref="AB28" authorId="39" shapeId="0" xr:uid="{575D0825-4C80-4173-A064-BC46798AA03A}">
+    <comment ref="AB28" authorId="40" shapeId="0" xr:uid="{575D0825-4C80-4173-A064-BC46798AA03A}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -474,7 +490,7 @@
     Q1 guidance: 25.50-25.85B</t>
       </text>
     </comment>
-    <comment ref="AC28" authorId="40" shapeId="0" xr:uid="{D794CECC-1BAE-4B21-8F7F-C698B1CC85A9}">
+    <comment ref="AC28" authorId="41" shapeId="0" xr:uid="{D794CECC-1BAE-4B21-8F7F-C698B1CC85A9}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -482,7 +498,15 @@
     Q2 guidance: 25.9-26.2B</t>
       </text>
     </comment>
-    <comment ref="B29" authorId="41" shapeId="0" xr:uid="{EC9B7190-CE1A-4E78-A2EF-A3F3AADAB339}">
+    <comment ref="AF28" authorId="42" shapeId="0" xr:uid="{6A2619C1-69D1-4798-B8E6-F50765CC9231}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Q1 guidance: 32.25-32.55B</t>
+      </text>
+    </comment>
+    <comment ref="B29" authorId="43" shapeId="0" xr:uid="{EC9B7190-CE1A-4E78-A2EF-A3F3AADAB339}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -490,7 +514,7 @@
     Windows, Gaming, Devices, Search and News Advertising</t>
       </text>
     </comment>
-    <comment ref="O29" authorId="42" shapeId="0" xr:uid="{F728FAC2-51F0-4023-AB40-41F83CEF5C89}">
+    <comment ref="O29" authorId="44" shapeId="0" xr:uid="{F728FAC2-51F0-4023-AB40-41F83CEF5C89}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -498,7 +522,7 @@
     13314 prior</t>
       </text>
     </comment>
-    <comment ref="T29" authorId="43" shapeId="0" xr:uid="{A9249A39-B9EC-4BC7-B87E-1B27108C92D8}">
+    <comment ref="T29" authorId="45" shapeId="0" xr:uid="{A9249A39-B9EC-4BC7-B87E-1B27108C92D8}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -508,7 +532,7 @@
 Surface "execution challenges" on new product launches</t>
       </text>
     </comment>
-    <comment ref="U29" authorId="44" shapeId="0" xr:uid="{246E0C01-DF1D-4F91-A337-4DE00EFEDDC8}">
+    <comment ref="U29" authorId="46" shapeId="0" xr:uid="{246E0C01-DF1D-4F91-A337-4DE00EFEDDC8}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -516,7 +540,7 @@
     FQ223 guidance: 11.9-12.3B</t>
       </text>
     </comment>
-    <comment ref="V29" authorId="45" shapeId="0" xr:uid="{730404D6-8355-478B-BCFF-9D938DC1FD29}">
+    <comment ref="V29" authorId="47" shapeId="0" xr:uid="{730404D6-8355-478B-BCFF-9D938DC1FD29}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -525,7 +549,7 @@
 Xandr acquisition benefit</t>
       </text>
     </comment>
-    <comment ref="W29" authorId="46" shapeId="0" xr:uid="{DCFC0E54-F0B5-4901-BBC6-12237E7E3B9E}">
+    <comment ref="W29" authorId="48" shapeId="0" xr:uid="{DCFC0E54-F0B5-4901-BBC6-12237E7E3B9E}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -534,7 +558,7 @@
 Was 13666, recast to 11278</t>
       </text>
     </comment>
-    <comment ref="X29" authorId="47" shapeId="0" xr:uid="{3513708C-C4BB-45CB-8048-7F460E607C81}">
+    <comment ref="X29" authorId="49" shapeId="0" xr:uid="{3513708C-C4BB-45CB-8048-7F460E607C81}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -542,7 +566,7 @@
     Was 16,891</t>
       </text>
     </comment>
-    <comment ref="Y29" authorId="48" shapeId="0" xr:uid="{1BD8C4AA-87BE-4895-8BF4-FDA372A05357}">
+    <comment ref="Y29" authorId="50" shapeId="0" xr:uid="{1BD8C4AA-87BE-4895-8BF4-FDA372A05357}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -550,7 +574,7 @@
     Recast from 15580</t>
       </text>
     </comment>
-    <comment ref="Z29" authorId="49" shapeId="0" xr:uid="{73C79220-E738-4AD3-8A1D-907731BF1F5A}">
+    <comment ref="Z29" authorId="51" shapeId="0" xr:uid="{73C79220-E738-4AD3-8A1D-907731BF1F5A}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -558,7 +582,7 @@
     Recast from 15,895</t>
       </text>
     </comment>
-    <comment ref="AA29" authorId="50" shapeId="0" xr:uid="{76D53B89-C9A8-4A1F-A500-58B63D0047E4}">
+    <comment ref="AA29" authorId="52" shapeId="0" xr:uid="{76D53B89-C9A8-4A1F-A500-58B63D0047E4}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -566,7 +590,7 @@
     Q4 guidance: 14.9-15.3</t>
       </text>
     </comment>
-    <comment ref="AB29" authorId="51" shapeId="0" xr:uid="{48B23987-2CE7-423E-ACAE-6D661625B256}">
+    <comment ref="AB29" authorId="53" shapeId="0" xr:uid="{48B23987-2CE7-423E-ACAE-6D661625B256}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -574,7 +598,7 @@
     Q1 guidance: 13.85B-14.25B</t>
       </text>
     </comment>
-    <comment ref="AC29" authorId="52" shapeId="0" xr:uid="{6A8206A7-827A-4B9C-8CF5-46B679BA4558}">
+    <comment ref="AC29" authorId="54" shapeId="0" xr:uid="{6A8206A7-827A-4B9C-8CF5-46B679BA4558}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -582,7 +606,15 @@
     Q2 guidance:: 12.4B-12.8B </t>
       </text>
     </comment>
-    <comment ref="AM29" authorId="53" shapeId="0" xr:uid="{1C31850E-87A1-42A5-A544-D7C66ECB0D78}">
+    <comment ref="AF29" authorId="55" shapeId="0" xr:uid="{14D854E7-BAC8-4D23-9C78-D47A63D064F3}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Q1 guidance: 13.95-14.45</t>
+      </text>
+    </comment>
+    <comment ref="AM29" authorId="56" shapeId="0" xr:uid="{1C31850E-87A1-42A5-A544-D7C66ECB0D78}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -590,7 +622,7 @@
     Hardware 254m</t>
       </text>
     </comment>
-    <comment ref="AN29" authorId="54" shapeId="0" xr:uid="{6CD6DA57-15E4-4617-9E8A-DE627D4291F4}">
+    <comment ref="AN29" authorId="57" shapeId="0" xr:uid="{6CD6DA57-15E4-4617-9E8A-DE627D4291F4}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -598,7 +630,7 @@
     Hardware 233m</t>
       </text>
     </comment>
-    <comment ref="AO29" authorId="55" shapeId="0" xr:uid="{530E3A34-4790-4FEE-B8A2-EEE361836B57}">
+    <comment ref="AO29" authorId="58" shapeId="0" xr:uid="{530E3A34-4790-4FEE-B8A2-EEE361836B57}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -606,7 +638,7 @@
     Hardware 203m</t>
       </text>
     </comment>
-    <comment ref="T33" authorId="56" shapeId="0" xr:uid="{6550F107-B2DD-468B-9840-A88B103B8C6E}">
+    <comment ref="T33" authorId="59" shapeId="0" xr:uid="{6550F107-B2DD-468B-9840-A88B103B8C6E}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -615,7 +647,7 @@
 US weaker than expected</t>
       </text>
     </comment>
-    <comment ref="U33" authorId="57" shapeId="0" xr:uid="{B0B4B47A-77DB-4469-A3F3-BA8FF53995B8}">
+    <comment ref="U33" authorId="60" shapeId="0" xr:uid="{B0B4B47A-77DB-4469-A3F3-BA8FF53995B8}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -624,7 +656,7 @@
 Q223 guidance: 50.5-51.5B</t>
       </text>
     </comment>
-    <comment ref="V33" authorId="58" shapeId="0" xr:uid="{672EF133-CF99-4F62-BC53-D74F59EFAF45}">
+    <comment ref="V33" authorId="61" shapeId="0" xr:uid="{672EF133-CF99-4F62-BC53-D74F59EFAF45}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -633,7 +665,24 @@
 FQ323 Guidance: 54.850-55.80B</t>
       </text>
     </comment>
-    <comment ref="BP33" authorId="59" shapeId="0" xr:uid="{5ABABD65-6006-454E-8377-B6AC9472B498}">
+    <comment ref="AE33" authorId="62" shapeId="0" xr:uid="{35883118-41B9-4E5B-B10B-13A3DA011BA4}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    10/29/25 75550 consensus</t>
+      </text>
+    </comment>
+    <comment ref="AF33" authorId="63" shapeId="0" xr:uid="{7F4F4845-E039-4FA5-97EA-E3560B883DA3}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    80222 consensus 10/29
+Q1 guidance: 79.5-80.6B</t>
+      </text>
+    </comment>
+    <comment ref="BP33" authorId="64" shapeId="0" xr:uid="{5ABABD65-6006-454E-8377-B6AC9472B498}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -641,7 +690,7 @@
     March 2022 - Nuance deal closes</t>
       </text>
     </comment>
-    <comment ref="W36" authorId="60" shapeId="0" xr:uid="{667BC7EE-5E86-47FC-B964-2C031A25E303}">
+    <comment ref="W36" authorId="65" shapeId="0" xr:uid="{667BC7EE-5E86-47FC-B964-2C031A25E303}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -649,7 +698,7 @@
     16.6-16.8B - Q423</t>
       </text>
     </comment>
-    <comment ref="BS38" authorId="61" shapeId="0" xr:uid="{4CE52B0D-7FB3-47B3-B571-475342092488}">
+    <comment ref="BS38" authorId="66" shapeId="0" xr:uid="{4CE52B0D-7FB3-47B3-B571-475342092488}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -657,7 +706,7 @@
     300m on quantum -- WSJ</t>
       </text>
     </comment>
-    <comment ref="AB41" authorId="62" shapeId="0" xr:uid="{E1D462E3-FE87-45D3-BF08-737DAD82C45D}">
+    <comment ref="AB41" authorId="67" shapeId="0" xr:uid="{E1D462E3-FE87-45D3-BF08-737DAD82C45D}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -665,7 +714,7 @@
     Q1 guidance: 16.4-16.5B</t>
       </text>
     </comment>
-    <comment ref="BS42" authorId="63" shapeId="0" xr:uid="{7492A336-ABB9-4529-8350-AF762E5855FF}">
+    <comment ref="BS42" authorId="68" shapeId="0" xr:uid="{7492A336-ABB9-4529-8350-AF762E5855FF}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -673,7 +722,15 @@
     Expect flat OM% y/y</t>
       </text>
     </comment>
-    <comment ref="V47" authorId="64" shapeId="0" xr:uid="{48518769-DF2C-4CE7-8344-8EDB6814ABC3}">
+    <comment ref="AE43" authorId="69" shapeId="0" xr:uid="{4E294EC4-BE43-4E60-A4B5-9C95B46B99AF}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Equity method losses in OpenAI</t>
+      </text>
+    </comment>
+    <comment ref="V47" authorId="70" shapeId="0" xr:uid="{48518769-DF2C-4CE7-8344-8EDB6814ABC3}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -681,7 +738,23 @@
     2.69 +23% cc</t>
       </text>
     </comment>
-    <comment ref="BT47" authorId="65" shapeId="0" xr:uid="{0B1C80B2-A99F-49BC-9191-A0A5F60188E6}">
+    <comment ref="AE47" authorId="71" shapeId="0" xr:uid="{EA740F5A-2BED-4510-A7C4-E95F65795F3A}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    3.68 consensus 10/29</t>
+      </text>
+    </comment>
+    <comment ref="AF47" authorId="72" shapeId="0" xr:uid="{7F99F30D-CC1F-42AF-8158-A4F78646B952}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    3.83 consensus 10/29/25</t>
+      </text>
+    </comment>
+    <comment ref="BT47" authorId="73" shapeId="0" xr:uid="{0B1C80B2-A99F-49BC-9191-A0A5F60188E6}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -689,7 +762,7 @@
     13.39 7/7/25</t>
       </text>
     </comment>
-    <comment ref="BU47" authorId="66" shapeId="0" xr:uid="{885AFC63-6D78-4BB2-A861-4B904F8487BB}">
+    <comment ref="BU47" authorId="74" shapeId="0" xr:uid="{885AFC63-6D78-4BB2-A861-4B904F8487BB}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -697,7 +770,7 @@
     15.16 consensus 7-7-25</t>
       </text>
     </comment>
-    <comment ref="BV47" authorId="67" shapeId="0" xr:uid="{5CB2A726-6A99-4883-BF78-BAC1241A440D}">
+    <comment ref="BV47" authorId="75" shapeId="0" xr:uid="{5CB2A726-6A99-4883-BF78-BAC1241A440D}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -729,7 +802,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T51" authorId="68" shapeId="0" xr:uid="{207240C6-AA0E-47C1-A8DC-C70F3CF7F6CF}">
+    <comment ref="T51" authorId="76" shapeId="0" xr:uid="{207240C6-AA0E-47C1-A8DC-C70F3CF7F6CF}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -737,7 +810,7 @@
     Bookings +4% y/y</t>
       </text>
     </comment>
-    <comment ref="V53" authorId="69" shapeId="0" xr:uid="{615EEB63-0CBB-48DD-AEFA-DCC9511390CB}">
+    <comment ref="V53" authorId="77" shapeId="0" xr:uid="{615EEB63-0CBB-48DD-AEFA-DCC9511390CB}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -2198,7 +2271,7 @@
     <t>FQ426</t>
   </si>
   <si>
-    <t>Q225</t>
+    <t>Q325</t>
   </si>
 </sst>
 </file>
@@ -2447,16 +2520,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>62497</xdr:colOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>51453</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>8758</xdr:rowOff>
+      <xdr:rowOff>47410</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>62497</xdr:colOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>51453</xdr:colOff>
       <xdr:row>121</xdr:row>
-      <xdr:rowOff>37333</xdr:rowOff>
+      <xdr:rowOff>75985</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2471,8 +2544,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21148876" y="8758"/>
-          <a:ext cx="0" cy="19420161"/>
+          <a:off x="21768453" y="47410"/>
+          <a:ext cx="0" cy="19603140"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2946,6 +3019,9 @@
   <threadedComment ref="AC27" dT="2025-03-17T12:35:18.93" personId="{2ADAC7E3-86EF-4E60-96A3-ED0BEE011F1E}" id="{4186E1B7-27BA-4064-8D1E-8ED4CB51C8F1}">
     <text>Q2 guidance: 29.4-29.7B</text>
   </threadedComment>
+  <threadedComment ref="AF27" dT="2025-10-29T22:21:14.33" personId="{2ADAC7E3-86EF-4E60-96A3-ED0BEE011F1E}" id="{84606C58-4C9A-4115-A0B2-4BCBFC0DF51B}">
+    <text>Q1 guidance: 33.3-33.6B guidance</text>
+  </threadedComment>
   <threadedComment ref="BR27" dT="2023-09-28T18:19:04.32" personId="{2ADAC7E3-86EF-4E60-96A3-ED0BEE011F1E}" id="{6C2A9AED-575A-4447-8CAD-2E4A869395ED}">
     <text>Dynamics $5B
 LinkedIn $15B</text>
@@ -2984,6 +3060,9 @@
   </threadedComment>
   <threadedComment ref="AC28" dT="2025-03-17T12:35:32.90" personId="{2ADAC7E3-86EF-4E60-96A3-ED0BEE011F1E}" id="{D794CECC-1BAE-4B21-8F7F-C698B1CC85A9}">
     <text>Q2 guidance: 25.9-26.2B</text>
+  </threadedComment>
+  <threadedComment ref="AF28" dT="2025-10-29T22:21:02.28" personId="{2ADAC7E3-86EF-4E60-96A3-ED0BEE011F1E}" id="{6A2619C1-69D1-4798-B8E6-F50765CC9231}">
+    <text>Q1 guidance: 32.25-32.55B</text>
   </threadedComment>
   <threadedComment ref="B29" dT="2023-09-28T17:34:02.74" personId="{2ADAC7E3-86EF-4E60-96A3-ED0BEE011F1E}" id="{EC9B7190-CE1A-4E78-A2EF-A3F3AADAB339}">
     <text>Windows, Gaming, Devices, Search and News Advertising</text>
@@ -3025,6 +3104,9 @@
   <threadedComment ref="AC29" dT="2025-03-17T12:35:48.01" personId="{2ADAC7E3-86EF-4E60-96A3-ED0BEE011F1E}" id="{6A8206A7-827A-4B9C-8CF5-46B679BA4558}">
     <text xml:space="preserve">Q2 guidance:: 12.4B-12.8B </text>
   </threadedComment>
+  <threadedComment ref="AF29" dT="2025-10-29T22:20:41.72" personId="{2ADAC7E3-86EF-4E60-96A3-ED0BEE011F1E}" id="{14D854E7-BAC8-4D23-9C78-D47A63D064F3}">
+    <text>Q1 guidance: 13.95-14.45</text>
+  </threadedComment>
   <threadedComment ref="AM29" dT="2023-04-30T03:57:38.72" personId="{2ADAC7E3-86EF-4E60-96A3-ED0BEE011F1E}" id="{1C31850E-87A1-42A5-A544-D7C66ECB0D78}">
     <text>Hardware 254m</text>
   </threadedComment>
@@ -3046,6 +3128,13 @@
     <text>4/24/23: 54.84B consensus
 FQ323 Guidance: 54.850-55.80B</text>
   </threadedComment>
+  <threadedComment ref="AE33" dT="2025-10-29T16:46:15.83" personId="{2ADAC7E3-86EF-4E60-96A3-ED0BEE011F1E}" id="{35883118-41B9-4E5B-B10B-13A3DA011BA4}">
+    <text>10/29/25 75550 consensus</text>
+  </threadedComment>
+  <threadedComment ref="AF33" dT="2025-10-29T16:46:44.54" personId="{2ADAC7E3-86EF-4E60-96A3-ED0BEE011F1E}" id="{7F4F4845-E039-4FA5-97EA-E3560B883DA3}">
+    <text>80222 consensus 10/29
+Q1 guidance: 79.5-80.6B</text>
+  </threadedComment>
   <threadedComment ref="BP33" dT="2024-09-28T03:46:02.83" personId="{2ADAC7E3-86EF-4E60-96A3-ED0BEE011F1E}" id="{5ABABD65-6006-454E-8377-B6AC9472B498}">
     <text>March 2022 - Nuance deal closes</text>
   </threadedComment>
@@ -3061,8 +3150,17 @@
   <threadedComment ref="BS42" dT="2023-09-28T18:49:03.40" personId="{2ADAC7E3-86EF-4E60-96A3-ED0BEE011F1E}" id="{7492A336-ABB9-4529-8350-AF762E5855FF}">
     <text>Expect flat OM% y/y</text>
   </threadedComment>
+  <threadedComment ref="AE43" dT="2025-10-29T22:18:36.34" personId="{2ADAC7E3-86EF-4E60-96A3-ED0BEE011F1E}" id="{4E294EC4-BE43-4E60-A4B5-9C95B46B99AF}">
+    <text>Equity method losses in OpenAI</text>
+  </threadedComment>
   <threadedComment ref="V47" dT="2023-09-28T18:39:40.83" personId="{2ADAC7E3-86EF-4E60-96A3-ED0BEE011F1E}" id="{48518769-DF2C-4CE7-8344-8EDB6814ABC3}">
     <text>2.69 +23% cc</text>
+  </threadedComment>
+  <threadedComment ref="AE47" dT="2025-10-29T16:47:23.00" personId="{2ADAC7E3-86EF-4E60-96A3-ED0BEE011F1E}" id="{EA740F5A-2BED-4510-A7C4-E95F65795F3A}">
+    <text>3.68 consensus 10/29</text>
+  </threadedComment>
+  <threadedComment ref="AF47" dT="2025-10-29T16:47:34.37" personId="{2ADAC7E3-86EF-4E60-96A3-ED0BEE011F1E}" id="{7F99F30D-CC1F-42AF-8158-A4F78646B952}">
+    <text>3.83 consensus 10/29/25</text>
   </threadedComment>
   <threadedComment ref="BT47" dT="2025-07-07T14:16:09.59" personId="{2ADAC7E3-86EF-4E60-96A3-ED0BEE011F1E}" id="{0B1C80B2-A99F-49BC-9191-A0A5F60188E6}">
     <text>13.39 7/7/25</text>
@@ -3086,8 +3184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F630B22-A151-4F95-B31A-D44A037C9EC9}">
   <dimension ref="B2:M41"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
@@ -3105,7 +3203,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="1">
-        <v>501.33</v>
+        <v>523</v>
       </c>
     </row>
     <row r="3" spans="2:13">
@@ -3119,7 +3217,7 @@
         <v>1</v>
       </c>
       <c r="L3" s="4">
-        <v>7461</v>
+        <v>7466</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>482</v>
@@ -3137,7 +3235,7 @@
       </c>
       <c r="L4" s="4">
         <f>L2*L3</f>
-        <v>3740423.13</v>
+        <v>3904718</v>
       </c>
     </row>
     <row r="5" spans="2:13">
@@ -3148,7 +3246,7 @@
         <v>3</v>
       </c>
       <c r="L5" s="4">
-        <v>109970</v>
+        <v>113477</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>482</v>
@@ -3162,7 +3260,7 @@
         <v>4</v>
       </c>
       <c r="L6" s="4">
-        <v>43151</v>
+        <v>43208</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>482</v>
@@ -3174,7 +3272,7 @@
       </c>
       <c r="L7" s="4">
         <f>L4-L5+L6</f>
-        <v>3673604.13</v>
+        <v>3834449</v>
       </c>
     </row>
     <row r="8" spans="2:13">
@@ -3411,11 +3509,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F54F587-D152-4A1D-9598-E8BABDD84FA8}">
   <dimension ref="A1:EE126"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="BK83" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="W4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="BU112" sqref="BU112"/>
+      <selection pane="bottomRight" activeCell="AE28" sqref="AE28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
@@ -3947,7 +4045,9 @@
       <c r="AD4" s="2">
         <v>368</v>
       </c>
-      <c r="AE4" s="2"/>
+      <c r="AE4" s="2">
+        <v>392</v>
+      </c>
       <c r="AF4" s="2"/>
       <c r="AG4" s="2"/>
       <c r="AH4" s="2"/>
@@ -4013,7 +4113,7 @@
         <v>0.16</v>
       </c>
       <c r="T5" s="21">
-        <f t="shared" ref="T5:AD5" si="1">+T4/P4-1</f>
+        <f t="shared" ref="T5:AE5" si="1">+T4/P4-1</f>
         <v>0.28571428571428581</v>
       </c>
       <c r="U5" s="21">
@@ -4056,7 +4156,10 @@
         <f t="shared" si="1"/>
         <v>0.36802973977695164</v>
       </c>
-      <c r="AE5" s="20"/>
+      <c r="AE5" s="21">
+        <f t="shared" si="1"/>
+        <v>0.5135135135135136</v>
+      </c>
       <c r="AF5" s="20"/>
       <c r="AG5" s="20"/>
       <c r="AH5" s="20"/>
@@ -4265,8 +4368,7 @@
         <v>46700</v>
       </c>
       <c r="AE8" s="7">
-        <f>+AA8*1.2</f>
-        <v>46680</v>
+        <v>49100</v>
       </c>
       <c r="AF8" s="7">
         <f>+AB8*1.2</f>
@@ -4413,7 +4515,9 @@
         <f t="shared" ref="AD9:AD19" si="2">+Z9*1.1</f>
         <v>38758.5</v>
       </c>
-      <c r="AE9" s="5"/>
+      <c r="AE9" s="5">
+        <v>28872</v>
+      </c>
       <c r="AF9" s="5"/>
       <c r="AG9" s="5"/>
       <c r="AH9" s="5"/>
@@ -4553,7 +4657,9 @@
         <f t="shared" si="2"/>
         <v>5058.9000000000005</v>
       </c>
-      <c r="AE10" s="5"/>
+      <c r="AE10" s="5">
+        <v>23966</v>
+      </c>
       <c r="AF10" s="5"/>
       <c r="AG10" s="5"/>
       <c r="AH10" s="5"/>
@@ -4693,7 +4799,9 @@
         <f t="shared" si="2"/>
         <v>9473.2000000000007</v>
       </c>
-      <c r="AE11" s="5"/>
+      <c r="AE11" s="5">
+        <v>4551</v>
+      </c>
       <c r="AF11" s="5"/>
       <c r="AG11" s="5"/>
       <c r="AH11" s="5"/>
@@ -4833,7 +4941,9 @@
         <f t="shared" si="2"/>
         <v>5524.2000000000007</v>
       </c>
-      <c r="AE12" s="5"/>
+      <c r="AE12" s="5">
+        <v>5508</v>
+      </c>
       <c r="AF12" s="5"/>
       <c r="AG12" s="5"/>
       <c r="AH12" s="5"/>
@@ -4973,7 +5083,9 @@
         <f t="shared" si="2"/>
         <v>4676.1000000000004</v>
       </c>
-      <c r="AE13" s="5"/>
+      <c r="AE13" s="5">
+        <v>4714</v>
+      </c>
       <c r="AF13" s="5"/>
       <c r="AG13" s="5"/>
       <c r="AH13" s="5"/>
@@ -5113,7 +5225,9 @@
         <f t="shared" si="2"/>
         <v>3581.6000000000004</v>
       </c>
-      <c r="AE14" s="5"/>
+      <c r="AE14" s="5">
+        <v>3697</v>
+      </c>
       <c r="AF14" s="5"/>
       <c r="AG14" s="5"/>
       <c r="AH14" s="5"/>
@@ -5249,7 +5363,9 @@
         <f t="shared" si="2"/>
         <v>2059.2000000000003</v>
       </c>
-      <c r="AE15" s="5"/>
+      <c r="AE15" s="5">
+        <v>2022</v>
+      </c>
       <c r="AF15" s="5"/>
       <c r="AG15" s="5"/>
       <c r="AH15" s="5"/>
@@ -5383,7 +5499,9 @@
         <f t="shared" si="2"/>
         <v>1705.0000000000002</v>
       </c>
-      <c r="AE16" s="5"/>
+      <c r="AE16" s="5">
+        <v>2136</v>
+      </c>
       <c r="AF16" s="5"/>
       <c r="AG16" s="5"/>
       <c r="AH16" s="5"/>
@@ -5608,7 +5726,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AE18" s="5"/>
+      <c r="AE18" s="5">
+        <v>2204</v>
+      </c>
       <c r="AF18" s="5"/>
       <c r="AG18" s="5"/>
       <c r="AH18" s="5"/>
@@ -5724,7 +5844,9 @@
         <f t="shared" si="2"/>
         <v>14.3</v>
       </c>
-      <c r="AE19" s="5"/>
+      <c r="AE19" s="5">
+        <v>3</v>
+      </c>
       <c r="AF19" s="5"/>
       <c r="AG19" s="5"/>
       <c r="AH19" s="5"/>
@@ -5843,7 +5965,7 @@
       <c r="R21" s="21"/>
       <c r="S21" s="21"/>
       <c r="T21" s="21">
-        <f t="shared" ref="T21:AD21" si="9">T8/P8-1</f>
+        <f t="shared" ref="T21:AC21" si="9">T8/P8-1</f>
         <v>0.2262443438914028</v>
       </c>
       <c r="U21" s="21">
@@ -5883,10 +6005,13 @@
         <v>0.20797720797720798</v>
       </c>
       <c r="AD21" s="21">
-        <f t="shared" si="9"/>
+        <f>AD8/Z8-1</f>
         <v>0.26902173913043481</v>
       </c>
-      <c r="AE21" s="20"/>
+      <c r="AE21" s="21">
+        <f>AE8/AA8-1</f>
+        <v>0.26221079691516702</v>
+      </c>
       <c r="AF21" s="20"/>
       <c r="AG21" s="20"/>
       <c r="AH21" s="20"/>
@@ -6178,6 +6303,12 @@
         <f>120810-AC27-AB27-AA27</f>
         <v>33112</v>
       </c>
+      <c r="AE27" s="4">
+        <v>33020</v>
+      </c>
+      <c r="AF27" s="4">
+        <v>33450</v>
+      </c>
       <c r="AM27" s="4">
         <v>1401</v>
       </c>
@@ -6289,6 +6420,12 @@
       <c r="AD28" s="4">
         <v>29878</v>
       </c>
+      <c r="AE28" s="4">
+        <v>30897</v>
+      </c>
+      <c r="AF28" s="4">
+        <v>32400</v>
+      </c>
       <c r="BO28" s="5"/>
       <c r="BP28" s="5">
         <f>SUM(K28:N28)</f>
@@ -6391,6 +6528,12 @@
       <c r="AD29" s="4">
         <v>13451</v>
       </c>
+      <c r="AE29" s="4">
+        <v>13756</v>
+      </c>
+      <c r="AF29" s="4">
+        <v>14200</v>
+      </c>
       <c r="AM29" s="4">
         <v>1104</v>
       </c>
@@ -6511,15 +6654,14 @@
         <v>17136</v>
       </c>
       <c r="AE31" s="4">
-        <f t="shared" ref="AE31:AH32" si="12">+AA31*1.1</f>
-        <v>16799.2</v>
+        <v>15922</v>
       </c>
       <c r="AF31" s="4">
-        <f t="shared" si="12"/>
-        <v>17840.900000000001</v>
+        <f>+AB31*1.15</f>
+        <v>18651.849999999999</v>
       </c>
       <c r="AG31" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="AG31:AH32" si="12">+AC31*1.1</f>
         <v>16850.900000000001</v>
       </c>
       <c r="AH31" s="4">
@@ -6671,12 +6813,11 @@
         <v>59305</v>
       </c>
       <c r="AE32" s="4">
-        <f t="shared" si="12"/>
-        <v>55344.3</v>
+        <v>61751</v>
       </c>
       <c r="AF32" s="4">
-        <f t="shared" si="12"/>
-        <v>58754.3</v>
+        <f>+AB32*1.15</f>
+        <v>61424.95</v>
       </c>
       <c r="AG32" s="4">
         <f t="shared" si="12"/>
@@ -6860,11 +7001,11 @@
       </c>
       <c r="AE33" s="7">
         <f t="shared" si="21"/>
-        <v>72143.5</v>
+        <v>77673</v>
       </c>
       <c r="AF33" s="7">
         <f t="shared" si="21"/>
-        <v>76595.200000000012</v>
+        <v>80076.799999999988</v>
       </c>
       <c r="AG33" s="7">
         <f t="shared" si="21"/>
@@ -7101,6 +7242,9 @@
       <c r="AD34" s="4">
         <v>3314</v>
       </c>
+      <c r="AE34" s="4">
+        <v>2922</v>
+      </c>
       <c r="BK34" s="4">
         <v>17880</v>
       </c>
@@ -7245,6 +7389,9 @@
       <c r="AD35" s="4">
         <v>20700</v>
       </c>
+      <c r="AE35" s="4">
+        <v>21121</v>
+      </c>
       <c r="BK35" s="4">
         <v>14900</v>
       </c>
@@ -7417,6 +7564,22 @@
         <f t="shared" si="31"/>
         <v>24014</v>
       </c>
+      <c r="AE36" s="4">
+        <f t="shared" ref="AE36" si="32">+AE34+AE35</f>
+        <v>24043</v>
+      </c>
+      <c r="AF36" s="4">
+        <f>+AF33-AF37</f>
+        <v>24023.040000000001</v>
+      </c>
+      <c r="AG36" s="4">
+        <f>+AG33-AG37</f>
+        <v>23121.780000000006</v>
+      </c>
+      <c r="AH36" s="4">
+        <f>+AH33-AH37</f>
+        <v>25225.530000000006</v>
+      </c>
       <c r="AK36" s="4">
         <v>253</v>
       </c>
@@ -7496,31 +7659,31 @@
         <v>33038</v>
       </c>
       <c r="BK36" s="5">
-        <f t="shared" ref="BK36" si="32">BK34+BK35</f>
+        <f t="shared" ref="BK36" si="33">BK34+BK35</f>
         <v>32780</v>
       </c>
       <c r="BL36" s="5">
-        <f t="shared" ref="BL36:BM36" si="33">BL34+BL35</f>
+        <f t="shared" ref="BL36:BM36" si="34">BL34+BL35</f>
         <v>34261</v>
       </c>
       <c r="BM36" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>38353</v>
       </c>
       <c r="BN36" s="5">
-        <f t="shared" ref="BN36:BO36" si="34">BN34+BN35</f>
+        <f t="shared" ref="BN36:BO36" si="35">BN34+BN35</f>
         <v>42910</v>
       </c>
       <c r="BO36" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>46078</v>
       </c>
       <c r="BP36" s="5">
-        <f t="shared" ref="BP36:BQ36" si="35">BP34+BP35</f>
+        <f t="shared" ref="BP36:BQ36" si="36">BP34+BP35</f>
         <v>52232</v>
       </c>
       <c r="BQ36" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>62650</v>
       </c>
       <c r="BR36" s="5">
@@ -7536,23 +7699,23 @@
         <v>87831</v>
       </c>
       <c r="BU36" s="5">
-        <f t="shared" ref="BU36:BY36" si="36">+BU33-BU37</f>
+        <f t="shared" ref="BU36:BY36" si="37">+BU33-BU37</f>
         <v>108819.42059999998</v>
       </c>
       <c r="BV36" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>127647.99148199995</v>
       </c>
       <c r="BW36" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>143896.00389845995</v>
       </c>
       <c r="BX36" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>156543.67651621375</v>
       </c>
       <c r="BY36" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>170403.85856258019</v>
       </c>
     </row>
@@ -7561,43 +7724,43 @@
         <v>22</v>
       </c>
       <c r="C37" s="5">
-        <f t="shared" ref="C37:I37" si="37">+C33-C36</f>
+        <f t="shared" ref="C37:I37" si="38">+C33-C36</f>
         <v>19179</v>
       </c>
       <c r="D37" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>20048</v>
       </c>
       <c r="E37" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>20401</v>
       </c>
       <c r="F37" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>23305</v>
       </c>
       <c r="G37" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>22649</v>
       </c>
       <c r="H37" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>24548</v>
       </c>
       <c r="I37" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>24046</v>
       </c>
       <c r="J37" s="5">
-        <f t="shared" ref="J37" si="38">J33-J36</f>
+        <f t="shared" ref="J37" si="39">J33-J36</f>
         <v>25694</v>
       </c>
       <c r="K37" s="5">
-        <f t="shared" ref="K37:L37" si="39">K33-K36</f>
+        <f t="shared" ref="K37:L37" si="40">K33-K36</f>
         <v>26152</v>
       </c>
       <c r="L37" s="5">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>28882</v>
       </c>
       <c r="M37" s="5">
@@ -7605,23 +7768,23 @@
         <v>28661</v>
       </c>
       <c r="N37" s="5">
-        <f t="shared" ref="N37:Q37" si="40">N33-N36</f>
+        <f t="shared" ref="N37:Q37" si="41">N33-N36</f>
         <v>32161</v>
       </c>
       <c r="O37" s="5">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>31671</v>
       </c>
       <c r="P37" s="5">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>34768</v>
       </c>
       <c r="Q37" s="5">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>33745</v>
       </c>
       <c r="R37" s="5">
-        <f t="shared" ref="R37" si="41">R33-R36</f>
+        <f t="shared" ref="R37" si="42">R33-R36</f>
         <v>35436</v>
       </c>
       <c r="S37" s="5">
@@ -7641,44 +7804,44 @@
         <v>39394</v>
       </c>
       <c r="W37" s="4">
-        <f t="shared" ref="W37:AD37" si="42">+W33-W36</f>
+        <f t="shared" ref="W37:AD37" si="43">+W33-W36</f>
         <v>40215</v>
       </c>
       <c r="X37" s="4">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>42397</v>
       </c>
       <c r="Y37" s="4">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>43353</v>
       </c>
       <c r="Z37" s="4">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>45043</v>
       </c>
       <c r="AA37" s="4">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>45486</v>
       </c>
       <c r="AB37" s="4">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>47833</v>
       </c>
       <c r="AC37" s="4">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>48147</v>
       </c>
       <c r="AD37" s="4">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>52427</v>
       </c>
       <c r="AE37" s="4">
-        <f>+AE33*0.7</f>
-        <v>50500.45</v>
+        <f t="shared" ref="AE37" si="44">+AE33-AE36</f>
+        <v>53630</v>
       </c>
       <c r="AF37" s="4">
         <f>+AF33*0.7</f>
-        <v>53616.640000000007</v>
+        <v>56053.759999999987</v>
       </c>
       <c r="AG37" s="4">
         <f>+AG33*0.7</f>
@@ -7689,135 +7852,135 @@
         <v>58859.57</v>
       </c>
       <c r="AK37" s="4">
-        <f t="shared" ref="AK37:AQ37" si="43">AK33-AK36</f>
+        <f t="shared" ref="AK37:AQ37" si="45">AK33-AK36</f>
         <v>930</v>
       </c>
       <c r="AL37" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1481</v>
       </c>
       <c r="AM37" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>2292</v>
       </c>
       <c r="AN37" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>3120</v>
       </c>
       <c r="AO37" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>3886</v>
       </c>
       <c r="AP37" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>5060</v>
       </c>
       <c r="AQ37" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>7483</v>
       </c>
       <c r="AR37" s="4">
-        <f t="shared" ref="AR37" si="44">AR33-AR36</f>
+        <f t="shared" ref="AR37" si="46">AR33-AR36</f>
         <v>10273</v>
       </c>
       <c r="AS37" s="4">
-        <f t="shared" ref="AS37:BJ37" si="45">AS33-AS36</f>
+        <f t="shared" ref="AS37:BJ37" si="47">AS33-AS36</f>
         <v>13287</v>
       </c>
       <c r="AT37" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>16933</v>
       </c>
       <c r="AU37" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>19954</v>
       </c>
       <c r="AV37" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>21841</v>
       </c>
       <c r="AW37" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>23174</v>
       </c>
       <c r="AX37" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>26501</v>
       </c>
       <c r="AY37" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>30119</v>
       </c>
       <c r="AZ37" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>33588</v>
       </c>
       <c r="BA37" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>36632</v>
       </c>
       <c r="BB37" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>40429</v>
       </c>
       <c r="BC37" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>48822</v>
       </c>
       <c r="BD37" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>46282</v>
       </c>
       <c r="BE37" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>50089</v>
       </c>
       <c r="BF37" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>54366</v>
       </c>
       <c r="BG37" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>56193</v>
       </c>
       <c r="BH37" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>57600</v>
       </c>
       <c r="BI37" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>59899</v>
       </c>
       <c r="BJ37" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>60542</v>
       </c>
       <c r="BK37" s="5">
-        <f t="shared" ref="BK37" si="46">BK33-BK36</f>
+        <f t="shared" ref="BK37" si="48">BK33-BK36</f>
         <v>52540</v>
       </c>
       <c r="BL37" s="5">
-        <f t="shared" ref="BL37:BM37" si="47">BL33-BL36</f>
+        <f t="shared" ref="BL37:BM37" si="49">BL33-BL36</f>
         <v>62310</v>
       </c>
       <c r="BM37" s="5">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>72007</v>
       </c>
       <c r="BN37" s="5">
-        <f t="shared" ref="BN37:BO37" si="48">BN33-BN36</f>
+        <f t="shared" ref="BN37:BO37" si="50">BN33-BN36</f>
         <v>82933</v>
       </c>
       <c r="BO37" s="5">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>96937</v>
       </c>
       <c r="BP37" s="5">
-        <f t="shared" ref="BP37:BQ37" si="49">BP33-BP36</f>
+        <f t="shared" ref="BP37:BQ37" si="51">BP33-BP36</f>
         <v>115856</v>
       </c>
       <c r="BQ37" s="5">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>135620</v>
       </c>
       <c r="BR37" s="5">
@@ -7833,23 +7996,23 @@
         <v>193893</v>
       </c>
       <c r="BU37" s="5">
-        <f t="shared" ref="BU37:BY37" si="50">+BU33*0.67</f>
+        <f t="shared" ref="BU37:BY37" si="52">+BU33*0.67</f>
         <v>220936.39939999997</v>
       </c>
       <c r="BV37" s="5">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>259164.10391799998</v>
       </c>
       <c r="BW37" s="5">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>292152.49276353995</v>
       </c>
       <c r="BX37" s="5">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>317831.10080564616</v>
       </c>
       <c r="BY37" s="5">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>345971.47041493555</v>
       </c>
     </row>
@@ -7941,6 +8104,21 @@
       <c r="AD38" s="4">
         <v>8829</v>
       </c>
+      <c r="AE38" s="4">
+        <v>8146</v>
+      </c>
+      <c r="AF38" s="4">
+        <f t="shared" ref="AF38:AH40" si="53">+AB38*1.1</f>
+        <v>8708.7000000000007</v>
+      </c>
+      <c r="AG38" s="4">
+        <f t="shared" si="53"/>
+        <v>9017.8000000000011</v>
+      </c>
+      <c r="AH38" s="4">
+        <f t="shared" si="53"/>
+        <v>9711.9000000000015</v>
+      </c>
       <c r="AK38" s="4">
         <v>181</v>
       </c>
@@ -8039,11 +8217,11 @@
         <v>20716</v>
       </c>
       <c r="BQ38" s="5">
-        <f t="shared" ref="BQ38:BQ40" si="51">SUM(O38:R38)</f>
+        <f t="shared" ref="BQ38:BQ40" si="54">SUM(O38:R38)</f>
         <v>24512</v>
       </c>
       <c r="BR38" s="5">
-        <f t="shared" ref="BR38:BR40" si="52">SUM(S38:V38)</f>
+        <f t="shared" ref="BR38:BR40" si="55">SUM(S38:V38)</f>
         <v>27195</v>
       </c>
       <c r="BS38" s="5">
@@ -8055,23 +8233,23 @@
         <v>32488</v>
       </c>
       <c r="BU38" s="5">
-        <f t="shared" ref="BU38:BY38" si="53">+BT38*1.03</f>
+        <f t="shared" ref="BU38:BY38" si="56">+BT38*1.03</f>
         <v>33462.639999999999</v>
       </c>
       <c r="BV38" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>34466.519200000002</v>
       </c>
       <c r="BW38" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>35500.514776000004</v>
       </c>
       <c r="BX38" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>36565.530219280008</v>
       </c>
       <c r="BY38" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>37662.496125858408</v>
       </c>
     </row>
@@ -8163,6 +8341,21 @@
       <c r="AD39" s="4">
         <v>7285</v>
       </c>
+      <c r="AE39" s="4">
+        <v>5717</v>
+      </c>
+      <c r="AF39" s="4">
+        <f t="shared" si="53"/>
+        <v>7084.0000000000009</v>
+      </c>
+      <c r="AG39" s="4">
+        <f t="shared" si="53"/>
+        <v>6833.2000000000007</v>
+      </c>
+      <c r="AH39" s="4">
+        <f t="shared" si="53"/>
+        <v>8013.5000000000009</v>
+      </c>
       <c r="AK39" s="4">
         <v>317</v>
       </c>
@@ -8261,11 +8454,11 @@
         <v>20117</v>
       </c>
       <c r="BQ39" s="5">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>21825</v>
       </c>
       <c r="BR39" s="5">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>22759</v>
       </c>
       <c r="BS39" s="5">
@@ -8277,23 +8470,23 @@
         <v>25654</v>
       </c>
       <c r="BU39" s="5">
-        <f t="shared" ref="BU39:BY39" si="54">+BT39*1.03</f>
+        <f t="shared" ref="BU39:BY39" si="57">+BT39*1.03</f>
         <v>26423.62</v>
       </c>
       <c r="BV39" s="5">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>27216.328600000001</v>
       </c>
       <c r="BW39" s="5">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>28032.818458000002</v>
       </c>
       <c r="BX39" s="5">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>28873.803011740001</v>
       </c>
       <c r="BY39" s="5">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>29740.017102092203</v>
       </c>
     </row>
@@ -8385,6 +8578,21 @@
       <c r="AD40" s="4">
         <v>1990</v>
       </c>
+      <c r="AE40" s="4">
+        <v>1806</v>
+      </c>
+      <c r="AF40" s="4">
+        <f t="shared" si="53"/>
+        <v>2005.3000000000002</v>
+      </c>
+      <c r="AG40" s="4">
+        <f t="shared" si="53"/>
+        <v>1910.7</v>
+      </c>
+      <c r="AH40" s="4">
+        <f t="shared" si="53"/>
+        <v>2189</v>
+      </c>
       <c r="AK40" s="4">
         <v>39</v>
       </c>
@@ -8483,11 +8691,11 @@
         <v>5107</v>
       </c>
       <c r="BQ40" s="5">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>5900</v>
       </c>
       <c r="BR40" s="5">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>7575</v>
       </c>
       <c r="BS40" s="5">
@@ -8499,23 +8707,23 @@
         <v>7223</v>
       </c>
       <c r="BU40" s="5">
-        <f t="shared" ref="BU40:BY40" si="55">+BT40*1.03</f>
+        <f t="shared" ref="BU40:BY40" si="58">+BT40*1.03</f>
         <v>7439.6900000000005</v>
       </c>
       <c r="BV40" s="5">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>7662.8807000000006</v>
       </c>
       <c r="BW40" s="5">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>7892.7671210000008</v>
       </c>
       <c r="BX40" s="5">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>8129.5501346300007</v>
       </c>
       <c r="BY40" s="5">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>8373.4366386689017</v>
       </c>
     </row>
@@ -8524,59 +8732,59 @@
         <v>23</v>
       </c>
       <c r="C41" s="5">
-        <f t="shared" ref="C41:D41" si="56">SUM(C38:C40)</f>
+        <f t="shared" ref="C41:D41" si="59">SUM(C38:C40)</f>
         <v>9224</v>
       </c>
       <c r="D41" s="5">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>9790</v>
       </c>
       <c r="E41" s="5">
-        <f t="shared" ref="E41:F41" si="57">SUM(E38:E40)</f>
+        <f t="shared" ref="E41:F41" si="60">SUM(E38:E40)</f>
         <v>10060</v>
       </c>
       <c r="F41" s="5">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>10900</v>
       </c>
       <c r="G41" s="5">
-        <f t="shared" ref="G41:H41" si="58">SUM(G38:G40)</f>
+        <f t="shared" ref="G41:H41" si="61">SUM(G38:G40)</f>
         <v>9963</v>
       </c>
       <c r="H41" s="5">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>10657</v>
       </c>
       <c r="I41" s="5">
-        <f t="shared" ref="I41:J41" si="59">SUM(I38:I40)</f>
+        <f t="shared" ref="I41:J41" si="62">SUM(I38:I40)</f>
         <v>11071</v>
       </c>
       <c r="J41" s="5">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>12287</v>
       </c>
       <c r="K41" s="5">
-        <f t="shared" ref="K41:P41" si="60">SUM(K38:K40)</f>
+        <f t="shared" ref="K41:P41" si="63">SUM(K38:K40)</f>
         <v>10276</v>
       </c>
       <c r="L41" s="5">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>10985</v>
       </c>
       <c r="M41" s="5">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>11613</v>
       </c>
       <c r="N41" s="5">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>13066</v>
       </c>
       <c r="O41" s="5">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>11433</v>
       </c>
       <c r="P41" s="5">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>12521</v>
       </c>
       <c r="Q41" s="5">
@@ -8584,11 +8792,11 @@
         <v>13381</v>
       </c>
       <c r="R41" s="5">
-        <f t="shared" ref="R41:S41" si="61">SUM(R38:R40)</f>
+        <f t="shared" ref="R41:S41" si="64">SUM(R38:R40)</f>
         <v>14902</v>
       </c>
       <c r="S41" s="5">
-        <f t="shared" si="61"/>
+        <f t="shared" si="64"/>
         <v>13152</v>
       </c>
       <c r="T41" s="5">
@@ -8596,69 +8804,69 @@
         <v>14860</v>
       </c>
       <c r="U41" s="5">
-        <f t="shared" ref="U41:V41" si="62">SUM(U38:U40)</f>
+        <f t="shared" ref="U41:V41" si="65">SUM(U38:U40)</f>
         <v>14377</v>
       </c>
       <c r="V41" s="5">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>15140</v>
       </c>
       <c r="W41" s="5">
-        <f t="shared" ref="W41:Y41" si="63">SUM(W38:W40)</f>
+        <f t="shared" ref="W41:Y41" si="66">SUM(W38:W40)</f>
         <v>13320</v>
       </c>
       <c r="X41" s="5">
-        <f t="shared" si="63"/>
+        <f t="shared" si="66"/>
         <v>15365</v>
       </c>
       <c r="Y41" s="5">
-        <f t="shared" si="63"/>
+        <f t="shared" si="66"/>
         <v>15772</v>
       </c>
       <c r="Z41" s="5">
-        <f t="shared" ref="Z41:AE41" si="64">SUM(Z38:Z40)</f>
+        <f t="shared" ref="Z41:AE41" si="67">SUM(Z38:Z40)</f>
         <v>17118</v>
       </c>
       <c r="AA41" s="5">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>14934</v>
       </c>
       <c r="AB41" s="5">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>16180</v>
       </c>
       <c r="AC41" s="5">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>16147</v>
       </c>
       <c r="AD41" s="5">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>18104</v>
       </c>
       <c r="AE41" s="5">
-        <f t="shared" si="64"/>
-        <v>0</v>
+        <f t="shared" si="67"/>
+        <v>15669</v>
       </c>
       <c r="AF41" s="5">
-        <f t="shared" ref="AF41:AH41" si="65">SUM(AF38:AF40)</f>
-        <v>0</v>
+        <f t="shared" ref="AF41:AH41" si="68">SUM(AF38:AF40)</f>
+        <v>17798</v>
       </c>
       <c r="AG41" s="5">
-        <f t="shared" si="65"/>
-        <v>0</v>
+        <f t="shared" si="68"/>
+        <v>17761.7</v>
       </c>
       <c r="AH41" s="5">
-        <f t="shared" si="65"/>
-        <v>0</v>
+        <f t="shared" si="68"/>
+        <v>19914.400000000001</v>
       </c>
       <c r="AI41" s="5"/>
       <c r="AJ41" s="5"/>
       <c r="AK41" s="5">
-        <f t="shared" ref="AK41:AL41" si="66">AK38+AK39+AK40</f>
+        <f t="shared" ref="AK41:AL41" si="69">AK38+AK39+AK40</f>
         <v>537</v>
       </c>
       <c r="AL41" s="5">
-        <f t="shared" si="66"/>
+        <f t="shared" si="69"/>
         <v>831</v>
       </c>
       <c r="AM41" s="5">
@@ -8682,139 +8890,139 @@
         <v>4405</v>
       </c>
       <c r="AR41" s="5">
-        <f t="shared" ref="AR41" si="67">AR38+AR39+AR40</f>
+        <f t="shared" ref="AR41" si="70">AR38+AR39+AR40</f>
         <v>5143</v>
       </c>
       <c r="AS41" s="5">
-        <f t="shared" ref="AS41:BJ41" si="68">AS38+AS39+AS40</f>
+        <f t="shared" ref="AS41:BJ41" si="71">AS38+AS39+AS40</f>
         <v>6347</v>
       </c>
       <c r="AT41" s="5">
-        <f t="shared" si="68"/>
+        <f t="shared" si="71"/>
         <v>6890</v>
       </c>
       <c r="AU41" s="5">
-        <f t="shared" si="68"/>
+        <f t="shared" si="71"/>
         <v>8925</v>
       </c>
       <c r="AV41" s="5">
-        <f t="shared" si="68"/>
+        <f t="shared" si="71"/>
         <v>10121</v>
       </c>
       <c r="AW41" s="5">
-        <f t="shared" si="68"/>
+        <f t="shared" si="71"/>
         <v>11264</v>
       </c>
       <c r="AX41" s="5">
-        <f t="shared" si="68"/>
+        <f t="shared" si="71"/>
         <v>13284</v>
       </c>
       <c r="AY41" s="5">
-        <f t="shared" si="68"/>
+        <f t="shared" si="71"/>
         <v>21085</v>
       </c>
       <c r="AZ41" s="5">
-        <f t="shared" si="68"/>
+        <f t="shared" si="71"/>
         <v>19027</v>
       </c>
       <c r="BA41" s="5">
-        <f t="shared" si="68"/>
+        <f t="shared" si="71"/>
         <v>20160</v>
       </c>
       <c r="BB41" s="5">
-        <f t="shared" si="68"/>
+        <f t="shared" si="71"/>
         <v>21905</v>
       </c>
       <c r="BC41" s="5">
-        <f t="shared" si="68"/>
+        <f t="shared" si="71"/>
         <v>26330</v>
       </c>
       <c r="BD41" s="5">
-        <f t="shared" si="68"/>
+        <f t="shared" si="71"/>
         <v>25589</v>
       </c>
       <c r="BE41" s="5">
-        <f t="shared" si="68"/>
+        <f t="shared" si="71"/>
         <v>25932</v>
       </c>
       <c r="BF41" s="5">
-        <f t="shared" si="68"/>
+        <f t="shared" si="71"/>
         <v>27205</v>
       </c>
       <c r="BG41" s="5">
-        <f t="shared" si="68"/>
+        <f t="shared" si="71"/>
         <v>28237</v>
       </c>
       <c r="BH41" s="5">
-        <f t="shared" si="68"/>
+        <f t="shared" si="71"/>
         <v>30836</v>
       </c>
       <c r="BI41" s="5">
-        <f t="shared" si="68"/>
+        <f t="shared" si="71"/>
         <v>32013</v>
       </c>
       <c r="BJ41" s="5">
-        <f t="shared" si="68"/>
+        <f t="shared" si="71"/>
         <v>32370</v>
       </c>
       <c r="BK41" s="5">
-        <f t="shared" ref="BK41:BL41" si="69">SUM(BK38:BK40)</f>
+        <f t="shared" ref="BK41:BL41" si="72">SUM(BK38:BK40)</f>
         <v>31248</v>
       </c>
       <c r="BL41" s="5">
-        <f t="shared" si="69"/>
+        <f t="shared" si="72"/>
         <v>32979</v>
       </c>
       <c r="BM41" s="5">
-        <f t="shared" ref="BM41:BN41" si="70">SUM(BM38:BM40)</f>
+        <f t="shared" ref="BM41:BN41" si="73">SUM(BM38:BM40)</f>
         <v>36949</v>
       </c>
       <c r="BN41" s="5">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>39974</v>
       </c>
       <c r="BO41" s="5">
-        <f t="shared" ref="BO41" si="71">SUM(BO38:BO40)</f>
+        <f t="shared" ref="BO41" si="74">SUM(BO38:BO40)</f>
         <v>43978</v>
       </c>
       <c r="BP41" s="5">
-        <f t="shared" ref="BP41:BR41" si="72">SUM(BP38:BP40)</f>
+        <f t="shared" ref="BP41:BR41" si="75">SUM(BP38:BP40)</f>
         <v>45940</v>
       </c>
       <c r="BQ41" s="5">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>52237</v>
       </c>
       <c r="BR41" s="5">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>57529</v>
       </c>
       <c r="BS41" s="5">
-        <f t="shared" ref="BS41" si="73">SUM(BS38:BS40)</f>
+        <f t="shared" ref="BS41" si="76">SUM(BS38:BS40)</f>
         <v>61575</v>
       </c>
       <c r="BT41" s="5">
-        <f t="shared" ref="BT41" si="74">SUM(BT38:BT40)</f>
+        <f t="shared" ref="BT41" si="77">SUM(BT38:BT40)</f>
         <v>65365</v>
       </c>
       <c r="BU41" s="5">
-        <f t="shared" ref="BU41" si="75">SUM(BU38:BU40)</f>
+        <f t="shared" ref="BU41" si="78">SUM(BU38:BU40)</f>
         <v>67325.95</v>
       </c>
       <c r="BV41" s="5">
-        <f t="shared" ref="BV41" si="76">SUM(BV38:BV40)</f>
+        <f t="shared" ref="BV41" si="79">SUM(BV38:BV40)</f>
         <v>69345.728499999997</v>
       </c>
       <c r="BW41" s="5">
-        <f t="shared" ref="BW41" si="77">SUM(BW38:BW40)</f>
+        <f t="shared" ref="BW41" si="80">SUM(BW38:BW40)</f>
         <v>71426.100355000002</v>
       </c>
       <c r="BX41" s="5">
-        <f t="shared" ref="BX41" si="78">SUM(BX38:BX40)</f>
+        <f t="shared" ref="BX41" si="81">SUM(BX38:BX40)</f>
         <v>73568.883365650006</v>
       </c>
       <c r="BY41" s="5">
-        <f t="shared" ref="BY41" si="79">SUM(BY38:BY40)</f>
+        <f t="shared" ref="BY41" si="82">SUM(BY38:BY40)</f>
         <v>75775.949866619514</v>
       </c>
     </row>
@@ -8823,59 +9031,59 @@
         <v>24</v>
       </c>
       <c r="C42" s="5">
-        <f t="shared" ref="C42:D42" si="80">C37-C41</f>
+        <f t="shared" ref="C42:D42" si="83">C37-C41</f>
         <v>9955</v>
       </c>
       <c r="D42" s="5">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>10258</v>
       </c>
       <c r="E42" s="5">
-        <f t="shared" ref="E42:F42" si="81">E37-E41</f>
+        <f t="shared" ref="E42:F42" si="84">E37-E41</f>
         <v>10341</v>
       </c>
       <c r="F42" s="5">
-        <f t="shared" si="81"/>
+        <f t="shared" si="84"/>
         <v>12405</v>
       </c>
       <c r="G42" s="5">
-        <f t="shared" ref="G42:H42" si="82">G37-G41</f>
+        <f t="shared" ref="G42:H42" si="85">G37-G41</f>
         <v>12686</v>
       </c>
       <c r="H42" s="5">
-        <f t="shared" si="82"/>
+        <f t="shared" si="85"/>
         <v>13891</v>
       </c>
       <c r="I42" s="5">
-        <f t="shared" ref="I42:J42" si="83">I37-I41</f>
+        <f t="shared" ref="I42:J42" si="86">I37-I41</f>
         <v>12975</v>
       </c>
       <c r="J42" s="5">
-        <f t="shared" si="83"/>
+        <f t="shared" si="86"/>
         <v>13407</v>
       </c>
       <c r="K42" s="5">
-        <f t="shared" ref="K42:P42" si="84">K37-K41</f>
+        <f t="shared" ref="K42:P42" si="87">K37-K41</f>
         <v>15876</v>
       </c>
       <c r="L42" s="5">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v>17897</v>
       </c>
       <c r="M42" s="5">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v>17048</v>
       </c>
       <c r="N42" s="5">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v>19095</v>
       </c>
       <c r="O42" s="5">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v>20238</v>
       </c>
       <c r="P42" s="5">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v>22247</v>
       </c>
       <c r="Q42" s="5">
@@ -8883,11 +9091,11 @@
         <v>20364</v>
       </c>
       <c r="R42" s="5">
-        <f t="shared" ref="R42:S42" si="85">R37-R41</f>
+        <f t="shared" ref="R42:S42" si="88">R37-R41</f>
         <v>20534</v>
       </c>
       <c r="S42" s="5">
-        <f t="shared" si="85"/>
+        <f t="shared" si="88"/>
         <v>21518</v>
       </c>
       <c r="T42" s="5">
@@ -8899,65 +9107,65 @@
         <v>22352</v>
       </c>
       <c r="V42" s="5">
-        <f t="shared" ref="V42:Y42" si="86">V37-V41</f>
+        <f t="shared" ref="V42:Y42" si="89">V37-V41</f>
         <v>24254</v>
       </c>
       <c r="W42" s="5">
-        <f t="shared" si="86"/>
+        <f t="shared" si="89"/>
         <v>26895</v>
       </c>
       <c r="X42" s="5">
-        <f t="shared" si="86"/>
+        <f t="shared" si="89"/>
         <v>27032</v>
       </c>
       <c r="Y42" s="5">
-        <f t="shared" si="86"/>
+        <f t="shared" si="89"/>
         <v>27581</v>
       </c>
       <c r="Z42" s="5">
-        <f t="shared" ref="Z42:AE42" si="87">Z37-Z41</f>
+        <f t="shared" ref="Z42:AE42" si="90">Z37-Z41</f>
         <v>27925</v>
       </c>
       <c r="AA42" s="5">
-        <f t="shared" si="87"/>
+        <f t="shared" si="90"/>
         <v>30552</v>
       </c>
       <c r="AB42" s="5">
-        <f t="shared" si="87"/>
+        <f t="shared" si="90"/>
         <v>31653</v>
       </c>
       <c r="AC42" s="5">
-        <f t="shared" si="87"/>
+        <f t="shared" si="90"/>
         <v>32000</v>
       </c>
       <c r="AD42" s="5">
-        <f t="shared" si="87"/>
+        <f t="shared" si="90"/>
         <v>34323</v>
       </c>
       <c r="AE42" s="5">
-        <f t="shared" si="87"/>
-        <v>50500.45</v>
+        <f t="shared" si="90"/>
+        <v>37961</v>
       </c>
       <c r="AF42" s="5">
-        <f t="shared" ref="AF42:AH42" si="88">AF37-AF41</f>
-        <v>53616.640000000007</v>
+        <f t="shared" ref="AF42:AH42" si="91">AF37-AF41</f>
+        <v>38255.759999999987</v>
       </c>
       <c r="AG42" s="5">
-        <f t="shared" si="88"/>
-        <v>53950.82</v>
+        <f t="shared" si="91"/>
+        <v>36189.119999999995</v>
       </c>
       <c r="AH42" s="5">
-        <f t="shared" si="88"/>
-        <v>58859.57</v>
+        <f t="shared" si="91"/>
+        <v>38945.17</v>
       </c>
       <c r="AI42" s="5"/>
       <c r="AJ42" s="5"/>
       <c r="AK42" s="5">
-        <f t="shared" ref="AK42:AL42" si="89">AK37-AK41</f>
+        <f t="shared" ref="AK42:AL42" si="92">AK37-AK41</f>
         <v>393</v>
       </c>
       <c r="AL42" s="5">
-        <f t="shared" si="89"/>
+        <f t="shared" si="92"/>
         <v>650</v>
       </c>
       <c r="AM42" s="5">
@@ -8981,139 +9189,139 @@
         <v>3078</v>
       </c>
       <c r="AR42" s="5">
-        <f t="shared" ref="AR42" si="90">AR37-AR41</f>
+        <f t="shared" ref="AR42" si="93">AR37-AR41</f>
         <v>5130</v>
       </c>
       <c r="AS42" s="5">
-        <f t="shared" ref="AS42:BJ42" si="91">AS37-AS41</f>
+        <f t="shared" ref="AS42:BJ42" si="94">AS37-AS41</f>
         <v>6940</v>
       </c>
       <c r="AT42" s="5">
-        <f t="shared" si="91"/>
+        <f t="shared" si="94"/>
         <v>10043</v>
       </c>
       <c r="AU42" s="5">
-        <f t="shared" si="91"/>
+        <f t="shared" si="94"/>
         <v>11029</v>
       </c>
       <c r="AV42" s="5">
-        <f t="shared" si="91"/>
+        <f t="shared" si="94"/>
         <v>11720</v>
       </c>
       <c r="AW42" s="5">
-        <f t="shared" si="91"/>
+        <f t="shared" si="94"/>
         <v>11910</v>
       </c>
       <c r="AX42" s="5">
-        <f t="shared" si="91"/>
+        <f t="shared" si="94"/>
         <v>13217</v>
       </c>
       <c r="AY42" s="5">
-        <f t="shared" si="91"/>
+        <f t="shared" si="94"/>
         <v>9034</v>
       </c>
       <c r="AZ42" s="5">
-        <f t="shared" si="91"/>
+        <f t="shared" si="94"/>
         <v>14561</v>
       </c>
       <c r="BA42" s="5">
-        <f t="shared" si="91"/>
+        <f t="shared" si="94"/>
         <v>16472</v>
       </c>
       <c r="BB42" s="5">
-        <f t="shared" si="91"/>
+        <f t="shared" si="94"/>
         <v>18524</v>
       </c>
       <c r="BC42" s="5">
-        <f t="shared" si="91"/>
+        <f t="shared" si="94"/>
         <v>22492</v>
       </c>
       <c r="BD42" s="5">
-        <f t="shared" si="91"/>
+        <f t="shared" si="94"/>
         <v>20693</v>
       </c>
       <c r="BE42" s="5">
-        <f t="shared" si="91"/>
+        <f t="shared" si="94"/>
         <v>24157</v>
       </c>
       <c r="BF42" s="5">
-        <f t="shared" si="91"/>
+        <f t="shared" si="94"/>
         <v>27161</v>
       </c>
       <c r="BG42" s="5">
-        <f t="shared" si="91"/>
+        <f t="shared" si="94"/>
         <v>27956</v>
       </c>
       <c r="BH42" s="5">
-        <f t="shared" si="91"/>
+        <f t="shared" si="94"/>
         <v>26764</v>
       </c>
       <c r="BI42" s="5">
-        <f t="shared" si="91"/>
+        <f t="shared" si="94"/>
         <v>27886</v>
       </c>
       <c r="BJ42" s="5">
-        <f t="shared" si="91"/>
+        <f t="shared" si="94"/>
         <v>28172</v>
       </c>
       <c r="BK42" s="5">
-        <f t="shared" ref="BK42:BL42" si="92">BK37-BK41</f>
+        <f t="shared" ref="BK42:BL42" si="95">BK37-BK41</f>
         <v>21292</v>
       </c>
       <c r="BL42" s="5">
-        <f t="shared" si="92"/>
+        <f t="shared" si="95"/>
         <v>29331</v>
       </c>
       <c r="BM42" s="5">
-        <f t="shared" ref="BM42:BN42" si="93">BM37-BM41</f>
+        <f t="shared" ref="BM42:BN42" si="96">BM37-BM41</f>
         <v>35058</v>
       </c>
       <c r="BN42" s="5">
-        <f t="shared" si="93"/>
+        <f t="shared" si="96"/>
         <v>42959</v>
       </c>
       <c r="BO42" s="5">
-        <f t="shared" ref="BO42" si="94">BO37-BO41</f>
+        <f t="shared" ref="BO42" si="97">BO37-BO41</f>
         <v>52959</v>
       </c>
       <c r="BP42" s="5">
-        <f t="shared" ref="BP42:BR42" si="95">BP37-BP41</f>
+        <f t="shared" ref="BP42:BR42" si="98">BP37-BP41</f>
         <v>69916</v>
       </c>
       <c r="BQ42" s="5">
-        <f t="shared" si="95"/>
+        <f t="shared" si="98"/>
         <v>83383</v>
       </c>
       <c r="BR42" s="5">
-        <f t="shared" si="95"/>
+        <f t="shared" si="98"/>
         <v>88523</v>
       </c>
       <c r="BS42" s="5">
-        <f t="shared" ref="BS42" si="96">BS37-BS41</f>
+        <f t="shared" ref="BS42" si="99">BS37-BS41</f>
         <v>109433</v>
       </c>
       <c r="BT42" s="5">
-        <f t="shared" ref="BT42" si="97">BT37-BT41</f>
+        <f t="shared" ref="BT42" si="100">BT37-BT41</f>
         <v>128528</v>
       </c>
       <c r="BU42" s="5">
-        <f t="shared" ref="BU42" si="98">BU37-BU41</f>
+        <f t="shared" ref="BU42" si="101">BU37-BU41</f>
         <v>153610.44939999998</v>
       </c>
       <c r="BV42" s="5">
-        <f t="shared" ref="BV42" si="99">BV37-BV41</f>
+        <f t="shared" ref="BV42" si="102">BV37-BV41</f>
         <v>189818.37541799998</v>
       </c>
       <c r="BW42" s="5">
-        <f t="shared" ref="BW42" si="100">BW37-BW41</f>
+        <f t="shared" ref="BW42" si="103">BW37-BW41</f>
         <v>220726.39240853995</v>
       </c>
       <c r="BX42" s="5">
-        <f t="shared" ref="BX42" si="101">BX37-BX41</f>
+        <f t="shared" ref="BX42" si="104">BX37-BX41</f>
         <v>244262.21743999614</v>
       </c>
       <c r="BY42" s="5">
-        <f t="shared" ref="BY42" si="102">BY37-BY41</f>
+        <f t="shared" ref="BY42" si="105">BY37-BY41</f>
         <v>270195.52054831607</v>
       </c>
     </row>
@@ -9205,7 +9413,9 @@
       <c r="AD43" s="4">
         <v>-1707</v>
       </c>
-      <c r="AE43" s="4"/>
+      <c r="AE43" s="4">
+        <v>-3660</v>
+      </c>
       <c r="AF43" s="4"/>
       <c r="AG43" s="4"/>
       <c r="AH43" s="4"/>
@@ -9318,11 +9528,11 @@
         <v>1186</v>
       </c>
       <c r="BQ43" s="5">
-        <f t="shared" ref="BQ43" si="103">SUM(O43:R43)</f>
+        <f t="shared" ref="BQ43" si="106">SUM(O43:R43)</f>
         <v>333</v>
       </c>
       <c r="BR43" s="5">
-        <f t="shared" ref="BR43" si="104">SUM(S43:V43)</f>
+        <f t="shared" ref="BR43" si="107">SUM(S43:V43)</f>
         <v>788</v>
       </c>
       <c r="BS43" s="5">
@@ -9359,35 +9569,35 @@
         <v>29</v>
       </c>
       <c r="C44" s="5">
-        <f t="shared" ref="C44:D44" si="105">C42+C43</f>
+        <f t="shared" ref="C44:D44" si="108">C42+C43</f>
         <v>10221</v>
       </c>
       <c r="D44" s="5">
-        <f t="shared" si="105"/>
+        <f t="shared" si="108"/>
         <v>10385</v>
       </c>
       <c r="E44" s="5">
-        <f t="shared" ref="E44:F44" si="106">E42+E43</f>
+        <f t="shared" ref="E44:F44" si="109">E42+E43</f>
         <v>10486</v>
       </c>
       <c r="F44" s="5">
-        <f t="shared" si="106"/>
+        <f t="shared" si="109"/>
         <v>12596</v>
       </c>
       <c r="G44" s="5">
-        <f t="shared" ref="G44:H44" si="107">G42+G43</f>
+        <f t="shared" ref="G44:H44" si="110">G42+G43</f>
         <v>12686</v>
       </c>
       <c r="H44" s="5">
-        <f t="shared" si="107"/>
+        <f t="shared" si="110"/>
         <v>14085</v>
       </c>
       <c r="I44" s="5">
-        <f t="shared" ref="I44:J44" si="108">I42+I43</f>
+        <f t="shared" ref="I44:J44" si="111">I42+I43</f>
         <v>12843</v>
       </c>
       <c r="J44" s="5">
-        <f t="shared" si="108"/>
+        <f t="shared" si="111"/>
         <v>13422</v>
       </c>
       <c r="K44" s="5">
@@ -9395,103 +9605,103 @@
         <v>16124</v>
       </c>
       <c r="L44" s="5">
-        <f t="shared" ref="L44:AH44" si="109">L42+L43</f>
+        <f t="shared" ref="L44:AH44" si="112">L42+L43</f>
         <v>18337</v>
       </c>
       <c r="M44" s="5">
-        <f t="shared" si="109"/>
+        <f t="shared" si="112"/>
         <v>17236</v>
       </c>
       <c r="N44" s="5">
-        <f t="shared" si="109"/>
+        <f t="shared" si="112"/>
         <v>19405</v>
       </c>
       <c r="O44" s="5">
-        <f t="shared" si="109"/>
+        <f t="shared" si="112"/>
         <v>20524</v>
       </c>
       <c r="P44" s="5">
-        <f t="shared" si="109"/>
+        <f t="shared" si="112"/>
         <v>22515</v>
       </c>
       <c r="Q44" s="5">
-        <f t="shared" si="109"/>
+        <f t="shared" si="112"/>
         <v>20190</v>
       </c>
       <c r="R44" s="5">
-        <f t="shared" si="109"/>
+        <f t="shared" si="112"/>
         <v>20487</v>
       </c>
       <c r="S44" s="5">
-        <f t="shared" si="109"/>
+        <f t="shared" si="112"/>
         <v>21572</v>
       </c>
       <c r="T44" s="5">
-        <f t="shared" si="109"/>
+        <f t="shared" si="112"/>
         <v>20339</v>
       </c>
       <c r="U44" s="5">
-        <f t="shared" si="109"/>
+        <f t="shared" si="112"/>
         <v>22673</v>
       </c>
       <c r="V44" s="5">
-        <f t="shared" si="109"/>
+        <f t="shared" si="112"/>
         <v>24727</v>
       </c>
       <c r="W44" s="5">
-        <f t="shared" si="109"/>
+        <f t="shared" si="112"/>
         <v>27284</v>
       </c>
       <c r="X44" s="5">
-        <f t="shared" si="109"/>
+        <f t="shared" si="112"/>
         <v>26526</v>
       </c>
       <c r="Y44" s="5">
-        <f t="shared" si="109"/>
+        <f t="shared" si="112"/>
         <v>26727</v>
       </c>
       <c r="Z44" s="5">
-        <f t="shared" si="109"/>
+        <f t="shared" si="112"/>
         <v>27250</v>
       </c>
       <c r="AA44" s="5">
-        <f t="shared" si="109"/>
+        <f t="shared" si="112"/>
         <v>30269</v>
       </c>
       <c r="AB44" s="5">
-        <f t="shared" si="109"/>
+        <f t="shared" si="112"/>
         <v>29365</v>
       </c>
       <c r="AC44" s="5">
-        <f t="shared" si="109"/>
+        <f t="shared" si="112"/>
         <v>31377</v>
       </c>
       <c r="AD44" s="5">
-        <f t="shared" si="109"/>
+        <f t="shared" si="112"/>
         <v>32616</v>
       </c>
       <c r="AE44" s="5">
-        <f t="shared" si="109"/>
-        <v>50500.45</v>
+        <f t="shared" si="112"/>
+        <v>34301</v>
       </c>
       <c r="AF44" s="5">
-        <f t="shared" si="109"/>
-        <v>53616.640000000007</v>
+        <f t="shared" si="112"/>
+        <v>38255.759999999987</v>
       </c>
       <c r="AG44" s="5">
-        <f t="shared" si="109"/>
-        <v>53950.82</v>
+        <f t="shared" si="112"/>
+        <v>36189.119999999995</v>
       </c>
       <c r="AH44" s="5">
-        <f t="shared" si="109"/>
-        <v>58859.57</v>
+        <f t="shared" si="112"/>
+        <v>38945.17</v>
       </c>
       <c r="AK44" s="4">
-        <f t="shared" ref="AK44:AL44" si="110">AK43+AK42</f>
+        <f t="shared" ref="AK44:AL44" si="113">AK43+AK42</f>
         <v>410</v>
       </c>
       <c r="AL44" s="4">
-        <f t="shared" si="110"/>
+        <f t="shared" si="113"/>
         <v>671</v>
       </c>
       <c r="AM44" s="4">
@@ -9515,79 +9725,79 @@
         <v>3379</v>
       </c>
       <c r="AR44" s="4">
-        <f t="shared" ref="AR44" si="111">AR43+AR42</f>
+        <f t="shared" ref="AR44" si="114">AR43+AR42</f>
         <v>5314</v>
       </c>
       <c r="AS44" s="4">
-        <f t="shared" ref="AS44:BJ44" si="112">AS43+AS42</f>
+        <f t="shared" ref="AS44:BJ44" si="115">AS43+AS42</f>
         <v>7413</v>
       </c>
       <c r="AT44" s="4">
-        <f t="shared" si="112"/>
+        <f t="shared" si="115"/>
         <v>11731</v>
       </c>
       <c r="AU44" s="4">
-        <f t="shared" si="112"/>
+        <f t="shared" si="115"/>
         <v>14119</v>
       </c>
       <c r="AV44" s="4">
-        <f t="shared" si="112"/>
+        <f t="shared" si="115"/>
         <v>11684</v>
       </c>
       <c r="AW44" s="4">
-        <f t="shared" si="112"/>
+        <f t="shared" si="115"/>
         <v>11605</v>
       </c>
       <c r="AX44" s="4">
-        <f t="shared" si="112"/>
+        <f t="shared" si="115"/>
         <v>14794</v>
       </c>
       <c r="AY44" s="4">
-        <f t="shared" si="112"/>
+        <f t="shared" si="115"/>
         <v>12221</v>
       </c>
       <c r="AZ44" s="4">
-        <f t="shared" si="112"/>
+        <f t="shared" si="115"/>
         <v>16628</v>
       </c>
       <c r="BA44" s="4">
-        <f t="shared" si="112"/>
+        <f t="shared" si="115"/>
         <v>18262</v>
       </c>
       <c r="BB44" s="4">
-        <f t="shared" si="112"/>
+        <f t="shared" si="115"/>
         <v>20101</v>
       </c>
       <c r="BC44" s="4">
-        <f t="shared" si="112"/>
+        <f t="shared" si="115"/>
         <v>23814</v>
       </c>
       <c r="BD44" s="4">
-        <f t="shared" si="112"/>
+        <f t="shared" si="115"/>
         <v>20151</v>
       </c>
       <c r="BE44" s="4">
-        <f t="shared" si="112"/>
+        <f t="shared" si="115"/>
         <v>25072</v>
       </c>
       <c r="BF44" s="4">
-        <f t="shared" si="112"/>
+        <f t="shared" si="115"/>
         <v>28071</v>
       </c>
       <c r="BG44" s="4">
-        <f t="shared" si="112"/>
+        <f t="shared" si="115"/>
         <v>28460</v>
       </c>
       <c r="BH44" s="4">
-        <f t="shared" si="112"/>
+        <f t="shared" si="115"/>
         <v>27052</v>
       </c>
       <c r="BI44" s="4">
-        <f t="shared" si="112"/>
+        <f t="shared" si="115"/>
         <v>27947</v>
       </c>
       <c r="BJ44" s="4">
-        <f t="shared" si="112"/>
+        <f t="shared" si="115"/>
         <v>28518</v>
       </c>
       <c r="BK44" s="4">
@@ -9611,43 +9821,43 @@
         <v>53036</v>
       </c>
       <c r="BP44" s="5">
-        <f t="shared" ref="BP44:BR44" si="113">+BP42+BP43</f>
+        <f t="shared" ref="BP44:BR44" si="116">+BP42+BP43</f>
         <v>71102</v>
       </c>
       <c r="BQ44" s="5">
-        <f t="shared" si="113"/>
+        <f t="shared" si="116"/>
         <v>83716</v>
       </c>
       <c r="BR44" s="5">
-        <f t="shared" si="113"/>
+        <f t="shared" si="116"/>
         <v>89311</v>
       </c>
       <c r="BS44" s="5">
-        <f t="shared" ref="BS44" si="114">+BS42+BS43</f>
+        <f t="shared" ref="BS44" si="117">+BS42+BS43</f>
         <v>107787</v>
       </c>
       <c r="BT44" s="5">
-        <f t="shared" ref="BT44" si="115">+BT42+BT43</f>
+        <f t="shared" ref="BT44" si="118">+BT42+BT43</f>
         <v>123627</v>
       </c>
       <c r="BU44" s="5">
-        <f t="shared" ref="BU44" si="116">+BU42+BU43</f>
+        <f t="shared" ref="BU44" si="119">+BU42+BU43</f>
         <v>148709.44939999998</v>
       </c>
       <c r="BV44" s="5">
-        <f t="shared" ref="BV44" si="117">+BV42+BV43</f>
+        <f t="shared" ref="BV44" si="120">+BV42+BV43</f>
         <v>184917.37541799998</v>
       </c>
       <c r="BW44" s="5">
-        <f t="shared" ref="BW44" si="118">+BW42+BW43</f>
+        <f t="shared" ref="BW44" si="121">+BW42+BW43</f>
         <v>220726.39240853995</v>
       </c>
       <c r="BX44" s="5">
-        <f t="shared" ref="BX44" si="119">+BX42+BX43</f>
+        <f t="shared" ref="BX44" si="122">+BX42+BX43</f>
         <v>244262.21743999614</v>
       </c>
       <c r="BY44" s="5">
-        <f t="shared" ref="BY44" si="120">+BY42+BY43</f>
+        <f t="shared" ref="BY44" si="123">+BY42+BY43</f>
         <v>270195.52054831607</v>
       </c>
     </row>
@@ -9739,6 +9949,21 @@
       <c r="AD45" s="4">
         <v>5383</v>
       </c>
+      <c r="AE45" s="4">
+        <v>6554</v>
+      </c>
+      <c r="AF45" s="4">
+        <f>+AF44*0.18</f>
+        <v>6886.0367999999971</v>
+      </c>
+      <c r="AG45" s="4">
+        <f>+AG44*0.18</f>
+        <v>6514.0415999999987</v>
+      </c>
+      <c r="AH45" s="4">
+        <f>+AH44*0.18</f>
+        <v>7010.1305999999995</v>
+      </c>
       <c r="AK45" s="4">
         <v>131</v>
       </c>
@@ -9838,11 +10063,11 @@
         <v>9831</v>
       </c>
       <c r="BQ45" s="5">
-        <f t="shared" ref="BQ45" si="121">SUM(O45:R45)</f>
+        <f t="shared" ref="BQ45" si="124">SUM(O45:R45)</f>
         <v>10978</v>
       </c>
       <c r="BR45" s="5">
-        <f t="shared" ref="BR45" si="122">SUM(S45:V45)</f>
+        <f t="shared" ref="BR45" si="125">SUM(S45:V45)</f>
         <v>16950</v>
       </c>
       <c r="BS45" s="5">
@@ -9862,15 +10087,15 @@
         <v>33285.127575239996</v>
       </c>
       <c r="BW45" s="5">
-        <f t="shared" ref="BW45:BY45" si="123">+BW44*0.15</f>
+        <f t="shared" ref="BW45:BY45" si="126">+BW44*0.15</f>
         <v>33108.958861280989</v>
       </c>
       <c r="BX45" s="5">
-        <f t="shared" si="123"/>
+        <f t="shared" si="126"/>
         <v>36639.332615999418</v>
       </c>
       <c r="BY45" s="5">
-        <f t="shared" si="123"/>
+        <f t="shared" si="126"/>
         <v>40529.328082247412</v>
       </c>
     </row>
@@ -9879,35 +10104,35 @@
         <v>31</v>
       </c>
       <c r="C46" s="5">
-        <f t="shared" ref="C46:D46" si="124">C44-C45</f>
+        <f t="shared" ref="C46:D46" si="127">C44-C45</f>
         <v>8824</v>
       </c>
       <c r="D46" s="5">
-        <f t="shared" si="124"/>
+        <f t="shared" si="127"/>
         <v>8420</v>
       </c>
       <c r="E46" s="5">
-        <f t="shared" ref="E46:F46" si="125">E44-E45</f>
+        <f t="shared" ref="E46:F46" si="128">E44-E45</f>
         <v>8809</v>
       </c>
       <c r="F46" s="5">
-        <f t="shared" si="125"/>
+        <f t="shared" si="128"/>
         <v>13187</v>
       </c>
       <c r="G46" s="5">
-        <f t="shared" ref="G46:H46" si="126">G44-G45</f>
+        <f t="shared" ref="G46:H46" si="129">G44-G45</f>
         <v>10678</v>
       </c>
       <c r="H46" s="5">
-        <f t="shared" si="126"/>
+        <f t="shared" si="129"/>
         <v>11649</v>
       </c>
       <c r="I46" s="5">
-        <f t="shared" ref="I46:J46" si="127">I44-I45</f>
+        <f t="shared" ref="I46:J46" si="130">I44-I45</f>
         <v>10752</v>
       </c>
       <c r="J46" s="5">
-        <f t="shared" si="127"/>
+        <f t="shared" si="130"/>
         <v>11202</v>
       </c>
       <c r="K46" s="5">
@@ -9915,39 +10140,39 @@
         <v>13893</v>
       </c>
       <c r="L46" s="5">
-        <f t="shared" ref="L46:AH46" si="128">L44-L45</f>
+        <f t="shared" ref="L46:AH46" si="131">L44-L45</f>
         <v>15463</v>
       </c>
       <c r="M46" s="5">
-        <f t="shared" si="128"/>
+        <f t="shared" si="131"/>
         <v>15457</v>
       </c>
       <c r="N46" s="5">
-        <f t="shared" si="128"/>
+        <f t="shared" si="131"/>
         <v>16458</v>
       </c>
       <c r="O46" s="5">
-        <f t="shared" si="128"/>
+        <f t="shared" si="131"/>
         <v>20505</v>
       </c>
       <c r="P46" s="5">
-        <f t="shared" si="128"/>
+        <f t="shared" si="131"/>
         <v>18765</v>
       </c>
       <c r="Q46" s="5">
-        <f t="shared" si="128"/>
+        <f t="shared" si="131"/>
         <v>16728</v>
       </c>
       <c r="R46" s="5">
-        <f t="shared" si="128"/>
+        <f t="shared" si="131"/>
         <v>16740</v>
       </c>
       <c r="S46" s="5">
-        <f t="shared" si="128"/>
+        <f t="shared" si="131"/>
         <v>17556</v>
       </c>
       <c r="T46" s="5">
-        <f t="shared" si="128"/>
+        <f t="shared" si="131"/>
         <v>16425</v>
       </c>
       <c r="U46" s="5">
@@ -9955,63 +10180,63 @@
         <v>18299</v>
       </c>
       <c r="V46" s="5">
-        <f t="shared" si="128"/>
+        <f t="shared" si="131"/>
         <v>20081</v>
       </c>
       <c r="W46" s="5">
-        <f t="shared" si="128"/>
+        <f t="shared" si="131"/>
         <v>22291</v>
       </c>
       <c r="X46" s="5">
-        <f t="shared" si="128"/>
+        <f t="shared" si="131"/>
         <v>21870</v>
       </c>
       <c r="Y46" s="5">
-        <f t="shared" si="128"/>
+        <f t="shared" si="131"/>
         <v>21939</v>
       </c>
       <c r="Z46" s="5">
-        <f t="shared" si="128"/>
+        <f t="shared" si="131"/>
         <v>22036</v>
       </c>
       <c r="AA46" s="5">
-        <f t="shared" si="128"/>
+        <f t="shared" si="131"/>
         <v>24667</v>
       </c>
       <c r="AB46" s="5">
-        <f t="shared" si="128"/>
+        <f t="shared" si="131"/>
         <v>24108</v>
       </c>
       <c r="AC46" s="5">
-        <f t="shared" si="128"/>
+        <f t="shared" si="131"/>
         <v>25824</v>
       </c>
       <c r="AD46" s="5">
-        <f t="shared" si="128"/>
+        <f t="shared" si="131"/>
         <v>27233</v>
       </c>
       <c r="AE46" s="5">
-        <f t="shared" si="128"/>
-        <v>50500.45</v>
+        <f t="shared" si="131"/>
+        <v>27747</v>
       </c>
       <c r="AF46" s="5">
-        <f t="shared" si="128"/>
-        <v>53616.640000000007</v>
+        <f t="shared" si="131"/>
+        <v>31369.723199999989</v>
       </c>
       <c r="AG46" s="5">
-        <f t="shared" si="128"/>
-        <v>53950.82</v>
+        <f t="shared" si="131"/>
+        <v>29675.078399999999</v>
       </c>
       <c r="AH46" s="5">
-        <f t="shared" si="128"/>
-        <v>58859.57</v>
+        <f t="shared" si="131"/>
+        <v>31935.039399999998</v>
       </c>
       <c r="AK46" s="4">
-        <f t="shared" ref="AK46:AL46" si="129">AK44-AK45</f>
+        <f t="shared" ref="AK46:AL46" si="132">AK44-AK45</f>
         <v>279</v>
       </c>
       <c r="AL46" s="4">
-        <f t="shared" si="129"/>
+        <f t="shared" si="132"/>
         <v>463</v>
       </c>
       <c r="AM46" s="4">
@@ -10035,79 +10260,79 @@
         <v>2195</v>
       </c>
       <c r="AR46" s="4">
-        <f t="shared" ref="AR46" si="130">AR44-AR45</f>
+        <f t="shared" ref="AR46" si="133">AR44-AR45</f>
         <v>3454</v>
       </c>
       <c r="AS46" s="4">
-        <f t="shared" ref="AS46:BJ46" si="131">AS44-AS45</f>
+        <f t="shared" ref="AS46:BJ46" si="134">AS44-AS45</f>
         <v>4758</v>
       </c>
       <c r="AT46" s="4">
-        <f t="shared" si="131"/>
+        <f t="shared" si="134"/>
         <v>7625</v>
       </c>
       <c r="AU46" s="4">
-        <f t="shared" si="131"/>
+        <f t="shared" si="134"/>
         <v>9265</v>
       </c>
       <c r="AV46" s="4">
-        <f t="shared" si="131"/>
+        <f t="shared" si="134"/>
         <v>7880</v>
       </c>
       <c r="AW46" s="4">
-        <f t="shared" si="131"/>
+        <f t="shared" si="134"/>
         <v>7921</v>
       </c>
       <c r="AX46" s="4">
-        <f t="shared" si="131"/>
+        <f t="shared" si="134"/>
         <v>10061</v>
       </c>
       <c r="AY46" s="4">
-        <f t="shared" si="131"/>
+        <f t="shared" si="134"/>
         <v>8193</v>
       </c>
       <c r="AZ46" s="4">
-        <f t="shared" si="131"/>
+        <f t="shared" si="134"/>
         <v>12254</v>
       </c>
       <c r="BA46" s="4">
-        <f t="shared" si="131"/>
+        <f t="shared" si="134"/>
         <v>12599</v>
       </c>
       <c r="BB46" s="4">
-        <f t="shared" si="131"/>
+        <f t="shared" si="134"/>
         <v>14065</v>
       </c>
       <c r="BC46" s="4">
-        <f t="shared" si="131"/>
+        <f t="shared" si="134"/>
         <v>17681</v>
       </c>
       <c r="BD46" s="4">
-        <f t="shared" si="131"/>
+        <f t="shared" si="134"/>
         <v>14899</v>
       </c>
       <c r="BE46" s="4">
-        <f t="shared" si="131"/>
+        <f t="shared" si="134"/>
         <v>18819</v>
       </c>
       <c r="BF46" s="4">
-        <f t="shared" si="131"/>
+        <f t="shared" si="134"/>
         <v>23150</v>
       </c>
       <c r="BG46" s="4">
-        <f t="shared" si="131"/>
+        <f t="shared" si="134"/>
         <v>23171</v>
       </c>
       <c r="BH46" s="4">
-        <f t="shared" si="131"/>
+        <f t="shared" si="134"/>
         <v>21863</v>
       </c>
       <c r="BI46" s="4">
-        <f t="shared" si="131"/>
+        <f t="shared" si="134"/>
         <v>22201</v>
       </c>
       <c r="BJ46" s="4">
-        <f t="shared" si="131"/>
+        <f t="shared" si="134"/>
         <v>22204</v>
       </c>
       <c r="BK46" s="4">
@@ -10131,275 +10356,275 @@
         <v>44281</v>
       </c>
       <c r="BP46" s="4">
-        <f t="shared" ref="BP46:BR46" si="132">+BP44-BP45</f>
+        <f t="shared" ref="BP46:BR46" si="135">+BP44-BP45</f>
         <v>61271</v>
       </c>
       <c r="BQ46" s="4">
-        <f t="shared" si="132"/>
+        <f t="shared" si="135"/>
         <v>72738</v>
       </c>
       <c r="BR46" s="4">
-        <f t="shared" si="132"/>
+        <f t="shared" si="135"/>
         <v>72361</v>
       </c>
       <c r="BS46" s="4">
-        <f t="shared" ref="BS46" si="133">+BS44-BS45</f>
+        <f t="shared" ref="BS46" si="136">+BS44-BS45</f>
         <v>88136</v>
       </c>
       <c r="BT46" s="4">
-        <f t="shared" ref="BT46" si="134">+BT44-BT45</f>
+        <f t="shared" ref="BT46" si="137">+BT44-BT45</f>
         <v>101832</v>
       </c>
       <c r="BU46" s="4">
-        <f t="shared" ref="BU46" si="135">+BU44-BU45</f>
+        <f t="shared" ref="BU46" si="138">+BU44-BU45</f>
         <v>121941.74850799999</v>
       </c>
       <c r="BV46" s="4">
-        <f t="shared" ref="BV46" si="136">+BV44-BV45</f>
+        <f t="shared" ref="BV46" si="139">+BV44-BV45</f>
         <v>151632.24784276</v>
       </c>
       <c r="BW46" s="4">
-        <f t="shared" ref="BW46" si="137">+BW44-BW45</f>
+        <f t="shared" ref="BW46" si="140">+BW44-BW45</f>
         <v>187617.43354725896</v>
       </c>
       <c r="BX46" s="4">
-        <f t="shared" ref="BX46" si="138">+BX44-BX45</f>
+        <f t="shared" ref="BX46" si="141">+BX44-BX45</f>
         <v>207622.88482399672</v>
       </c>
       <c r="BY46" s="4">
-        <f t="shared" ref="BY46" si="139">+BY44-BY45</f>
+        <f t="shared" ref="BY46" si="142">+BY44-BY45</f>
         <v>229666.19246606866</v>
       </c>
       <c r="BZ46" s="4">
-        <f t="shared" ref="BZ46:DE46" si="140">+BY46*(1+$CD$50)</f>
+        <f t="shared" ref="BZ46:DE46" si="143">+BY46*(1+$CD$50)</f>
         <v>234259.51631539004</v>
       </c>
       <c r="CA46" s="4">
-        <f t="shared" si="140"/>
+        <f t="shared" si="143"/>
         <v>238944.70664169785</v>
       </c>
       <c r="CB46" s="4">
-        <f t="shared" si="140"/>
+        <f t="shared" si="143"/>
         <v>243723.60077453181</v>
       </c>
       <c r="CC46" s="4">
-        <f t="shared" si="140"/>
+        <f t="shared" si="143"/>
         <v>248598.07279002244</v>
       </c>
       <c r="CD46" s="4">
-        <f t="shared" si="140"/>
+        <f t="shared" si="143"/>
         <v>253570.0342458229</v>
       </c>
       <c r="CE46" s="4">
-        <f t="shared" si="140"/>
+        <f t="shared" si="143"/>
         <v>258641.43493073937</v>
       </c>
       <c r="CF46" s="4">
-        <f t="shared" si="140"/>
+        <f t="shared" si="143"/>
         <v>263814.26362935419</v>
       </c>
       <c r="CG46" s="4">
-        <f t="shared" si="140"/>
+        <f t="shared" si="143"/>
         <v>269090.54890194128</v>
       </c>
       <c r="CH46" s="4">
-        <f t="shared" si="140"/>
+        <f t="shared" si="143"/>
         <v>274472.3598799801</v>
       </c>
       <c r="CI46" s="4">
-        <f t="shared" si="140"/>
+        <f t="shared" si="143"/>
         <v>279961.80707757972</v>
       </c>
       <c r="CJ46" s="4">
-        <f t="shared" si="140"/>
+        <f t="shared" si="143"/>
         <v>285561.0432191313</v>
       </c>
       <c r="CK46" s="4">
-        <f t="shared" si="140"/>
+        <f t="shared" si="143"/>
         <v>291272.26408351393</v>
       </c>
       <c r="CL46" s="4">
-        <f t="shared" si="140"/>
+        <f t="shared" si="143"/>
         <v>297097.70936518424</v>
       </c>
       <c r="CM46" s="4">
-        <f t="shared" si="140"/>
+        <f t="shared" si="143"/>
         <v>303039.66355248791</v>
       </c>
       <c r="CN46" s="4">
-        <f t="shared" si="140"/>
+        <f t="shared" si="143"/>
         <v>309100.45682353765</v>
       </c>
       <c r="CO46" s="4">
-        <f t="shared" si="140"/>
+        <f t="shared" si="143"/>
         <v>315282.46596000838</v>
       </c>
       <c r="CP46" s="4">
-        <f t="shared" si="140"/>
+        <f t="shared" si="143"/>
         <v>321588.11527920858</v>
       </c>
       <c r="CQ46" s="4">
-        <f t="shared" si="140"/>
+        <f t="shared" si="143"/>
         <v>328019.87758479273</v>
       </c>
       <c r="CR46" s="4">
-        <f t="shared" si="140"/>
+        <f t="shared" si="143"/>
         <v>334580.27513648861</v>
       </c>
       <c r="CS46" s="4">
-        <f t="shared" si="140"/>
+        <f t="shared" si="143"/>
         <v>341271.88063921838</v>
       </c>
       <c r="CT46" s="4">
-        <f t="shared" si="140"/>
+        <f t="shared" si="143"/>
         <v>348097.31825200276</v>
       </c>
       <c r="CU46" s="4">
-        <f t="shared" si="140"/>
+        <f t="shared" si="143"/>
         <v>355059.26461704285</v>
       </c>
       <c r="CV46" s="4">
-        <f t="shared" si="140"/>
+        <f t="shared" si="143"/>
         <v>362160.44990938372</v>
       </c>
       <c r="CW46" s="4">
-        <f t="shared" si="140"/>
+        <f t="shared" si="143"/>
         <v>369403.6589075714</v>
       </c>
       <c r="CX46" s="4">
-        <f t="shared" si="140"/>
+        <f t="shared" si="143"/>
         <v>376791.73208572285</v>
       </c>
       <c r="CY46" s="4">
-        <f t="shared" si="140"/>
+        <f t="shared" si="143"/>
         <v>384327.56672743731</v>
       </c>
       <c r="CZ46" s="4">
-        <f t="shared" si="140"/>
+        <f t="shared" si="143"/>
         <v>392014.11806198605</v>
       </c>
       <c r="DA46" s="4">
-        <f t="shared" si="140"/>
+        <f t="shared" si="143"/>
         <v>399854.40042322577</v>
       </c>
       <c r="DB46" s="4">
-        <f t="shared" si="140"/>
+        <f t="shared" si="143"/>
         <v>407851.48843169032</v>
       </c>
       <c r="DC46" s="4">
-        <f t="shared" si="140"/>
+        <f t="shared" si="143"/>
         <v>416008.51820032415</v>
       </c>
       <c r="DD46" s="4">
-        <f t="shared" si="140"/>
+        <f t="shared" si="143"/>
         <v>424328.68856433063</v>
       </c>
       <c r="DE46" s="4">
-        <f t="shared" si="140"/>
+        <f t="shared" si="143"/>
         <v>432815.26233561727</v>
       </c>
       <c r="DF46" s="4">
-        <f t="shared" ref="DF46:EE46" si="141">+DE46*(1+$CD$50)</f>
+        <f t="shared" ref="DF46:EE46" si="144">+DE46*(1+$CD$50)</f>
         <v>441471.56758232962</v>
       </c>
       <c r="DG46" s="4">
-        <f t="shared" si="141"/>
+        <f t="shared" si="144"/>
         <v>450300.99893397623</v>
       </c>
       <c r="DH46" s="4">
-        <f t="shared" si="141"/>
+        <f t="shared" si="144"/>
         <v>459307.01891265577</v>
       </c>
       <c r="DI46" s="4">
-        <f t="shared" si="141"/>
+        <f t="shared" si="144"/>
         <v>468493.15929090889</v>
       </c>
       <c r="DJ46" s="4">
-        <f t="shared" si="141"/>
+        <f t="shared" si="144"/>
         <v>477863.02247672708</v>
       </c>
       <c r="DK46" s="4">
-        <f t="shared" si="141"/>
+        <f t="shared" si="144"/>
         <v>487420.28292626166</v>
       </c>
       <c r="DL46" s="4">
-        <f t="shared" si="141"/>
+        <f t="shared" si="144"/>
         <v>497168.6885847869</v>
       </c>
       <c r="DM46" s="4">
-        <f t="shared" si="141"/>
+        <f t="shared" si="144"/>
         <v>507112.06235648267</v>
       </c>
       <c r="DN46" s="4">
-        <f t="shared" si="141"/>
+        <f t="shared" si="144"/>
         <v>517254.30360361235</v>
       </c>
       <c r="DO46" s="4">
-        <f t="shared" si="141"/>
+        <f t="shared" si="144"/>
         <v>527599.38967568462</v>
       </c>
       <c r="DP46" s="4">
-        <f t="shared" si="141"/>
+        <f t="shared" si="144"/>
         <v>538151.37746919831</v>
       </c>
       <c r="DQ46" s="4">
-        <f t="shared" si="141"/>
+        <f t="shared" si="144"/>
         <v>548914.40501858224</v>
       </c>
       <c r="DR46" s="4">
-        <f t="shared" si="141"/>
+        <f t="shared" si="144"/>
         <v>559892.69311895384</v>
       </c>
       <c r="DS46" s="4">
-        <f t="shared" si="141"/>
+        <f t="shared" si="144"/>
         <v>571090.54698133294</v>
       </c>
       <c r="DT46" s="4">
-        <f t="shared" si="141"/>
+        <f t="shared" si="144"/>
         <v>582512.35792095959</v>
       </c>
       <c r="DU46" s="4">
-        <f t="shared" si="141"/>
+        <f t="shared" si="144"/>
         <v>594162.60507937882</v>
       </c>
       <c r="DV46" s="4">
-        <f t="shared" si="141"/>
+        <f t="shared" si="144"/>
         <v>606045.85718096641</v>
       </c>
       <c r="DW46" s="4">
-        <f t="shared" si="141"/>
+        <f t="shared" si="144"/>
         <v>618166.7743245858</v>
       </c>
       <c r="DX46" s="4">
-        <f t="shared" si="141"/>
+        <f t="shared" si="144"/>
         <v>630530.10981107748</v>
       </c>
       <c r="DY46" s="4">
-        <f t="shared" si="141"/>
+        <f t="shared" si="144"/>
         <v>643140.71200729907</v>
       </c>
       <c r="DZ46" s="4">
-        <f t="shared" si="141"/>
+        <f t="shared" si="144"/>
         <v>656003.52624744503</v>
       </c>
       <c r="EA46" s="4">
-        <f t="shared" si="141"/>
+        <f t="shared" si="144"/>
         <v>669123.59677239391</v>
       </c>
       <c r="EB46" s="4">
-        <f t="shared" si="141"/>
+        <f t="shared" si="144"/>
         <v>682506.0687078418</v>
       </c>
       <c r="EC46" s="4">
-        <f t="shared" si="141"/>
+        <f t="shared" si="144"/>
         <v>696156.19008199859</v>
       </c>
       <c r="ED46" s="4">
-        <f t="shared" si="141"/>
+        <f t="shared" si="144"/>
         <v>710079.31388363859</v>
       </c>
       <c r="EE46" s="4">
-        <f t="shared" si="141"/>
+        <f t="shared" si="144"/>
         <v>724280.90016131138</v>
       </c>
     </row>
@@ -10408,59 +10633,59 @@
         <v>33</v>
       </c>
       <c r="C47" s="8">
-        <f t="shared" ref="C47:D47" si="142">C46/C48</f>
+        <f t="shared" ref="C47:D47" si="145">C46/C48</f>
         <v>1.1362348699459182</v>
       </c>
       <c r="D47" s="8">
-        <f t="shared" si="142"/>
+        <f t="shared" si="145"/>
         <v>1.0839340885684861</v>
       </c>
       <c r="E47" s="8">
-        <f t="shared" ref="E47:F47" si="143">E46/E48</f>
+        <f t="shared" ref="E47:F47" si="146">E46/E48</f>
         <v>1.1375258264462811</v>
       </c>
       <c r="F47" s="8">
-        <f t="shared" si="143"/>
+        <f t="shared" si="146"/>
         <v>1.7059508408796895</v>
       </c>
       <c r="G47" s="8">
-        <f t="shared" ref="G47:H47" si="144">G46/G48</f>
+        <f t="shared" ref="G47:H47" si="147">G46/G48</f>
         <v>1.3849546044098573</v>
       </c>
       <c r="H47" s="8">
-        <f t="shared" si="144"/>
+        <f t="shared" si="147"/>
         <v>1.5146274866727343</v>
       </c>
       <c r="I47" s="8">
-        <f t="shared" ref="I47:J47" si="145">I46/I48</f>
+        <f t="shared" ref="I47:J47" si="148">I46/I48</f>
         <v>1.4009120521172638</v>
       </c>
       <c r="J47" s="8">
-        <f t="shared" si="145"/>
+        <f t="shared" si="148"/>
         <v>1.4643137254901961</v>
       </c>
       <c r="K47" s="8">
-        <f t="shared" ref="K47:P47" si="146">K46/K48</f>
+        <f t="shared" ref="K47:P47" si="149">K46/K48</f>
         <v>1.8191698310855047</v>
       </c>
       <c r="L47" s="8">
-        <f t="shared" si="146"/>
+        <f t="shared" si="149"/>
         <v>2.0303308823529411</v>
       </c>
       <c r="M47" s="8">
-        <f t="shared" si="146"/>
+        <f t="shared" si="149"/>
         <v>2.0346189285244174</v>
       </c>
       <c r="N47" s="8">
-        <f t="shared" si="146"/>
+        <f t="shared" si="149"/>
         <v>2.1709537000395724</v>
       </c>
       <c r="O47" s="8">
-        <f t="shared" si="146"/>
+        <f t="shared" si="149"/>
         <v>2.7097925201532971</v>
       </c>
       <c r="P47" s="8">
-        <f t="shared" si="146"/>
+        <f t="shared" si="149"/>
         <v>2.4837855724685638</v>
       </c>
       <c r="Q47" s="8">
@@ -10476,7 +10701,7 @@
         <v>2.3454909819639278</v>
       </c>
       <c r="T47" s="8">
-        <f t="shared" ref="T47:AH47" si="147">T46/T48</f>
+        <f t="shared" ref="T47:AH47" si="150">T46/T48</f>
         <v>2.1979124849458049</v>
       </c>
       <c r="U47" s="8">
@@ -10484,63 +10709,63 @@
         <v>2.4516345123258305</v>
       </c>
       <c r="V47" s="8">
-        <f t="shared" si="147"/>
+        <f t="shared" si="150"/>
         <v>2.6892995848399623</v>
       </c>
       <c r="W47" s="8">
-        <f t="shared" si="147"/>
+        <f t="shared" si="150"/>
         <v>2.9872688287322435</v>
       </c>
       <c r="X47" s="8">
-        <f t="shared" si="147"/>
+        <f t="shared" si="150"/>
         <v>2.9284949116229244</v>
       </c>
       <c r="Y47" s="8">
-        <f t="shared" si="147"/>
+        <f t="shared" si="150"/>
         <v>2.936161670235546</v>
       </c>
       <c r="Z47" s="8">
-        <f t="shared" si="147"/>
+        <f t="shared" si="150"/>
         <v>2.9503280224929709</v>
       </c>
       <c r="AA47" s="8">
-        <f t="shared" si="147"/>
+        <f t="shared" si="150"/>
         <v>3.3021419009370816</v>
       </c>
       <c r="AB47" s="8">
-        <f t="shared" si="147"/>
+        <f t="shared" si="150"/>
         <v>3.2281735404392071</v>
       </c>
       <c r="AC47" s="8">
-        <f t="shared" si="147"/>
+        <f t="shared" si="150"/>
         <v>3.4611982308001608</v>
       </c>
       <c r="AD47" s="8">
-        <f t="shared" si="147"/>
+        <f t="shared" si="150"/>
         <v>3.6500469106017959</v>
       </c>
       <c r="AE47" s="8">
-        <f t="shared" si="147"/>
-        <v>6.7685900013403026</v>
+        <f t="shared" si="150"/>
+        <v>3.7164478971336727</v>
       </c>
       <c r="AF47" s="8">
-        <f t="shared" si="147"/>
-        <v>7.1862538533708626</v>
+        <f t="shared" si="150"/>
+        <v>4.2016773640503606</v>
       </c>
       <c r="AG47" s="8">
-        <f t="shared" si="147"/>
-        <v>7.2310440959656885</v>
+        <f t="shared" si="150"/>
+        <v>3.974695740691133</v>
       </c>
       <c r="AH47" s="8">
-        <f t="shared" si="147"/>
-        <v>7.8889652861546713</v>
+        <f t="shared" si="150"/>
+        <v>4.2773961157246179</v>
       </c>
       <c r="AK47" s="11">
-        <f t="shared" ref="AK47:AL47" si="148">AK46/AK48</f>
+        <f t="shared" ref="AK47:AL47" si="151">AK46/AK48</f>
         <v>0.51955307262569828</v>
       </c>
       <c r="AL47" s="11">
-        <f t="shared" si="148"/>
+        <f t="shared" si="151"/>
         <v>0.82238010657193605</v>
       </c>
       <c r="AM47" s="11">
@@ -10564,79 +10789,79 @@
         <v>3.4296875</v>
       </c>
       <c r="AR47" s="11">
-        <f t="shared" ref="AR47" si="149">AR46/AR48</f>
+        <f t="shared" ref="AR47" si="152">AR46/AR48</f>
         <v>2.6326219512195124</v>
       </c>
       <c r="AS47" s="11">
-        <f t="shared" ref="AS47:BJ47" si="150">AS46/AS48</f>
+        <f t="shared" ref="AS47:BJ47" si="153">AS46/AS48</f>
         <v>1.7747109287579261</v>
       </c>
       <c r="AT47" s="11">
-        <f t="shared" si="150"/>
+        <f t="shared" si="153"/>
         <v>1.4924642787238207</v>
       </c>
       <c r="AU47" s="11">
-        <f t="shared" si="150"/>
+        <f t="shared" si="153"/>
         <v>1.7537384062085937</v>
       </c>
       <c r="AV47" s="11">
-        <f t="shared" si="150"/>
+        <f t="shared" si="153"/>
         <v>1.4137064944384643</v>
       </c>
       <c r="AW47" s="11">
-        <f t="shared" si="150"/>
+        <f t="shared" si="153"/>
         <v>1.4264361606338916</v>
       </c>
       <c r="AX47" s="11">
-        <f t="shared" si="150"/>
+        <f t="shared" si="153"/>
         <v>0.92455430986950926</v>
       </c>
       <c r="AY47" s="11">
-        <f t="shared" si="150"/>
+        <f t="shared" si="153"/>
         <v>0.75206535707729028</v>
       </c>
       <c r="AZ47" s="11">
-        <f t="shared" si="150"/>
+        <f t="shared" si="153"/>
         <v>1.123601687144691</v>
       </c>
       <c r="BA47" s="11">
-        <f t="shared" si="150"/>
+        <f t="shared" si="153"/>
         <v>1.1963726141866868</v>
       </c>
       <c r="BB47" s="11">
-        <f t="shared" si="150"/>
+        <f t="shared" si="153"/>
         <v>1.4227189965607931</v>
       </c>
       <c r="BC47" s="11">
-        <f t="shared" si="150"/>
+        <f t="shared" si="153"/>
         <v>1.867053854276663</v>
       </c>
       <c r="BD47" s="11">
-        <f t="shared" si="150"/>
+        <f t="shared" si="153"/>
         <v>1.6561805246776344</v>
       </c>
       <c r="BE47" s="11">
-        <f t="shared" si="150"/>
+        <f t="shared" si="153"/>
         <v>2.1080990254284755</v>
       </c>
       <c r="BF47" s="11">
-        <f t="shared" si="150"/>
+        <f t="shared" si="153"/>
         <v>2.6940532991970207</v>
       </c>
       <c r="BG47" s="11">
-        <f t="shared" si="150"/>
+        <f t="shared" si="153"/>
         <v>2.724077122031507</v>
       </c>
       <c r="BH47" s="11">
-        <f t="shared" si="150"/>
+        <f t="shared" si="153"/>
         <v>2.581227863046045</v>
       </c>
       <c r="BI47" s="11">
-        <f t="shared" si="150"/>
+        <f t="shared" si="153"/>
         <v>2.6432908679604714</v>
       </c>
       <c r="BJ47" s="11">
-        <f t="shared" si="150"/>
+        <f t="shared" si="153"/>
         <v>2.6900896535013326</v>
       </c>
       <c r="BK47" s="11">
@@ -10660,43 +10885,43 @@
         <v>5.7635038396459715</v>
       </c>
       <c r="BP47" s="11">
-        <f t="shared" ref="BP47:BR47" si="151">+BP46/BP48</f>
+        <f t="shared" ref="BP47:BR47" si="154">+BP46/BP48</f>
         <v>8.0537609674345241</v>
       </c>
       <c r="BQ47" s="11">
-        <f t="shared" si="151"/>
+        <f t="shared" si="154"/>
         <v>9.6463099263974534</v>
       </c>
       <c r="BR47" s="11">
-        <f t="shared" si="151"/>
+        <f t="shared" si="154"/>
         <v>9.6839640001338285</v>
       </c>
       <c r="BS47" s="11">
-        <f t="shared" ref="BS47" si="152">+BS46/BS48</f>
+        <f t="shared" ref="BS47" si="155">+BS46/BS48</f>
         <v>11.802216196310804</v>
       </c>
       <c r="BT47" s="11">
-        <f t="shared" ref="BT47" si="153">+BT46/BT48</f>
+        <f t="shared" ref="BT47" si="156">+BT46/BT48</f>
         <v>13.64125920964501</v>
       </c>
       <c r="BU47" s="11">
-        <f t="shared" ref="BU47" si="154">+BU46/BU48</f>
+        <f t="shared" ref="BU47" si="157">+BU46/BU48</f>
         <v>16.335130409645007</v>
       </c>
       <c r="BV47" s="11">
-        <f t="shared" ref="BV47" si="155">+BV46/BV48</f>
+        <f t="shared" ref="BV47" si="158">+BV46/BV48</f>
         <v>20.312424359378433</v>
       </c>
       <c r="BW47" s="11">
-        <f t="shared" ref="BW47" si="156">+BW46/BW48</f>
+        <f t="shared" ref="BW47" si="159">+BW46/BW48</f>
         <v>25.132944882419149</v>
       </c>
       <c r="BX47" s="11">
-        <f t="shared" ref="BX47" si="157">+BX46/BX48</f>
+        <f t="shared" ref="BX47" si="160">+BX46/BX48</f>
         <v>27.812844584594338</v>
       </c>
       <c r="BY47" s="11">
-        <f t="shared" ref="BY47" si="158">+BY46/BY48</f>
+        <f t="shared" ref="BY47" si="161">+BY46/BY48</f>
         <v>30.765732413405047</v>
       </c>
     </row>
@@ -10789,20 +11014,19 @@
         <v>7461</v>
       </c>
       <c r="AE48" s="4">
-        <f>+AD48</f>
-        <v>7461</v>
+        <v>7466</v>
       </c>
       <c r="AF48" s="4">
         <f>+AE48</f>
-        <v>7461</v>
+        <v>7466</v>
       </c>
       <c r="AG48" s="4">
         <f>+AF48</f>
-        <v>7461</v>
+        <v>7466</v>
       </c>
       <c r="AH48" s="4">
         <f>+AG48</f>
-        <v>7461</v>
+        <v>7466</v>
       </c>
       <c r="AK48" s="4">
         <v>537</v>
@@ -10918,23 +11142,23 @@
         <v>7465</v>
       </c>
       <c r="BU48" s="5">
-        <f t="shared" ref="BU48:BY48" si="159">+BT48</f>
+        <f t="shared" ref="BU48:BY48" si="162">+BT48</f>
         <v>7465</v>
       </c>
       <c r="BV48" s="5">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>7465</v>
       </c>
       <c r="BW48" s="5">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>7465</v>
       </c>
       <c r="BX48" s="5">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>7465</v>
       </c>
       <c r="BY48" s="5">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>7465</v>
       </c>
     </row>
@@ -10957,43 +11181,43 @@
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
       <c r="G50" s="10">
-        <f t="shared" ref="G50:J50" si="160">G33/C33-1</f>
+        <f t="shared" ref="G50:J50" si="163">G33/C33-1</f>
         <v>0.13653555219364599</v>
       </c>
       <c r="H50" s="10">
-        <f t="shared" si="160"/>
+        <f t="shared" si="163"/>
         <v>0.13658341289150311</v>
       </c>
       <c r="I50" s="10">
-        <f t="shared" si="160"/>
+        <f t="shared" si="163"/>
         <v>0.14556278826338698</v>
       </c>
       <c r="J50" s="10">
-        <f t="shared" si="160"/>
+        <f t="shared" si="163"/>
         <v>0.12800664353293589</v>
       </c>
       <c r="K50" s="10">
-        <f t="shared" ref="K50:O50" si="161">K33/G33-1</f>
+        <f t="shared" ref="K50:O50" si="164">K33/G33-1</f>
         <v>0.12400544546967174</v>
       </c>
       <c r="L50" s="10">
-        <f t="shared" si="161"/>
+        <f t="shared" si="164"/>
         <v>0.16718148810491518</v>
       </c>
       <c r="M50" s="10">
-        <f t="shared" si="161"/>
+        <f t="shared" si="164"/>
         <v>0.19088546871876866</v>
       </c>
       <c r="N50" s="10">
-        <f t="shared" si="161"/>
+        <f t="shared" si="164"/>
         <v>0.21347251071437956</v>
       </c>
       <c r="O50" s="10">
-        <f t="shared" si="161"/>
+        <f t="shared" si="164"/>
         <v>0.21970716477364483</v>
       </c>
       <c r="P50" s="10">
-        <f t="shared" ref="P50" si="162">P33/L33-1</f>
+        <f t="shared" ref="P50" si="165">P33/L33-1</f>
         <v>0.2008543040208004</v>
       </c>
       <c r="Q50" s="10">
@@ -11001,15 +11225,15 @@
         <v>0.18352275451973332</v>
       </c>
       <c r="R50" s="10">
-        <f t="shared" ref="R50:S50" si="163">R33/N33-1</f>
+        <f t="shared" ref="R50:S50" si="166">R33/N33-1</f>
         <v>0.12378661813139202</v>
       </c>
       <c r="S50" s="10">
-        <f t="shared" si="163"/>
+        <f t="shared" si="166"/>
         <v>0.1060308493501334</v>
       </c>
       <c r="T50" s="10">
-        <f t="shared" ref="T50" si="164">T33/P33-1</f>
+        <f t="shared" ref="T50" si="167">T33/P33-1</f>
         <v>1.9699195793380753E-2</v>
       </c>
       <c r="U50" s="10">
@@ -11021,175 +11245,175 @@
         <v>8.3370288248336921E-2</v>
       </c>
       <c r="W50" s="10">
-        <f t="shared" ref="W50:AB50" si="165">W33/S33-1</f>
+        <f t="shared" ref="W50:AB50" si="168">W33/S33-1</f>
         <v>0.12758868361198683</v>
       </c>
       <c r="X50" s="10">
-        <f t="shared" si="165"/>
+        <f t="shared" si="168"/>
         <v>0.17580146738203117</v>
       </c>
       <c r="Y50" s="10">
-        <f t="shared" si="165"/>
+        <f t="shared" si="168"/>
         <v>0.17028964943148495</v>
       </c>
       <c r="Z50" s="10">
-        <f t="shared" si="165"/>
+        <f t="shared" si="168"/>
         <v>0.15195144957198026</v>
       </c>
       <c r="AA50" s="10">
-        <f t="shared" si="165"/>
+        <f t="shared" si="168"/>
         <v>0.16044729904276589</v>
       </c>
       <c r="AB50" s="10">
-        <f t="shared" si="165"/>
+        <f t="shared" si="168"/>
         <v>0.12273460174137374</v>
       </c>
       <c r="AC50" s="10">
-        <f t="shared" ref="AC50:AH50" si="166">AC33/Y33-1</f>
+        <f t="shared" ref="AC50:AH50" si="169">AC33/Y33-1</f>
         <v>0.13269100197225914</v>
       </c>
       <c r="AD50" s="10">
-        <f t="shared" si="166"/>
+        <f t="shared" si="169"/>
         <v>0.18097548163826538</v>
       </c>
       <c r="AE50" s="10">
-        <f t="shared" si="166"/>
+        <f t="shared" si="169"/>
+        <v>0.18431043683769155</v>
+      </c>
+      <c r="AF50" s="10">
+        <f t="shared" si="169"/>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="AG50" s="10">
+        <f t="shared" si="169"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AF50" s="10">
-        <f t="shared" si="166"/>
+      <c r="AH50" s="10">
+        <f t="shared" si="169"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AG50" s="10">
-        <f t="shared" si="166"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="AH50" s="10">
-        <f t="shared" si="166"/>
-        <v>0.10000000000000009</v>
-      </c>
       <c r="AL50" s="18">
-        <f t="shared" ref="AL50:BL50" si="167">AL33/AK33-1</f>
+        <f t="shared" ref="AL50:BL50" si="170">AL33/AK33-1</f>
         <v>0.55790363482671168</v>
       </c>
       <c r="AM50" s="18">
-        <f t="shared" si="167"/>
+        <f t="shared" si="170"/>
         <v>0.49701573521432452</v>
       </c>
       <c r="AN50" s="18">
-        <f t="shared" si="167"/>
+        <f t="shared" si="170"/>
         <v>0.36027546212395789</v>
       </c>
       <c r="AO50" s="18">
-        <f t="shared" si="167"/>
+        <f t="shared" si="170"/>
         <v>0.23874233946176382</v>
       </c>
       <c r="AP50" s="18">
-        <f t="shared" si="167"/>
+        <f t="shared" si="170"/>
         <v>0.27704882770488282</v>
       </c>
       <c r="AQ50" s="18">
-        <f t="shared" si="167"/>
+        <f t="shared" si="170"/>
         <v>0.46050193700522146</v>
       </c>
       <c r="AR50" s="18">
-        <f t="shared" si="167"/>
+        <f t="shared" si="170"/>
         <v>0.30988351977857231</v>
       </c>
       <c r="AS50" s="18">
-        <f t="shared" si="167"/>
+        <f t="shared" si="170"/>
         <v>0.27522451135763348</v>
       </c>
       <c r="AT50" s="18">
-        <f t="shared" si="167"/>
+        <f t="shared" si="170"/>
         <v>0.36336647334990335</v>
       </c>
       <c r="AU50" s="18">
-        <f t="shared" si="167"/>
+        <f t="shared" si="170"/>
         <v>0.16250569706790907</v>
       </c>
       <c r="AV50" s="18">
-        <f t="shared" si="167"/>
+        <f t="shared" si="170"/>
         <v>0.10193413486670155</v>
       </c>
       <c r="AW50" s="18">
-        <f t="shared" si="167"/>
+        <f t="shared" si="170"/>
         <v>0.12132352941176472</v>
       </c>
       <c r="AX50" s="18">
-        <f t="shared" si="167"/>
+        <f t="shared" si="170"/>
         <v>0.13474352194606021</v>
       </c>
       <c r="AY50" s="18">
-        <f t="shared" si="167"/>
+        <f t="shared" si="170"/>
         <v>0.14440612669711372</v>
       </c>
       <c r="AZ50" s="18">
-        <f t="shared" si="167"/>
+        <f t="shared" si="170"/>
         <v>8.0168318175648068E-2</v>
       </c>
       <c r="BA50" s="18">
-        <f t="shared" si="167"/>
+        <f t="shared" si="170"/>
         <v>0.11294862772695291</v>
       </c>
       <c r="BB50" s="18">
-        <f t="shared" si="167"/>
+        <f t="shared" si="170"/>
         <v>0.15446456799602548</v>
       </c>
       <c r="BC50" s="18">
-        <f t="shared" si="167"/>
+        <f t="shared" si="170"/>
         <v>0.18187864324556946</v>
       </c>
       <c r="BD50" s="18">
-        <f t="shared" si="167"/>
+        <f t="shared" si="170"/>
         <v>-3.2820258192651441E-2</v>
       </c>
       <c r="BE50" s="18">
-        <f t="shared" si="167"/>
+        <f t="shared" si="170"/>
         <v>6.9254068484008391E-2</v>
       </c>
       <c r="BF50" s="18">
-        <f t="shared" si="167"/>
+        <f t="shared" si="170"/>
         <v>0.11937455988733126</v>
       </c>
       <c r="BG50" s="18">
-        <f t="shared" si="167"/>
+        <f t="shared" si="170"/>
         <v>5.4044007263057026E-2</v>
       </c>
       <c r="BH50" s="18">
-        <f t="shared" si="167"/>
+        <f t="shared" si="170"/>
         <v>5.5966252051598442E-2</v>
       </c>
       <c r="BI50" s="18">
-        <f t="shared" si="167"/>
+        <f t="shared" si="170"/>
         <v>0.11540289534868786</v>
       </c>
       <c r="BJ50" s="18">
-        <f t="shared" si="167"/>
+        <f t="shared" si="170"/>
         <v>7.7700874091647165E-2</v>
       </c>
       <c r="BK50" s="18">
-        <f t="shared" si="167"/>
+        <f t="shared" si="170"/>
         <v>-8.8266723658901425E-2</v>
       </c>
       <c r="BL50" s="18">
-        <f t="shared" si="167"/>
+        <f t="shared" si="170"/>
         <v>0.1318682606657291</v>
       </c>
       <c r="BM50" s="10">
-        <f t="shared" ref="BM50:BP50" si="168">+BM33/BL33-1</f>
+        <f t="shared" ref="BM50:BP50" si="171">+BM33/BL33-1</f>
         <v>0.14278613662486661</v>
       </c>
       <c r="BN50" s="10">
-        <f t="shared" si="168"/>
+        <f t="shared" si="171"/>
         <v>0.14029539688292858</v>
       </c>
       <c r="BO50" s="10">
-        <f t="shared" si="168"/>
+        <f t="shared" si="171"/>
         <v>0.13645574247276371</v>
       </c>
       <c r="BP50" s="10">
-        <f t="shared" si="168"/>
+        <f t="shared" si="171"/>
         <v>0.17531727441177503</v>
       </c>
       <c r="BQ50" s="10">
@@ -11201,31 +11425,31 @@
         <v>6.8820295556564215E-2</v>
       </c>
       <c r="BS50" s="10">
-        <f t="shared" ref="BS50:BY50" si="169">+BS33/BR33-1</f>
+        <f t="shared" ref="BS50:BY50" si="172">+BS33/BR33-1</f>
         <v>0.1566996201307127</v>
       </c>
       <c r="BT50" s="10">
-        <f t="shared" si="169"/>
+        <f t="shared" si="172"/>
         <v>0.14932156232406713</v>
       </c>
       <c r="BU50" s="10">
-        <f t="shared" si="169"/>
+        <f t="shared" si="172"/>
         <v>0.17049246780536964</v>
       </c>
       <c r="BV50" s="10">
-        <f t="shared" si="169"/>
+        <f t="shared" si="172"/>
         <v>0.17302583287233553</v>
       </c>
       <c r="BW50" s="10">
-        <f t="shared" si="169"/>
+        <f t="shared" si="172"/>
         <v>0.12728764650206958</v>
       </c>
       <c r="BX50" s="10">
-        <f t="shared" si="169"/>
+        <f t="shared" si="172"/>
         <v>8.7894536853703187E-2</v>
       </c>
       <c r="BY50" s="10">
-        <f t="shared" si="169"/>
+        <f t="shared" si="172"/>
         <v>8.8538753878895093E-2</v>
       </c>
       <c r="CC50" t="s">
@@ -11285,6 +11509,9 @@
       <c r="AD51" s="10">
         <v>0.17</v>
       </c>
+      <c r="AE51" s="10">
+        <v>0.17</v>
+      </c>
       <c r="BM51" s="10"/>
       <c r="BN51" s="10"/>
       <c r="BO51" s="10"/>
@@ -11330,60 +11557,64 @@
       <c r="O52" s="18"/>
       <c r="P52" s="18"/>
       <c r="Q52" s="18">
-        <f t="shared" ref="Q52" si="170">Q78/M78-1</f>
+        <f t="shared" ref="Q52" si="173">Q78/M78-1</f>
         <v>0.12477838234395056</v>
       </c>
       <c r="R52" s="18">
-        <f t="shared" ref="R52" si="171">R78/N78-1</f>
+        <f t="shared" ref="R52" si="174">R78/N78-1</f>
         <v>9.666749733807567E-2</v>
       </c>
       <c r="S52" s="18">
-        <f t="shared" ref="S52:T52" si="172">S78/O78-1</f>
+        <f t="shared" ref="S52:T52" si="175">S78/O78-1</f>
         <v>7.5508960136535519E-2</v>
       </c>
       <c r="T52" s="18">
-        <f t="shared" si="172"/>
+        <f t="shared" si="175"/>
         <v>7.7701324485300205E-2</v>
       </c>
       <c r="U52" s="18">
-        <f t="shared" ref="U52:AD52" si="173">U78/Q78-1</f>
+        <f t="shared" ref="U52:AD52" si="176">U78/Q78-1</f>
         <v>7.6231112077399743E-2</v>
       </c>
       <c r="V52" s="18">
-        <f t="shared" si="173"/>
+        <f t="shared" si="176"/>
         <v>0.11165509833085441</v>
       </c>
       <c r="W52" s="18">
-        <f t="shared" si="173"/>
+        <f t="shared" si="176"/>
         <v>0.11507072905331883</v>
       </c>
       <c r="X52" s="18">
-        <f t="shared" si="173"/>
+        <f t="shared" si="176"/>
         <v>0.16171200726795543</v>
       </c>
       <c r="Y52" s="18">
-        <f t="shared" si="173"/>
+        <f t="shared" si="176"/>
         <v>0.13211787581121692</v>
       </c>
       <c r="Z52" s="18">
-        <f t="shared" si="173"/>
+        <f t="shared" si="176"/>
         <v>0.11839146674595358</v>
       </c>
       <c r="AA52" s="18">
-        <f t="shared" si="173"/>
+        <f t="shared" si="176"/>
         <v>0.13216638204440101</v>
       </c>
       <c r="AB52" s="18">
-        <f t="shared" si="173"/>
+        <f t="shared" si="176"/>
         <v>4.368510231567968E-2</v>
       </c>
       <c r="AC52" s="18">
-        <f t="shared" si="173"/>
+        <f t="shared" si="176"/>
         <v>5.8952111168112831E-2</v>
       </c>
       <c r="AD52" s="18">
-        <f t="shared" si="173"/>
+        <f t="shared" si="176"/>
         <v>0.11765585537684431</v>
+      </c>
+      <c r="AE52" s="18">
+        <f t="shared" ref="AE52" si="177">AE78/AA78-1</f>
+        <v>0.10493993427786452</v>
       </c>
       <c r="BM52" s="10"/>
       <c r="BN52" s="10"/>
@@ -11424,86 +11655,89 @@
       <c r="I53" s="10"/>
       <c r="J53" s="10"/>
       <c r="K53" s="12">
-        <f t="shared" ref="K53:N54" si="174">K27/G27-1</f>
+        <f t="shared" ref="K53:N54" si="178">K27/G27-1</f>
         <v>0.11212422135957389</v>
       </c>
       <c r="L53" s="12">
-        <f t="shared" si="174"/>
+        <f t="shared" si="178"/>
         <v>0.12912227295788936</v>
       </c>
       <c r="M53" s="12">
-        <f t="shared" si="174"/>
+        <f t="shared" si="178"/>
         <v>0.15404922081239891</v>
       </c>
       <c r="N53" s="12">
-        <f t="shared" si="174"/>
+        <f t="shared" si="178"/>
         <v>0.25008509189925121</v>
       </c>
       <c r="O53" s="12">
-        <f t="shared" ref="O53:O54" si="175">O27/K27-1</f>
+        <f t="shared" ref="O53:O54" si="179">O27/K27-1</f>
         <v>0.22079714262521311</v>
       </c>
       <c r="P53" s="12">
-        <f t="shared" ref="P53:P54" si="176">P27/L27-1</f>
+        <f t="shared" ref="P53:P54" si="180">P27/L27-1</f>
         <v>0.19343967647719618</v>
       </c>
       <c r="Q53" s="12">
-        <f t="shared" ref="Q53:Q54" si="177">Q27/M27-1</f>
+        <f t="shared" ref="Q53:Q54" si="181">Q27/M27-1</f>
         <v>0.16506788665879579</v>
       </c>
       <c r="R53" s="12">
-        <f t="shared" ref="R53" si="178">R27/N27-1</f>
+        <f t="shared" ref="R53" si="182">R27/N27-1</f>
         <v>0.12994350282485878</v>
       </c>
       <c r="S53" s="12">
-        <f t="shared" ref="S53" si="179">S27/O27-1</f>
+        <f t="shared" ref="S53" si="183">S27/O27-1</f>
         <v>9.4820134317441296E-2</v>
       </c>
       <c r="T53" s="12">
-        <f t="shared" ref="T53" si="180">T27/P27-1</f>
+        <f t="shared" ref="T53" si="184">T27/P27-1</f>
         <v>6.6892570281124497E-2</v>
       </c>
       <c r="U53" s="12">
-        <f t="shared" ref="U53:Z53" si="181">U27/Q27-1</f>
+        <f t="shared" ref="U53:Z53" si="185">U27/Q27-1</f>
         <v>0.10937994806510853</v>
       </c>
       <c r="V53" s="12">
-        <f t="shared" si="181"/>
+        <f t="shared" si="185"/>
         <v>0.10186746987951811</v>
       </c>
       <c r="W53" s="12">
-        <f t="shared" si="181"/>
+        <f t="shared" si="185"/>
         <v>0.5320983905253569</v>
       </c>
       <c r="X53" s="12">
-        <f t="shared" si="181"/>
+        <f t="shared" si="185"/>
         <v>0.52064463004352435</v>
       </c>
       <c r="Y53" s="12">
-        <f t="shared" si="181"/>
+        <f t="shared" si="185"/>
         <v>0.54789906371317643</v>
       </c>
       <c r="Z53" s="12">
-        <f t="shared" si="181"/>
+        <f t="shared" si="185"/>
         <v>0.56508665463889352</v>
       </c>
       <c r="AA53" s="12">
-        <f t="shared" ref="AA53:AB55" si="182">AA27/W27-1</f>
+        <f t="shared" ref="AA53:AB55" si="186">AA27/W27-1</f>
         <v>0.12253230793625614</v>
       </c>
       <c r="AB53" s="12">
-        <f t="shared" si="182"/>
+        <f t="shared" si="186"/>
         <v>0.13858590546917315</v>
       </c>
       <c r="AC53" s="12">
-        <f t="shared" ref="AC53:AD53" si="183">AC27/Y27-1</f>
+        <f t="shared" ref="AC53:AD53" si="187">AC27/Y27-1</f>
         <v>0.10441485634197623</v>
       </c>
       <c r="AD53" s="12">
-        <f t="shared" si="183"/>
+        <f t="shared" si="187"/>
         <v>0.15667027631257202</v>
       </c>
-      <c r="AE53" s="12"/>
+      <c r="AE53" s="12">
+        <f t="shared" ref="AE53:AE55" si="188">AE27/AA27-1</f>
+        <v>0.16608397782250939</v>
+      </c>
       <c r="AF53" s="12"/>
       <c r="AG53" s="12"/>
       <c r="AH53" s="12"/>
@@ -11512,11 +11746,11 @@
       <c r="BO53" s="10"/>
       <c r="BP53" s="10"/>
       <c r="BQ53" s="10">
-        <f t="shared" ref="BQ53:BR53" si="184">BQ27/BP27-1</f>
+        <f t="shared" ref="BQ53:BR53" si="189">BQ27/BP27-1</f>
         <v>0.17525734953167027</v>
       </c>
       <c r="BR53" s="10">
-        <f t="shared" si="184"/>
+        <f t="shared" si="189"/>
         <v>9.3270626854365268E-2</v>
       </c>
       <c r="BS53" s="10">
@@ -11534,7 +11768,7 @@
       </c>
       <c r="CD53" s="4">
         <f>NPV(CD51,BR46:EE46)+Main!L5-Main!L6</f>
-        <v>3440593.304222832</v>
+        <v>3444043.304222832</v>
       </c>
     </row>
     <row r="54" spans="2:82" s="3" customFormat="1" ht="13">
@@ -11550,86 +11784,89 @@
       <c r="I54" s="10"/>
       <c r="J54" s="10"/>
       <c r="K54" s="12">
-        <f t="shared" si="174"/>
+        <f t="shared" si="178"/>
         <v>0.19741816505301979</v>
       </c>
       <c r="L54" s="12">
-        <f t="shared" si="174"/>
+        <f t="shared" si="178"/>
         <v>0.23017945909512183</v>
       </c>
       <c r="M54" s="12">
-        <f t="shared" si="174"/>
+        <f t="shared" si="178"/>
         <v>0.23100724696685937</v>
       </c>
       <c r="N54" s="12">
-        <f t="shared" si="174"/>
+        <f t="shared" si="178"/>
         <v>0.29945404233041661</v>
       </c>
       <c r="O54" s="12">
-        <f t="shared" si="175"/>
+        <f t="shared" si="179"/>
         <v>0.30232558139534893</v>
       </c>
       <c r="P54" s="12">
-        <f t="shared" si="176"/>
+        <f t="shared" si="180"/>
         <v>0.25518800082186144</v>
       </c>
       <c r="Q54" s="12">
-        <f t="shared" si="177"/>
+        <f t="shared" si="181"/>
         <v>0.25592009525069459</v>
       </c>
       <c r="R54" s="12">
-        <f t="shared" ref="R54:U54" si="185">R28/N28-1</f>
+        <f t="shared" ref="R54:U54" si="190">R28/N28-1</f>
         <v>0.19735251798561149</v>
       </c>
       <c r="S54" s="12">
-        <f t="shared" si="185"/>
+        <f t="shared" si="190"/>
         <v>0.20180936613055822</v>
       </c>
       <c r="T54" s="12">
-        <f t="shared" si="185"/>
+        <f t="shared" si="190"/>
         <v>0.17356905112675292</v>
       </c>
       <c r="U54" s="12">
-        <f t="shared" si="185"/>
+        <f t="shared" si="190"/>
         <v>0.16295359983146374</v>
       </c>
       <c r="V54" s="12">
-        <f t="shared" ref="V54:Z54" si="186">V28/R28-1</f>
+        <f t="shared" ref="V54:Z54" si="191">V28/R28-1</f>
         <v>0.15328782926360307</v>
       </c>
       <c r="W54" s="12">
+        <f t="shared" si="191"/>
+        <v>-1.5350553505535047E-2</v>
+      </c>
+      <c r="X54" s="12">
+        <f t="shared" si="191"/>
+        <v>7.904035707644308E-4</v>
+      </c>
+      <c r="Y54" s="12">
+        <f t="shared" si="191"/>
+        <v>2.7172682396630066E-3</v>
+      </c>
+      <c r="Z54" s="12">
+        <f t="shared" si="191"/>
+        <v>-8.6691951819281021E-3</v>
+      </c>
+      <c r="AA54" s="12">
         <f t="shared" si="186"/>
-        <v>-1.5350553505535047E-2</v>
-      </c>
-      <c r="X54" s="12">
+        <v>0.20381751861290165</v>
+      </c>
+      <c r="AB54" s="12">
         <f t="shared" si="186"/>
-        <v>7.904035707644308E-4</v>
-      </c>
-      <c r="Y54" s="12">
-        <f t="shared" si="186"/>
-        <v>2.7172682396630066E-3</v>
-      </c>
-      <c r="Z54" s="12">
-        <f t="shared" si="186"/>
-        <v>-8.6691951819281021E-3</v>
-      </c>
-      <c r="AA54" s="12">
-        <f t="shared" si="182"/>
-        <v>0.20381751861290165</v>
-      </c>
-      <c r="AB54" s="12">
-        <f t="shared" si="182"/>
         <v>0.18671312427409981</v>
       </c>
       <c r="AC54" s="12">
-        <f t="shared" ref="AC54:AD54" si="187">AC28/Y28-1</f>
+        <f t="shared" ref="AC54:AD54" si="192">AC28/Y28-1</f>
         <v>0.20821101124610442</v>
       </c>
       <c r="AD54" s="12">
-        <f t="shared" si="187"/>
+        <f t="shared" si="192"/>
         <v>0.25616985495059907</v>
       </c>
-      <c r="AE54" s="12"/>
+      <c r="AE54" s="12">
+        <f t="shared" si="188"/>
+        <v>0.28245890752116876</v>
+      </c>
       <c r="AF54" s="12"/>
       <c r="AG54" s="12"/>
       <c r="AH54" s="12"/>
@@ -11638,11 +11875,11 @@
       <c r="BO54" s="10"/>
       <c r="BP54" s="10"/>
       <c r="BQ54" s="10">
-        <f t="shared" ref="BQ54:BR54" si="188">BQ28/BP28-1</f>
+        <f t="shared" ref="BQ54:BR54" si="193">BQ28/BP28-1</f>
         <v>0.24883488681757648</v>
       </c>
       <c r="BR54" s="10">
-        <f t="shared" si="188"/>
+        <f t="shared" si="193"/>
         <v>0.1716246834599493</v>
       </c>
       <c r="BS54" s="10">
@@ -11662,7 +11899,7 @@
       </c>
       <c r="CD54" s="1">
         <f>+CD53/Main!L3</f>
-        <v>461.14372124686128</v>
+        <v>461.29698690367428</v>
       </c>
     </row>
     <row r="55" spans="2:82" s="3" customFormat="1" ht="13">
@@ -11678,86 +11915,89 @@
       <c r="I55" s="10"/>
       <c r="J55" s="10"/>
       <c r="K55" s="12">
-        <f t="shared" ref="K55:Z55" si="189">K29/G29-1</f>
+        <f t="shared" ref="K55:Z55" si="194">K29/G29-1</f>
         <v>6.4313302793496785E-2</v>
       </c>
       <c r="L55" s="12">
-        <f t="shared" si="189"/>
+        <f t="shared" si="194"/>
         <v>0.14465218378623868</v>
       </c>
       <c r="M55" s="12">
-        <f t="shared" si="189"/>
+        <f t="shared" si="194"/>
         <v>0.18541420387378382</v>
       </c>
       <c r="N55" s="12">
-        <f t="shared" si="189"/>
+        <f t="shared" si="194"/>
         <v>9.1092176607281194E-2</v>
       </c>
       <c r="O55" s="12">
-        <f t="shared" si="189"/>
+        <f t="shared" si="194"/>
         <v>0.12802768166089962</v>
       </c>
       <c r="P55" s="12">
-        <f t="shared" si="189"/>
+        <f t="shared" si="194"/>
         <v>0.15493982277476515</v>
       </c>
       <c r="Q55" s="12">
-        <f t="shared" si="189"/>
+        <f t="shared" si="194"/>
         <v>0.11874808223381406</v>
       </c>
       <c r="R55" s="12">
-        <f t="shared" si="189"/>
+        <f t="shared" si="194"/>
         <v>2.6622178049126699E-2</v>
       </c>
       <c r="S55" s="12">
-        <f t="shared" si="189"/>
+        <f t="shared" si="194"/>
         <v>-2.5437677689660321E-3</v>
       </c>
       <c r="T55" s="12">
-        <f t="shared" si="189"/>
+        <f t="shared" si="194"/>
         <v>-0.18482679645004296</v>
       </c>
       <c r="U55" s="12">
-        <f t="shared" si="189"/>
+        <f t="shared" si="194"/>
         <v>-9.0784421283598427E-2</v>
       </c>
       <c r="V55" s="12">
-        <f t="shared" si="189"/>
+        <f t="shared" si="194"/>
         <v>-3.8448240094046016E-2</v>
       </c>
       <c r="W55" s="12">
-        <f t="shared" si="189"/>
+        <f t="shared" si="194"/>
         <v>-0.15406540654065404</v>
       </c>
       <c r="X55" s="12">
-        <f t="shared" si="189"/>
+        <f t="shared" si="194"/>
         <v>2.8376764767858331E-2</v>
       </c>
       <c r="Y55" s="12">
-        <f t="shared" si="189"/>
+        <f t="shared" si="194"/>
         <v>-4.9472096530920107E-2</v>
       </c>
       <c r="Z55" s="12">
-        <f t="shared" si="189"/>
+        <f t="shared" si="194"/>
         <v>-0.11434735706580368</v>
       </c>
       <c r="AA55" s="12">
-        <f t="shared" si="182"/>
+        <f t="shared" si="186"/>
         <v>0.16829225039900697</v>
       </c>
       <c r="AB55" s="12">
-        <f t="shared" si="182"/>
+        <f t="shared" si="186"/>
         <v>6.8301345536503355E-4</v>
       </c>
       <c r="AC55" s="12">
-        <f t="shared" ref="AC55:AD55" si="190">AC29/Y29-1</f>
+        <f t="shared" ref="AC55:AD55" si="195">AC29/Y29-1</f>
         <v>6.0853697238971716E-2</v>
       </c>
       <c r="AD55" s="12">
-        <f t="shared" si="190"/>
+        <f t="shared" si="195"/>
         <v>9.2245229395046646E-2</v>
       </c>
-      <c r="AE55" s="12"/>
+      <c r="AE55" s="12">
+        <f t="shared" si="188"/>
+        <v>4.4019429265330867E-2</v>
+      </c>
       <c r="AF55" s="12"/>
       <c r="AG55" s="12"/>
       <c r="AH55" s="12"/>
@@ -11766,11 +12006,11 @@
       <c r="BO55" s="10"/>
       <c r="BP55" s="10"/>
       <c r="BQ55" s="10">
-        <f t="shared" ref="BQ55:BR55" si="191">BQ29/BP29-1</f>
+        <f t="shared" ref="BQ55:BR55" si="196">BQ29/BP29-1</f>
         <v>0.10690847244560286</v>
       </c>
       <c r="BR55" s="10">
-        <f t="shared" si="191"/>
+        <f t="shared" si="196"/>
         <v>-8.5877480125592931E-2</v>
       </c>
       <c r="BS55" s="10">
@@ -11791,294 +12031,294 @@
         <v>22</v>
       </c>
       <c r="C56" s="9">
-        <f t="shared" ref="C56:D56" si="192">C37/C33</f>
+        <f t="shared" ref="C56:D56" si="197">C37/C33</f>
         <v>0.65943474075092834</v>
       </c>
       <c r="D56" s="9">
-        <f t="shared" si="192"/>
+        <f t="shared" si="197"/>
         <v>0.61741246034923469</v>
       </c>
       <c r="E56" s="9">
-        <f t="shared" ref="E56" si="193">E37/E33</f>
+        <f t="shared" ref="E56" si="198">E37/E33</f>
         <v>0.66733178502502366</v>
       </c>
       <c r="F56" s="9"/>
       <c r="G56" s="9">
-        <f t="shared" ref="G56:AH56" si="194">G37/G33</f>
+        <f t="shared" ref="G56:AH56" si="199">G37/G33</f>
         <v>0.6851913477537438</v>
       </c>
       <c r="H56" s="9">
-        <f t="shared" si="194"/>
+        <f t="shared" si="199"/>
         <v>0.66514929821709212</v>
       </c>
       <c r="I56" s="9">
-        <f t="shared" si="194"/>
+        <f t="shared" si="199"/>
         <v>0.68661660146769077</v>
       </c>
       <c r="J56" s="9">
-        <f t="shared" si="194"/>
+        <f t="shared" si="199"/>
         <v>0.67557121447164303</v>
       </c>
       <c r="K56" s="9">
-        <f t="shared" si="194"/>
+        <f t="shared" si="199"/>
         <v>0.70388114334930285</v>
       </c>
       <c r="L56" s="9">
-        <f t="shared" si="194"/>
+        <f t="shared" si="199"/>
         <v>0.67048936762930633</v>
       </c>
       <c r="M56" s="9">
-        <f t="shared" si="194"/>
+        <f t="shared" si="199"/>
         <v>0.68721526878626582</v>
       </c>
       <c r="N56" s="9">
-        <f t="shared" si="194"/>
+        <f t="shared" si="199"/>
         <v>0.69684954064829263</v>
       </c>
       <c r="O56" s="9">
-        <f t="shared" si="194"/>
+        <f t="shared" si="199"/>
         <v>0.6988768012004325</v>
       </c>
       <c r="P56" s="9">
-        <f t="shared" si="194"/>
+        <f t="shared" si="199"/>
         <v>0.67213114754098358</v>
       </c>
       <c r="Q56" s="9">
-        <f t="shared" si="194"/>
+        <f t="shared" si="199"/>
         <v>0.68365072933549431</v>
       </c>
       <c r="R56" s="9">
-        <f t="shared" si="194"/>
+        <f t="shared" si="199"/>
         <v>0.68323532247180174</v>
       </c>
       <c r="S56" s="9">
-        <f t="shared" si="194"/>
+        <f t="shared" si="199"/>
         <v>0.69171222217788597</v>
       </c>
       <c r="T56" s="9">
-        <f t="shared" si="194"/>
+        <f t="shared" si="199"/>
         <v>0.66845507801391546</v>
       </c>
       <c r="U56" s="9">
-        <f t="shared" si="194"/>
+        <f t="shared" si="199"/>
         <v>0.69487485101311086</v>
       </c>
       <c r="V56" s="9">
-        <f t="shared" si="194"/>
+        <f t="shared" si="199"/>
         <v>0.70109807969531401</v>
       </c>
       <c r="W56" s="9">
-        <f t="shared" si="194"/>
+        <f t="shared" si="199"/>
         <v>0.71155581506449384</v>
       </c>
       <c r="X56" s="9">
-        <f t="shared" si="194"/>
+        <f t="shared" si="199"/>
         <v>0.68360206385037081</v>
       </c>
       <c r="Y56" s="9">
-        <f t="shared" si="194"/>
+        <f t="shared" si="199"/>
         <v>0.70084710142584628</v>
       </c>
       <c r="Z56" s="9">
-        <f t="shared" si="194"/>
+        <f t="shared" si="199"/>
         <v>0.69589197707293715</v>
       </c>
       <c r="AA56" s="9">
-        <f t="shared" si="194"/>
+        <f t="shared" si="199"/>
         <v>0.69354273080734929</v>
       </c>
       <c r="AB56" s="9">
-        <f t="shared" si="194"/>
+        <f t="shared" si="199"/>
         <v>0.68693991268382348</v>
       </c>
       <c r="AC56" s="9">
-        <f t="shared" si="194"/>
+        <f t="shared" si="199"/>
         <v>0.6871663859789342</v>
       </c>
       <c r="AD56" s="9">
-        <f t="shared" si="194"/>
+        <f t="shared" si="199"/>
         <v>0.68584921704320978</v>
       </c>
       <c r="AE56" s="9">
-        <f t="shared" si="194"/>
+        <f t="shared" si="199"/>
+        <v>0.69045871795862135</v>
+      </c>
+      <c r="AF56" s="9">
+        <f t="shared" si="199"/>
         <v>0.7</v>
       </c>
-      <c r="AF56" s="9">
-        <f t="shared" si="194"/>
+      <c r="AG56" s="9">
+        <f t="shared" si="199"/>
         <v>0.7</v>
       </c>
-      <c r="AG56" s="9">
-        <f t="shared" si="194"/>
-        <v>0.7</v>
-      </c>
       <c r="AH56" s="9">
-        <f t="shared" si="194"/>
+        <f t="shared" si="199"/>
         <v>0.7</v>
       </c>
       <c r="AI56" s="9"/>
       <c r="AJ56" s="9"/>
       <c r="AK56" s="9">
-        <f t="shared" ref="AK56:BY56" si="195">AK37/AK33</f>
+        <f t="shared" ref="AK56:BY56" si="200">AK37/AK33</f>
         <v>0.78613693998309386</v>
       </c>
       <c r="AL56" s="9">
-        <f t="shared" si="195"/>
+        <f t="shared" si="200"/>
         <v>0.8035811177428106</v>
       </c>
       <c r="AM56" s="9">
-        <f t="shared" si="195"/>
+        <f t="shared" si="200"/>
         <v>0.8307357738310982</v>
       </c>
       <c r="AN56" s="9">
-        <f t="shared" si="195"/>
+        <f t="shared" si="200"/>
         <v>0.83133493205435649</v>
       </c>
       <c r="AO56" s="9">
-        <f t="shared" si="195"/>
+        <f t="shared" si="200"/>
         <v>0.83587868358786832</v>
       </c>
       <c r="AP56" s="9">
-        <f t="shared" si="195"/>
+        <f t="shared" si="200"/>
         <v>0.85228229745662798</v>
       </c>
       <c r="AQ56" s="9">
-        <f t="shared" si="195"/>
+        <f t="shared" si="200"/>
         <v>0.86299158113251062</v>
       </c>
       <c r="AR56" s="9">
-        <f t="shared" si="195"/>
+        <f t="shared" si="200"/>
         <v>0.90447261841873572</v>
       </c>
       <c r="AS56" s="9">
-        <f t="shared" si="195"/>
+        <f t="shared" si="200"/>
         <v>0.91735708367854185</v>
       </c>
       <c r="AT56" s="9">
-        <f t="shared" si="195"/>
+        <f t="shared" si="200"/>
         <v>0.85749734136830913</v>
       </c>
       <c r="AU56" s="9">
-        <f t="shared" si="195"/>
+        <f t="shared" si="200"/>
         <v>0.86922808851716327</v>
       </c>
       <c r="AV56" s="9">
-        <f t="shared" si="195"/>
+        <f t="shared" si="200"/>
         <v>0.86341714104996836</v>
       </c>
       <c r="AW56" s="9">
-        <f t="shared" si="195"/>
+        <f t="shared" si="200"/>
         <v>0.8169927727833598</v>
       </c>
       <c r="AX56" s="9">
-        <f t="shared" si="195"/>
+        <f t="shared" si="200"/>
         <v>0.82334482865753256</v>
       </c>
       <c r="AY56" s="9">
-        <f t="shared" si="195"/>
+        <f t="shared" si="200"/>
         <v>0.81767340844305691</v>
       </c>
       <c r="AZ56" s="9">
-        <f t="shared" si="195"/>
+        <f t="shared" si="200"/>
         <v>0.84417412285111093</v>
       </c>
       <c r="BA56" s="9">
-        <f t="shared" si="195"/>
+        <f t="shared" si="200"/>
         <v>0.82724357526760306</v>
       </c>
       <c r="BB56" s="9">
-        <f t="shared" si="195"/>
+        <f t="shared" si="200"/>
         <v>0.79083369195258402</v>
       </c>
       <c r="BC56" s="9">
-        <f t="shared" si="195"/>
+        <f t="shared" si="200"/>
         <v>0.80804369414101296</v>
       </c>
       <c r="BD56" s="9">
-        <f t="shared" si="195"/>
+        <f t="shared" si="200"/>
         <v>0.79199822030562828</v>
       </c>
       <c r="BE56" s="9">
-        <f t="shared" si="195"/>
+        <f t="shared" si="200"/>
         <v>0.80162921707957235</v>
       </c>
       <c r="BF56" s="9">
-        <f t="shared" si="195"/>
+        <f t="shared" si="200"/>
         <v>0.77729007906438097</v>
       </c>
       <c r="BG56" s="9">
-        <f t="shared" si="195"/>
+        <f t="shared" si="200"/>
         <v>0.76221803236439101</v>
       </c>
       <c r="BH56" s="9">
-        <f t="shared" si="195"/>
+        <f t="shared" si="200"/>
         <v>0.7398938971598864</v>
       </c>
       <c r="BI56" s="9">
-        <f t="shared" si="195"/>
+        <f t="shared" si="200"/>
         <v>0.68981838701876019</v>
       </c>
       <c r="BJ56" s="9">
-        <f t="shared" si="195"/>
+        <f t="shared" si="200"/>
         <v>0.64695447745244705</v>
       </c>
       <c r="BK56" s="9">
-        <f t="shared" si="195"/>
+        <f t="shared" si="200"/>
         <v>0.61579934364744493</v>
       </c>
       <c r="BL56" s="9">
-        <f t="shared" si="195"/>
+        <f t="shared" si="200"/>
         <v>0.64522475691460168</v>
       </c>
       <c r="BM56" s="9">
-        <f t="shared" si="195"/>
+        <f t="shared" si="200"/>
         <v>0.65247372236317502</v>
       </c>
       <c r="BN56" s="9">
-        <f t="shared" si="195"/>
+        <f t="shared" si="200"/>
         <v>0.65901957200638894</v>
       </c>
       <c r="BO56" s="9">
-        <f t="shared" si="195"/>
+        <f t="shared" si="200"/>
         <v>0.67781001992797962</v>
       </c>
       <c r="BP56" s="9">
-        <f t="shared" si="195"/>
+        <f t="shared" si="200"/>
         <v>0.68925800771024703</v>
       </c>
       <c r="BQ56" s="9">
-        <f t="shared" si="195"/>
+        <f t="shared" si="200"/>
         <v>0.68401674484289099</v>
       </c>
       <c r="BR56" s="9">
-        <f t="shared" si="195"/>
+        <f t="shared" si="200"/>
         <v>0.68920085883491022</v>
       </c>
       <c r="BS56" s="9">
-        <f t="shared" si="195"/>
+        <f t="shared" si="200"/>
         <v>0.69764443827971379</v>
       </c>
       <c r="BT56" s="9">
-        <f t="shared" si="195"/>
+        <f t="shared" si="200"/>
         <v>0.68823742386165188</v>
       </c>
       <c r="BU56" s="9">
-        <f t="shared" si="195"/>
+        <f t="shared" si="200"/>
         <v>0.67</v>
       </c>
       <c r="BV56" s="9">
-        <f t="shared" si="195"/>
+        <f t="shared" si="200"/>
         <v>0.67</v>
       </c>
       <c r="BW56" s="9">
-        <f t="shared" si="195"/>
+        <f t="shared" si="200"/>
         <v>0.67</v>
       </c>
       <c r="BX56" s="9">
-        <f t="shared" si="195"/>
+        <f t="shared" si="200"/>
         <v>0.67</v>
       </c>
       <c r="BY56" s="9">
-        <f t="shared" si="195"/>
+        <f t="shared" si="200"/>
         <v>0.67</v>
       </c>
     </row>
@@ -12087,129 +12327,129 @@
         <v>455</v>
       </c>
       <c r="C57" s="9">
-        <f t="shared" ref="C57:D57" si="196">+C42/C33</f>
+        <f t="shared" ref="C57:D57" si="201">+C42/C33</f>
         <v>0.34228441754916794</v>
       </c>
       <c r="D57" s="9">
-        <f t="shared" si="196"/>
+        <f t="shared" si="201"/>
         <v>0.3159126605278556</v>
       </c>
       <c r="E57" s="9">
-        <f t="shared" ref="E57" si="197">+E42/E33</f>
+        <f t="shared" ref="E57" si="202">+E42/E33</f>
         <v>0.3382617513329626</v>
       </c>
       <c r="F57" s="9"/>
       <c r="G57" s="9">
-        <f t="shared" ref="G57:AB57" si="198">+G42/G33</f>
+        <f t="shared" ref="G57:AB57" si="203">+G42/G33</f>
         <v>0.38378460142187265</v>
       </c>
       <c r="H57" s="9">
-        <f t="shared" si="198"/>
+        <f t="shared" si="203"/>
         <v>0.37638866309001245</v>
       </c>
       <c r="I57" s="9">
-        <f t="shared" si="198"/>
+        <f t="shared" si="203"/>
         <v>0.37049199051997372</v>
       </c>
       <c r="J57" s="9">
-        <f t="shared" si="198"/>
+        <f t="shared" si="203"/>
         <v>0.35250966266137301</v>
       </c>
       <c r="K57" s="9">
-        <f t="shared" si="198"/>
+        <f t="shared" si="203"/>
         <v>0.42730257845723207</v>
       </c>
       <c r="L57" s="9">
-        <f t="shared" si="198"/>
+        <f t="shared" si="203"/>
         <v>0.41547497446373849</v>
       </c>
       <c r="M57" s="9">
-        <f t="shared" si="198"/>
+        <f t="shared" si="203"/>
         <v>0.40876612477820939</v>
       </c>
       <c r="N57" s="9">
-        <f t="shared" si="198"/>
+        <f t="shared" si="203"/>
         <v>0.41374154966198645</v>
       </c>
       <c r="O57" s="9">
-        <f t="shared" si="198"/>
+        <f t="shared" si="203"/>
         <v>0.44658737339188381</v>
       </c>
       <c r="P57" s="9">
-        <f t="shared" si="198"/>
+        <f t="shared" si="203"/>
         <v>0.43007655428394681</v>
       </c>
       <c r="Q57" s="9">
-        <f t="shared" si="198"/>
+        <f t="shared" si="203"/>
         <v>0.41256077795786061</v>
       </c>
       <c r="R57" s="9">
-        <f t="shared" si="198"/>
+        <f t="shared" si="203"/>
         <v>0.3959124650535043</v>
       </c>
       <c r="S57" s="9">
-        <f t="shared" si="198"/>
+        <f t="shared" si="203"/>
         <v>0.42931247755476637</v>
       </c>
       <c r="T57" s="9">
-        <f t="shared" si="198"/>
+        <f t="shared" si="203"/>
         <v>0.3867328947617874</v>
       </c>
       <c r="U57" s="9">
-        <f t="shared" si="198"/>
+        <f t="shared" si="203"/>
         <v>0.42287681858599618</v>
       </c>
       <c r="V57" s="9">
-        <f t="shared" si="198"/>
+        <f t="shared" si="203"/>
         <v>0.4316503230169606</v>
       </c>
       <c r="W57" s="9">
-        <f t="shared" si="198"/>
+        <f t="shared" si="203"/>
         <v>0.47587451563246458</v>
       </c>
       <c r="X57" s="9">
-        <f t="shared" si="198"/>
+        <f t="shared" si="203"/>
         <v>0.43585940019348596</v>
       </c>
       <c r="Y57" s="9">
-        <f t="shared" si="198"/>
+        <f t="shared" si="203"/>
         <v>0.44587603866921011</v>
       </c>
       <c r="Z57" s="9">
-        <f t="shared" si="198"/>
+        <f t="shared" si="203"/>
         <v>0.43142737960974553</v>
       </c>
       <c r="AA57" s="9">
-        <f t="shared" si="198"/>
+        <f t="shared" si="203"/>
         <v>0.46583822520393381</v>
       </c>
       <c r="AB57" s="9">
-        <f t="shared" si="198"/>
+        <f t="shared" si="203"/>
         <v>0.45457548253676472</v>
       </c>
       <c r="AC57" s="9">
-        <f t="shared" ref="AC57:AH57" si="199">+AC42/AC33</f>
+        <f t="shared" ref="AC57:AH57" si="204">+AC42/AC33</f>
         <v>0.45671224274255701</v>
       </c>
       <c r="AD57" s="9">
-        <f t="shared" si="199"/>
+        <f t="shared" si="204"/>
         <v>0.44901296424693554</v>
       </c>
       <c r="AE57" s="9">
-        <f t="shared" si="199"/>
-        <v>0.7</v>
+        <f t="shared" si="204"/>
+        <v>0.48872838695557014</v>
       </c>
       <c r="AF57" s="9">
-        <f t="shared" si="199"/>
-        <v>0.7</v>
+        <f t="shared" si="204"/>
+        <v>0.47773837116368278</v>
       </c>
       <c r="AG57" s="9">
-        <f t="shared" si="199"/>
-        <v>0.7</v>
+        <f t="shared" si="204"/>
+        <v>0.46954585676362276</v>
       </c>
       <c r="AH57" s="9">
-        <f t="shared" si="199"/>
-        <v>0.7</v>
+        <f t="shared" si="204"/>
+        <v>0.46316374720372572</v>
       </c>
       <c r="AI57" s="9"/>
       <c r="AJ57" s="9"/>
@@ -12233,91 +12473,91 @@
       <c r="BB57" s="9"/>
       <c r="BC57" s="9"/>
       <c r="BD57" s="9">
-        <f t="shared" ref="BD57:BY57" si="200">BD42/BD33</f>
+        <f t="shared" ref="BD57:BY57" si="205">BD42/BD33</f>
         <v>0.35410784263394768</v>
       </c>
       <c r="BE57" s="9">
-        <f t="shared" si="200"/>
+        <f t="shared" si="205"/>
         <v>0.38661097240893672</v>
       </c>
       <c r="BF57" s="9">
-        <f t="shared" si="200"/>
+        <f t="shared" si="205"/>
         <v>0.38833049769097694</v>
       </c>
       <c r="BG57" s="9">
-        <f t="shared" si="200"/>
+        <f t="shared" si="205"/>
         <v>0.37920323372624554</v>
       </c>
       <c r="BH57" s="9">
-        <f t="shared" si="200"/>
+        <f t="shared" si="205"/>
         <v>0.34379375457616668</v>
       </c>
       <c r="BI57" s="9">
-        <f t="shared" si="200"/>
+        <f t="shared" si="205"/>
         <v>0.32114518673776099</v>
       </c>
       <c r="BJ57" s="9">
-        <f t="shared" si="200"/>
+        <f t="shared" si="205"/>
         <v>0.30104723231459712</v>
       </c>
       <c r="BK57" s="9">
-        <f t="shared" si="200"/>
+        <f t="shared" si="205"/>
         <v>0.24955461790904829</v>
       </c>
       <c r="BL57" s="9">
-        <f t="shared" si="200"/>
+        <f t="shared" si="205"/>
         <v>0.30372472067183731</v>
       </c>
       <c r="BM57" s="9">
-        <f t="shared" si="200"/>
+        <f t="shared" si="205"/>
         <v>0.31766944545125048</v>
       </c>
       <c r="BN57" s="9">
-        <f t="shared" si="200"/>
+        <f t="shared" si="205"/>
         <v>0.3413698020549415</v>
       </c>
       <c r="BO57" s="9">
-        <f t="shared" si="200"/>
+        <f t="shared" si="205"/>
         <v>0.37030381428521486</v>
       </c>
       <c r="BP57" s="9">
-        <f t="shared" si="200"/>
+        <f t="shared" si="205"/>
         <v>0.41594878872971303</v>
       </c>
       <c r="BQ57" s="9">
-        <f t="shared" si="200"/>
+        <f t="shared" si="205"/>
         <v>0.4205527815604983</v>
       </c>
       <c r="BR57" s="9">
-        <f t="shared" si="200"/>
+        <f t="shared" si="205"/>
         <v>0.41772880636104098</v>
       </c>
       <c r="BS57" s="9">
-        <f t="shared" si="200"/>
+        <f t="shared" si="205"/>
         <v>0.44644299573273716</v>
       </c>
       <c r="BT57" s="9">
-        <f t="shared" si="200"/>
+        <f t="shared" si="205"/>
         <v>0.45621956240859851</v>
       </c>
       <c r="BU57" s="9">
-        <f t="shared" si="200"/>
+        <f t="shared" si="205"/>
         <v>0.46583089693458635</v>
       </c>
       <c r="BV57" s="9">
-        <f t="shared" si="200"/>
+        <f t="shared" si="205"/>
         <v>0.49072502560115139</v>
       </c>
       <c r="BW57" s="9">
-        <f t="shared" si="200"/>
+        <f t="shared" si="205"/>
         <v>0.50619688887411651</v>
       </c>
       <c r="BX57" s="9">
-        <f t="shared" si="200"/>
+        <f t="shared" si="205"/>
         <v>0.51491400706211232</v>
       </c>
       <c r="BY57" s="9">
-        <f t="shared" si="200"/>
+        <f t="shared" si="205"/>
         <v>0.52325412424976847</v>
       </c>
     </row>
@@ -12326,294 +12566,294 @@
         <v>89</v>
       </c>
       <c r="C58" s="9">
-        <f t="shared" ref="C58:D58" si="201">+C45/C44</f>
+        <f t="shared" ref="C58:D58" si="206">+C45/C44</f>
         <v>0.13667938557871051</v>
       </c>
       <c r="D58" s="9">
-        <f t="shared" si="201"/>
+        <f t="shared" si="206"/>
         <v>0.18921521425132404</v>
       </c>
       <c r="E58" s="9">
-        <f t="shared" ref="E58" si="202">+E45/E44</f>
+        <f t="shared" ref="E58" si="207">+E45/E44</f>
         <v>0.15992752241083349</v>
       </c>
       <c r="F58" s="9"/>
       <c r="G58" s="9">
-        <f t="shared" ref="G58:AB58" si="203">+G45/G44</f>
+        <f t="shared" ref="G58:AB58" si="208">+G45/G44</f>
         <v>0.15828472331704241</v>
       </c>
       <c r="H58" s="9">
-        <f t="shared" si="203"/>
+        <f t="shared" si="208"/>
         <v>0.17294994675186368</v>
       </c>
       <c r="I58" s="9">
-        <f t="shared" si="203"/>
+        <f t="shared" si="208"/>
         <v>0.16281242700303666</v>
       </c>
       <c r="J58" s="9">
-        <f t="shared" si="203"/>
+        <f t="shared" si="208"/>
         <v>0.16540008940545373</v>
       </c>
       <c r="K58" s="9">
-        <f t="shared" si="203"/>
+        <f t="shared" si="208"/>
         <v>0.13836516993301909</v>
       </c>
       <c r="L58" s="9">
-        <f t="shared" si="203"/>
+        <f t="shared" si="208"/>
         <v>0.15673228990565524</v>
       </c>
       <c r="M58" s="9">
-        <f t="shared" si="203"/>
+        <f t="shared" si="208"/>
         <v>0.10321420283128337</v>
       </c>
       <c r="N58" s="9">
-        <f t="shared" si="203"/>
+        <f t="shared" si="208"/>
         <v>0.15186807523834064</v>
       </c>
       <c r="O58" s="9">
-        <f t="shared" si="203"/>
+        <f t="shared" si="208"/>
         <v>9.2574546871954783E-4</v>
       </c>
       <c r="P58" s="9">
-        <f t="shared" si="203"/>
+        <f t="shared" si="208"/>
         <v>0.16655562958027981</v>
       </c>
       <c r="Q58" s="9">
-        <f t="shared" si="203"/>
+        <f t="shared" si="208"/>
         <v>0.17147102526002972</v>
       </c>
       <c r="R58" s="9">
-        <f t="shared" si="203"/>
+        <f t="shared" si="208"/>
         <v>0.18289647093278666</v>
       </c>
       <c r="S58" s="9">
-        <f t="shared" si="203"/>
+        <f t="shared" si="208"/>
         <v>0.18616725384758021</v>
       </c>
       <c r="T58" s="9">
-        <f t="shared" si="203"/>
+        <f t="shared" si="208"/>
         <v>0.19243817296818919</v>
       </c>
       <c r="U58" s="9">
-        <f t="shared" si="203"/>
+        <f t="shared" si="208"/>
         <v>0.19291668504388479</v>
       </c>
       <c r="V58" s="9">
-        <f t="shared" si="203"/>
+        <f t="shared" si="208"/>
         <v>0.18789177821814212</v>
       </c>
       <c r="W58" s="9">
-        <f t="shared" si="203"/>
+        <f t="shared" si="208"/>
         <v>0.18300102624248643</v>
       </c>
       <c r="X58" s="9">
-        <f t="shared" si="203"/>
+        <f t="shared" si="208"/>
         <v>0.17552589911784663</v>
       </c>
       <c r="Y58" s="9">
-        <f t="shared" si="203"/>
+        <f t="shared" si="208"/>
         <v>0.17914468514984846</v>
       </c>
       <c r="Z58" s="9">
-        <f t="shared" si="203"/>
+        <f t="shared" si="208"/>
         <v>0.1913394495412844</v>
       </c>
       <c r="AA58" s="9">
-        <f t="shared" si="203"/>
+        <f t="shared" si="208"/>
         <v>0.18507383791998414</v>
       </c>
       <c r="AB58" s="9">
-        <f t="shared" si="203"/>
+        <f t="shared" si="208"/>
         <v>0.17902264600715137</v>
       </c>
       <c r="AC58" s="9">
-        <f t="shared" ref="AC58:AH58" si="204">+AC45/AC44</f>
+        <f t="shared" ref="AC58:AH58" si="209">+AC45/AC44</f>
         <v>0.17697676642126398</v>
       </c>
       <c r="AD58" s="9">
-        <f t="shared" si="204"/>
+        <f t="shared" si="209"/>
         <v>0.16504169732646554</v>
       </c>
       <c r="AE58" s="9">
-        <f t="shared" si="204"/>
-        <v>0</v>
+        <f t="shared" si="209"/>
+        <v>0.19107314655549401</v>
       </c>
       <c r="AF58" s="9">
-        <f t="shared" si="204"/>
-        <v>0</v>
+        <f t="shared" si="209"/>
+        <v>0.18</v>
       </c>
       <c r="AG58" s="9">
-        <f t="shared" si="204"/>
-        <v>0</v>
+        <f t="shared" si="209"/>
+        <v>0.18</v>
       </c>
       <c r="AH58" s="9">
-        <f t="shared" si="204"/>
-        <v>0</v>
+        <f t="shared" si="209"/>
+        <v>0.18</v>
       </c>
       <c r="AI58" s="9"/>
       <c r="AJ58" s="9"/>
       <c r="AK58" s="9">
-        <f t="shared" ref="AK58:BY58" si="205">+AK45/AK44</f>
+        <f t="shared" ref="AK58:BY58" si="210">+AK45/AK44</f>
         <v>0.31951219512195123</v>
       </c>
       <c r="AL58" s="9">
-        <f t="shared" si="205"/>
+        <f t="shared" si="210"/>
         <v>0.30998509687034276</v>
       </c>
       <c r="AM58" s="9">
-        <f t="shared" si="205"/>
+        <f t="shared" si="210"/>
         <v>0.31988472622478387</v>
       </c>
       <c r="AN58" s="9">
-        <f t="shared" si="205"/>
+        <f t="shared" si="210"/>
         <v>0.31977159172019987</v>
       </c>
       <c r="AO58" s="9">
-        <f t="shared" si="205"/>
+        <f t="shared" si="210"/>
         <v>0.31788079470198677</v>
       </c>
       <c r="AP58" s="9">
-        <f t="shared" si="205"/>
+        <f t="shared" si="210"/>
         <v>0.32263895164934481</v>
       </c>
       <c r="AQ58" s="9">
-        <f t="shared" si="205"/>
+        <f t="shared" si="210"/>
         <v>0.35039952648712636</v>
       </c>
       <c r="AR58" s="9">
-        <f t="shared" si="205"/>
+        <f t="shared" si="210"/>
         <v>0.35001881821603315</v>
       </c>
       <c r="AS58" s="9">
-        <f t="shared" si="205"/>
+        <f t="shared" si="210"/>
         <v>0.35815459328207205</v>
       </c>
       <c r="AT58" s="9">
-        <f t="shared" si="205"/>
+        <f t="shared" si="210"/>
         <v>0.35001278663370555</v>
       </c>
       <c r="AU58" s="9">
-        <f t="shared" si="205"/>
+        <f t="shared" si="210"/>
         <v>0.34379205326156242</v>
       </c>
       <c r="AV58" s="9">
-        <f t="shared" si="205"/>
+        <f t="shared" si="210"/>
         <v>0.32557343375556319</v>
       </c>
       <c r="AW58" s="9">
-        <f t="shared" si="205"/>
+        <f t="shared" si="210"/>
         <v>0.31744937526928046</v>
       </c>
       <c r="AX58" s="9">
-        <f t="shared" si="205"/>
+        <f t="shared" si="210"/>
         <v>0.31992699743139108</v>
       </c>
       <c r="AY58" s="9">
-        <f t="shared" si="205"/>
+        <f t="shared" si="210"/>
         <v>0.32959659602323871</v>
       </c>
       <c r="AZ58" s="9">
-        <f t="shared" si="205"/>
+        <f t="shared" si="210"/>
         <v>0.26305027664180902</v>
       </c>
       <c r="BA58" s="9">
-        <f t="shared" si="205"/>
+        <f t="shared" si="210"/>
         <v>0.31009747015660938</v>
       </c>
       <c r="BB58" s="9">
-        <f t="shared" si="205"/>
+        <f t="shared" si="210"/>
         <v>0.30028356798169248</v>
       </c>
       <c r="BC58" s="9">
-        <f t="shared" si="205"/>
+        <f t="shared" si="210"/>
         <v>0.25753758293440832</v>
       </c>
       <c r="BD58" s="9">
-        <f t="shared" si="205"/>
+        <f t="shared" si="210"/>
         <v>0.26063222668850183</v>
       </c>
       <c r="BE58" s="9">
-        <f t="shared" si="205"/>
+        <f t="shared" si="210"/>
         <v>0.24940172303765157</v>
       </c>
       <c r="BF58" s="9">
-        <f t="shared" si="205"/>
+        <f t="shared" si="210"/>
         <v>0.17530547540166008</v>
       </c>
       <c r="BG58" s="9">
-        <f t="shared" si="205"/>
+        <f t="shared" si="210"/>
         <v>0.18583977512297961</v>
       </c>
       <c r="BH58" s="9">
-        <f t="shared" si="205"/>
+        <f t="shared" si="210"/>
         <v>0.19181576223569421</v>
       </c>
       <c r="BI58" s="9">
-        <f t="shared" si="205"/>
+        <f t="shared" si="210"/>
         <v>0.20560346369914481</v>
       </c>
       <c r="BJ58" s="9">
-        <f t="shared" si="205"/>
+        <f t="shared" si="210"/>
         <v>0.22140402552773686</v>
       </c>
       <c r="BK58" s="9">
-        <f t="shared" si="205"/>
+        <f t="shared" si="210"/>
         <v>0.1415560136139207</v>
       </c>
       <c r="BL58" s="9">
-        <f t="shared" si="205"/>
+        <f t="shared" si="210"/>
         <v>0.14605886052901645</v>
       </c>
       <c r="BM58" s="9">
-        <f t="shared" si="205"/>
+        <f t="shared" si="210"/>
         <v>0.5456763722103416</v>
       </c>
       <c r="BN58" s="9">
-        <f t="shared" si="205"/>
+        <f t="shared" si="210"/>
         <v>0.10181285478850027</v>
       </c>
       <c r="BO58" s="9">
-        <f t="shared" si="205"/>
+        <f t="shared" si="210"/>
         <v>0.16507655177615205</v>
       </c>
       <c r="BP58" s="9">
-        <f t="shared" si="205"/>
+        <f t="shared" si="210"/>
         <v>0.13826615285083402</v>
       </c>
       <c r="BQ58" s="9">
-        <f t="shared" si="205"/>
+        <f t="shared" si="210"/>
         <v>0.13113383343685794</v>
       </c>
       <c r="BR58" s="9">
-        <f t="shared" si="205"/>
+        <f t="shared" si="210"/>
         <v>0.18978625253328257</v>
       </c>
       <c r="BS58" s="9">
-        <f t="shared" si="205"/>
+        <f t="shared" si="210"/>
         <v>0.18231326597827197</v>
       </c>
       <c r="BT58" s="9">
-        <f t="shared" si="205"/>
+        <f t="shared" si="210"/>
         <v>0.17629644009803683</v>
       </c>
       <c r="BU58" s="9">
-        <f t="shared" si="205"/>
+        <f t="shared" si="210"/>
         <v>0.18</v>
       </c>
       <c r="BV58" s="9">
-        <f t="shared" si="205"/>
+        <f t="shared" si="210"/>
         <v>0.18</v>
       </c>
       <c r="BW58" s="9">
-        <f t="shared" si="205"/>
+        <f t="shared" si="210"/>
         <v>0.15</v>
       </c>
       <c r="BX58" s="9">
-        <f t="shared" si="205"/>
+        <f t="shared" si="210"/>
         <v>0.15</v>
       </c>
       <c r="BY58" s="9">
-        <f t="shared" si="205"/>
+        <f t="shared" si="210"/>
         <v>0.15</v>
       </c>
     </row>
@@ -12622,128 +12862,128 @@
         <v>156</v>
       </c>
       <c r="C59" s="9">
-        <f t="shared" ref="C59:D59" si="206">(C31-C34)/C31</f>
+        <f t="shared" ref="C59:D59" si="211">(C31-C34)/C31</f>
         <v>0.78906295161570028</v>
       </c>
       <c r="D59" s="9">
-        <f t="shared" si="206"/>
+        <f t="shared" si="211"/>
         <v>0.63715395523768414</v>
       </c>
       <c r="E59" s="9">
-        <f t="shared" ref="E59" si="207">(E31-E34)/E31</f>
+        <f t="shared" ref="E59" si="212">(E31-E34)/E31</f>
         <v>0.77725271879854996</v>
       </c>
       <c r="F59" s="9"/>
       <c r="G59" s="9">
-        <f t="shared" ref="G59:AB59" si="208">(G31-G34)/G31</f>
+        <f t="shared" ref="G59:AB59" si="213">(G31-G34)/G31</f>
         <v>0.79039827498731607</v>
       </c>
       <c r="H59" s="9">
-        <f t="shared" si="208"/>
+        <f t="shared" si="213"/>
         <v>0.72796494111202414</v>
       </c>
       <c r="I59" s="9">
-        <f t="shared" si="208"/>
+        <f t="shared" si="213"/>
         <v>0.78728498519311951</v>
       </c>
       <c r="J59" s="9">
-        <f t="shared" si="208"/>
+        <f t="shared" si="213"/>
         <v>0.75918884664131814</v>
       </c>
       <c r="K59" s="9">
-        <f t="shared" si="208"/>
+        <f t="shared" si="213"/>
         <v>0.77238499019173579</v>
       </c>
       <c r="L59" s="9">
-        <f t="shared" si="208"/>
+        <f t="shared" si="213"/>
         <v>0.68869475847893113</v>
       </c>
       <c r="M59" s="9">
-        <f t="shared" si="208"/>
+        <f t="shared" si="213"/>
         <v>0.74651810584958223</v>
       </c>
       <c r="N59" s="9">
-        <f t="shared" si="208"/>
+        <f t="shared" si="213"/>
         <v>0.7736297391488014</v>
       </c>
       <c r="O59" s="9">
-        <f t="shared" si="208"/>
+        <f t="shared" si="213"/>
         <v>0.77199206301485179</v>
       </c>
       <c r="P59" s="9">
-        <f t="shared" si="208"/>
+        <f t="shared" si="213"/>
         <v>0.69531738774724483</v>
       </c>
       <c r="Q59" s="9">
-        <f t="shared" si="208"/>
+        <f t="shared" si="213"/>
         <v>0.73603593228146957</v>
       </c>
       <c r="R59" s="9">
-        <f t="shared" si="208"/>
+        <f t="shared" si="213"/>
         <v>0.75735130318556476</v>
       </c>
       <c r="S59" s="9">
-        <f t="shared" si="208"/>
+        <f t="shared" si="213"/>
         <v>0.72670097198399086</v>
       </c>
       <c r="T59" s="9">
-        <f t="shared" si="208"/>
+        <f t="shared" si="213"/>
         <v>0.65550644790216139</v>
       </c>
       <c r="U59" s="9">
-        <f t="shared" si="208"/>
+        <f t="shared" si="213"/>
         <v>0.74717731588401337</v>
       </c>
       <c r="V59" s="9">
-        <f t="shared" si="208"/>
+        <f t="shared" si="213"/>
         <v>0.77030795704028954</v>
       </c>
       <c r="W59" s="9">
-        <f t="shared" si="208"/>
+        <f t="shared" si="213"/>
         <v>0.77270679111683294</v>
       </c>
       <c r="X59" s="9">
-        <f t="shared" si="208"/>
+        <f t="shared" si="213"/>
         <v>0.68512750118789922</v>
       </c>
       <c r="Y59" s="9">
-        <f t="shared" si="208"/>
+        <f t="shared" si="213"/>
         <v>0.74596018735363001</v>
       </c>
       <c r="Z59" s="9">
-        <f t="shared" si="208"/>
+        <f t="shared" si="213"/>
         <v>0.89120072633729286</v>
       </c>
       <c r="AA59" s="9">
-        <f t="shared" si="208"/>
+        <f t="shared" si="213"/>
         <v>0.78431115767417492</v>
       </c>
       <c r="AB59" s="9">
-        <f t="shared" si="208"/>
+        <f t="shared" si="213"/>
         <v>0.76225414637153954</v>
       </c>
       <c r="AC59" s="9">
-        <f t="shared" ref="AC59:AH59" si="209">(AC31-AC34)/AC31</f>
+        <f t="shared" ref="AC59:AH59" si="214">(AC31-AC34)/AC31</f>
         <v>0.80174946145309745</v>
       </c>
       <c r="AD59" s="9">
-        <f t="shared" si="209"/>
+        <f t="shared" si="214"/>
         <v>0.8066059757236228</v>
       </c>
       <c r="AE59" s="9">
-        <f t="shared" si="209"/>
+        <f t="shared" si="214"/>
+        <v>0.81648034166561989</v>
+      </c>
+      <c r="AF59" s="9">
+        <f t="shared" si="214"/>
         <v>1</v>
       </c>
-      <c r="AF59" s="9">
-        <f t="shared" si="209"/>
+      <c r="AG59" s="9">
+        <f t="shared" si="214"/>
         <v>1</v>
       </c>
-      <c r="AG59" s="9">
-        <f t="shared" si="209"/>
-        <v>1</v>
-      </c>
       <c r="AH59" s="9">
-        <f t="shared" si="209"/>
+        <f t="shared" si="214"/>
         <v>1</v>
       </c>
       <c r="AI59" s="9"/>
@@ -12775,63 +13015,63 @@
       <c r="BI59" s="9"/>
       <c r="BJ59" s="9"/>
       <c r="BK59" s="9">
-        <f t="shared" ref="BK59:BY59" si="210">(BK31-BK34)/BK31</f>
+        <f t="shared" ref="BK59:BY59" si="215">(BK31-BK34)/BK31</f>
         <v>0.70927774706513613</v>
       </c>
       <c r="BL59" s="9">
-        <f t="shared" si="210"/>
+        <f t="shared" si="215"/>
         <v>0.76218833743398473</v>
       </c>
       <c r="BM59" s="9">
-        <f t="shared" si="210"/>
+        <f t="shared" si="215"/>
         <v>0.76091911251686128</v>
       </c>
       <c r="BN59" s="9">
-        <f t="shared" si="210"/>
+        <f t="shared" si="215"/>
         <v>0.75369689264254036</v>
       </c>
       <c r="BO59" s="9">
-        <f t="shared" si="210"/>
+        <f t="shared" si="215"/>
         <v>0.76459781602269217</v>
       </c>
       <c r="BP59" s="9">
-        <f t="shared" si="210"/>
+        <f t="shared" si="215"/>
         <v>0.74366153586402906</v>
       </c>
       <c r="BQ59" s="9">
-        <f t="shared" si="210"/>
+        <f t="shared" si="215"/>
         <v>0.73788703734257277</v>
       </c>
       <c r="BR59" s="9">
-        <f t="shared" si="210"/>
+        <f t="shared" si="215"/>
         <v>0.72481800336944935</v>
       </c>
       <c r="BS59" s="9">
-        <f t="shared" si="210"/>
+        <f t="shared" si="215"/>
         <v>0.76422274713229277</v>
       </c>
       <c r="BT59" s="9">
-        <f t="shared" si="210"/>
+        <f t="shared" si="215"/>
         <v>0.78886873299346327</v>
       </c>
       <c r="BU59" s="9">
-        <f t="shared" si="210"/>
+        <f t="shared" si="215"/>
         <v>0.75</v>
       </c>
       <c r="BV59" s="9">
-        <f t="shared" si="210"/>
+        <f t="shared" si="215"/>
         <v>0.75</v>
       </c>
       <c r="BW59" s="9">
-        <f t="shared" si="210"/>
+        <f t="shared" si="215"/>
         <v>0.75</v>
       </c>
       <c r="BX59" s="9">
-        <f t="shared" si="210"/>
+        <f t="shared" si="215"/>
         <v>0.75</v>
       </c>
       <c r="BY59" s="9">
-        <f t="shared" si="210"/>
+        <f t="shared" si="215"/>
         <v>0.75</v>
       </c>
       <c r="CB59" s="1"/>
@@ -12841,128 +13081,128 @@
         <v>157</v>
       </c>
       <c r="C60" s="9">
-        <f t="shared" ref="C60:D60" si="211">(C32-C35)/C32</f>
+        <f t="shared" ref="C60:D60" si="216">(C32-C35)/C32</f>
         <v>0.46915570640644888</v>
       </c>
       <c r="D60" s="9">
-        <f t="shared" si="211"/>
+        <f t="shared" si="216"/>
         <v>0.59771105094757571</v>
       </c>
       <c r="E60" s="9">
-        <f t="shared" ref="E60" si="212">(E32-E35)/E32</f>
+        <f t="shared" ref="E60" si="217">(E32-E35)/E32</f>
         <v>0.55504860146796275</v>
       </c>
       <c r="F60" s="9"/>
       <c r="G60" s="9">
-        <f t="shared" ref="G60:AB60" si="213">(G32-G35)/G32</f>
+        <f t="shared" ref="G60:AB60" si="218">(G32-G35)/G32</f>
         <v>0.58922890032972752</v>
       </c>
       <c r="H60" s="9">
-        <f t="shared" si="213"/>
+        <f t="shared" si="218"/>
         <v>0.60366736368023166</v>
       </c>
       <c r="I60" s="9">
-        <f t="shared" si="213"/>
+        <f t="shared" si="218"/>
         <v>0.60318537859007837</v>
       </c>
       <c r="J60" s="9">
-        <f t="shared" si="213"/>
+        <f t="shared" si="218"/>
         <v>0.59926581514633415</v>
       </c>
       <c r="K60" s="9">
-        <f t="shared" si="213"/>
+        <f t="shared" si="218"/>
         <v>0.65317783710364852</v>
       </c>
       <c r="L60" s="9">
-        <f t="shared" si="213"/>
+        <f t="shared" si="218"/>
         <v>0.65548780487804881</v>
       </c>
       <c r="M60" s="9">
-        <f t="shared" si="213"/>
+        <f t="shared" si="218"/>
         <v>0.64692143518704948</v>
       </c>
       <c r="N60" s="9">
-        <f t="shared" si="213"/>
+        <f t="shared" si="218"/>
         <v>0.64341882854413168</v>
       </c>
       <c r="O60" s="9">
-        <f t="shared" si="213"/>
+        <f t="shared" si="218"/>
         <v>0.65648748518441047</v>
       </c>
       <c r="P60" s="9">
-        <f t="shared" si="213"/>
+        <f t="shared" si="218"/>
         <v>0.65656402468577335</v>
       </c>
       <c r="Q60" s="9">
-        <f t="shared" si="213"/>
+        <f t="shared" si="218"/>
         <v>0.65521660311308372</v>
       </c>
       <c r="R60" s="9">
-        <f t="shared" si="213"/>
+        <f t="shared" si="218"/>
         <v>0.64398832168450859</v>
       </c>
       <c r="S60" s="9">
-        <f t="shared" si="213"/>
+        <f t="shared" si="218"/>
         <v>0.67569296995433525</v>
       </c>
       <c r="T60" s="9">
-        <f t="shared" si="213"/>
+        <f t="shared" si="218"/>
         <v>0.67435826662986476</v>
       </c>
       <c r="U60" s="9">
-        <f t="shared" si="213"/>
+        <f t="shared" si="218"/>
         <v>0.67299900721779493</v>
       </c>
       <c r="V60" s="9">
-        <f t="shared" si="213"/>
+        <f t="shared" si="218"/>
         <v>0.67144600366076879</v>
       </c>
       <c r="W60" s="9">
-        <f t="shared" si="213"/>
+        <f t="shared" si="218"/>
         <v>0.68837538431506518</v>
       </c>
       <c r="X60" s="9">
-        <f t="shared" si="213"/>
+        <f t="shared" si="218"/>
         <v>0.68293135866663568</v>
       </c>
       <c r="Y60" s="9">
-        <f t="shared" si="213"/>
+        <f t="shared" si="218"/>
         <v>0.68363928714993971</v>
       </c>
       <c r="Z60" s="9">
-        <f t="shared" si="213"/>
+        <f t="shared" si="218"/>
         <v>0.64577751892836344</v>
       </c>
       <c r="AA60" s="9">
-        <f t="shared" si="213"/>
+        <f t="shared" si="218"/>
         <v>0.66599089698487468</v>
       </c>
       <c r="AB60" s="9">
-        <f t="shared" si="213"/>
+        <f t="shared" si="218"/>
         <v>0.66407054462396797</v>
       </c>
       <c r="AC60" s="9">
-        <f t="shared" ref="AC60:AH60" si="214">(AC32-AC35)/AC32</f>
+        <f t="shared" ref="AC60:AH60" si="219">(AC32-AC35)/AC32</f>
         <v>0.65510438928160453</v>
       </c>
       <c r="AD60" s="9">
-        <f t="shared" si="214"/>
+        <f t="shared" si="219"/>
         <v>0.65095691762920493</v>
       </c>
       <c r="AE60" s="9">
-        <f t="shared" si="214"/>
+        <f t="shared" si="219"/>
+        <v>0.65796505319751908</v>
+      </c>
+      <c r="AF60" s="9">
+        <f t="shared" si="219"/>
         <v>1</v>
       </c>
-      <c r="AF60" s="9">
-        <f t="shared" si="214"/>
+      <c r="AG60" s="9">
+        <f t="shared" si="219"/>
         <v>1</v>
       </c>
-      <c r="AG60" s="9">
-        <f t="shared" si="214"/>
-        <v>1</v>
-      </c>
       <c r="AH60" s="9">
-        <f t="shared" si="214"/>
+        <f t="shared" si="219"/>
         <v>1</v>
       </c>
       <c r="AI60" s="9"/>
@@ -12994,63 +13234,63 @@
       <c r="BI60" s="9"/>
       <c r="BJ60" s="9"/>
       <c r="BK60" s="9">
-        <f t="shared" ref="BK60:BY60" si="215">(BK32-BK35)/BK32</f>
+        <f t="shared" ref="BK60:BY60" si="220">(BK32-BK35)/BK32</f>
         <v>0.37442270551683599</v>
       </c>
       <c r="BL60" s="9">
-        <f t="shared" si="215"/>
+        <f t="shared" si="220"/>
         <v>0.41739926739926742</v>
       </c>
       <c r="BM60" s="9">
-        <f t="shared" si="215"/>
+        <f t="shared" si="220"/>
         <v>0.4999672938970412</v>
       </c>
       <c r="BN60" s="9">
-        <f t="shared" si="215"/>
+        <f t="shared" si="220"/>
         <v>0.55437146585471941</v>
       </c>
       <c r="BO60" s="9">
-        <f t="shared" si="215"/>
+        <f t="shared" si="220"/>
         <v>0.59904766985888447</v>
       </c>
       <c r="BP60" s="9">
-        <f t="shared" si="215"/>
+        <f t="shared" si="220"/>
         <v>0.64940111736450412</v>
       </c>
       <c r="BQ60" s="9">
-        <f t="shared" si="215"/>
+        <f t="shared" si="220"/>
         <v>0.65280632159186858</v>
       </c>
       <c r="BR60" s="9">
-        <f t="shared" si="215"/>
+        <f t="shared" si="220"/>
         <v>0.67354771220519505</v>
       </c>
       <c r="BS60" s="9">
-        <f t="shared" si="215"/>
+        <f t="shared" si="220"/>
         <v>0.67373259624394921</v>
       </c>
       <c r="BT60" s="9">
-        <f t="shared" si="215"/>
+        <f t="shared" si="220"/>
         <v>0.65868912378660838</v>
       </c>
       <c r="BU60" s="9">
-        <f t="shared" si="215"/>
+        <f t="shared" si="220"/>
         <v>0.65</v>
       </c>
       <c r="BV60" s="9">
-        <f t="shared" si="215"/>
+        <f t="shared" si="220"/>
         <v>0.65</v>
       </c>
       <c r="BW60" s="9">
-        <f t="shared" si="215"/>
+        <f t="shared" si="220"/>
         <v>0.65</v>
       </c>
       <c r="BX60" s="9">
-        <f t="shared" si="215"/>
+        <f t="shared" si="220"/>
         <v>0.65</v>
       </c>
       <c r="BY60" s="9">
-        <f t="shared" si="215"/>
+        <f t="shared" si="220"/>
         <v>0.65000000000000013</v>
       </c>
       <c r="CB60" s="1"/>
@@ -13151,195 +13391,198 @@
         <v>82</v>
       </c>
       <c r="G63" s="5">
-        <f t="shared" ref="G63:H63" si="216">+G64-G75</f>
+        <f t="shared" ref="G63:H63" si="221">+G64-G75</f>
         <v>69825</v>
       </c>
       <c r="H63" s="5">
-        <f t="shared" si="216"/>
+        <f t="shared" si="221"/>
         <v>64290</v>
       </c>
       <c r="I63" s="5">
-        <f t="shared" ref="I63:J63" si="217">+I64-I75</f>
+        <f t="shared" ref="I63:J63" si="222">+I64-I75</f>
         <v>73676</v>
       </c>
       <c r="J63" s="5">
-        <f t="shared" si="217"/>
+        <f t="shared" si="222"/>
         <v>76165</v>
       </c>
       <c r="K63" s="5">
-        <f t="shared" ref="K63:L63" si="218">+K64-K75</f>
+        <f t="shared" ref="K63:L63" si="223">+K64-K75</f>
         <v>77528</v>
       </c>
       <c r="L63" s="5">
-        <f t="shared" si="218"/>
+        <f t="shared" si="223"/>
         <v>75239</v>
       </c>
       <c r="M63" s="5">
-        <f t="shared" ref="M63:Y63" si="219">+M64-M75</f>
+        <f t="shared" ref="M63:Y63" si="224">+M64-M75</f>
         <v>72744</v>
       </c>
       <c r="N63" s="5">
-        <f t="shared" si="219"/>
+        <f t="shared" si="224"/>
         <v>78172</v>
       </c>
       <c r="O63" s="5">
-        <f t="shared" si="219"/>
+        <f t="shared" si="224"/>
         <v>83720</v>
       </c>
       <c r="P63" s="5">
-        <f t="shared" si="219"/>
+        <f t="shared" si="224"/>
         <v>79105</v>
       </c>
       <c r="Q63" s="5">
-        <f t="shared" si="219"/>
+        <f t="shared" si="224"/>
         <v>61674</v>
       </c>
       <c r="R63" s="5">
-        <f t="shared" si="219"/>
+        <f t="shared" si="224"/>
         <v>61867</v>
       </c>
       <c r="S63" s="5">
-        <f t="shared" si="219"/>
+        <f t="shared" si="224"/>
         <v>65479</v>
       </c>
       <c r="T63" s="5">
-        <f t="shared" si="219"/>
+        <f t="shared" si="224"/>
         <v>58489</v>
       </c>
       <c r="U63" s="5">
-        <f t="shared" si="219"/>
+        <f t="shared" si="224"/>
         <v>65632</v>
       </c>
       <c r="V63" s="5">
-        <f t="shared" si="219"/>
+        <f t="shared" si="224"/>
         <v>73904</v>
       </c>
       <c r="W63" s="5">
-        <f t="shared" si="219"/>
+        <f t="shared" si="224"/>
         <v>83872</v>
       </c>
       <c r="X63" s="5">
-        <f t="shared" si="219"/>
+        <f t="shared" si="224"/>
         <v>20165</v>
       </c>
       <c r="Y63" s="5">
-        <f t="shared" si="219"/>
+        <f t="shared" si="224"/>
         <v>29386</v>
       </c>
       <c r="Z63" s="5">
-        <f>+Z64-Z75</f>
+        <f t="shared" ref="Z63:AE63" si="225">+Z64-Z75</f>
         <v>38513</v>
       </c>
       <c r="AA63" s="5">
-        <f>+AA64-AA75</f>
+        <f t="shared" si="225"/>
         <v>49089</v>
       </c>
       <c r="AB63" s="5">
-        <f>+AB64-AB75</f>
+        <f t="shared" si="225"/>
         <v>42166</v>
       </c>
       <c r="AC63" s="5">
-        <f>+AC64-AC75</f>
+        <f t="shared" si="225"/>
         <v>52772</v>
       </c>
       <c r="AD63" s="5">
-        <f>+AD64-AD75</f>
+        <f t="shared" si="225"/>
         <v>66819</v>
       </c>
-      <c r="AE63" s="5"/>
+      <c r="AE63" s="5">
+        <f t="shared" si="225"/>
+        <v>70269</v>
+      </c>
       <c r="AF63" s="5"/>
       <c r="AG63" s="5"/>
       <c r="AH63" s="5"/>
       <c r="AO63" s="4">
-        <f t="shared" ref="AO63:BC63" si="220">AO64</f>
+        <f t="shared" ref="AO63:BC63" si="226">AO64</f>
         <v>3614</v>
       </c>
       <c r="AP63" s="4">
-        <f t="shared" si="220"/>
+        <f t="shared" si="226"/>
         <v>4750</v>
       </c>
       <c r="AQ63" s="4">
-        <f t="shared" si="220"/>
+        <f t="shared" si="226"/>
         <v>6940</v>
       </c>
       <c r="AR63" s="4">
-        <f t="shared" si="220"/>
+        <f t="shared" si="226"/>
         <v>11312</v>
       </c>
       <c r="AS63" s="4">
-        <f t="shared" si="220"/>
+        <f t="shared" si="226"/>
         <v>18630</v>
       </c>
       <c r="AT63" s="4">
-        <f t="shared" si="220"/>
+        <f t="shared" si="226"/>
         <v>31608</v>
       </c>
       <c r="AU63" s="4">
-        <f t="shared" si="220"/>
+        <f t="shared" si="226"/>
         <v>41524</v>
       </c>
       <c r="AV63" s="4">
-        <f t="shared" si="220"/>
+        <f t="shared" si="226"/>
         <v>45741</v>
       </c>
       <c r="AW63" s="4">
-        <f t="shared" si="220"/>
+        <f t="shared" si="226"/>
         <v>52843</v>
       </c>
       <c r="AX63" s="4">
-        <f t="shared" si="220"/>
+        <f t="shared" si="226"/>
         <v>62740</v>
       </c>
       <c r="AY63" s="4">
-        <f t="shared" si="220"/>
+        <f t="shared" si="226"/>
         <v>72802</v>
       </c>
       <c r="AZ63" s="4">
-        <f t="shared" si="220"/>
+        <f t="shared" si="226"/>
         <v>48755</v>
       </c>
       <c r="BA63" s="4">
-        <f t="shared" si="220"/>
+        <f t="shared" si="226"/>
         <v>43393</v>
       </c>
       <c r="BB63" s="4">
-        <f t="shared" si="220"/>
+        <f t="shared" si="226"/>
         <v>33528</v>
       </c>
       <c r="BC63" s="4">
-        <f t="shared" si="220"/>
+        <f t="shared" si="226"/>
         <v>30250</v>
       </c>
       <c r="BD63" s="4">
-        <f t="shared" ref="BD63:BI63" si="221">BD64-BD75</f>
+        <f t="shared" ref="BD63:BI63" si="227">BD64-BD75</f>
         <v>30634</v>
       </c>
       <c r="BE63" s="4">
-        <f t="shared" si="221"/>
+        <f t="shared" si="227"/>
         <v>38603</v>
       </c>
       <c r="BF63" s="4">
-        <f t="shared" si="221"/>
+        <f t="shared" si="227"/>
         <v>51716</v>
       </c>
       <c r="BG63" s="4">
-        <f t="shared" si="221"/>
+        <f t="shared" si="227"/>
         <v>60872</v>
       </c>
       <c r="BH63" s="4">
-        <f t="shared" si="221"/>
+        <f t="shared" si="227"/>
         <v>72266</v>
       </c>
       <c r="BI63" s="4">
-        <f t="shared" si="221"/>
+        <f t="shared" si="227"/>
         <v>77661</v>
       </c>
       <c r="BQ63" s="5">
-        <f t="shared" ref="BQ63" si="222">+BQ64-BQ75</f>
+        <f t="shared" ref="BQ63" si="228">+BQ64-BQ75</f>
         <v>61867</v>
       </c>
       <c r="BR63" s="5">
-        <f t="shared" ref="BR63" si="223">+BR64-BR75</f>
+        <f t="shared" ref="BR63" si="229">+BR64-BR75</f>
         <v>73904</v>
       </c>
       <c r="BS63" s="5">
@@ -13457,6 +13700,10 @@
         <f>94565+15405</f>
         <v>109970</v>
       </c>
+      <c r="AE64" s="4">
+        <f>102012+11465</f>
+        <v>113477</v>
+      </c>
       <c r="AO64" s="4">
         <f>3614</f>
         <v>3614</v>
@@ -13634,6 +13881,9 @@
       <c r="AD65" s="4">
         <v>69905</v>
       </c>
+      <c r="AE65" s="4">
+        <v>52894</v>
+      </c>
       <c r="AO65" s="4">
         <v>475</v>
       </c>
@@ -13700,15 +13950,15 @@
       <c r="BO65" s="5"/>
       <c r="BP65" s="5"/>
       <c r="BQ65" s="5">
-        <f t="shared" ref="BQ65:BQ71" si="224">+R65</f>
+        <f t="shared" ref="BQ65:BQ71" si="230">+R65</f>
         <v>44261</v>
       </c>
       <c r="BR65" s="5">
-        <f t="shared" ref="BR65:BR71" si="225">+V65</f>
+        <f t="shared" ref="BR65:BR71" si="231">+V65</f>
         <v>48688</v>
       </c>
       <c r="BS65" s="4">
-        <f t="shared" ref="BS65:BS71" si="226">+AB65</f>
+        <f t="shared" ref="BS65:BS71" si="232">+AB65</f>
         <v>48188</v>
       </c>
     </row>
@@ -13792,6 +14042,9 @@
       <c r="AD66" s="4">
         <v>938</v>
       </c>
+      <c r="AE66" s="4">
+        <v>1130</v>
+      </c>
       <c r="AO66" s="4">
         <v>102</v>
       </c>
@@ -13858,15 +14111,15 @@
       <c r="BO66" s="5"/>
       <c r="BP66" s="5"/>
       <c r="BQ66" s="5">
-        <f t="shared" si="224"/>
+        <f t="shared" si="230"/>
         <v>3742</v>
       </c>
       <c r="BR66" s="5">
-        <f t="shared" si="225"/>
+        <f t="shared" si="231"/>
         <v>2500</v>
       </c>
       <c r="BS66" s="4">
-        <f t="shared" si="226"/>
+        <f t="shared" si="232"/>
         <v>909</v>
       </c>
     </row>
@@ -13950,6 +14203,9 @@
       <c r="AD67" s="4">
         <v>25723</v>
       </c>
+      <c r="AE67" s="4">
+        <v>33030</v>
+      </c>
       <c r="AO67" s="4">
         <v>121</v>
       </c>
@@ -14031,15 +14287,15 @@
       <c r="BO67" s="5"/>
       <c r="BP67" s="5"/>
       <c r="BQ67" s="5">
-        <f t="shared" si="224"/>
+        <f t="shared" si="230"/>
         <v>16924</v>
       </c>
       <c r="BR67" s="5">
-        <f t="shared" si="225"/>
+        <f t="shared" si="231"/>
         <v>21807</v>
       </c>
       <c r="BS67" s="4">
-        <f t="shared" si="226"/>
+        <f t="shared" si="232"/>
         <v>26428</v>
       </c>
     </row>
@@ -14123,6 +14379,9 @@
       <c r="AD68" s="4">
         <v>204966</v>
       </c>
+      <c r="AE68" s="4">
+        <v>230861</v>
+      </c>
       <c r="AO68" s="4">
         <v>930</v>
       </c>
@@ -14189,15 +14448,15 @@
       <c r="BO68" s="5"/>
       <c r="BP68" s="5"/>
       <c r="BQ68" s="5">
-        <f t="shared" si="224"/>
+        <f t="shared" si="230"/>
         <v>74398</v>
       </c>
       <c r="BR68" s="5">
-        <f t="shared" si="225"/>
+        <f t="shared" si="231"/>
         <v>95641</v>
       </c>
       <c r="BS68" s="4">
-        <f t="shared" si="226"/>
+        <f t="shared" si="232"/>
         <v>166902</v>
       </c>
     </row>
@@ -14281,6 +14540,9 @@
       <c r="AD69" s="4">
         <v>24823</v>
       </c>
+      <c r="AE69" s="4">
+        <v>24791</v>
+      </c>
       <c r="AO69" s="4">
         <v>0</v>
       </c>
@@ -14347,15 +14609,15 @@
       <c r="BO69" s="5"/>
       <c r="BP69" s="5"/>
       <c r="BQ69" s="5">
-        <f t="shared" si="224"/>
+        <f t="shared" si="230"/>
         <v>13148</v>
       </c>
       <c r="BR69" s="5">
-        <f t="shared" si="225"/>
+        <f t="shared" si="231"/>
         <v>14346</v>
       </c>
       <c r="BS69" s="4">
-        <f t="shared" si="226"/>
+        <f t="shared" si="232"/>
         <v>22816</v>
       </c>
     </row>
@@ -14463,6 +14725,10 @@
         <f>119509+22604</f>
         <v>142113</v>
       </c>
+      <c r="AE70" s="4">
+        <f>119497+21236</f>
+        <v>140733</v>
+      </c>
       <c r="AO70" s="4">
         <v>0</v>
       </c>
@@ -14542,15 +14808,15 @@
       <c r="BO70" s="5"/>
       <c r="BP70" s="5"/>
       <c r="BQ70" s="5">
-        <f t="shared" si="224"/>
+        <f t="shared" si="230"/>
         <v>78822</v>
       </c>
       <c r="BR70" s="5">
-        <f t="shared" si="225"/>
+        <f t="shared" si="231"/>
         <v>77252</v>
       </c>
       <c r="BS70" s="4">
-        <f t="shared" si="226"/>
+        <f t="shared" si="232"/>
         <v>144576</v>
       </c>
     </row>
@@ -14634,6 +14900,9 @@
       <c r="AD71" s="4">
         <v>40565</v>
       </c>
+      <c r="AE71" s="4">
+        <v>39435</v>
+      </c>
       <c r="AO71" s="4">
         <v>121</v>
       </c>
@@ -14707,15 +14976,15 @@
       <c r="BO71" s="5"/>
       <c r="BP71" s="5"/>
       <c r="BQ71" s="5">
-        <f t="shared" si="224"/>
+        <f t="shared" si="230"/>
         <v>21897</v>
       </c>
       <c r="BR71" s="5">
-        <f t="shared" si="225"/>
+        <f t="shared" si="231"/>
         <v>30601</v>
       </c>
       <c r="BS71" s="4">
-        <f t="shared" si="226"/>
+        <f t="shared" si="232"/>
         <v>36943</v>
       </c>
     </row>
@@ -14728,187 +14997,190 @@
       <c r="E72" s="7"/>
       <c r="F72" s="7"/>
       <c r="G72" s="7">
-        <f t="shared" ref="G72:H72" si="227">SUM(G64:G71)</f>
+        <f t="shared" ref="G72:H72" si="233">SUM(G64:G71)</f>
         <v>278955</v>
       </c>
       <c r="H72" s="7">
-        <f t="shared" si="227"/>
+        <f t="shared" si="233"/>
         <v>286556</v>
       </c>
       <c r="I72" s="7">
-        <f t="shared" ref="I72:J72" si="228">SUM(I64:I71)</f>
+        <f t="shared" ref="I72:J72" si="234">SUM(I64:I71)</f>
         <v>285449</v>
       </c>
       <c r="J72" s="7">
-        <f t="shared" si="228"/>
+        <f t="shared" si="234"/>
         <v>301311</v>
       </c>
       <c r="K72" s="7">
-        <f t="shared" ref="K72:L72" si="229">SUM(K64:K71)</f>
+        <f t="shared" ref="K72:L72" si="235">SUM(K64:K71)</f>
         <v>301001</v>
       </c>
       <c r="L72" s="7">
-        <f t="shared" si="229"/>
+        <f t="shared" si="235"/>
         <v>304137</v>
       </c>
       <c r="M72" s="7">
-        <f t="shared" ref="M72:O72" si="230">SUM(M64:M71)</f>
+        <f t="shared" ref="M72:O72" si="236">SUM(M64:M71)</f>
         <v>308879</v>
       </c>
       <c r="N72" s="7">
-        <f t="shared" si="230"/>
+        <f t="shared" si="236"/>
         <v>333779</v>
       </c>
       <c r="O72" s="7">
-        <f t="shared" si="230"/>
+        <f t="shared" si="236"/>
         <v>335418</v>
       </c>
       <c r="P72" s="7">
-        <f t="shared" ref="P72" si="231">SUM(P64:P71)</f>
+        <f t="shared" ref="P72" si="237">SUM(P64:P71)</f>
         <v>340389</v>
       </c>
       <c r="Q72" s="7">
-        <f t="shared" ref="Q72:AD72" si="232">SUM(Q64:Q71)</f>
+        <f t="shared" ref="Q72:AE72" si="238">SUM(Q64:Q71)</f>
         <v>344607</v>
       </c>
       <c r="R72" s="7">
-        <f t="shared" si="232"/>
+        <f t="shared" si="238"/>
         <v>364840</v>
       </c>
       <c r="S72" s="7">
-        <f t="shared" si="232"/>
+        <f t="shared" si="238"/>
         <v>359784</v>
       </c>
       <c r="T72" s="7">
-        <f t="shared" si="232"/>
+        <f t="shared" si="238"/>
         <v>364552</v>
       </c>
       <c r="U72" s="7">
-        <f t="shared" si="232"/>
+        <f t="shared" si="238"/>
         <v>380088</v>
       </c>
       <c r="V72" s="7">
-        <f t="shared" si="232"/>
+        <f t="shared" si="238"/>
         <v>411976</v>
       </c>
       <c r="W72" s="7">
-        <f t="shared" si="232"/>
+        <f t="shared" si="238"/>
         <v>445785</v>
       </c>
       <c r="X72" s="7">
-        <f t="shared" si="232"/>
+        <f t="shared" si="238"/>
         <v>470558</v>
       </c>
       <c r="Y72" s="7">
-        <f t="shared" si="232"/>
+        <f t="shared" si="238"/>
         <v>484275</v>
       </c>
       <c r="Z72" s="7">
-        <f t="shared" si="232"/>
+        <f t="shared" si="238"/>
         <v>512163</v>
       </c>
       <c r="AA72" s="7">
-        <f t="shared" si="232"/>
+        <f t="shared" si="238"/>
         <v>523013</v>
       </c>
       <c r="AB72" s="7">
-        <f t="shared" si="232"/>
+        <f t="shared" si="238"/>
         <v>533898</v>
       </c>
       <c r="AC72" s="7">
-        <f t="shared" si="232"/>
+        <f t="shared" si="238"/>
         <v>562624</v>
       </c>
       <c r="AD72" s="7">
-        <f t="shared" si="232"/>
+        <f t="shared" si="238"/>
         <v>619003</v>
       </c>
-      <c r="AE72" s="7"/>
+      <c r="AE72" s="7">
+        <f t="shared" si="238"/>
+        <v>636351</v>
+      </c>
       <c r="AF72" s="7"/>
       <c r="AG72" s="7"/>
       <c r="AH72" s="7"/>
       <c r="AO72" s="6">
-        <f t="shared" ref="AO72:BI72" si="233">SUM(AO64:AO71)</f>
+        <f t="shared" ref="AO72:BI72" si="239">SUM(AO64:AO71)</f>
         <v>5363</v>
       </c>
       <c r="AP72" s="6">
-        <f t="shared" si="233"/>
+        <f t="shared" si="239"/>
         <v>7210</v>
       </c>
       <c r="AQ72" s="6">
-        <f t="shared" si="233"/>
+        <f t="shared" si="239"/>
         <v>10093</v>
       </c>
       <c r="AR72" s="6">
-        <f t="shared" si="233"/>
+        <f t="shared" si="239"/>
         <v>14387</v>
       </c>
       <c r="AS72" s="6">
-        <f t="shared" si="233"/>
+        <f t="shared" si="239"/>
         <v>22357</v>
       </c>
       <c r="AT72" s="6">
-        <f t="shared" si="233"/>
+        <f t="shared" si="239"/>
         <v>37156</v>
       </c>
       <c r="AU72" s="6">
-        <f t="shared" si="233"/>
+        <f t="shared" si="239"/>
         <v>52150</v>
       </c>
       <c r="AV72" s="6">
-        <f t="shared" si="233"/>
+        <f t="shared" si="239"/>
         <v>59257</v>
       </c>
       <c r="AW72" s="6">
-        <f t="shared" si="233"/>
+        <f t="shared" si="239"/>
         <v>67646</v>
       </c>
       <c r="AX72" s="6">
-        <f t="shared" si="233"/>
+        <f t="shared" si="239"/>
         <v>79571</v>
       </c>
       <c r="AY72" s="6">
-        <f t="shared" si="233"/>
+        <f t="shared" si="239"/>
         <v>92389</v>
       </c>
       <c r="AZ72" s="6">
-        <f t="shared" si="233"/>
+        <f t="shared" si="239"/>
         <v>70815</v>
       </c>
       <c r="BA72" s="6">
-        <f t="shared" si="233"/>
+        <f t="shared" si="239"/>
         <v>69597</v>
       </c>
       <c r="BB72" s="6">
-        <f t="shared" si="233"/>
+        <f t="shared" si="239"/>
         <v>63171</v>
       </c>
       <c r="BC72" s="6">
-        <f t="shared" si="233"/>
+        <f t="shared" si="239"/>
         <v>72793</v>
       </c>
       <c r="BD72" s="6">
-        <f t="shared" si="233"/>
+        <f t="shared" si="239"/>
         <v>77888</v>
       </c>
       <c r="BE72" s="6">
-        <f t="shared" si="233"/>
+        <f t="shared" si="239"/>
         <v>86113</v>
       </c>
       <c r="BF72" s="6">
-        <f t="shared" si="233"/>
+        <f t="shared" si="239"/>
         <v>108704</v>
       </c>
       <c r="BG72" s="6">
-        <f t="shared" si="233"/>
+        <f t="shared" si="239"/>
         <v>121271</v>
       </c>
       <c r="BH72" s="6">
-        <f t="shared" si="233"/>
+        <f t="shared" si="239"/>
         <v>142431</v>
       </c>
       <c r="BI72" s="6">
-        <f t="shared" si="233"/>
+        <f t="shared" si="239"/>
         <v>172384</v>
       </c>
       <c r="BO72" s="7"/>
@@ -15011,6 +15283,9 @@
       <c r="AD74" s="4">
         <v>27724</v>
       </c>
+      <c r="AE74" s="4">
+        <v>32580</v>
+      </c>
       <c r="AO74" s="4">
         <v>324</v>
       </c>
@@ -15078,15 +15353,15 @@
       <c r="BO74" s="5"/>
       <c r="BP74" s="5"/>
       <c r="BQ74" s="5">
-        <f t="shared" ref="BQ74:BQ82" si="234">+R74</f>
+        <f t="shared" ref="BQ74:BQ82" si="240">+R74</f>
         <v>19000</v>
       </c>
       <c r="BR74" s="5">
-        <f t="shared" ref="BR74:BR82" si="235">+V74</f>
+        <f t="shared" ref="BR74:BR82" si="241">+V74</f>
         <v>18095</v>
       </c>
       <c r="BS74" s="4">
-        <f t="shared" ref="BS74:BS82" si="236">+AB74</f>
+        <f t="shared" ref="BS74:BS82" si="242">+AB74</f>
         <v>22608</v>
       </c>
     </row>
@@ -15194,6 +15469,10 @@
         <f>2999+40152</f>
         <v>43151</v>
       </c>
+      <c r="AE75" s="4">
+        <f>7832+35376</f>
+        <v>43208</v>
+      </c>
       <c r="AO75" s="4">
         <v>0</v>
       </c>
@@ -15265,15 +15544,15 @@
       <c r="BO75" s="5"/>
       <c r="BP75" s="5"/>
       <c r="BQ75" s="5">
-        <f t="shared" si="234"/>
+        <f t="shared" si="240"/>
         <v>49781</v>
       </c>
       <c r="BR75" s="5">
-        <f t="shared" si="235"/>
+        <f t="shared" si="241"/>
         <v>47237</v>
       </c>
       <c r="BS75" s="4">
-        <f t="shared" si="236"/>
+        <f t="shared" si="242"/>
         <v>44970</v>
       </c>
     </row>
@@ -15357,6 +15636,9 @@
       <c r="AD76" s="4">
         <v>13709</v>
       </c>
+      <c r="AE76" s="4">
+        <v>9201</v>
+      </c>
       <c r="AO76" s="4">
         <v>96</v>
       </c>
@@ -15423,15 +15705,15 @@
       <c r="BO76" s="5"/>
       <c r="BP76" s="5"/>
       <c r="BQ76" s="5">
-        <f t="shared" si="234"/>
+        <f t="shared" si="240"/>
         <v>10661</v>
       </c>
       <c r="BR76" s="5">
-        <f t="shared" si="235"/>
+        <f t="shared" si="241"/>
         <v>11009</v>
       </c>
       <c r="BS76" s="4">
-        <f t="shared" si="236"/>
+        <f t="shared" si="242"/>
         <v>9176</v>
       </c>
     </row>
@@ -15539,6 +15821,10 @@
         <f>7211+25986+2835</f>
         <v>36032</v>
       </c>
+      <c r="AE77" s="4">
+        <f>3655+26569+2852</f>
+        <v>33076</v>
+      </c>
       <c r="AO77" s="4">
         <v>305</v>
       </c>
@@ -15608,15 +15894,15 @@
       <c r="BO77" s="5"/>
       <c r="BP77" s="5"/>
       <c r="BQ77" s="5">
-        <f t="shared" si="234"/>
+        <f t="shared" si="240"/>
         <v>30366</v>
       </c>
       <c r="BR77" s="5">
-        <f t="shared" si="235"/>
+        <f t="shared" si="241"/>
         <v>30145</v>
       </c>
       <c r="BS77" s="4">
-        <f t="shared" si="236"/>
+        <f t="shared" si="242"/>
         <v>32958</v>
       </c>
     </row>
@@ -15724,6 +16010,10 @@
         <f>64555+2710</f>
         <v>67265</v>
       </c>
+      <c r="AE78" s="4">
+        <f>58987+2546</f>
+        <v>61533</v>
+      </c>
       <c r="AO78" s="4">
         <v>0</v>
       </c>
@@ -15803,15 +16093,15 @@
       <c r="BO78" s="5"/>
       <c r="BP78" s="5"/>
       <c r="BQ78" s="5">
-        <f t="shared" si="234"/>
+        <f t="shared" si="240"/>
         <v>48408</v>
       </c>
       <c r="BR78" s="5">
-        <f t="shared" si="235"/>
+        <f t="shared" si="241"/>
         <v>53813</v>
       </c>
       <c r="BS78" s="4">
-        <f t="shared" si="236"/>
+        <f t="shared" si="242"/>
         <v>48045</v>
       </c>
     </row>
@@ -15895,6 +16185,9 @@
       <c r="AD79" s="4">
         <v>25020</v>
       </c>
+      <c r="AE79" s="4">
+        <v>22741</v>
+      </c>
       <c r="AO79" s="4">
         <v>188</v>
       </c>
@@ -15962,15 +16255,15 @@
       <c r="BO79" s="5"/>
       <c r="BP79" s="5"/>
       <c r="BQ79" s="5">
-        <f t="shared" si="234"/>
+        <f t="shared" si="240"/>
         <v>13067</v>
       </c>
       <c r="BR79" s="5">
-        <f t="shared" si="235"/>
+        <f t="shared" si="241"/>
         <v>14745</v>
       </c>
       <c r="BS79" s="4">
-        <f t="shared" si="236"/>
+        <f t="shared" si="242"/>
         <v>20286</v>
       </c>
     </row>
@@ -16054,6 +16347,9 @@
       <c r="AD80" s="4">
         <v>17437</v>
       </c>
+      <c r="AE80" s="4">
+        <v>17348</v>
+      </c>
       <c r="AO80" s="4">
         <v>0</v>
       </c>
@@ -16120,15 +16416,15 @@
       <c r="BO80" s="5"/>
       <c r="BP80" s="5"/>
       <c r="BQ80" s="5">
-        <f t="shared" si="234"/>
+        <f t="shared" si="240"/>
         <v>11489</v>
       </c>
       <c r="BR80" s="5">
-        <f t="shared" si="235"/>
+        <f t="shared" si="241"/>
         <v>12728</v>
       </c>
       <c r="BS80" s="4">
-        <f t="shared" si="236"/>
+        <f t="shared" si="242"/>
         <v>17254</v>
       </c>
     </row>
@@ -16212,6 +16508,9 @@
       <c r="AD81" s="4">
         <v>45186</v>
       </c>
+      <c r="AE81" s="4">
+        <v>53588</v>
+      </c>
       <c r="AO81" s="4">
         <v>0</v>
       </c>
@@ -16292,15 +16591,15 @@
       <c r="BO81" s="5"/>
       <c r="BP81" s="5"/>
       <c r="BQ81" s="5">
-        <f t="shared" si="234"/>
+        <f t="shared" si="240"/>
         <v>15526</v>
       </c>
       <c r="BR81" s="5">
-        <f t="shared" si="235"/>
+        <f t="shared" si="241"/>
         <v>17981</v>
       </c>
       <c r="BS81" s="4">
-        <f t="shared" si="236"/>
+        <f t="shared" si="242"/>
         <v>35906</v>
       </c>
     </row>
@@ -16384,6 +16683,9 @@
       <c r="AD82" s="4">
         <v>343479</v>
       </c>
+      <c r="AE82" s="4">
+        <v>363076</v>
+      </c>
       <c r="AO82" s="4">
         <v>4450</v>
       </c>
@@ -16451,15 +16753,15 @@
       <c r="BO82" s="5"/>
       <c r="BP82" s="5"/>
       <c r="BQ82" s="5">
-        <f t="shared" si="234"/>
+        <f t="shared" si="240"/>
         <v>166542</v>
       </c>
       <c r="BR82" s="5">
-        <f t="shared" si="235"/>
+        <f t="shared" si="241"/>
         <v>206223</v>
       </c>
       <c r="BS82" s="4">
-        <f t="shared" si="236"/>
+        <f t="shared" si="242"/>
         <v>302695</v>
       </c>
     </row>
@@ -16484,7 +16786,7 @@
         <v>285449</v>
       </c>
       <c r="J83" s="7">
-        <f t="shared" ref="J83" si="237">SUM(J74:J82)</f>
+        <f t="shared" ref="J83" si="243">SUM(J74:J82)</f>
         <v>301311</v>
       </c>
       <c r="K83" s="7">
@@ -16492,167 +16794,170 @@
         <v>301001</v>
       </c>
       <c r="L83" s="7">
-        <f t="shared" ref="L83" si="238">SUM(L74:L82)</f>
+        <f t="shared" ref="L83" si="244">SUM(L74:L82)</f>
         <v>304137</v>
       </c>
       <c r="M83" s="7">
-        <f t="shared" ref="M83:P83" si="239">SUM(M74:M82)</f>
+        <f t="shared" ref="M83:P83" si="245">SUM(M74:M82)</f>
         <v>308879</v>
       </c>
       <c r="N83" s="7">
-        <f t="shared" si="239"/>
+        <f t="shared" si="245"/>
         <v>333779</v>
       </c>
       <c r="O83" s="7">
-        <f t="shared" si="239"/>
+        <f t="shared" si="245"/>
         <v>335418</v>
       </c>
       <c r="P83" s="7">
-        <f t="shared" si="239"/>
+        <f t="shared" si="245"/>
         <v>340389</v>
       </c>
       <c r="Q83" s="7">
-        <f t="shared" ref="Q83:W83" si="240">SUM(Q74:Q82)</f>
+        <f t="shared" ref="Q83:W83" si="246">SUM(Q74:Q82)</f>
         <v>344607</v>
       </c>
       <c r="R83" s="7">
-        <f t="shared" si="240"/>
+        <f t="shared" si="246"/>
         <v>364840</v>
       </c>
       <c r="S83" s="7">
-        <f t="shared" si="240"/>
+        <f t="shared" si="246"/>
         <v>359784</v>
       </c>
       <c r="T83" s="7">
-        <f t="shared" si="240"/>
+        <f t="shared" si="246"/>
         <v>364552</v>
       </c>
       <c r="U83" s="7">
-        <f t="shared" si="240"/>
+        <f t="shared" si="246"/>
         <v>380088</v>
       </c>
       <c r="V83" s="7">
-        <f t="shared" si="240"/>
+        <f t="shared" si="246"/>
         <v>411976</v>
       </c>
       <c r="W83" s="7">
-        <f t="shared" si="240"/>
+        <f t="shared" si="246"/>
         <v>445785</v>
       </c>
       <c r="X83" s="7">
-        <f t="shared" ref="X83:AD83" si="241">SUM(X74:X82)</f>
+        <f t="shared" ref="X83:AE83" si="247">SUM(X74:X82)</f>
         <v>470558</v>
       </c>
       <c r="Y83" s="7">
-        <f t="shared" si="241"/>
+        <f t="shared" si="247"/>
         <v>484275</v>
       </c>
       <c r="Z83" s="7">
-        <f t="shared" si="241"/>
+        <f t="shared" si="247"/>
         <v>512163</v>
       </c>
       <c r="AA83" s="7">
-        <f t="shared" si="241"/>
+        <f t="shared" si="247"/>
         <v>523013</v>
       </c>
       <c r="AB83" s="7">
-        <f t="shared" si="241"/>
+        <f t="shared" si="247"/>
         <v>533898</v>
       </c>
       <c r="AC83" s="7">
-        <f t="shared" si="241"/>
+        <f t="shared" si="247"/>
         <v>562624</v>
       </c>
       <c r="AD83" s="7">
-        <f t="shared" si="241"/>
+        <f t="shared" si="247"/>
         <v>619003</v>
       </c>
-      <c r="AE83" s="7"/>
+      <c r="AE83" s="7">
+        <f t="shared" si="247"/>
+        <v>636351</v>
+      </c>
       <c r="AF83" s="7"/>
       <c r="AG83" s="7"/>
       <c r="AH83" s="7"/>
       <c r="AO83" s="6">
-        <f t="shared" ref="AO83:BI83" si="242">SUM(AO74:AO82)</f>
+        <f t="shared" ref="AO83:BI83" si="248">SUM(AO74:AO82)</f>
         <v>5363</v>
       </c>
       <c r="AP83" s="6">
-        <f t="shared" si="242"/>
+        <f t="shared" si="248"/>
         <v>7210</v>
       </c>
       <c r="AQ83" s="6">
-        <f t="shared" si="242"/>
+        <f t="shared" si="248"/>
         <v>10093</v>
       </c>
       <c r="AR83" s="6">
-        <f t="shared" si="242"/>
+        <f t="shared" si="248"/>
         <v>14387</v>
       </c>
       <c r="AS83" s="6">
-        <f t="shared" si="242"/>
+        <f t="shared" si="248"/>
         <v>22357</v>
       </c>
       <c r="AT83" s="6">
-        <f t="shared" si="242"/>
+        <f t="shared" si="248"/>
         <v>37156</v>
       </c>
       <c r="AU83" s="6">
-        <f t="shared" si="242"/>
+        <f t="shared" si="248"/>
         <v>52150</v>
       </c>
       <c r="AV83" s="6">
-        <f t="shared" si="242"/>
+        <f t="shared" si="248"/>
         <v>59257</v>
       </c>
       <c r="AW83" s="6">
-        <f t="shared" si="242"/>
+        <f t="shared" si="248"/>
         <v>67646</v>
       </c>
       <c r="AX83" s="6">
-        <f t="shared" si="242"/>
+        <f t="shared" si="248"/>
         <v>79571</v>
       </c>
       <c r="AY83" s="6">
-        <f t="shared" si="242"/>
+        <f t="shared" si="248"/>
         <v>92389</v>
       </c>
       <c r="AZ83" s="6">
-        <f t="shared" si="242"/>
+        <f t="shared" si="248"/>
         <v>70815</v>
       </c>
       <c r="BA83" s="6">
-        <f t="shared" si="242"/>
+        <f t="shared" si="248"/>
         <v>69597</v>
       </c>
       <c r="BB83" s="6">
-        <f t="shared" si="242"/>
+        <f t="shared" si="248"/>
         <v>63171</v>
       </c>
       <c r="BC83" s="6">
-        <f t="shared" si="242"/>
+        <f t="shared" si="248"/>
         <v>72793</v>
       </c>
       <c r="BD83" s="6">
-        <f t="shared" si="242"/>
+        <f t="shared" si="248"/>
         <v>77888</v>
       </c>
       <c r="BE83" s="6">
-        <f t="shared" si="242"/>
+        <f t="shared" si="248"/>
         <v>86113</v>
       </c>
       <c r="BF83" s="6">
-        <f t="shared" si="242"/>
+        <f t="shared" si="248"/>
         <v>108704</v>
       </c>
       <c r="BG83" s="6">
-        <f t="shared" si="242"/>
+        <f t="shared" si="248"/>
         <v>121271</v>
       </c>
       <c r="BH83" s="6">
-        <f t="shared" si="242"/>
+        <f t="shared" si="248"/>
         <v>142431</v>
       </c>
       <c r="BI83" s="6">
-        <f t="shared" si="242"/>
+        <f t="shared" si="248"/>
         <v>172384</v>
       </c>
       <c r="BO83" s="7"/>
@@ -16679,102 +16984,105 @@
       <c r="E85" s="5"/>
       <c r="F85" s="5"/>
       <c r="G85" s="5">
-        <f t="shared" ref="G85:H85" si="243">G46</f>
+        <f t="shared" ref="G85:H85" si="249">G46</f>
         <v>10678</v>
       </c>
       <c r="H85" s="5">
-        <f t="shared" si="243"/>
+        <f t="shared" si="249"/>
         <v>11649</v>
       </c>
       <c r="I85" s="5">
-        <f t="shared" ref="I85:J85" si="244">I46</f>
+        <f t="shared" ref="I85:J85" si="250">I46</f>
         <v>10752</v>
       </c>
       <c r="J85" s="5">
-        <f t="shared" si="244"/>
+        <f t="shared" si="250"/>
         <v>11202</v>
       </c>
       <c r="K85" s="5">
-        <f t="shared" ref="K85:AD85" si="245">K46</f>
+        <f t="shared" ref="K85:AE85" si="251">K46</f>
         <v>13893</v>
       </c>
       <c r="L85" s="5">
-        <f t="shared" si="245"/>
+        <f t="shared" si="251"/>
         <v>15463</v>
       </c>
       <c r="M85" s="5">
-        <f t="shared" si="245"/>
+        <f t="shared" si="251"/>
         <v>15457</v>
       </c>
       <c r="N85" s="5">
-        <f t="shared" si="245"/>
+        <f t="shared" si="251"/>
         <v>16458</v>
       </c>
       <c r="O85" s="5">
-        <f t="shared" si="245"/>
+        <f t="shared" si="251"/>
         <v>20505</v>
       </c>
       <c r="P85" s="5">
-        <f t="shared" si="245"/>
+        <f t="shared" si="251"/>
         <v>18765</v>
       </c>
       <c r="Q85" s="5">
-        <f t="shared" si="245"/>
+        <f t="shared" si="251"/>
         <v>16728</v>
       </c>
       <c r="R85" s="5">
-        <f t="shared" si="245"/>
+        <f t="shared" si="251"/>
         <v>16740</v>
       </c>
       <c r="S85" s="5">
-        <f t="shared" si="245"/>
+        <f t="shared" si="251"/>
         <v>17556</v>
       </c>
       <c r="T85" s="5">
-        <f t="shared" si="245"/>
+        <f t="shared" si="251"/>
         <v>16425</v>
       </c>
       <c r="U85" s="5">
-        <f t="shared" si="245"/>
+        <f t="shared" si="251"/>
         <v>18299</v>
       </c>
       <c r="V85" s="5">
-        <f t="shared" si="245"/>
+        <f t="shared" si="251"/>
         <v>20081</v>
       </c>
       <c r="W85" s="5">
-        <f t="shared" si="245"/>
+        <f t="shared" si="251"/>
         <v>22291</v>
       </c>
       <c r="X85" s="5">
-        <f t="shared" si="245"/>
+        <f t="shared" si="251"/>
         <v>21870</v>
       </c>
       <c r="Y85" s="5">
-        <f t="shared" si="245"/>
+        <f t="shared" si="251"/>
         <v>21939</v>
       </c>
       <c r="Z85" s="5">
-        <f t="shared" si="245"/>
+        <f t="shared" si="251"/>
         <v>22036</v>
       </c>
       <c r="AA85" s="5">
-        <f t="shared" si="245"/>
+        <f t="shared" si="251"/>
         <v>24667</v>
       </c>
       <c r="AB85" s="5">
-        <f t="shared" si="245"/>
+        <f t="shared" si="251"/>
         <v>24108</v>
       </c>
       <c r="AC85" s="5">
-        <f t="shared" si="245"/>
+        <f t="shared" si="251"/>
         <v>25824</v>
       </c>
       <c r="AD85" s="5">
-        <f t="shared" si="245"/>
+        <f t="shared" si="251"/>
         <v>27233</v>
       </c>
-      <c r="AE85" s="5"/>
+      <c r="AE85" s="5">
+        <f t="shared" si="251"/>
+        <v>27747</v>
+      </c>
       <c r="AF85" s="5"/>
       <c r="AG85" s="5"/>
       <c r="AH85" s="5"/>
@@ -16783,11 +17091,11 @@
       <c r="BQ85" s="5"/>
       <c r="BR85" s="5"/>
       <c r="BS85" s="4">
-        <f t="shared" ref="BS85:BT91" si="246">SUM(W85:Z85)</f>
+        <f t="shared" ref="BS85:BT91" si="252">SUM(W85:Z85)</f>
         <v>88136</v>
       </c>
       <c r="BT85" s="4">
-        <f t="shared" si="246"/>
+        <f t="shared" si="252"/>
         <v>90512</v>
       </c>
     </row>
@@ -16871,16 +17179,19 @@
       <c r="AD86" s="4">
         <v>27233</v>
       </c>
+      <c r="AE86" s="4">
+        <v>27747</v>
+      </c>
       <c r="BO86" s="5"/>
       <c r="BP86" s="5"/>
       <c r="BQ86" s="5"/>
       <c r="BR86" s="5"/>
       <c r="BS86" s="4">
-        <f t="shared" si="246"/>
+        <f t="shared" si="252"/>
         <v>88136</v>
       </c>
       <c r="BT86" s="4">
-        <f t="shared" ref="BT86:BT91" si="247">SUM(AA86:AD86)</f>
+        <f t="shared" ref="BT86:BT91" si="253">SUM(AA86:AD86)</f>
         <v>101832</v>
       </c>
     </row>
@@ -16964,16 +17275,19 @@
       <c r="AD87" s="4">
         <v>11203</v>
       </c>
+      <c r="AE87" s="4">
+        <v>13061</v>
+      </c>
       <c r="BO87" s="5"/>
       <c r="BP87" s="5"/>
       <c r="BQ87" s="5"/>
       <c r="BR87" s="5"/>
       <c r="BS87" s="4">
-        <f t="shared" si="246"/>
+        <f t="shared" si="252"/>
         <v>22287</v>
       </c>
       <c r="BT87" s="4">
-        <f t="shared" si="247"/>
+        <f t="shared" si="253"/>
         <v>34153</v>
       </c>
     </row>
@@ -17057,16 +17371,19 @@
       <c r="AD88" s="4">
         <v>3073</v>
       </c>
+      <c r="AE88" s="4">
+        <v>2983</v>
+      </c>
       <c r="BO88" s="5"/>
       <c r="BP88" s="5"/>
       <c r="BQ88" s="5"/>
       <c r="BR88" s="5"/>
       <c r="BS88" s="4">
-        <f t="shared" si="246"/>
+        <f t="shared" si="252"/>
         <v>10734</v>
       </c>
       <c r="BT88" s="4">
-        <f t="shared" si="247"/>
+        <f t="shared" si="253"/>
         <v>11974</v>
       </c>
     </row>
@@ -17150,16 +17467,19 @@
       <c r="AD89" s="4">
         <v>56</v>
       </c>
+      <c r="AE89" s="4">
+        <v>-1007</v>
+      </c>
       <c r="BO89" s="5"/>
       <c r="BP89" s="5"/>
       <c r="BQ89" s="5"/>
       <c r="BR89" s="5"/>
       <c r="BS89" s="4">
-        <f t="shared" si="246"/>
+        <f t="shared" si="252"/>
         <v>305</v>
       </c>
       <c r="BT89" s="4">
-        <f t="shared" si="247"/>
+        <f t="shared" si="253"/>
         <v>609</v>
       </c>
     </row>
@@ -17243,16 +17563,19 @@
       <c r="AD90" s="4">
         <v>-2221</v>
       </c>
+      <c r="AE90" s="4">
+        <v>2491</v>
+      </c>
       <c r="BO90" s="5"/>
       <c r="BP90" s="5"/>
       <c r="BQ90" s="5"/>
       <c r="BR90" s="5"/>
       <c r="BS90" s="4">
-        <f t="shared" si="246"/>
+        <f t="shared" si="252"/>
         <v>-4738</v>
       </c>
       <c r="BT90" s="4">
-        <f t="shared" si="247"/>
+        <f t="shared" si="253"/>
         <v>-7056</v>
       </c>
     </row>
@@ -17360,16 +17683,20 @@
         <f>-16179-81-3686+418-652+18361+1043+5346-1267</f>
         <v>3303</v>
       </c>
+      <c r="AE91" s="4">
+        <f>16490-192-1162-394-614-5418-2944-5507-477</f>
+        <v>-218</v>
+      </c>
       <c r="BO91" s="5"/>
       <c r="BP91" s="5"/>
       <c r="BQ91" s="5"/>
       <c r="BR91" s="5"/>
       <c r="BS91" s="4">
-        <f t="shared" si="246"/>
+        <f t="shared" si="252"/>
         <v>1824</v>
       </c>
       <c r="BT91" s="4">
-        <f t="shared" si="247"/>
+        <f t="shared" si="253"/>
         <v>-5350</v>
       </c>
     </row>
@@ -17382,102 +17709,105 @@
       <c r="E92" s="5"/>
       <c r="F92" s="5"/>
       <c r="G92" s="5">
-        <f t="shared" ref="G92:H92" si="248">SUM(G86:G91)</f>
+        <f t="shared" ref="G92:H92" si="254">SUM(G86:G91)</f>
         <v>13818</v>
       </c>
       <c r="H92" s="5">
-        <f t="shared" si="248"/>
+        <f t="shared" si="254"/>
         <v>10680</v>
       </c>
       <c r="I92" s="5">
-        <f t="shared" ref="I92:J92" si="249">SUM(I86:I91)</f>
+        <f t="shared" ref="I92:J92" si="255">SUM(I86:I91)</f>
         <v>17504</v>
       </c>
       <c r="J92" s="5">
-        <f t="shared" si="249"/>
+        <f t="shared" si="255"/>
         <v>18673</v>
       </c>
       <c r="K92" s="5">
-        <f t="shared" ref="K92:L92" si="250">SUM(K86:K91)</f>
+        <f t="shared" ref="K92:L92" si="256">SUM(K86:K91)</f>
         <v>19335</v>
       </c>
       <c r="L92" s="5">
-        <f t="shared" si="250"/>
+        <f t="shared" si="256"/>
         <v>12516</v>
       </c>
       <c r="M92" s="5">
-        <f t="shared" ref="M92:O92" si="251">SUM(M86:M91)</f>
+        <f t="shared" ref="M92:O92" si="257">SUM(M86:M91)</f>
         <v>22179</v>
       </c>
       <c r="N92" s="5">
-        <f t="shared" si="251"/>
+        <f t="shared" si="257"/>
         <v>22710</v>
       </c>
       <c r="O92" s="5">
-        <f t="shared" si="251"/>
+        <f t="shared" si="257"/>
         <v>24540</v>
       </c>
       <c r="P92" s="5">
-        <f t="shared" ref="P92" si="252">SUM(P86:P91)</f>
+        <f t="shared" ref="P92" si="258">SUM(P86:P91)</f>
         <v>14480</v>
       </c>
       <c r="Q92" s="5">
-        <f t="shared" ref="Q92:U92" si="253">SUM(Q86:Q91)</f>
+        <f t="shared" ref="Q92:U92" si="259">SUM(Q86:Q91)</f>
         <v>25386</v>
       </c>
       <c r="R92" s="5">
-        <f t="shared" si="253"/>
+        <f t="shared" si="259"/>
         <v>24629</v>
       </c>
       <c r="S92" s="5">
-        <f t="shared" si="253"/>
+        <f t="shared" si="259"/>
         <v>23198</v>
       </c>
       <c r="T92" s="5">
-        <f t="shared" si="253"/>
+        <f t="shared" si="259"/>
         <v>11173</v>
       </c>
       <c r="U92" s="5">
-        <f t="shared" si="253"/>
+        <f t="shared" si="259"/>
         <v>24441</v>
       </c>
       <c r="V92" s="5">
-        <f t="shared" ref="V92:AD92" si="254">SUM(V86:V91)</f>
+        <f t="shared" ref="V92:AE92" si="260">SUM(V86:V91)</f>
         <v>28770</v>
       </c>
       <c r="W92" s="5">
-        <f t="shared" si="254"/>
+        <f t="shared" si="260"/>
         <v>30583</v>
       </c>
       <c r="X92" s="5">
-        <f t="shared" si="254"/>
+        <f t="shared" si="260"/>
         <v>18853</v>
       </c>
       <c r="Y92" s="5">
-        <f t="shared" si="254"/>
+        <f t="shared" si="260"/>
         <v>31917</v>
       </c>
       <c r="Z92" s="5">
-        <f t="shared" si="254"/>
+        <f t="shared" si="260"/>
         <v>37195</v>
       </c>
       <c r="AA92" s="5">
-        <f t="shared" si="254"/>
+        <f t="shared" si="260"/>
         <v>34180</v>
       </c>
       <c r="AB92" s="5">
-        <f t="shared" si="254"/>
+        <f t="shared" si="260"/>
         <v>22291</v>
       </c>
       <c r="AC92" s="5">
-        <f t="shared" si="254"/>
+        <f t="shared" si="260"/>
         <v>37044</v>
       </c>
       <c r="AD92" s="5">
-        <f t="shared" si="254"/>
+        <f t="shared" si="260"/>
         <v>42647</v>
       </c>
-      <c r="AE92" s="5"/>
+      <c r="AE92" s="5">
+        <f t="shared" si="260"/>
+        <v>45057</v>
+      </c>
       <c r="AF92" s="5"/>
       <c r="AG92" s="5"/>
       <c r="AH92" s="5"/>
@@ -17599,12 +17929,15 @@
         <f>-64551-AC94-AB94-AA94</f>
         <v>-17079</v>
       </c>
+      <c r="AE94" s="4">
+        <v>-19394</v>
+      </c>
       <c r="BO94" s="5"/>
       <c r="BP94" s="5"/>
       <c r="BQ94" s="5"/>
       <c r="BR94" s="5"/>
       <c r="BS94" s="4">
-        <f t="shared" ref="BS94:BS97" si="255">SUM(W94:Z94)</f>
+        <f t="shared" ref="BS94:BS97" si="261">SUM(W94:Z94)</f>
         <v>-44477</v>
       </c>
       <c r="BT94" s="4">
@@ -17693,13 +18026,16 @@
       </c>
       <c r="AD95" s="4">
         <v>-1743</v>
+      </c>
+      <c r="AE95" s="4">
+        <v>-578</v>
       </c>
       <c r="BO95" s="5"/>
       <c r="BP95" s="5"/>
       <c r="BQ95" s="5"/>
       <c r="BR95" s="5"/>
       <c r="BS95" s="4">
-        <f t="shared" si="255"/>
+        <f t="shared" si="261"/>
         <v>-69132</v>
       </c>
       <c r="BT95" s="4">
@@ -17814,12 +18150,16 @@
         <f>-21631+4618+2621</f>
         <v>-14392</v>
       </c>
+      <c r="AE96" s="4">
+        <f>-17671+6031+3262</f>
+        <v>-8378</v>
+      </c>
       <c r="BO96" s="5"/>
       <c r="BP96" s="5"/>
       <c r="BQ96" s="5"/>
       <c r="BR96" s="5"/>
       <c r="BS96" s="4">
-        <f t="shared" si="255"/>
+        <f t="shared" si="261"/>
         <v>17937</v>
       </c>
       <c r="BT96" s="4">
@@ -17908,13 +18248,16 @@
       </c>
       <c r="AD97" s="4">
         <v>2642</v>
+      </c>
+      <c r="AE97" s="4">
+        <v>-6209</v>
       </c>
       <c r="BO97" s="5"/>
       <c r="BP97" s="5"/>
       <c r="BQ97" s="5"/>
       <c r="BR97" s="5"/>
       <c r="BS97" s="4">
-        <f t="shared" si="255"/>
+        <f t="shared" si="261"/>
         <v>-1298</v>
       </c>
       <c r="BT97" s="4">
@@ -17928,106 +18271,110 @@
       </c>
       <c r="C98" s="5"/>
       <c r="D98" s="5">
-        <f t="shared" ref="D98" si="256">SUM(D94:D97)</f>
+        <f t="shared" ref="D98" si="262">SUM(D94:D97)</f>
         <v>-4200</v>
       </c>
       <c r="E98" s="5"/>
       <c r="F98" s="5"/>
       <c r="G98" s="5">
-        <f t="shared" ref="G98:H98" si="257">SUM(G94:G97)</f>
+        <f t="shared" ref="G98:H98" si="263">SUM(G94:G97)</f>
         <v>-1776</v>
       </c>
       <c r="H98" s="5">
-        <f t="shared" si="257"/>
+        <f t="shared" si="263"/>
         <v>-6036</v>
       </c>
       <c r="I98" s="5">
-        <f t="shared" ref="I98:J98" si="258">SUM(I94:I97)</f>
+        <f t="shared" ref="I98:J98" si="264">SUM(I94:I97)</f>
         <v>51</v>
       </c>
       <c r="J98" s="5">
-        <f t="shared" si="258"/>
+        <f t="shared" si="264"/>
         <v>-4462</v>
       </c>
       <c r="K98" s="5">
-        <f t="shared" ref="K98:L98" si="259">SUM(K94:K97)</f>
+        <f t="shared" ref="K98:L98" si="265">SUM(K94:K97)</f>
         <v>-5371</v>
       </c>
       <c r="L98" s="5">
-        <f t="shared" si="259"/>
+        <f t="shared" si="265"/>
         <v>-1669</v>
       </c>
       <c r="M98" s="5">
-        <f t="shared" ref="M98:P98" si="260">SUM(M94:M97)</f>
+        <f t="shared" ref="M98:P98" si="266">SUM(M94:M97)</f>
         <v>-9684</v>
       </c>
       <c r="N98" s="5">
-        <f t="shared" si="260"/>
+        <f t="shared" si="266"/>
         <v>-10853</v>
       </c>
       <c r="O98" s="5">
-        <f t="shared" si="260"/>
+        <f t="shared" si="266"/>
         <v>-3250</v>
       </c>
       <c r="P98" s="5">
-        <f t="shared" si="260"/>
+        <f t="shared" si="266"/>
         <v>-1161</v>
       </c>
       <c r="Q98" s="5">
-        <f t="shared" ref="Q98:AD98" si="261">SUM(Q94:Q97)</f>
+        <f t="shared" ref="Q98:AE98" si="267">SUM(Q94:Q97)</f>
         <v>-16171</v>
       </c>
       <c r="R98" s="5">
-        <f t="shared" si="261"/>
+        <f t="shared" si="267"/>
         <v>-9729</v>
       </c>
       <c r="S98" s="5">
-        <f t="shared" si="261"/>
+        <f t="shared" si="267"/>
         <v>-3132</v>
       </c>
       <c r="T98" s="5">
-        <f t="shared" si="261"/>
+        <f t="shared" si="267"/>
         <v>-7150</v>
       </c>
       <c r="U98" s="5">
-        <f t="shared" si="261"/>
+        <f t="shared" si="267"/>
         <v>-3264</v>
       </c>
       <c r="V98" s="5">
-        <f t="shared" si="261"/>
+        <f t="shared" si="267"/>
         <v>-9134</v>
       </c>
       <c r="W98" s="5">
-        <f t="shared" si="261"/>
+        <f t="shared" si="267"/>
         <v>503</v>
       </c>
       <c r="X98" s="5">
-        <f t="shared" si="261"/>
+        <f t="shared" si="267"/>
         <v>-71925</v>
       </c>
       <c r="Y98" s="5">
-        <f t="shared" si="261"/>
+        <f t="shared" si="267"/>
         <v>-10700</v>
       </c>
       <c r="Z98" s="5">
-        <f t="shared" si="261"/>
+        <f t="shared" si="267"/>
         <v>-14848</v>
       </c>
       <c r="AA98" s="5">
-        <f t="shared" si="261"/>
+        <f t="shared" si="267"/>
         <v>-15201</v>
       </c>
       <c r="AB98" s="5">
-        <f t="shared" si="261"/>
+        <f t="shared" si="267"/>
         <v>-14112</v>
       </c>
       <c r="AC98" s="5">
-        <f t="shared" si="261"/>
+        <f t="shared" si="267"/>
         <v>-12714</v>
       </c>
       <c r="AD98" s="5">
-        <f t="shared" si="261"/>
+        <f t="shared" si="267"/>
         <v>-30572</v>
+      </c>
+      <c r="AE98" s="5">
+        <f t="shared" si="267"/>
+        <v>-34559</v>
       </c>
       <c r="BO98" s="5"/>
       <c r="BP98" s="5"/>
@@ -18122,16 +18469,19 @@
       <c r="AD100" s="4">
         <v>0</v>
       </c>
+      <c r="AE100" s="4">
+        <v>0</v>
+      </c>
       <c r="BO100" s="5"/>
       <c r="BP100" s="5"/>
       <c r="BQ100" s="5"/>
       <c r="BR100" s="5"/>
       <c r="BS100" s="4">
-        <f t="shared" ref="BS100:BS106" si="262">SUM(W100:Z100)</f>
+        <f t="shared" ref="BS100:BS106" si="268">SUM(W100:Z100)</f>
         <v>0</v>
       </c>
       <c r="BT100" s="4">
-        <f t="shared" ref="BT100:BT106" si="263">SUM(AA100:AD100)</f>
+        <f t="shared" ref="BT100:BT106" si="269">SUM(AA100:AD100)</f>
         <v>0</v>
       </c>
     </row>
@@ -18221,16 +18571,19 @@
       <c r="AD101" s="4">
         <v>0</v>
       </c>
+      <c r="AE101" s="4">
+        <v>0</v>
+      </c>
       <c r="BO101" s="5"/>
       <c r="BP101" s="5"/>
       <c r="BQ101" s="5"/>
       <c r="BR101" s="5"/>
       <c r="BS101" s="4">
-        <f t="shared" si="262"/>
+        <f t="shared" si="268"/>
         <v>575</v>
       </c>
       <c r="BT101" s="4">
-        <f t="shared" si="263"/>
+        <f t="shared" si="269"/>
         <v>-8962</v>
       </c>
     </row>
@@ -18337,16 +18690,20 @@
         <f>548-4546</f>
         <v>-3998</v>
       </c>
+      <c r="AE102" s="4">
+        <f>689-5650</f>
+        <v>-4961</v>
+      </c>
       <c r="BO102" s="5"/>
       <c r="BP102" s="5"/>
       <c r="BQ102" s="5"/>
       <c r="BR102" s="5"/>
       <c r="BS102" s="4">
-        <f t="shared" si="262"/>
+        <f t="shared" si="268"/>
         <v>-15252</v>
       </c>
       <c r="BT102" s="4">
-        <f t="shared" si="263"/>
+        <f t="shared" si="269"/>
         <v>-16364</v>
       </c>
     </row>
@@ -18430,16 +18787,19 @@
       <c r="AD103" s="4">
         <v>-6169</v>
       </c>
+      <c r="AE103" s="4">
+        <v>-6169</v>
+      </c>
       <c r="BO103" s="5"/>
       <c r="BP103" s="5"/>
       <c r="BQ103" s="5"/>
       <c r="BR103" s="5"/>
       <c r="BS103" s="4">
-        <f t="shared" si="262"/>
+        <f t="shared" si="268"/>
         <v>-21771</v>
       </c>
       <c r="BT103" s="4">
-        <f t="shared" si="263"/>
+        <f t="shared" si="269"/>
         <v>-24082</v>
       </c>
     </row>
@@ -18523,16 +18883,19 @@
       <c r="AD104" s="4">
         <v>-677</v>
       </c>
+      <c r="AE104" s="4">
+        <v>-669</v>
+      </c>
       <c r="BO104" s="5"/>
       <c r="BP104" s="5"/>
       <c r="BQ104" s="5"/>
       <c r="BR104" s="5"/>
       <c r="BS104" s="4">
-        <f t="shared" si="262"/>
+        <f t="shared" si="268"/>
         <v>-1309</v>
       </c>
       <c r="BT104" s="4">
-        <f t="shared" si="263"/>
+        <f t="shared" si="269"/>
         <v>-2291</v>
       </c>
     </row>
@@ -18545,7 +18908,7 @@
       <c r="E105" s="5"/>
       <c r="F105" s="5"/>
       <c r="G105" s="5">
-        <f t="shared" ref="G105" si="264">SUM(G100:G104)</f>
+        <f t="shared" ref="G105" si="270">SUM(G100:G104)</f>
         <v>-10209</v>
       </c>
       <c r="H105" s="5">
@@ -18561,23 +18924,23 @@
         <v>-12262</v>
       </c>
       <c r="K105" s="5">
-        <f t="shared" ref="K105:L105" si="265">SUM(K100:K104)</f>
+        <f t="shared" ref="K105:L105" si="271">SUM(K100:K104)</f>
         <v>-10289</v>
       </c>
       <c r="L105" s="5">
-        <f t="shared" si="265"/>
+        <f t="shared" si="271"/>
         <v>-13634</v>
       </c>
       <c r="M105" s="5">
-        <f t="shared" ref="M105:O105" si="266">SUM(M100:M104)</f>
+        <f t="shared" ref="M105:O105" si="272">SUM(M100:M104)</f>
         <v>-13192</v>
       </c>
       <c r="N105" s="5">
-        <f t="shared" si="266"/>
+        <f t="shared" si="272"/>
         <v>-11371</v>
       </c>
       <c r="O105" s="5">
-        <f t="shared" si="266"/>
+        <f t="shared" si="272"/>
         <v>-16276</v>
       </c>
       <c r="P105" s="5">
@@ -18601,44 +18964,48 @@
         <v>-11349</v>
       </c>
       <c r="U105" s="5">
-        <f t="shared" ref="U105:AD105" si="267">SUM(U100:U104)</f>
+        <f t="shared" ref="U105:AE105" si="273">SUM(U100:U104)</f>
         <v>-10290</v>
       </c>
       <c r="V105" s="5">
-        <f t="shared" si="267"/>
+        <f t="shared" si="273"/>
         <v>-11413</v>
       </c>
       <c r="W105" s="5">
-        <f t="shared" si="267"/>
+        <f t="shared" si="273"/>
         <v>14761</v>
       </c>
       <c r="X105" s="5">
-        <f t="shared" si="267"/>
+        <f t="shared" si="273"/>
         <v>-10147</v>
       </c>
       <c r="Y105" s="5">
-        <f t="shared" si="267"/>
+        <f t="shared" si="273"/>
         <v>-18808</v>
       </c>
       <c r="Z105" s="5">
-        <f t="shared" si="267"/>
+        <f t="shared" si="273"/>
         <v>-23563</v>
       </c>
       <c r="AA105" s="5">
-        <f t="shared" si="267"/>
+        <f t="shared" si="273"/>
         <v>-16576</v>
       </c>
       <c r="AB105" s="5">
-        <f t="shared" si="267"/>
+        <f t="shared" si="273"/>
         <v>-11243</v>
       </c>
       <c r="AC105" s="5">
-        <f t="shared" si="267"/>
+        <f t="shared" si="273"/>
         <v>-13036</v>
       </c>
       <c r="AD105" s="5">
-        <f t="shared" si="267"/>
+        <f t="shared" si="273"/>
         <v>-10844</v>
+      </c>
+      <c r="AE105" s="5">
+        <f t="shared" si="273"/>
+        <v>-11799</v>
       </c>
       <c r="BO105" s="5"/>
       <c r="BP105" s="5"/>
@@ -18729,12 +19096,15 @@
       <c r="AD106" s="4">
         <v>183</v>
       </c>
+      <c r="AE106" s="4">
+        <v>-92</v>
+      </c>
       <c r="BS106" s="4">
-        <f t="shared" si="262"/>
+        <f t="shared" si="268"/>
         <v>-210</v>
       </c>
       <c r="BT106" s="4">
-        <f t="shared" si="263"/>
+        <f t="shared" si="269"/>
         <v>63</v>
       </c>
     </row>
@@ -18743,39 +19113,39 @@
         <v>67</v>
       </c>
       <c r="G107" s="5">
-        <f t="shared" ref="G107:H107" si="268">G105+G106+G98+G92</f>
+        <f t="shared" ref="G107:H107" si="274">G105+G106+G98+G92</f>
         <v>1761</v>
       </c>
       <c r="H107" s="5">
-        <f t="shared" si="268"/>
+        <f t="shared" si="274"/>
         <v>-4253</v>
       </c>
       <c r="I107" s="5">
-        <f t="shared" ref="I107:J107" si="269">I105+I106+I98+I92</f>
+        <f t="shared" ref="I107:J107" si="275">I105+I106+I98+I92</f>
         <v>2846</v>
       </c>
       <c r="J107" s="5">
-        <f t="shared" si="269"/>
+        <f t="shared" si="275"/>
         <v>1866</v>
       </c>
       <c r="K107" s="5">
-        <f t="shared" ref="K107:L107" si="270">K105+K106+K98+K92</f>
+        <f t="shared" ref="K107:L107" si="276">K105+K106+K98+K92</f>
         <v>3629</v>
       </c>
       <c r="L107" s="5">
-        <f t="shared" si="270"/>
+        <f t="shared" si="276"/>
         <v>-2773</v>
       </c>
       <c r="M107" s="5">
-        <f t="shared" ref="M107:O107" si="271">M105+M106+M98+M92</f>
+        <f t="shared" ref="M107:O107" si="277">M105+M106+M98+M92</f>
         <v>-730</v>
       </c>
       <c r="N107" s="5">
-        <f t="shared" si="271"/>
+        <f t="shared" si="277"/>
         <v>522</v>
       </c>
       <c r="O107" s="5">
-        <f t="shared" si="271"/>
+        <f t="shared" si="277"/>
         <v>4941</v>
       </c>
       <c r="P107" s="5">
@@ -18799,44 +19169,48 @@
         <v>-7238</v>
       </c>
       <c r="U107" s="5">
-        <f t="shared" ref="U107:AD107" si="272">U105+U106+U98+U92</f>
+        <f t="shared" ref="U107:AE107" si="278">U105+U106+U98+U92</f>
         <v>10916</v>
       </c>
       <c r="V107" s="5">
-        <f t="shared" si="272"/>
+        <f t="shared" si="278"/>
         <v>8142</v>
       </c>
       <c r="W107" s="5">
-        <f t="shared" si="272"/>
+        <f t="shared" si="278"/>
         <v>45748</v>
       </c>
       <c r="X107" s="5">
-        <f t="shared" si="272"/>
+        <f t="shared" si="278"/>
         <v>-63147</v>
       </c>
       <c r="Y107" s="5">
-        <f t="shared" si="272"/>
+        <f t="shared" si="278"/>
         <v>2329</v>
       </c>
       <c r="Z107" s="5">
-        <f t="shared" si="272"/>
+        <f t="shared" si="278"/>
         <v>-1319</v>
       </c>
       <c r="AA107" s="5">
-        <f t="shared" si="272"/>
+        <f t="shared" si="278"/>
         <v>2525</v>
       </c>
       <c r="AB107" s="5">
-        <f t="shared" si="272"/>
+        <f t="shared" si="278"/>
         <v>-3358</v>
       </c>
       <c r="AC107" s="5">
-        <f t="shared" si="272"/>
+        <f t="shared" si="278"/>
         <v>11346</v>
       </c>
       <c r="AD107" s="5">
-        <f t="shared" si="272"/>
+        <f t="shared" si="278"/>
         <v>1414</v>
+      </c>
+      <c r="AE107" s="5">
+        <f t="shared" si="278"/>
+        <v>-1393</v>
       </c>
       <c r="BS107" s="6">
         <f>BS105+BS106</f>
@@ -18852,39 +19226,39 @@
         <v>72</v>
       </c>
       <c r="G109" s="5">
-        <f t="shared" ref="G109:J109" si="273">G92+G94</f>
+        <f t="shared" ref="G109:J109" si="279">G92+G94</f>
         <v>10433</v>
       </c>
       <c r="H109" s="5">
-        <f t="shared" si="273"/>
+        <f t="shared" si="279"/>
         <v>7135</v>
       </c>
       <c r="I109" s="5">
-        <f t="shared" si="273"/>
+        <f t="shared" si="279"/>
         <v>13737</v>
       </c>
       <c r="J109" s="5">
-        <f t="shared" si="273"/>
+        <f t="shared" si="279"/>
         <v>13929</v>
       </c>
       <c r="K109" s="5">
-        <f t="shared" ref="K109:O109" si="274">K92+K94</f>
+        <f t="shared" ref="K109:O109" si="280">K92+K94</f>
         <v>14428</v>
       </c>
       <c r="L109" s="5">
-        <f t="shared" si="274"/>
+        <f t="shared" si="280"/>
         <v>8342</v>
       </c>
       <c r="M109" s="5">
-        <f t="shared" si="274"/>
+        <f t="shared" si="280"/>
         <v>17090</v>
       </c>
       <c r="N109" s="5">
-        <f t="shared" si="274"/>
+        <f t="shared" si="280"/>
         <v>16258</v>
       </c>
       <c r="O109" s="5">
-        <f t="shared" si="274"/>
+        <f t="shared" si="280"/>
         <v>18730</v>
       </c>
       <c r="P109" s="5">
@@ -18892,11 +19266,11 @@
         <v>8615</v>
       </c>
       <c r="Q109" s="5">
-        <f t="shared" ref="Q109:R109" si="275">Q92+Q94</f>
+        <f t="shared" ref="Q109:R109" si="281">Q92+Q94</f>
         <v>20046</v>
       </c>
       <c r="R109" s="5">
-        <f t="shared" si="275"/>
+        <f t="shared" si="281"/>
         <v>17758</v>
       </c>
       <c r="S109" s="5">
@@ -18908,44 +19282,48 @@
         <v>4899</v>
       </c>
       <c r="U109" s="5">
-        <f t="shared" ref="U109:AD109" si="276">U92+U94</f>
+        <f t="shared" ref="U109:AE109" si="282">U92+U94</f>
         <v>17834</v>
       </c>
       <c r="V109" s="5">
-        <f t="shared" si="276"/>
+        <f t="shared" si="282"/>
         <v>19827</v>
       </c>
       <c r="W109" s="5">
-        <f t="shared" si="276"/>
+        <f t="shared" si="282"/>
         <v>20666</v>
       </c>
       <c r="X109" s="5">
-        <f t="shared" si="276"/>
+        <f t="shared" si="282"/>
         <v>9118</v>
       </c>
       <c r="Y109" s="5">
-        <f t="shared" si="276"/>
+        <f t="shared" si="282"/>
         <v>20965</v>
       </c>
       <c r="Z109" s="5">
-        <f t="shared" si="276"/>
+        <f t="shared" si="282"/>
         <v>23322</v>
       </c>
       <c r="AA109" s="5">
-        <f t="shared" si="276"/>
+        <f t="shared" si="282"/>
         <v>19257</v>
       </c>
       <c r="AB109" s="5">
-        <f t="shared" si="276"/>
+        <f t="shared" si="282"/>
         <v>6487</v>
       </c>
       <c r="AC109" s="5">
-        <f t="shared" si="276"/>
+        <f t="shared" si="282"/>
         <v>20299</v>
       </c>
       <c r="AD109" s="5">
-        <f t="shared" si="276"/>
+        <f t="shared" si="282"/>
         <v>25568</v>
+      </c>
+      <c r="AE109" s="5">
+        <f t="shared" si="282"/>
+        <v>25663</v>
       </c>
       <c r="BS109" s="4">
         <f>BS92+BS94</f>
@@ -18961,88 +19339,92 @@
         <v>103</v>
       </c>
       <c r="J110" s="4">
-        <f t="shared" ref="J110" si="277">SUM(G109:J109)</f>
+        <f t="shared" ref="J110" si="283">SUM(G109:J109)</f>
         <v>45234</v>
       </c>
       <c r="K110" s="4">
-        <f t="shared" ref="K110" si="278">SUM(H109:K109)</f>
+        <f t="shared" ref="K110" si="284">SUM(H109:K109)</f>
         <v>49229</v>
       </c>
       <c r="L110" s="4">
-        <f t="shared" ref="L110" si="279">SUM(I109:L109)</f>
+        <f t="shared" ref="L110" si="285">SUM(I109:L109)</f>
         <v>50436</v>
       </c>
       <c r="M110" s="4">
-        <f t="shared" ref="M110" si="280">SUM(J109:M109)</f>
+        <f t="shared" ref="M110" si="286">SUM(J109:M109)</f>
         <v>53789</v>
       </c>
       <c r="N110" s="4">
-        <f t="shared" ref="N110" si="281">SUM(K109:N109)</f>
+        <f t="shared" ref="N110" si="287">SUM(K109:N109)</f>
         <v>56118</v>
       </c>
       <c r="O110" s="4">
-        <f t="shared" ref="O110:T110" si="282">SUM(L109:O109)</f>
+        <f t="shared" ref="O110:T110" si="288">SUM(L109:O109)</f>
         <v>60420</v>
       </c>
       <c r="P110" s="4">
-        <f t="shared" si="282"/>
+        <f t="shared" si="288"/>
         <v>60693</v>
       </c>
       <c r="Q110" s="4">
-        <f t="shared" si="282"/>
+        <f t="shared" si="288"/>
         <v>63649</v>
       </c>
       <c r="R110" s="4">
-        <f t="shared" si="282"/>
+        <f t="shared" si="288"/>
         <v>65149</v>
       </c>
       <c r="S110" s="4">
-        <f t="shared" si="282"/>
+        <f t="shared" si="288"/>
         <v>63334</v>
       </c>
       <c r="T110" s="4">
-        <f t="shared" si="282"/>
+        <f t="shared" si="288"/>
         <v>59618</v>
       </c>
       <c r="U110" s="4">
-        <f t="shared" ref="U110:AD110" si="283">SUM(R109:U109)</f>
+        <f t="shared" ref="U110:AE110" si="289">SUM(R109:U109)</f>
         <v>57406</v>
       </c>
       <c r="V110" s="4">
-        <f t="shared" si="283"/>
+        <f t="shared" si="289"/>
         <v>59475</v>
       </c>
       <c r="W110" s="4">
-        <f t="shared" si="283"/>
+        <f t="shared" si="289"/>
         <v>63226</v>
       </c>
       <c r="X110" s="4">
-        <f t="shared" si="283"/>
+        <f t="shared" si="289"/>
         <v>67445</v>
       </c>
       <c r="Y110" s="4">
-        <f t="shared" si="283"/>
+        <f t="shared" si="289"/>
         <v>70576</v>
       </c>
       <c r="Z110" s="4">
-        <f t="shared" si="283"/>
+        <f t="shared" si="289"/>
         <v>74071</v>
       </c>
       <c r="AA110" s="4">
-        <f t="shared" si="283"/>
+        <f t="shared" si="289"/>
         <v>72662</v>
       </c>
       <c r="AB110" s="4">
-        <f t="shared" si="283"/>
+        <f t="shared" si="289"/>
         <v>70031</v>
       </c>
       <c r="AC110" s="4">
-        <f t="shared" si="283"/>
+        <f t="shared" si="289"/>
         <v>69365</v>
       </c>
       <c r="AD110" s="4">
-        <f t="shared" si="283"/>
+        <f t="shared" si="289"/>
         <v>71611</v>
+      </c>
+      <c r="AE110" s="4">
+        <f t="shared" si="289"/>
+        <v>78017</v>
       </c>
     </row>
     <row r="111" spans="2:73">
@@ -19050,72 +19432,76 @@
         <v>463</v>
       </c>
       <c r="N111" s="12">
-        <f t="shared" ref="N111" si="284">+N110/J110-1</f>
+        <f t="shared" ref="N111" si="290">+N110/J110-1</f>
         <v>0.24061546624220709</v>
       </c>
       <c r="O111" s="12">
-        <f t="shared" ref="O111" si="285">+O110/K110-1</f>
+        <f t="shared" ref="O111" si="291">+O110/K110-1</f>
         <v>0.22732535700501733</v>
       </c>
       <c r="P111" s="12">
-        <f t="shared" ref="P111" si="286">+P110/L110-1</f>
+        <f t="shared" ref="P111" si="292">+P110/L110-1</f>
         <v>0.20336664287413742</v>
       </c>
       <c r="Q111" s="12">
-        <f t="shared" ref="Q111" si="287">+Q110/M110-1</f>
+        <f t="shared" ref="Q111" si="293">+Q110/M110-1</f>
         <v>0.18330885497034699</v>
       </c>
       <c r="R111" s="12">
-        <f t="shared" ref="R111" si="288">+R110/N110-1</f>
+        <f t="shared" ref="R111" si="294">+R110/N110-1</f>
         <v>0.16092875726148481</v>
       </c>
       <c r="S111" s="12">
-        <f t="shared" ref="S111:Y111" si="289">+S110/O110-1</f>
+        <f t="shared" ref="S111:Y111" si="295">+S110/O110-1</f>
         <v>4.8229063224098034E-2</v>
       </c>
       <c r="T111" s="12">
-        <f t="shared" si="289"/>
+        <f t="shared" si="295"/>
         <v>-1.7712092004020241E-2</v>
       </c>
       <c r="U111" s="12">
-        <f t="shared" si="289"/>
+        <f t="shared" si="295"/>
         <v>-9.8084808873666551E-2</v>
       </c>
       <c r="V111" s="12">
-        <f t="shared" si="289"/>
+        <f t="shared" si="295"/>
         <v>-8.7092664507513518E-2</v>
       </c>
       <c r="W111" s="12">
-        <f t="shared" si="289"/>
+        <f t="shared" si="295"/>
         <v>-1.7052452079451275E-3</v>
       </c>
       <c r="X111" s="12">
-        <f t="shared" si="289"/>
+        <f t="shared" si="295"/>
         <v>0.13128585326579212</v>
       </c>
       <c r="Y111" s="12">
-        <f t="shared" si="289"/>
+        <f t="shared" si="295"/>
         <v>0.22941852768003335</v>
       </c>
       <c r="Z111" s="12">
-        <f>+Z110/V110-1</f>
+        <f t="shared" ref="Z111:AE111" si="296">+Z110/V110-1</f>
         <v>0.24541403951240026</v>
       </c>
       <c r="AA111" s="12">
-        <f>+AA110/W110-1</f>
+        <f t="shared" si="296"/>
         <v>0.14924240027836655</v>
       </c>
       <c r="AB111" s="12">
-        <f>+AB110/X110-1</f>
+        <f t="shared" si="296"/>
         <v>3.8342353028393505E-2</v>
       </c>
       <c r="AC111" s="12">
-        <f>+AC110/Y110-1</f>
+        <f t="shared" si="296"/>
         <v>-1.7158807526637898E-2</v>
       </c>
       <c r="AD111" s="12">
-        <f>+AD110/Z110-1</f>
+        <f t="shared" si="296"/>
         <v>-3.3211378272198333E-2</v>
+      </c>
+      <c r="AE111" s="12">
+        <f t="shared" si="296"/>
+        <v>7.369739341058601E-2</v>
       </c>
       <c r="BT111" s="12">
         <f>+BT109/BS109-1</f>
@@ -19127,88 +19513,92 @@
         <v>464</v>
       </c>
       <c r="J112" s="4">
-        <f t="shared" ref="J112" si="290">SUM(G94:J94)</f>
+        <f t="shared" ref="J112" si="297">SUM(G94:J94)</f>
         <v>-15441</v>
       </c>
       <c r="K112" s="4">
-        <f t="shared" ref="K112" si="291">SUM(H94:K94)</f>
+        <f t="shared" ref="K112" si="298">SUM(H94:K94)</f>
         <v>-16963</v>
       </c>
       <c r="L112" s="4">
-        <f t="shared" ref="L112" si="292">SUM(I94:L94)</f>
+        <f t="shared" ref="L112" si="299">SUM(I94:L94)</f>
         <v>-17592</v>
       </c>
       <c r="M112" s="4">
-        <f t="shared" ref="M112" si="293">SUM(J94:M94)</f>
+        <f t="shared" ref="M112" si="300">SUM(J94:M94)</f>
         <v>-18914</v>
       </c>
       <c r="N112" s="4">
-        <f t="shared" ref="N112" si="294">SUM(K94:N94)</f>
+        <f t="shared" ref="N112" si="301">SUM(K94:N94)</f>
         <v>-20622</v>
       </c>
       <c r="O112" s="4">
-        <f t="shared" ref="O112:W112" si="295">SUM(L94:O94)</f>
+        <f t="shared" ref="O112:W112" si="302">SUM(L94:O94)</f>
         <v>-21525</v>
       </c>
       <c r="P112" s="4">
-        <f t="shared" si="295"/>
+        <f t="shared" si="302"/>
         <v>-23216</v>
       </c>
       <c r="Q112" s="4">
-        <f t="shared" si="295"/>
+        <f t="shared" si="302"/>
         <v>-23467</v>
       </c>
       <c r="R112" s="4">
-        <f t="shared" si="295"/>
+        <f t="shared" si="302"/>
         <v>-23886</v>
       </c>
       <c r="S112" s="4">
-        <f t="shared" si="295"/>
+        <f t="shared" si="302"/>
         <v>-24359</v>
       </c>
       <c r="T112" s="4">
-        <f t="shared" si="295"/>
+        <f t="shared" si="302"/>
         <v>-24768</v>
       </c>
       <c r="U112" s="4">
-        <f t="shared" si="295"/>
+        <f t="shared" si="302"/>
         <v>-26035</v>
       </c>
       <c r="V112" s="4">
-        <f t="shared" si="295"/>
+        <f t="shared" si="302"/>
         <v>-28107</v>
       </c>
       <c r="W112" s="4">
-        <f t="shared" si="295"/>
+        <f t="shared" si="302"/>
         <v>-31741</v>
       </c>
       <c r="X112" s="4">
-        <f t="shared" ref="X112:AD112" si="296">SUM(U94:X94)</f>
+        <f t="shared" ref="X112:AE112" si="303">SUM(U94:X94)</f>
         <v>-35202</v>
       </c>
       <c r="Y112" s="4">
-        <f t="shared" si="296"/>
+        <f t="shared" si="303"/>
         <v>-39547</v>
       </c>
       <c r="Z112" s="4">
-        <f t="shared" si="296"/>
+        <f t="shared" si="303"/>
         <v>-44477</v>
       </c>
       <c r="AA112" s="4">
-        <f t="shared" si="296"/>
+        <f t="shared" si="303"/>
         <v>-49483</v>
       </c>
       <c r="AB112" s="4">
-        <f t="shared" si="296"/>
+        <f t="shared" si="303"/>
         <v>-55552</v>
       </c>
       <c r="AC112" s="4">
-        <f t="shared" si="296"/>
+        <f t="shared" si="303"/>
         <v>-61345</v>
       </c>
       <c r="AD112" s="4">
-        <f t="shared" si="296"/>
+        <f t="shared" si="303"/>
         <v>-64551</v>
+      </c>
+      <c r="AE112" s="4">
+        <f t="shared" si="303"/>
+        <v>-69022</v>
       </c>
       <c r="BS112" s="4">
         <f>+BS94</f>
@@ -19228,72 +19618,76 @@
         <v>463</v>
       </c>
       <c r="N113" s="12">
-        <f t="shared" ref="N113" si="297">+N112/J112-1</f>
+        <f t="shared" ref="N113" si="304">+N112/J112-1</f>
         <v>0.33553526326015159</v>
       </c>
       <c r="O113" s="12">
-        <f t="shared" ref="O113" si="298">+O112/K112-1</f>
+        <f t="shared" ref="O113" si="305">+O112/K112-1</f>
         <v>0.26893827742734189</v>
       </c>
       <c r="P113" s="12">
-        <f t="shared" ref="P113" si="299">+P112/L112-1</f>
+        <f t="shared" ref="P113" si="306">+P112/L112-1</f>
         <v>0.31969076853115053</v>
       </c>
       <c r="Q113" s="12">
-        <f t="shared" ref="Q113" si="300">+Q112/M112-1</f>
+        <f t="shared" ref="Q113" si="307">+Q112/M112-1</f>
         <v>0.24072115892989321</v>
       </c>
       <c r="R113" s="12">
-        <f t="shared" ref="R113" si="301">+R112/N112-1</f>
+        <f t="shared" ref="R113" si="308">+R112/N112-1</f>
         <v>0.15827756764620315</v>
       </c>
       <c r="S113" s="12">
-        <f t="shared" ref="S113:W113" si="302">+S112/O112-1</f>
+        <f t="shared" ref="S113:W113" si="309">+S112/O112-1</f>
         <v>0.13166085946573758</v>
       </c>
       <c r="T113" s="12">
-        <f t="shared" si="302"/>
+        <f t="shared" si="309"/>
         <v>6.6850447966919413E-2</v>
       </c>
       <c r="U113" s="12">
-        <f t="shared" si="302"/>
+        <f t="shared" si="309"/>
         <v>0.10943026377466225</v>
       </c>
       <c r="V113" s="12">
-        <f t="shared" si="302"/>
+        <f t="shared" si="309"/>
         <v>0.17671439336850048</v>
       </c>
       <c r="W113" s="12">
-        <f t="shared" si="302"/>
+        <f t="shared" si="309"/>
         <v>0.3030502073155712</v>
       </c>
       <c r="X113" s="12">
-        <f t="shared" ref="X113:AD113" si="303">+X112/T112-1</f>
+        <f t="shared" ref="X113:AE113" si="310">+X112/T112-1</f>
         <v>0.42126937984496116</v>
       </c>
       <c r="Y113" s="12">
-        <f t="shared" si="303"/>
+        <f t="shared" si="310"/>
         <v>0.51899366237756861</v>
       </c>
       <c r="Z113" s="12">
-        <f t="shared" si="303"/>
+        <f t="shared" si="310"/>
         <v>0.58241719144697046</v>
       </c>
       <c r="AA113" s="12">
-        <f t="shared" si="303"/>
+        <f t="shared" si="310"/>
         <v>0.55896159541287305</v>
       </c>
       <c r="AB113" s="12">
-        <f t="shared" si="303"/>
+        <f t="shared" si="310"/>
         <v>0.57809215385489465</v>
       </c>
       <c r="AC113" s="12">
-        <f t="shared" si="303"/>
+        <f t="shared" si="310"/>
         <v>0.55119225225680846</v>
       </c>
       <c r="AD113" s="12">
-        <f t="shared" si="303"/>
+        <f t="shared" si="310"/>
         <v>0.45133439755379179</v>
+      </c>
+      <c r="AE113" s="12">
+        <f t="shared" si="310"/>
+        <v>0.39486288220196841</v>
       </c>
       <c r="BT113" s="12">
         <f>+BT112/BS112-1</f>
@@ -19507,95 +19901,95 @@
         <v>2</v>
       </c>
       <c r="AO119" s="4">
-        <f t="shared" ref="AO119:BK119" si="304">AO118*AO48</f>
+        <f t="shared" ref="AO119:BK119" si="311">AO118*AO48</f>
         <v>20734.741379310344</v>
       </c>
       <c r="AP119" s="4">
-        <f t="shared" si="304"/>
+        <f t="shared" si="311"/>
         <v>36544.838709677417</v>
       </c>
       <c r="AQ119" s="4">
-        <f t="shared" si="304"/>
+        <f t="shared" si="311"/>
         <v>49327.24832214765</v>
       </c>
       <c r="AR119" s="4">
-        <f t="shared" si="304"/>
+        <f t="shared" si="311"/>
         <v>114885.89743906935</v>
       </c>
       <c r="AS119" s="4">
-        <f t="shared" si="304"/>
+        <f t="shared" si="311"/>
         <v>184709.73040305718</v>
       </c>
       <c r="AT119" s="4">
-        <f t="shared" si="304"/>
+        <f t="shared" si="311"/>
         <v>372704.58101536665</v>
       </c>
       <c r="AU119" s="4">
-        <f t="shared" si="304"/>
+        <f t="shared" si="311"/>
         <v>298261.112605042</v>
       </c>
       <c r="AV119" s="4">
-        <f t="shared" si="304"/>
+        <f t="shared" si="311"/>
         <v>266298.08220699872</v>
       </c>
       <c r="AW119" s="4">
-        <f t="shared" si="304"/>
+        <f t="shared" si="311"/>
         <v>222567.08981033842</v>
       </c>
       <c r="AX119" s="4">
-        <f t="shared" si="304"/>
+        <f t="shared" si="311"/>
         <v>236906.16184222695</v>
       </c>
       <c r="AY119" s="4">
-        <f t="shared" si="304"/>
+        <f t="shared" si="311"/>
         <v>252642.2008830022</v>
       </c>
       <c r="AZ119" s="4">
-        <f t="shared" si="304"/>
+        <f t="shared" si="311"/>
         <v>260731.99813293503</v>
       </c>
       <c r="BA119" s="4">
-        <f t="shared" si="304"/>
+        <f t="shared" si="311"/>
         <v>247113.52251981141</v>
       </c>
       <c r="BB119" s="4">
-        <f t="shared" si="304"/>
+        <f t="shared" si="311"/>
         <v>265170.46442666667</v>
       </c>
       <c r="BC119" s="4">
-        <f t="shared" si="304"/>
+        <f t="shared" si="311"/>
         <v>298326.78203723987</v>
       </c>
       <c r="BD119" s="4">
-        <f t="shared" si="304"/>
+        <f t="shared" si="311"/>
         <v>151214.58181818182</v>
       </c>
       <c r="BE119" s="4">
-        <f t="shared" si="304"/>
+        <f t="shared" si="311"/>
         <v>242693.07615855773</v>
       </c>
       <c r="BF119" s="4">
-        <f t="shared" si="304"/>
+        <f t="shared" si="311"/>
         <v>213717.28455478634</v>
       </c>
       <c r="BG119" s="4">
-        <f t="shared" si="304"/>
+        <f t="shared" si="311"/>
         <v>198199.0335202195</v>
       </c>
       <c r="BH119" s="4">
-        <f t="shared" si="304"/>
+        <f t="shared" si="311"/>
         <v>206380.61592027853</v>
       </c>
       <c r="BI119" s="4">
-        <f t="shared" si="304"/>
+        <f t="shared" si="311"/>
         <v>290064.69972083991</v>
       </c>
       <c r="BJ119" s="4">
-        <f t="shared" si="304"/>
+        <f t="shared" si="311"/>
         <v>377052.05051894463</v>
       </c>
       <c r="BK119" s="4">
-        <f t="shared" si="304"/>
+        <f t="shared" si="311"/>
         <v>436539.84856262838</v>
       </c>
     </row>
@@ -19604,95 +19998,95 @@
         <v>5</v>
       </c>
       <c r="AO120" s="4">
-        <f t="shared" ref="AO120:BK120" si="305">AO119-AO63</f>
+        <f t="shared" ref="AO120:BK120" si="312">AO119-AO63</f>
         <v>17120.741379310344</v>
       </c>
       <c r="AP120" s="4">
-        <f t="shared" si="305"/>
+        <f t="shared" si="312"/>
         <v>31794.838709677417</v>
       </c>
       <c r="AQ120" s="4">
-        <f t="shared" si="305"/>
+        <f t="shared" si="312"/>
         <v>42387.24832214765</v>
       </c>
       <c r="AR120" s="4">
-        <f t="shared" si="305"/>
+        <f t="shared" si="312"/>
         <v>103573.89743906935</v>
       </c>
       <c r="AS120" s="4">
-        <f t="shared" si="305"/>
+        <f t="shared" si="312"/>
         <v>166079.73040305718</v>
       </c>
       <c r="AT120" s="4">
-        <f t="shared" si="305"/>
+        <f t="shared" si="312"/>
         <v>341096.58101536665</v>
       </c>
       <c r="AU120" s="4">
-        <f t="shared" si="305"/>
+        <f t="shared" si="312"/>
         <v>256737.112605042</v>
       </c>
       <c r="AV120" s="4">
-        <f t="shared" si="305"/>
+        <f t="shared" si="312"/>
         <v>220557.08220699872</v>
       </c>
       <c r="AW120" s="4">
-        <f t="shared" si="305"/>
+        <f t="shared" si="312"/>
         <v>169724.08981033842</v>
       </c>
       <c r="AX120" s="4">
-        <f t="shared" si="305"/>
+        <f t="shared" si="312"/>
         <v>174166.16184222695</v>
       </c>
       <c r="AY120" s="4">
-        <f t="shared" si="305"/>
+        <f t="shared" si="312"/>
         <v>179840.2008830022</v>
       </c>
       <c r="AZ120" s="4">
-        <f t="shared" si="305"/>
+        <f t="shared" si="312"/>
         <v>211976.99813293503</v>
       </c>
       <c r="BA120" s="4">
-        <f t="shared" si="305"/>
+        <f t="shared" si="312"/>
         <v>203720.52251981141</v>
       </c>
       <c r="BB120" s="4">
-        <f t="shared" si="305"/>
+        <f t="shared" si="312"/>
         <v>231642.46442666667</v>
       </c>
       <c r="BC120" s="4">
-        <f t="shared" si="305"/>
+        <f t="shared" si="312"/>
         <v>268076.78203723987</v>
       </c>
       <c r="BD120" s="4">
-        <f t="shared" si="305"/>
+        <f t="shared" si="312"/>
         <v>120580.58181818182</v>
       </c>
       <c r="BE120" s="4">
-        <f t="shared" si="305"/>
+        <f t="shared" si="312"/>
         <v>204090.07615855773</v>
       </c>
       <c r="BF120" s="4">
-        <f t="shared" si="305"/>
+        <f t="shared" si="312"/>
         <v>162001.28455478634</v>
       </c>
       <c r="BG120" s="4">
-        <f t="shared" si="305"/>
+        <f t="shared" si="312"/>
         <v>137327.0335202195</v>
       </c>
       <c r="BH120" s="4">
-        <f t="shared" si="305"/>
+        <f t="shared" si="312"/>
         <v>134114.61592027853</v>
       </c>
       <c r="BI120" s="4">
-        <f t="shared" si="305"/>
+        <f t="shared" si="312"/>
         <v>212403.69972083991</v>
       </c>
       <c r="BJ120" s="4">
-        <f t="shared" si="305"/>
+        <f t="shared" si="312"/>
         <v>377052.05051894463</v>
       </c>
       <c r="BK120" s="4">
-        <f t="shared" si="305"/>
+        <f t="shared" si="312"/>
         <v>436539.84856262838</v>
       </c>
     </row>
@@ -19701,95 +20095,95 @@
         <v>223</v>
       </c>
       <c r="AO121" s="24">
-        <f t="shared" ref="AO121:BK121" si="306">AO120/AO46</f>
+        <f t="shared" ref="AO121:BK121" si="313">AO120/AO46</f>
         <v>13.85173250753264</v>
       </c>
       <c r="AP121" s="24">
-        <f t="shared" si="306"/>
+        <f t="shared" si="313"/>
         <v>21.21069960618907</v>
       </c>
       <c r="AQ121" s="24">
-        <f t="shared" si="306"/>
+        <f t="shared" si="313"/>
         <v>19.310819281160661</v>
       </c>
       <c r="AR121" s="24">
-        <f t="shared" si="306"/>
+        <f t="shared" si="313"/>
         <v>29.986652414322336</v>
       </c>
       <c r="AS121" s="24">
-        <f t="shared" si="306"/>
+        <f t="shared" si="313"/>
         <v>34.905365784585371</v>
       </c>
       <c r="AT121" s="24">
-        <f t="shared" si="306"/>
+        <f t="shared" si="313"/>
         <v>44.733977838080875</v>
       </c>
       <c r="AU121" s="24">
-        <f t="shared" si="306"/>
+        <f t="shared" si="313"/>
         <v>27.710427696172907</v>
       </c>
       <c r="AV121" s="24">
-        <f t="shared" si="306"/>
+        <f t="shared" si="313"/>
         <v>27.989477437436385</v>
       </c>
       <c r="AW121" s="24">
-        <f t="shared" si="306"/>
+        <f t="shared" si="313"/>
         <v>21.427103877078451</v>
       </c>
       <c r="AX121" s="24">
-        <f t="shared" si="306"/>
+        <f t="shared" si="313"/>
         <v>17.311018968514755</v>
       </c>
       <c r="AY121" s="24">
-        <f t="shared" si="306"/>
+        <f t="shared" si="313"/>
         <v>21.950470021115855</v>
       </c>
       <c r="AZ121" s="24">
-        <f t="shared" si="306"/>
+        <f t="shared" si="313"/>
         <v>17.298596224329607</v>
       </c>
       <c r="BA121" s="24">
-        <f t="shared" si="306"/>
+        <f t="shared" si="313"/>
         <v>16.16957873798011</v>
       </c>
       <c r="BB121" s="24">
-        <f t="shared" si="306"/>
+        <f t="shared" si="313"/>
         <v>16.469425128095747</v>
       </c>
       <c r="BC121" s="24">
-        <f t="shared" si="306"/>
+        <f t="shared" si="313"/>
         <v>15.161856345073236</v>
       </c>
       <c r="BD121" s="25">
-        <f t="shared" si="306"/>
+        <f t="shared" si="313"/>
         <v>8.0931996656273455</v>
       </c>
       <c r="BE121" s="25">
-        <f t="shared" si="306"/>
+        <f t="shared" si="313"/>
         <v>10.844894848746359</v>
       </c>
       <c r="BF121" s="25">
-        <f t="shared" si="306"/>
+        <f t="shared" si="313"/>
         <v>6.9978956611138807</v>
       </c>
       <c r="BG121" s="25">
-        <f t="shared" si="306"/>
+        <f t="shared" si="313"/>
         <v>5.9266770325069915</v>
       </c>
       <c r="BH121" s="25">
-        <f t="shared" si="306"/>
+        <f t="shared" si="313"/>
         <v>6.1343189827689946</v>
       </c>
       <c r="BI121" s="25">
-        <f t="shared" si="306"/>
+        <f t="shared" si="313"/>
         <v>9.5673032620530574</v>
       </c>
       <c r="BJ121" s="25">
-        <f t="shared" si="306"/>
+        <f t="shared" si="313"/>
         <v>16.98126691222053</v>
       </c>
       <c r="BK121" s="25">
-        <f t="shared" si="306"/>
+        <f t="shared" si="313"/>
         <v>24.376806374951329</v>
       </c>
     </row>
